--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC202"/>
+  <dimension ref="A1:AC204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2482,7 +2482,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5404353</v>
+        <v>5404355</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2494,76 +2494,76 @@
         <v>44996.47916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23">
+        <v>2.25</v>
+      </c>
+      <c r="L23">
+        <v>3.2</v>
+      </c>
+      <c r="M23">
+        <v>2.8</v>
+      </c>
+      <c r="N23">
+        <v>2.4</v>
+      </c>
+      <c r="O23">
+        <v>3.2</v>
+      </c>
+      <c r="P23">
+        <v>2.625</v>
+      </c>
+      <c r="Q23">
         <v>0</v>
       </c>
-      <c r="J23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23">
+      <c r="R23">
         <v>1.8</v>
       </c>
-      <c r="L23">
-        <v>3.4</v>
-      </c>
-      <c r="M23">
-        <v>3.75</v>
-      </c>
-      <c r="N23">
-        <v>1.727</v>
-      </c>
-      <c r="O23">
-        <v>3.4</v>
-      </c>
-      <c r="P23">
-        <v>4.2</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.75</v>
-      </c>
       <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>1.85</v>
+      </c>
+      <c r="V23">
         <v>1.95</v>
       </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>1.875</v>
-      </c>
-      <c r="V23">
-        <v>1.925</v>
-      </c>
       <c r="W23">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z23">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5404355</v>
+        <v>5404353</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2583,76 +2583,76 @@
         <v>44996.47916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
+        <v>1.8</v>
+      </c>
+      <c r="L24">
+        <v>3.4</v>
+      </c>
+      <c r="M24">
+        <v>3.75</v>
+      </c>
+      <c r="N24">
+        <v>1.727</v>
+      </c>
+      <c r="O24">
+        <v>3.4</v>
+      </c>
+      <c r="P24">
+        <v>4.2</v>
+      </c>
+      <c r="Q24">
+        <v>-0.5</v>
+      </c>
+      <c r="R24">
+        <v>1.75</v>
+      </c>
+      <c r="S24">
+        <v>1.95</v>
+      </c>
+      <c r="T24">
         <v>2.25</v>
       </c>
-      <c r="L24">
-        <v>3.2</v>
-      </c>
-      <c r="M24">
-        <v>2.8</v>
-      </c>
-      <c r="N24">
-        <v>2.4</v>
-      </c>
-      <c r="O24">
-        <v>3.2</v>
-      </c>
-      <c r="P24">
-        <v>2.625</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>1.8</v>
-      </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC24">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5404361</v>
+        <v>5404359</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
         <v>3.25</v>
       </c>
       <c r="M30">
+        <v>3.5</v>
+      </c>
+      <c r="N30">
         <v>1.909</v>
       </c>
-      <c r="N30">
-        <v>3</v>
-      </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z30">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5404359</v>
+        <v>5404361</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,76 +3206,76 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="L31">
         <v>3.25</v>
       </c>
       <c r="M31">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N31">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O31">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P31">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y31">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3283,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6416611</v>
+        <v>5404357</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3295,49 +3295,49 @@
         <v>45004.375</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N32">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
         <v>1.9</v>
@@ -3349,22 +3349,22 @@
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y32">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3372,7 +3372,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5404357</v>
+        <v>6416611</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3384,49 +3384,49 @@
         <v>45004.375</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N33">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O33">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
         <v>1.9</v>
@@ -3438,22 +3438,22 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
+        <v>0.8</v>
+      </c>
+      <c r="AB33">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB33">
-        <v>-0.5</v>
-      </c>
       <c r="AC33">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -7466,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6425828</v>
+        <v>6425827</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7478,28 +7478,28 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>46</v>
       </c>
       <c r="K79">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N79">
         <v>1.571</v>
@@ -7511,22 +7511,22 @@
         <v>5</v>
       </c>
       <c r="Q79">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S79">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>0.571</v>
@@ -7538,16 +7538,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA79">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7555,7 +7555,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6425827</v>
+        <v>6425828</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7567,28 +7567,28 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>46</v>
       </c>
       <c r="K80">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L80">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N80">
         <v>1.571</v>
@@ -7600,22 +7600,22 @@
         <v>5</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R80">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S80">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
         <v>0.571</v>
@@ -7627,16 +7627,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6425847</v>
+        <v>6425845</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,19 +9080,19 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>2.1</v>
@@ -9104,25 +9104,25 @@
         <v>2.875</v>
       </c>
       <c r="N97">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O97">
         <v>3.5</v>
       </c>
       <c r="P97">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
         <v>2</v>
@@ -9131,25 +9131,25 @@
         <v>1.8</v>
       </c>
       <c r="W97">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB97">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9246,7 +9246,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6425845</v>
+        <v>6425847</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9258,19 +9258,19 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K99">
         <v>2.1</v>
@@ -9282,25 +9282,25 @@
         <v>2.875</v>
       </c>
       <c r="N99">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O99">
         <v>3.5</v>
       </c>
       <c r="P99">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
         <v>2</v>
@@ -9309,25 +9309,25 @@
         <v>1.8</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC99">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9958,7 +9958,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6834738</v>
+        <v>6834734</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9970,76 +9970,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K107">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L107">
         <v>3.2</v>
       </c>
       <c r="M107">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="N107">
+        <v>2.2</v>
+      </c>
+      <c r="O107">
         <v>3.2</v>
       </c>
-      <c r="O107">
-        <v>3.3</v>
-      </c>
       <c r="P107">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S107">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y107">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB107">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10047,7 +10047,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6834734</v>
+        <v>6834735</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10059,10 +10059,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10074,61 +10074,61 @@
         <v>44</v>
       </c>
       <c r="K108">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N108">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P108">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
         <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10136,7 +10136,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6834735</v>
+        <v>6834738</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10148,76 +10148,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K109">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L109">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M109">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N109">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O109">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V109">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC109">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -11204,7 +11204,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6834746</v>
+        <v>6834748</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11216,76 +11216,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N121">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O121">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P121">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
+        <v>1.975</v>
+      </c>
+      <c r="S121">
         <v>1.825</v>
       </c>
-      <c r="S121">
-        <v>1.975</v>
-      </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X121">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA121">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11293,7 +11293,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6834748</v>
+        <v>6834746</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11305,76 +11305,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K122">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M122">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N122">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O122">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P122">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q122">
+        <v>-0.25</v>
+      </c>
+      <c r="R122">
+        <v>1.825</v>
+      </c>
+      <c r="S122">
+        <v>1.975</v>
+      </c>
+      <c r="T122">
+        <v>2.25</v>
+      </c>
+      <c r="U122">
+        <v>1.925</v>
+      </c>
+      <c r="V122">
+        <v>1.875</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
+        <v>2.1</v>
+      </c>
+      <c r="Y122">
+        <v>-1</v>
+      </c>
+      <c r="Z122">
         <v>-0.5</v>
       </c>
-      <c r="R122">
-        <v>1.975</v>
-      </c>
-      <c r="S122">
-        <v>1.825</v>
-      </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
-      <c r="U122">
-        <v>1.9</v>
-      </c>
-      <c r="V122">
-        <v>1.9</v>
-      </c>
-      <c r="W122">
-        <v>0.909</v>
-      </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
-      <c r="Y122">
-        <v>-1</v>
-      </c>
-      <c r="Z122">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -16811,7 +16811,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7481395</v>
+        <v>6834809</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16823,76 +16823,76 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K184">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L184">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M184">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N184">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="O184">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P184">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q184">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S184">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T184">
         <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA184">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC184">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16900,7 +16900,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6834809</v>
+        <v>7481395</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16912,76 +16912,76 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K185">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L185">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M185">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N185">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="O185">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P185">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R185">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S185">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T185">
         <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W185">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z185">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB185">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -18495,6 +18495,154 @@
       </c>
       <c r="AC202">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>6834826</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45339.4375</v>
+      </c>
+      <c r="F203" t="s">
+        <v>39</v>
+      </c>
+      <c r="G203" t="s">
+        <v>35</v>
+      </c>
+      <c r="K203">
+        <v>2.15</v>
+      </c>
+      <c r="L203">
+        <v>3</v>
+      </c>
+      <c r="M203">
+        <v>3.1</v>
+      </c>
+      <c r="N203">
+        <v>2.25</v>
+      </c>
+      <c r="O203">
+        <v>3</v>
+      </c>
+      <c r="P203">
+        <v>2.875</v>
+      </c>
+      <c r="Q203">
+        <v>-0.25</v>
+      </c>
+      <c r="R203">
+        <v>2.025</v>
+      </c>
+      <c r="S203">
+        <v>1.775</v>
+      </c>
+      <c r="T203">
+        <v>2.25</v>
+      </c>
+      <c r="U203">
+        <v>2</v>
+      </c>
+      <c r="V203">
+        <v>1.8</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>6835156</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45339.47916666666</v>
+      </c>
+      <c r="F204" t="s">
+        <v>41</v>
+      </c>
+      <c r="G204" t="s">
+        <v>42</v>
+      </c>
+      <c r="K204">
+        <v>1.727</v>
+      </c>
+      <c r="L204">
+        <v>3.4</v>
+      </c>
+      <c r="M204">
+        <v>4.2</v>
+      </c>
+      <c r="N204">
+        <v>1.5</v>
+      </c>
+      <c r="O204">
+        <v>3.6</v>
+      </c>
+      <c r="P204">
+        <v>6</v>
+      </c>
+      <c r="Q204">
+        <v>-1</v>
+      </c>
+      <c r="R204">
+        <v>2</v>
+      </c>
+      <c r="S204">
+        <v>1.8</v>
+      </c>
+      <c r="T204">
+        <v>2.25</v>
+      </c>
+      <c r="U204">
+        <v>1.8</v>
+      </c>
+      <c r="V204">
+        <v>2</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC204"/>
+  <dimension ref="A1:AC203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2482,7 +2482,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5404355</v>
+        <v>5404353</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2494,76 +2494,76 @@
         <v>44996.47916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>2</v>
-      </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
+        <v>1.8</v>
+      </c>
+      <c r="L23">
+        <v>3.4</v>
+      </c>
+      <c r="M23">
+        <v>3.75</v>
+      </c>
+      <c r="N23">
+        <v>1.727</v>
+      </c>
+      <c r="O23">
+        <v>3.4</v>
+      </c>
+      <c r="P23">
+        <v>4.2</v>
+      </c>
+      <c r="Q23">
+        <v>-0.5</v>
+      </c>
+      <c r="R23">
+        <v>1.75</v>
+      </c>
+      <c r="S23">
+        <v>1.95</v>
+      </c>
+      <c r="T23">
         <v>2.25</v>
       </c>
-      <c r="L23">
-        <v>3.2</v>
-      </c>
-      <c r="M23">
-        <v>2.8</v>
-      </c>
-      <c r="N23">
-        <v>2.4</v>
-      </c>
-      <c r="O23">
-        <v>3.2</v>
-      </c>
-      <c r="P23">
-        <v>2.625</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>1.8</v>
-      </c>
-      <c r="S23">
-        <v>2</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5404353</v>
+        <v>5404355</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2583,76 +2583,76 @@
         <v>44996.47916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>2.25</v>
+      </c>
+      <c r="L24">
+        <v>3.2</v>
+      </c>
+      <c r="M24">
+        <v>2.8</v>
+      </c>
+      <c r="N24">
+        <v>2.4</v>
+      </c>
+      <c r="O24">
+        <v>3.2</v>
+      </c>
+      <c r="P24">
+        <v>2.625</v>
+      </c>
+      <c r="Q24">
         <v>0</v>
       </c>
-      <c r="J24" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24">
+      <c r="R24">
         <v>1.8</v>
       </c>
-      <c r="L24">
-        <v>3.4</v>
-      </c>
-      <c r="M24">
-        <v>3.75</v>
-      </c>
-      <c r="N24">
-        <v>1.727</v>
-      </c>
-      <c r="O24">
-        <v>3.4</v>
-      </c>
-      <c r="P24">
-        <v>4.2</v>
-      </c>
-      <c r="Q24">
-        <v>-0.5</v>
-      </c>
-      <c r="R24">
-        <v>1.75</v>
-      </c>
       <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>1.85</v>
+      </c>
+      <c r="V24">
         <v>1.95</v>
       </c>
-      <c r="T24">
-        <v>2.25</v>
-      </c>
-      <c r="U24">
-        <v>1.875</v>
-      </c>
-      <c r="V24">
-        <v>1.925</v>
-      </c>
       <c r="W24">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z24">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5404359</v>
+        <v>5404361</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="L30">
         <v>3.25</v>
       </c>
       <c r="M30">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N30">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O30">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P30">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y30">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5404361</v>
+        <v>5404359</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,76 +3206,76 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
         <v>3.25</v>
       </c>
       <c r="M31">
+        <v>3.5</v>
+      </c>
+      <c r="N31">
         <v>1.909</v>
       </c>
-      <c r="N31">
-        <v>3</v>
-      </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P31">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S31">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z31">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3283,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5404357</v>
+        <v>6416611</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3295,49 +3295,49 @@
         <v>45004.375</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N32">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O32">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
         <v>1.9</v>
@@ -3349,22 +3349,22 @@
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.8</v>
+      </c>
+      <c r="AB32">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB32">
-        <v>-0.5</v>
-      </c>
       <c r="AC32">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3372,7 +3372,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6416611</v>
+        <v>5404357</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3384,49 +3384,49 @@
         <v>45004.375</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M33">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N33">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P33">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
         <v>1.9</v>
@@ -3438,22 +3438,22 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y33">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -4796,7 +4796,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6425800</v>
+        <v>6425853</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4808,49 +4808,49 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>4</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
         <v>46</v>
       </c>
       <c r="K49">
+        <v>1.4</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>6.5</v>
+      </c>
+      <c r="N49">
+        <v>1.4</v>
+      </c>
+      <c r="O49">
+        <v>4</v>
+      </c>
+      <c r="P49">
+        <v>6.5</v>
+      </c>
+      <c r="Q49">
+        <v>-1.25</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
         <v>1.8</v>
       </c>
-      <c r="L49">
-        <v>3.4</v>
-      </c>
-      <c r="M49">
-        <v>3.75</v>
-      </c>
-      <c r="N49">
-        <v>1.909</v>
-      </c>
-      <c r="O49">
-        <v>3.3</v>
-      </c>
-      <c r="P49">
-        <v>3.4</v>
-      </c>
-      <c r="Q49">
-        <v>-0.5</v>
-      </c>
-      <c r="R49">
-        <v>1.975</v>
-      </c>
-      <c r="S49">
-        <v>1.825</v>
-      </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
         <v>1.925</v>
@@ -4859,7 +4859,7 @@
         <v>1.875</v>
       </c>
       <c r="W49">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4868,7 +4868,7 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA49">
         <v>-1</v>
@@ -4885,7 +4885,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6425853</v>
+        <v>6425800</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4897,49 +4897,49 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>4</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N50">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P50">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q50">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
         <v>1.925</v>
@@ -4948,7 +4948,7 @@
         <v>1.875</v>
       </c>
       <c r="W50">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4957,7 +4957,7 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA50">
         <v>-1</v>
@@ -7466,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6425827</v>
+        <v>6425828</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7478,28 +7478,28 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>46</v>
       </c>
       <c r="K79">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N79">
         <v>1.571</v>
@@ -7511,22 +7511,22 @@
         <v>5</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R79">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S79">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W79">
         <v>0.571</v>
@@ -7538,16 +7538,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7555,7 +7555,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6425828</v>
+        <v>6425827</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7567,28 +7567,28 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>46</v>
       </c>
       <c r="K80">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N80">
         <v>1.571</v>
@@ -7600,22 +7600,22 @@
         <v>5</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S80">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
         <v>0.571</v>
@@ -7627,16 +7627,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA80">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6425845</v>
+        <v>6425847</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,19 +9080,19 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
         <v>0</v>
       </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K97">
         <v>2.1</v>
@@ -9104,25 +9104,25 @@
         <v>2.875</v>
       </c>
       <c r="N97">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
         <v>3.5</v>
       </c>
       <c r="P97">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
         <v>2</v>
@@ -9131,25 +9131,25 @@
         <v>1.8</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC97">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9246,7 +9246,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6425847</v>
+        <v>6425845</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9258,19 +9258,19 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K99">
         <v>2.1</v>
@@ -9282,25 +9282,25 @@
         <v>2.875</v>
       </c>
       <c r="N99">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O99">
         <v>3.5</v>
       </c>
       <c r="P99">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
         <v>2</v>
@@ -9309,25 +9309,25 @@
         <v>1.8</v>
       </c>
       <c r="W99">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6834732</v>
+        <v>7045999</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,76 +9436,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K101">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M101">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N101">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O101">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P101">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
+        <v>1.775</v>
+      </c>
+      <c r="S101">
         <v>2.025</v>
       </c>
-      <c r="S101">
+      <c r="T101">
+        <v>2</v>
+      </c>
+      <c r="U101">
         <v>1.775</v>
       </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
-      <c r="U101">
-        <v>1.825</v>
-      </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7045999</v>
+        <v>6834733</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,76 +9525,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
         <v>0</v>
       </c>
-      <c r="I102">
+      <c r="J102" t="s">
+        <v>46</v>
+      </c>
+      <c r="K102">
+        <v>1.65</v>
+      </c>
+      <c r="L102">
+        <v>3.5</v>
+      </c>
+      <c r="M102">
+        <v>4.5</v>
+      </c>
+      <c r="N102">
+        <v>1.909</v>
+      </c>
+      <c r="O102">
+        <v>3.3</v>
+      </c>
+      <c r="P102">
+        <v>3.3</v>
+      </c>
+      <c r="Q102">
+        <v>-0.5</v>
+      </c>
+      <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
+        <v>1.8</v>
+      </c>
+      <c r="T102">
+        <v>2.25</v>
+      </c>
+      <c r="U102">
+        <v>1.95</v>
+      </c>
+      <c r="V102">
+        <v>1.85</v>
+      </c>
+      <c r="W102">
+        <v>0.909</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
+        <v>-1</v>
+      </c>
+      <c r="Z102">
         <v>1</v>
       </c>
-      <c r="J102" t="s">
-        <v>45</v>
-      </c>
-      <c r="K102">
-        <v>2.4</v>
-      </c>
-      <c r="L102">
-        <v>3.25</v>
-      </c>
-      <c r="M102">
-        <v>2.6</v>
-      </c>
-      <c r="N102">
-        <v>2.4</v>
-      </c>
-      <c r="O102">
-        <v>3.25</v>
-      </c>
-      <c r="P102">
-        <v>2.6</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>1.775</v>
-      </c>
-      <c r="S102">
-        <v>2.025</v>
-      </c>
-      <c r="T102">
-        <v>2</v>
-      </c>
-      <c r="U102">
-        <v>1.775</v>
-      </c>
-      <c r="V102">
-        <v>2.025</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
-      <c r="Y102">
-        <v>1.6</v>
-      </c>
-      <c r="Z102">
-        <v>-1</v>
-      </c>
       <c r="AA102">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9602,7 +9602,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6834733</v>
+        <v>6834732</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9614,76 +9614,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K103">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N103">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T103">
         <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W103">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -11204,7 +11204,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6834748</v>
+        <v>6834746</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11216,76 +11216,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L121">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N121">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O121">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P121">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q121">
+        <v>-0.25</v>
+      </c>
+      <c r="R121">
+        <v>1.825</v>
+      </c>
+      <c r="S121">
+        <v>1.975</v>
+      </c>
+      <c r="T121">
+        <v>2.25</v>
+      </c>
+      <c r="U121">
+        <v>1.925</v>
+      </c>
+      <c r="V121">
+        <v>1.875</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>2.1</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
         <v>-0.5</v>
       </c>
-      <c r="R121">
-        <v>1.975</v>
-      </c>
-      <c r="S121">
-        <v>1.825</v>
-      </c>
-      <c r="T121">
-        <v>2.5</v>
-      </c>
-      <c r="U121">
-        <v>1.9</v>
-      </c>
-      <c r="V121">
-        <v>1.9</v>
-      </c>
-      <c r="W121">
-        <v>0.909</v>
-      </c>
-      <c r="X121">
-        <v>-1</v>
-      </c>
-      <c r="Y121">
-        <v>-1</v>
-      </c>
-      <c r="Z121">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11293,7 +11293,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6834746</v>
+        <v>6834748</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11305,76 +11305,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L122">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M122">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N122">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O122">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P122">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
+        <v>1.975</v>
+      </c>
+      <c r="S122">
         <v>1.825</v>
       </c>
-      <c r="S122">
-        <v>1.975</v>
-      </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA122">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -16811,7 +16811,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6834809</v>
+        <v>7481395</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16823,76 +16823,76 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F184" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K184">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L184">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M184">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N184">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="O184">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P184">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q184">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R184">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S184">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T184">
         <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z184">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16900,7 +16900,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7481395</v>
+        <v>6834809</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16912,76 +16912,76 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G185" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K185">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L185">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M185">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N185">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="O185">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P185">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q185">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
         <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA185">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC185">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17612,7 +17612,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6834818</v>
+        <v>6834814</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17624,55 +17624,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H193">
         <v>0</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
         <v>45</v>
       </c>
       <c r="K193">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L193">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M193">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N193">
+        <v>4.333</v>
+      </c>
+      <c r="O193">
+        <v>3.2</v>
+      </c>
+      <c r="P193">
+        <v>1.75</v>
+      </c>
+      <c r="Q193">
+        <v>0.5</v>
+      </c>
+      <c r="R193">
+        <v>2</v>
+      </c>
+      <c r="S193">
         <v>1.8</v>
       </c>
-      <c r="O193">
-        <v>3.5</v>
-      </c>
-      <c r="P193">
-        <v>3.6</v>
-      </c>
-      <c r="Q193">
-        <v>-0.5</v>
-      </c>
-      <c r="R193">
-        <v>1.85</v>
-      </c>
-      <c r="S193">
-        <v>1.95</v>
-      </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W193">
         <v>-1</v>
@@ -17681,19 +17681,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>2.6</v>
+        <v>0.75</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17701,7 +17701,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6834814</v>
+        <v>6834818</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17713,55 +17713,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H194">
         <v>0</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
         <v>45</v>
       </c>
       <c r="K194">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L194">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M194">
+        <v>3</v>
+      </c>
+      <c r="N194">
         <v>1.8</v>
       </c>
-      <c r="N194">
-        <v>4.333</v>
-      </c>
       <c r="O194">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P194">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q194">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R194">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S194">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T194">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V194">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
         <v>-1</v>
@@ -17770,19 +17770,19 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0.75</v>
+        <v>2.6</v>
       </c>
       <c r="Z194">
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -18502,7 +18502,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6834826</v>
+        <v>6834829</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18511,49 +18511,49 @@
         <v>28</v>
       </c>
       <c r="E203" s="2">
-        <v>45339.4375</v>
+        <v>45340.36805555555</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K203">
-        <v>2.15</v>
+        <v>1.571</v>
       </c>
       <c r="L203">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M203">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N203">
-        <v>2.25</v>
+        <v>1.571</v>
       </c>
       <c r="O203">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P203">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="Q203">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R203">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S203">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -18568,80 +18568,6 @@
         <v>0</v>
       </c>
       <c r="AA203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:29">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204">
-        <v>6835156</v>
-      </c>
-      <c r="C204" t="s">
-        <v>28</v>
-      </c>
-      <c r="D204" t="s">
-        <v>28</v>
-      </c>
-      <c r="E204" s="2">
-        <v>45339.47916666666</v>
-      </c>
-      <c r="F204" t="s">
-        <v>41</v>
-      </c>
-      <c r="G204" t="s">
-        <v>42</v>
-      </c>
-      <c r="K204">
-        <v>1.727</v>
-      </c>
-      <c r="L204">
-        <v>3.4</v>
-      </c>
-      <c r="M204">
-        <v>4.2</v>
-      </c>
-      <c r="N204">
-        <v>1.5</v>
-      </c>
-      <c r="O204">
-        <v>3.6</v>
-      </c>
-      <c r="P204">
-        <v>6</v>
-      </c>
-      <c r="Q204">
-        <v>-1</v>
-      </c>
-      <c r="R204">
-        <v>2</v>
-      </c>
-      <c r="S204">
-        <v>1.8</v>
-      </c>
-      <c r="T204">
-        <v>2.25</v>
-      </c>
-      <c r="U204">
-        <v>1.8</v>
-      </c>
-      <c r="V204">
-        <v>2</v>
-      </c>
-      <c r="W204">
-        <v>0</v>
-      </c>
-      <c r="X204">
-        <v>0</v>
-      </c>
-      <c r="Y204">
-        <v>0</v>
-      </c>
-      <c r="Z204">
-        <v>0</v>
-      </c>
-      <c r="AA204">
         <v>0</v>
       </c>
     </row>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -115,10 +115,10 @@
     <t>NK Solin</t>
   </si>
   <si>
-    <t>NK Rudes</t>
+    <t>Vukovar 91</t>
   </si>
   <si>
-    <t>Vukovar 91</t>
+    <t>NK Rudes</t>
   </si>
   <si>
     <t>Orijent</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC203"/>
+  <dimension ref="A1:AC207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,7 +717,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5404338</v>
+        <v>5404337</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -984,7 +984,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -996,34 +996,34 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
+        <v>3.25</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>1.45</v>
+      </c>
+      <c r="O6">
+        <v>3.6</v>
+      </c>
+      <c r="P6">
         <v>6.5</v>
       </c>
-      <c r="M6">
-        <v>15</v>
-      </c>
-      <c r="N6">
-        <v>1.222</v>
-      </c>
-      <c r="O6">
-        <v>5.5</v>
-      </c>
-      <c r="P6">
-        <v>11</v>
-      </c>
       <c r="Q6">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
         <v>1.85</v>
@@ -1032,7 +1032,7 @@
         <v>1.95</v>
       </c>
       <c r="W6">
-        <v>0.222</v>
+        <v>0.45</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1041,16 +1041,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5404337</v>
+        <v>5404338</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1073,7 +1073,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1085,34 +1085,34 @@
         <v>46</v>
       </c>
       <c r="K7">
-        <v>1.8</v>
+        <v>1.142</v>
       </c>
       <c r="L7">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N7">
-        <v>1.45</v>
+        <v>1.222</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P7">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R7">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S7">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
         <v>1.85</v>
@@ -1121,7 +1121,7 @@
         <v>1.95</v>
       </c>
       <c r="W7">
-        <v>0.45</v>
+        <v>0.222</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1130,16 +1130,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>44982.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5404343</v>
+        <v>5404342</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,76 +1515,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
+        <v>3.3</v>
+      </c>
+      <c r="M12">
+        <v>3.5</v>
+      </c>
+      <c r="N12">
+        <v>1.833</v>
+      </c>
+      <c r="O12">
         <v>3.4</v>
-      </c>
-      <c r="M12">
-        <v>3.75</v>
-      </c>
-      <c r="N12">
-        <v>1.727</v>
-      </c>
-      <c r="O12">
-        <v>3.75</v>
       </c>
       <c r="P12">
         <v>4</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5404342</v>
+        <v>5404343</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1604,76 +1604,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N13">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P13">
         <v>4</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T13">
         <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X13">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1859,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5404350</v>
+        <v>5404346</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1871,46 +1871,46 @@
         <v>44989.47916666666</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="N16">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O16">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
+        <v>1.975</v>
+      </c>
+      <c r="S16">
         <v>1.825</v>
-      </c>
-      <c r="S16">
-        <v>1.975</v>
       </c>
       <c r="T16">
         <v>2.25</v>
@@ -1922,25 +1922,25 @@
         <v>1.975</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5404346</v>
+        <v>5404349</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,76 +1960,76 @@
         <v>44989.47916666666</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17">
+        <v>2.15</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>3.2</v>
+      </c>
+      <c r="N17">
+        <v>2.2</v>
+      </c>
+      <c r="O17">
+        <v>2.875</v>
+      </c>
+      <c r="P17">
+        <v>3.4</v>
+      </c>
+      <c r="Q17">
+        <v>-0.25</v>
+      </c>
+      <c r="R17">
+        <v>1.925</v>
+      </c>
+      <c r="S17">
+        <v>1.875</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>1.85</v>
+      </c>
+      <c r="V17">
+        <v>1.95</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
+        <v>1.875</v>
+      </c>
+      <c r="Y17">
+        <v>-1</v>
+      </c>
+      <c r="Z17">
+        <v>-0.5</v>
+      </c>
+      <c r="AA17">
+        <v>0.4375</v>
+      </c>
+      <c r="AB17">
         <v>0</v>
       </c>
-      <c r="J17" t="s">
-        <v>46</v>
-      </c>
-      <c r="K17">
-        <v>1.45</v>
-      </c>
-      <c r="L17">
-        <v>4</v>
-      </c>
-      <c r="M17">
-        <v>5.75</v>
-      </c>
-      <c r="N17">
-        <v>1.7</v>
-      </c>
-      <c r="O17">
-        <v>3.6</v>
-      </c>
-      <c r="P17">
-        <v>4.2</v>
-      </c>
-      <c r="Q17">
-        <v>-0.75</v>
-      </c>
-      <c r="R17">
-        <v>1.975</v>
-      </c>
-      <c r="S17">
-        <v>1.825</v>
-      </c>
-      <c r="T17">
-        <v>2.25</v>
-      </c>
-      <c r="U17">
-        <v>1.825</v>
-      </c>
-      <c r="V17">
-        <v>1.975</v>
-      </c>
-      <c r="W17">
-        <v>0.7</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
-      <c r="Z17">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
-      <c r="AB17">
-        <v>-0.5</v>
-      </c>
       <c r="AC17">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2037,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5404349</v>
+        <v>5404350</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2049,34 +2049,34 @@
         <v>44989.47916666666</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L18">
         <v>3</v>
       </c>
       <c r="M18">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N18">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O18">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P18">
         <v>3.4</v>
@@ -2085,40 +2085,40 @@
         <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S18">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2138,10 +2138,10 @@
         <v>44990.375</v>
       </c>
       <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
         <v>34</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2494,7 +2494,7 @@
         <v>44996.47916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
         <v>32</v>
@@ -2672,7 +2672,7 @@
         <v>44997.375</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>35</v>
@@ -3031,7 +3031,7 @@
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5404361</v>
+        <v>5404359</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
         <v>3.25</v>
       </c>
       <c r="M30">
+        <v>3.5</v>
+      </c>
+      <c r="N30">
         <v>1.909</v>
       </c>
-      <c r="N30">
-        <v>3</v>
-      </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z30">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5404359</v>
+        <v>5404361</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,76 +3206,76 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="L31">
         <v>3.25</v>
       </c>
       <c r="M31">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N31">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O31">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P31">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y31">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3562,7 +3562,7 @@
         <v>45010.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
@@ -3740,7 +3740,7 @@
         <v>45011.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
         <v>35</v>
@@ -3817,7 +3817,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6424833</v>
+        <v>6425793</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3829,55 +3829,55 @@
         <v>45011.47916666666</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
         <v>45</v>
       </c>
       <c r="K38">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L38">
         <v>3.4</v>
       </c>
       <c r="M38">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N38">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O38">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q38">
         <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3886,19 +3886,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3906,7 +3906,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6425793</v>
+        <v>6424833</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3918,55 +3918,55 @@
         <v>45011.47916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>1</v>
-      </c>
-      <c r="I39">
-        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>45</v>
       </c>
       <c r="K39">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
         <v>3.4</v>
       </c>
       <c r="M39">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q39">
         <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3975,19 +3975,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4366,7 +4366,7 @@
         <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4455,7 +4455,7 @@
         <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>45023.375</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4808,7 +4808,7 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
@@ -4885,7 +4885,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6425800</v>
+        <v>6425801</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4897,13 +4897,13 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4912,43 +4912,43 @@
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L50">
         <v>3.4</v>
       </c>
       <c r="M50">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P50">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
         <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>0.909</v>
+        <v>1.05</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4957,13 +4957,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
-      <c r="AB50">
-        <v>0.925</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6425801</v>
+        <v>6425800</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4986,13 +4986,13 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5001,43 +5001,43 @@
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L51">
         <v>3.4</v>
       </c>
       <c r="M51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N51">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O51">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P51">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W51">
-        <v>1.05</v>
+        <v>0.909</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5046,13 +5046,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5078,7 +5078,7 @@
         <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5256,7 +5256,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5609,7 +5609,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
         <v>39</v>
@@ -5686,7 +5686,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6425808</v>
+        <v>6425809</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5698,76 +5698,76 @@
         <v>45038.5</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L59">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N59">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O59">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P59">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S59">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T59">
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X59">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5775,7 +5775,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6425809</v>
+        <v>6425808</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5787,76 +5787,76 @@
         <v>45038.5</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K60">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L60">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N60">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O60">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P60">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T60">
         <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5876,7 +5876,7 @@
         <v>45038.5</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
         <v>37</v>
@@ -6146,7 +6146,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6398,7 +6398,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6425816</v>
+        <v>6425818</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6410,55 +6410,55 @@
         <v>45045.5</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>1</v>
-      </c>
-      <c r="I67">
-        <v>2</v>
       </c>
       <c r="J67" t="s">
         <v>45</v>
       </c>
       <c r="K67">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M67">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N67">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P67">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6467,19 +6467,19 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6487,7 +6487,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6425818</v>
+        <v>6425816</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6499,76 +6499,76 @@
         <v>45045.5</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
         <v>45</v>
       </c>
       <c r="K68">
+        <v>1.8</v>
+      </c>
+      <c r="L68">
+        <v>3.4</v>
+      </c>
+      <c r="M68">
+        <v>3.75</v>
+      </c>
+      <c r="N68">
+        <v>1.833</v>
+      </c>
+      <c r="O68">
+        <v>3.5</v>
+      </c>
+      <c r="P68">
+        <v>3.8</v>
+      </c>
+      <c r="Q68">
+        <v>-0.5</v>
+      </c>
+      <c r="R68">
+        <v>1.85</v>
+      </c>
+      <c r="S68">
+        <v>1.95</v>
+      </c>
+      <c r="T68">
+        <v>2.5</v>
+      </c>
+      <c r="U68">
+        <v>1.9</v>
+      </c>
+      <c r="V68">
+        <v>1.9</v>
+      </c>
+      <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
+        <v>-1</v>
+      </c>
+      <c r="Y68">
         <v>2.8</v>
       </c>
-      <c r="L68">
-        <v>3.1</v>
-      </c>
-      <c r="M68">
-        <v>2.3</v>
-      </c>
-      <c r="N68">
-        <v>2.55</v>
-      </c>
-      <c r="O68">
-        <v>3.1</v>
-      </c>
-      <c r="P68">
-        <v>2.5</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>1.875</v>
-      </c>
-      <c r="S68">
-        <v>1.925</v>
-      </c>
-      <c r="T68">
-        <v>2</v>
-      </c>
-      <c r="U68">
-        <v>1.75</v>
-      </c>
-      <c r="V68">
-        <v>2.05</v>
-      </c>
-      <c r="W68">
-        <v>-1</v>
-      </c>
-      <c r="X68">
-        <v>-1</v>
-      </c>
-      <c r="Y68">
-        <v>1.5</v>
-      </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC68">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6944,7 +6944,7 @@
         <v>45052.5</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
         <v>29</v>
@@ -7033,7 +7033,7 @@
         <v>45052.5</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
         <v>36</v>
@@ -7392,7 +7392,7 @@
         <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7466,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6425828</v>
+        <v>6425827</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7478,28 +7478,28 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>46</v>
       </c>
       <c r="K79">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N79">
         <v>1.571</v>
@@ -7511,22 +7511,22 @@
         <v>5</v>
       </c>
       <c r="Q79">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S79">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>0.571</v>
@@ -7538,16 +7538,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA79">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7555,7 +7555,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6425827</v>
+        <v>6425828</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7567,28 +7567,28 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>46</v>
       </c>
       <c r="K80">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L80">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N80">
         <v>1.571</v>
@@ -7600,22 +7600,22 @@
         <v>5</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R80">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S80">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
         <v>0.571</v>
@@ -7627,16 +7627,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7659,7 +7659,7 @@
         <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6425836</v>
+        <v>6425833</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,73 +7837,73 @@
         <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="L83">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M83">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N83">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="O83">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P83">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R83">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
+        <v>1.85</v>
+      </c>
+      <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
         <v>1.95</v>
       </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>2.025</v>
-      </c>
       <c r="V83">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB83">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC83">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6425833</v>
+        <v>6425836</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,73 +7926,73 @@
         <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K84">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="L84">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M84">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N84">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="O84">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P84">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="Q84">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
+        <v>1.75</v>
+      </c>
+      <c r="S84">
         <v>1.95</v>
       </c>
-      <c r="S84">
-        <v>1.85</v>
-      </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y84">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC84">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8445,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6425843</v>
+        <v>6425840</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8457,13 +8457,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -8472,43 +8472,43 @@
         <v>46</v>
       </c>
       <c r="K90">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N90">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="O90">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V90">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8517,7 +8517,7 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8526,7 +8526,7 @@
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6425840</v>
+        <v>6425843</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,13 +8546,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -8561,43 +8561,43 @@
         <v>46</v>
       </c>
       <c r="K91">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N91">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O91">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P91">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S91">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W91">
-        <v>0.833</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8606,7 +8606,7 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8615,7 +8615,7 @@
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8902,10 +8902,10 @@
         <v>45079.52083333334</v>
       </c>
       <c r="F95" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95" t="s">
         <v>33</v>
-      </c>
-      <c r="G95" t="s">
-        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6425847</v>
+        <v>6425846</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,40 +9080,40 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K97">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L97">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M97">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N97">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P97">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R97">
         <v>1.95</v>
@@ -9122,34 +9122,34 @@
         <v>1.85</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V97">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB97">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9157,7 +9157,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6425846</v>
+        <v>6425847</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9169,40 +9169,40 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K98">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N98">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="O98">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="Q98">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
         <v>1.95</v>
@@ -9211,34 +9211,34 @@
         <v>1.85</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
         <v>1.8</v>
       </c>
-      <c r="V98">
-        <v>2</v>
-      </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X98">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7045999</v>
+        <v>6834732</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,76 +9436,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K101">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L101">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N101">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O101">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P101">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
+        <v>2.025</v>
+      </c>
+      <c r="S101">
         <v>1.775</v>
       </c>
-      <c r="S101">
-        <v>2.025</v>
-      </c>
       <c r="T101">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V101">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y101">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6834733</v>
+        <v>7045999</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,76 +9525,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
         <v>1</v>
       </c>
-      <c r="I102">
+      <c r="J102" t="s">
+        <v>45</v>
+      </c>
+      <c r="K102">
+        <v>2.4</v>
+      </c>
+      <c r="L102">
+        <v>3.25</v>
+      </c>
+      <c r="M102">
+        <v>2.6</v>
+      </c>
+      <c r="N102">
+        <v>2.4</v>
+      </c>
+      <c r="O102">
+        <v>3.25</v>
+      </c>
+      <c r="P102">
+        <v>2.6</v>
+      </c>
+      <c r="Q102">
         <v>0</v>
       </c>
-      <c r="J102" t="s">
-        <v>46</v>
-      </c>
-      <c r="K102">
-        <v>1.65</v>
-      </c>
-      <c r="L102">
-        <v>3.5</v>
-      </c>
-      <c r="M102">
-        <v>4.5</v>
-      </c>
-      <c r="N102">
-        <v>1.909</v>
-      </c>
-      <c r="O102">
-        <v>3.3</v>
-      </c>
-      <c r="P102">
-        <v>3.3</v>
-      </c>
-      <c r="Q102">
-        <v>-0.5</v>
-      </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W102">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9602,7 +9602,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6834732</v>
+        <v>6834729</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9614,16 +9614,16 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>44</v>
@@ -9638,37 +9638,37 @@
         <v>3.1</v>
       </c>
       <c r="N103">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O103">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P103">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T103">
+        <v>2.5</v>
+      </c>
+      <c r="U103">
+        <v>2</v>
+      </c>
+      <c r="V103">
+        <v>1.8</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
         <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.825</v>
-      </c>
-      <c r="V103">
-        <v>1.975</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>2.1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
@@ -9677,13 +9677,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>0.3875</v>
+        <v>0.5</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9691,7 +9691,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6834729</v>
+        <v>6834733</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9703,76 +9703,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N104">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O104">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
         <v>1.8</v>
       </c>
-      <c r="S104">
-        <v>2</v>
-      </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X104">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA104">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9881,7 +9881,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
         <v>43</v>
@@ -9958,7 +9958,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6834734</v>
+        <v>6834738</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9970,76 +9970,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K107">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L107">
         <v>3.2</v>
       </c>
       <c r="M107">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="N107">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O107">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S107">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V107">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC107">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10047,7 +10047,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6834735</v>
+        <v>6834734</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10059,10 +10059,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10074,61 +10074,61 @@
         <v>44</v>
       </c>
       <c r="K108">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N108">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O108">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB108">
         <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10136,7 +10136,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6834738</v>
+        <v>6834735</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10148,76 +10148,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>44</v>
+      </c>
+      <c r="K109">
+        <v>2.4</v>
+      </c>
+      <c r="L109">
         <v>3</v>
       </c>
-      <c r="J109" t="s">
-        <v>45</v>
-      </c>
-      <c r="K109">
+      <c r="M109">
         <v>2.75</v>
       </c>
-      <c r="L109">
-        <v>3.2</v>
-      </c>
-      <c r="M109">
-        <v>2.3</v>
-      </c>
       <c r="N109">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="O109">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P109">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y109">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA109">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6834742</v>
+        <v>6834743</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,76 +10593,76 @@
         <v>45164.5</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" t="s">
+        <v>45</v>
+      </c>
+      <c r="K114">
         <v>3</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114" t="s">
-        <v>46</v>
-      </c>
-      <c r="K114">
-        <v>2</v>
-      </c>
       <c r="L114">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M114">
+        <v>2.1</v>
+      </c>
+      <c r="N114">
+        <v>1.95</v>
+      </c>
+      <c r="O114">
+        <v>3.4</v>
+      </c>
+      <c r="P114">
         <v>3.3</v>
       </c>
-      <c r="N114">
-        <v>2.15</v>
-      </c>
-      <c r="O114">
-        <v>3.1</v>
-      </c>
-      <c r="P114">
-        <v>3.1</v>
-      </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W114">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z114">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB114">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10670,7 +10670,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6834743</v>
+        <v>6834742</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10682,76 +10682,76 @@
         <v>45164.5</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L115">
+        <v>3.25</v>
+      </c>
+      <c r="M115">
         <v>3.3</v>
       </c>
-      <c r="M115">
-        <v>2.1</v>
-      </c>
       <c r="N115">
+        <v>2.15</v>
+      </c>
+      <c r="O115">
+        <v>3.1</v>
+      </c>
+      <c r="P115">
+        <v>3.1</v>
+      </c>
+      <c r="Q115">
+        <v>-0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.9</v>
+      </c>
+      <c r="S115">
+        <v>1.9</v>
+      </c>
+      <c r="T115">
+        <v>2.25</v>
+      </c>
+      <c r="U115">
+        <v>1.75</v>
+      </c>
+      <c r="V115">
         <v>1.95</v>
       </c>
-      <c r="O115">
-        <v>3.4</v>
-      </c>
-      <c r="P115">
-        <v>3.3</v>
-      </c>
-      <c r="Q115">
-        <v>-0.5</v>
-      </c>
-      <c r="R115">
-        <v>2</v>
-      </c>
-      <c r="S115">
-        <v>1.8</v>
-      </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
-      <c r="U115">
-        <v>2</v>
-      </c>
-      <c r="V115">
-        <v>1.8</v>
-      </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -11026,7 +11026,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6834750</v>
+        <v>6834746</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11038,76 +11038,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K119">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L119">
+        <v>3.2</v>
+      </c>
+      <c r="M119">
         <v>3.3</v>
       </c>
-      <c r="M119">
-        <v>3</v>
-      </c>
       <c r="N119">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O119">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P119">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q119">
         <v>-0.25</v>
       </c>
       <c r="R119">
+        <v>1.825</v>
+      </c>
+      <c r="S119">
+        <v>1.975</v>
+      </c>
+      <c r="T119">
+        <v>2.25</v>
+      </c>
+      <c r="U119">
+        <v>1.925</v>
+      </c>
+      <c r="V119">
         <v>1.875</v>
       </c>
-      <c r="S119">
-        <v>1.925</v>
-      </c>
-      <c r="T119">
-        <v>2.5</v>
-      </c>
-      <c r="U119">
-        <v>1.825</v>
-      </c>
-      <c r="V119">
-        <v>1.975</v>
-      </c>
       <c r="W119">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
+        <v>-0.5</v>
+      </c>
+      <c r="AA119">
+        <v>0.4875</v>
+      </c>
+      <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
         <v>0.875</v>
-      </c>
-      <c r="AA119">
-        <v>-1</v>
-      </c>
-      <c r="AB119">
-        <v>0.825</v>
-      </c>
-      <c r="AC119">
-        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11115,7 +11115,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6834749</v>
+        <v>6834748</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11127,34 +11127,34 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>46</v>
       </c>
       <c r="K120">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L120">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
+        <v>3.5</v>
+      </c>
+      <c r="N120">
+        <v>1.909</v>
+      </c>
+      <c r="O120">
         <v>3.25</v>
-      </c>
-      <c r="N120">
-        <v>1.95</v>
-      </c>
-      <c r="O120">
-        <v>3.2</v>
       </c>
       <c r="P120">
         <v>3.5</v>
@@ -11163,22 +11163,22 @@
         <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11187,16 +11187,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11204,7 +11204,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6834746</v>
+        <v>6834750</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11216,76 +11216,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
+        <v>3</v>
+      </c>
+      <c r="N121">
+        <v>2.1</v>
+      </c>
+      <c r="O121">
         <v>3.3</v>
       </c>
-      <c r="N121">
-        <v>2.05</v>
-      </c>
-      <c r="O121">
-        <v>3.1</v>
-      </c>
       <c r="P121">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q121">
         <v>-0.25</v>
       </c>
       <c r="R121">
+        <v>1.875</v>
+      </c>
+      <c r="S121">
+        <v>1.925</v>
+      </c>
+      <c r="T121">
+        <v>2.5</v>
+      </c>
+      <c r="U121">
         <v>1.825</v>
       </c>
-      <c r="S121">
+      <c r="V121">
         <v>1.975</v>
       </c>
-      <c r="T121">
-        <v>2.25</v>
-      </c>
-      <c r="U121">
-        <v>1.925</v>
-      </c>
-      <c r="V121">
-        <v>1.875</v>
-      </c>
       <c r="W121">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X121">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA121">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC121">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11293,7 +11293,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6834748</v>
+        <v>6834749</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11305,34 +11305,34 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
         <v>46</v>
       </c>
       <c r="K122">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L122">
+        <v>3.1</v>
+      </c>
+      <c r="M122">
         <v>3.25</v>
       </c>
-      <c r="M122">
-        <v>3.5</v>
-      </c>
       <c r="N122">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O122">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
         <v>3.5</v>
@@ -11341,22 +11341,22 @@
         <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W122">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11365,16 +11365,16 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC122">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11560,7 +11560,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6834753</v>
+        <v>6834755</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11572,58 +11572,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M125">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="N125">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O125">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P125">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="Q125">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V125">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W125">
-        <v>3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11632,13 +11632,13 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11649,7 +11649,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6834755</v>
+        <v>6834752</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11661,13 +11661,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11676,43 +11676,43 @@
         <v>46</v>
       </c>
       <c r="K126">
+        <v>1.727</v>
+      </c>
+      <c r="L126">
+        <v>3.4</v>
+      </c>
+      <c r="M126">
+        <v>4.2</v>
+      </c>
+      <c r="N126">
+        <v>1.833</v>
+      </c>
+      <c r="O126">
+        <v>3.4</v>
+      </c>
+      <c r="P126">
+        <v>4</v>
+      </c>
+      <c r="Q126">
+        <v>-0.5</v>
+      </c>
+      <c r="R126">
+        <v>1.85</v>
+      </c>
+      <c r="S126">
+        <v>1.95</v>
+      </c>
+      <c r="T126">
         <v>2.25</v>
       </c>
-      <c r="L126">
-        <v>3.25</v>
-      </c>
-      <c r="M126">
-        <v>2.75</v>
-      </c>
-      <c r="N126">
-        <v>1.666</v>
-      </c>
-      <c r="O126">
-        <v>3.5</v>
-      </c>
-      <c r="P126">
-        <v>4.2</v>
-      </c>
-      <c r="Q126">
-        <v>-0.75</v>
-      </c>
-      <c r="R126">
-        <v>2</v>
-      </c>
-      <c r="S126">
+      <c r="U126">
         <v>1.8</v>
       </c>
-      <c r="T126">
-        <v>2.5</v>
-      </c>
-      <c r="U126">
-        <v>2.025</v>
-      </c>
       <c r="V126">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W126">
-        <v>0.6659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11721,16 +11721,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
+        <v>-1</v>
+      </c>
+      <c r="AC126">
         <v>1</v>
-      </c>
-      <c r="AA126">
-        <v>-1</v>
-      </c>
-      <c r="AB126">
-        <v>1.025</v>
-      </c>
-      <c r="AC126">
-        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11738,7 +11738,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6834752</v>
+        <v>6834753</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11750,58 +11750,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J127" t="s">
         <v>46</v>
       </c>
       <c r="K127">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L127">
         <v>3.4</v>
       </c>
       <c r="M127">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127">
+        <v>3.3</v>
+      </c>
+      <c r="P127">
         <v>1.833</v>
       </c>
-      <c r="O127">
-        <v>3.4</v>
-      </c>
-      <c r="P127">
-        <v>4</v>
-      </c>
       <c r="Q127">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R127">
+        <v>1.975</v>
+      </c>
+      <c r="S127">
+        <v>1.825</v>
+      </c>
+      <c r="T127">
+        <v>2.5</v>
+      </c>
+      <c r="U127">
+        <v>1.95</v>
+      </c>
+      <c r="V127">
         <v>1.85</v>
       </c>
-      <c r="S127">
-        <v>1.95</v>
-      </c>
-      <c r="T127">
-        <v>2.25</v>
-      </c>
-      <c r="U127">
-        <v>1.8</v>
-      </c>
-      <c r="V127">
-        <v>2</v>
-      </c>
       <c r="W127">
-        <v>0.833</v>
+        <v>3</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11810,16 +11810,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC127">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12106,7 +12106,7 @@
         <v>45184.47916666666</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
         <v>29</v>
@@ -12272,7 +12272,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6834760</v>
+        <v>6834757</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12284,76 +12284,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K133">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M133">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N133">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O133">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P133">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q133">
+        <v>-0.25</v>
+      </c>
+      <c r="R133">
+        <v>1.925</v>
+      </c>
+      <c r="S133">
+        <v>1.875</v>
+      </c>
+      <c r="T133">
+        <v>2.25</v>
+      </c>
+      <c r="U133">
+        <v>1.875</v>
+      </c>
+      <c r="V133">
+        <v>1.925</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>2</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
         <v>-0.5</v>
       </c>
-      <c r="R133">
-        <v>2</v>
-      </c>
-      <c r="S133">
-        <v>1.8</v>
-      </c>
-      <c r="T133">
-        <v>2.5</v>
-      </c>
-      <c r="U133">
-        <v>1.8</v>
-      </c>
-      <c r="V133">
-        <v>2</v>
-      </c>
-      <c r="W133">
-        <v>-1</v>
-      </c>
-      <c r="X133">
-        <v>-1</v>
-      </c>
-      <c r="Y133">
-        <v>2.5</v>
-      </c>
-      <c r="Z133">
-        <v>-1</v>
-      </c>
       <c r="AA133">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC133">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12361,7 +12361,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6834757</v>
+        <v>6834760</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12373,76 +12373,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K134">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M134">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N134">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O134">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P134">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12717,7 +12717,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6834763</v>
+        <v>6834764</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12729,76 +12729,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K138">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L138">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N138">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O138">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P138">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S138">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W138">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z138">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC138">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12806,7 +12806,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6834764</v>
+        <v>6834763</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12818,76 +12818,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>3.3</v>
+      </c>
+      <c r="M139">
+        <v>3.2</v>
+      </c>
+      <c r="N139">
+        <v>2.15</v>
+      </c>
+      <c r="O139">
+        <v>3.3</v>
+      </c>
+      <c r="P139">
+        <v>3.1</v>
+      </c>
+      <c r="Q139">
+        <v>-0.25</v>
+      </c>
+      <c r="R139">
+        <v>1.85</v>
+      </c>
+      <c r="S139">
         <v>1.95</v>
       </c>
-      <c r="L139">
-        <v>3.2</v>
-      </c>
-      <c r="M139">
-        <v>3.5</v>
-      </c>
-      <c r="N139">
-        <v>1.95</v>
-      </c>
-      <c r="O139">
-        <v>3</v>
-      </c>
-      <c r="P139">
-        <v>3.75</v>
-      </c>
-      <c r="Q139">
-        <v>-0.5</v>
-      </c>
-      <c r="R139">
-        <v>2.025</v>
-      </c>
-      <c r="S139">
-        <v>1.775</v>
-      </c>
       <c r="T139">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U139">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA139">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12910,7 +12910,7 @@
         <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13340,7 +13340,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6834769</v>
+        <v>6834770</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13352,61 +13352,61 @@
         <v>45199.4375</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>44</v>
       </c>
       <c r="K145">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L145">
+        <v>3.4</v>
+      </c>
+      <c r="M145">
         <v>3.6</v>
-      </c>
-      <c r="M145">
-        <v>3.8</v>
       </c>
       <c r="N145">
         <v>1.909</v>
       </c>
       <c r="O145">
+        <v>3.4</v>
+      </c>
+      <c r="P145">
         <v>3.5</v>
-      </c>
-      <c r="P145">
-        <v>3.2</v>
       </c>
       <c r="Q145">
         <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
         <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V145">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y145">
         <v>-1</v>
@@ -13415,13 +13415,13 @@
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13429,7 +13429,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6834770</v>
+        <v>6834769</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13441,61 +13441,61 @@
         <v>45199.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
         <v>44</v>
       </c>
       <c r="K146">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L146">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N146">
         <v>1.909</v>
       </c>
       <c r="O146">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P146">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q146">
         <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S146">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13504,13 +13504,13 @@
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC146">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13711,7 +13711,7 @@
         <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13785,7 +13785,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6834775</v>
+        <v>6834774</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13797,40 +13797,40 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K150">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L150">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M150">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="N150">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O150">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R150">
         <v>1.925</v>
@@ -13842,31 +13842,31 @@
         <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13874,7 +13874,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6834774</v>
+        <v>6834775</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13886,40 +13886,40 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H151">
         <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K151">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M151">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="N151">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O151">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P151">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q151">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R151">
         <v>1.925</v>
@@ -13931,31 +13931,31 @@
         <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y151">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA151">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14230,7 +14230,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6834781</v>
+        <v>6834779</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14242,76 +14242,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H155">
+        <v>4</v>
+      </c>
+      <c r="I155">
         <v>0</v>
       </c>
-      <c r="I155">
-        <v>1</v>
-      </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K155">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L155">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M155">
+        <v>5</v>
+      </c>
+      <c r="N155">
+        <v>1.6</v>
+      </c>
+      <c r="O155">
         <v>4</v>
       </c>
-      <c r="N155">
-        <v>1.75</v>
-      </c>
-      <c r="O155">
-        <v>3.5</v>
-      </c>
       <c r="P155">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q155">
         <v>-0.75</v>
       </c>
       <c r="R155">
+        <v>1.8</v>
+      </c>
+      <c r="S155">
+        <v>2</v>
+      </c>
+      <c r="T155">
+        <v>2.5</v>
+      </c>
+      <c r="U155">
         <v>1.95</v>
       </c>
-      <c r="S155">
+      <c r="V155">
         <v>1.75</v>
       </c>
-      <c r="T155">
-        <v>2.25</v>
-      </c>
-      <c r="U155">
-        <v>2</v>
-      </c>
-      <c r="V155">
-        <v>1.8</v>
-      </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA155">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC155">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14319,7 +14319,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6834779</v>
+        <v>6834781</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14331,76 +14331,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G156" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156" t="s">
+        <v>45</v>
+      </c>
+      <c r="K156">
+        <v>1.666</v>
+      </c>
+      <c r="L156">
+        <v>3.8</v>
+      </c>
+      <c r="M156">
         <v>4</v>
       </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156" t="s">
-        <v>46</v>
-      </c>
-      <c r="K156">
-        <v>1.5</v>
-      </c>
-      <c r="L156">
-        <v>4</v>
-      </c>
-      <c r="M156">
-        <v>5</v>
-      </c>
       <c r="N156">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O156">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P156">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q156">
         <v>-0.75</v>
       </c>
       <c r="R156">
+        <v>1.95</v>
+      </c>
+      <c r="S156">
+        <v>1.75</v>
+      </c>
+      <c r="T156">
+        <v>2.25</v>
+      </c>
+      <c r="U156">
+        <v>2</v>
+      </c>
+      <c r="V156">
         <v>1.8</v>
       </c>
-      <c r="S156">
-        <v>2</v>
-      </c>
-      <c r="T156">
-        <v>2.5</v>
-      </c>
-      <c r="U156">
-        <v>1.95</v>
-      </c>
-      <c r="V156">
-        <v>1.75</v>
-      </c>
       <c r="W156">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z156">
+        <v>-1</v>
+      </c>
+      <c r="AA156">
+        <v>0.75</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
         <v>0.8</v>
-      </c>
-      <c r="AA156">
-        <v>-1</v>
-      </c>
-      <c r="AB156">
-        <v>0.95</v>
-      </c>
-      <c r="AC156">
-        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14954,7 +14954,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G163" t="s">
         <v>32</v>
@@ -15310,7 +15310,7 @@
         <v>45227.36805555555</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15847,7 +15847,7 @@
         <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -15921,7 +15921,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6834800</v>
+        <v>6834799</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15933,76 +15933,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G174" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H174">
+        <v>1</v>
+      </c>
+      <c r="I174">
         <v>0</v>
       </c>
-      <c r="I174">
+      <c r="J174" t="s">
+        <v>46</v>
+      </c>
+      <c r="K174">
+        <v>2.375</v>
+      </c>
+      <c r="L174">
+        <v>3.3</v>
+      </c>
+      <c r="M174">
+        <v>2.6</v>
+      </c>
+      <c r="N174">
+        <v>2.3</v>
+      </c>
+      <c r="O174">
+        <v>3.6</v>
+      </c>
+      <c r="P174">
+        <v>2.8</v>
+      </c>
+      <c r="Q174">
+        <v>-0.25</v>
+      </c>
+      <c r="R174">
+        <v>2</v>
+      </c>
+      <c r="S174">
+        <v>1.8</v>
+      </c>
+      <c r="T174">
+        <v>2.5</v>
+      </c>
+      <c r="U174">
+        <v>1.95</v>
+      </c>
+      <c r="V174">
+        <v>1.85</v>
+      </c>
+      <c r="W174">
+        <v>1.3</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>-1</v>
+      </c>
+      <c r="Z174">
         <v>1</v>
       </c>
-      <c r="J174" t="s">
-        <v>45</v>
-      </c>
-      <c r="K174">
-        <v>2.1</v>
-      </c>
-      <c r="L174">
-        <v>3.6</v>
-      </c>
-      <c r="M174">
-        <v>2.75</v>
-      </c>
-      <c r="N174">
-        <v>1.909</v>
-      </c>
-      <c r="O174">
-        <v>3.75</v>
-      </c>
-      <c r="P174">
-        <v>3.1</v>
-      </c>
-      <c r="Q174">
-        <v>-0.5</v>
-      </c>
-      <c r="R174">
-        <v>1.975</v>
-      </c>
-      <c r="S174">
-        <v>1.825</v>
-      </c>
-      <c r="T174">
-        <v>2.75</v>
-      </c>
-      <c r="U174">
-        <v>1.9</v>
-      </c>
-      <c r="V174">
-        <v>1.9</v>
-      </c>
-      <c r="W174">
-        <v>-1</v>
-      </c>
-      <c r="X174">
-        <v>-1</v>
-      </c>
-      <c r="Y174">
-        <v>2.1</v>
-      </c>
-      <c r="Z174">
-        <v>-1</v>
-      </c>
       <c r="AA174">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
         <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16010,7 +16010,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6834799</v>
+        <v>6834800</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16022,76 +16022,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
         <v>1</v>
       </c>
-      <c r="I175">
-        <v>0</v>
-      </c>
       <c r="J175" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K175">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L175">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M175">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="N175">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O175">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P175">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q175">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S175">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T175">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U175">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W175">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z175">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16455,7 +16455,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6834805</v>
+        <v>6834803</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16467,76 +16467,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K180">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L180">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N180">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="O180">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="Q180">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S180">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V180">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W180">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z180">
-        <v>0.95</v>
+        <v>0.3625</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16544,7 +16544,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6834803</v>
+        <v>6834805</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16556,76 +16556,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
         <v>0</v>
       </c>
-      <c r="I181">
-        <v>1</v>
-      </c>
       <c r="J181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K181">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M181">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N181">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P181">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="Q181">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R181">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U181">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V181">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.3625</v>
+        <v>0.95</v>
       </c>
       <c r="AA181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16811,7 +16811,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7481395</v>
+        <v>6834809</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16823,76 +16823,76 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K184">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L184">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M184">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N184">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="O184">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P184">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q184">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S184">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T184">
         <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA184">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC184">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16900,7 +16900,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6834809</v>
+        <v>7481395</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16912,76 +16912,76 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K185">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L185">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M185">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N185">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="O185">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P185">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R185">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S185">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T185">
         <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W185">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z185">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB185">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17357,7 +17357,7 @@
         <v>45254.39583333334</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
         <v>42</v>
@@ -17612,7 +17612,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6834814</v>
+        <v>6834818</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17624,55 +17624,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G193" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H193">
         <v>0</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
         <v>45</v>
       </c>
       <c r="K193">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L193">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M193">
+        <v>3</v>
+      </c>
+      <c r="N193">
         <v>1.8</v>
       </c>
-      <c r="N193">
-        <v>4.333</v>
-      </c>
       <c r="O193">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q193">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T193">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U193">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
         <v>-1</v>
@@ -17681,19 +17681,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0.75</v>
+        <v>2.6</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17701,7 +17701,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6834818</v>
+        <v>6834814</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17713,55 +17713,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G194" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H194">
         <v>0</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J194" t="s">
         <v>45</v>
       </c>
       <c r="K194">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L194">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M194">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N194">
+        <v>4.333</v>
+      </c>
+      <c r="O194">
+        <v>3.2</v>
+      </c>
+      <c r="P194">
+        <v>1.75</v>
+      </c>
+      <c r="Q194">
+        <v>0.5</v>
+      </c>
+      <c r="R194">
+        <v>2</v>
+      </c>
+      <c r="S194">
         <v>1.8</v>
       </c>
-      <c r="O194">
-        <v>3.5</v>
-      </c>
-      <c r="P194">
-        <v>3.6</v>
-      </c>
-      <c r="Q194">
-        <v>-0.5</v>
-      </c>
-      <c r="R194">
-        <v>1.85</v>
-      </c>
-      <c r="S194">
-        <v>1.95</v>
-      </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U194">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V194">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W194">
         <v>-1</v>
@@ -17770,19 +17770,19 @@
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>2.6</v>
+        <v>0.75</v>
       </c>
       <c r="Z194">
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -18161,7 +18161,7 @@
         <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18502,7 +18502,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>6834829</v>
+        <v>6834827</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18511,64 +18511,435 @@
         <v>28</v>
       </c>
       <c r="E203" s="2">
-        <v>45340.36805555555</v>
+        <v>45339.36805555555</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G203" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="H203">
+        <v>2</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203" t="s">
+        <v>46</v>
       </c>
       <c r="K203">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L203">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="M203">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="N203">
-        <v>1.571</v>
+        <v>1.181</v>
       </c>
       <c r="O203">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P203">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="Q203">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R203">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S203">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T203">
         <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V203">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W203">
+        <v>0.181</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>0.4375</v>
+      </c>
+      <c r="AA203">
+        <v>-0.5</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>6834828</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45339.4375</v>
+      </c>
+      <c r="F204" t="s">
+        <v>32</v>
+      </c>
+      <c r="G204" t="s">
+        <v>29</v>
+      </c>
+      <c r="H204">
         <v>0</v>
       </c>
-      <c r="X203">
+      <c r="I204">
         <v>0</v>
       </c>
-      <c r="Y203">
+      <c r="J204" t="s">
+        <v>44</v>
+      </c>
+      <c r="K204">
+        <v>2</v>
+      </c>
+      <c r="L204">
+        <v>3.1</v>
+      </c>
+      <c r="M204">
+        <v>3.4</v>
+      </c>
+      <c r="N204">
+        <v>2.25</v>
+      </c>
+      <c r="O204">
+        <v>3</v>
+      </c>
+      <c r="P204">
+        <v>2.9</v>
+      </c>
+      <c r="Q204">
+        <v>-0.25</v>
+      </c>
+      <c r="R204">
+        <v>2.025</v>
+      </c>
+      <c r="S204">
+        <v>1.775</v>
+      </c>
+      <c r="T204">
+        <v>2.25</v>
+      </c>
+      <c r="U204">
+        <v>1.925</v>
+      </c>
+      <c r="V204">
+        <v>1.875</v>
+      </c>
+      <c r="W204">
+        <v>-1</v>
+      </c>
+      <c r="X204">
+        <v>2</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>-0.5</v>
+      </c>
+      <c r="AA204">
+        <v>0.3875</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+      <c r="AC204">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>6834826</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45339.4375</v>
+      </c>
+      <c r="F205" t="s">
+        <v>39</v>
+      </c>
+      <c r="G205" t="s">
+        <v>35</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
+        <v>2</v>
+      </c>
+      <c r="J205" t="s">
+        <v>44</v>
+      </c>
+      <c r="K205">
+        <v>2.15</v>
+      </c>
+      <c r="L205">
+        <v>3</v>
+      </c>
+      <c r="M205">
+        <v>3.1</v>
+      </c>
+      <c r="N205">
+        <v>2.25</v>
+      </c>
+      <c r="O205">
+        <v>3</v>
+      </c>
+      <c r="P205">
+        <v>2.875</v>
+      </c>
+      <c r="Q205">
+        <v>-0.25</v>
+      </c>
+      <c r="R205">
+        <v>2.025</v>
+      </c>
+      <c r="S205">
+        <v>1.775</v>
+      </c>
+      <c r="T205">
+        <v>2.25</v>
+      </c>
+      <c r="U205">
+        <v>2</v>
+      </c>
+      <c r="V205">
+        <v>1.8</v>
+      </c>
+      <c r="W205">
+        <v>-1</v>
+      </c>
+      <c r="X205">
+        <v>2</v>
+      </c>
+      <c r="Y205">
+        <v>-1</v>
+      </c>
+      <c r="Z205">
+        <v>-0.5</v>
+      </c>
+      <c r="AA205">
+        <v>0.3875</v>
+      </c>
+      <c r="AB205">
+        <v>1</v>
+      </c>
+      <c r="AC205">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>6835156</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45339.47916666666</v>
+      </c>
+      <c r="F206" t="s">
+        <v>41</v>
+      </c>
+      <c r="G206" t="s">
+        <v>42</v>
+      </c>
+      <c r="H206">
+        <v>3</v>
+      </c>
+      <c r="I206">
         <v>0</v>
       </c>
-      <c r="Z203">
-        <v>0</v>
-      </c>
-      <c r="AA203">
-        <v>0</v>
+      <c r="J206" t="s">
+        <v>46</v>
+      </c>
+      <c r="K206">
+        <v>1.727</v>
+      </c>
+      <c r="L206">
+        <v>3.4</v>
+      </c>
+      <c r="M206">
+        <v>4.2</v>
+      </c>
+      <c r="N206">
+        <v>1.444</v>
+      </c>
+      <c r="O206">
+        <v>3.75</v>
+      </c>
+      <c r="P206">
+        <v>7</v>
+      </c>
+      <c r="Q206">
+        <v>-1</v>
+      </c>
+      <c r="R206">
+        <v>1.8</v>
+      </c>
+      <c r="S206">
+        <v>2</v>
+      </c>
+      <c r="T206">
+        <v>2.25</v>
+      </c>
+      <c r="U206">
+        <v>1.85</v>
+      </c>
+      <c r="V206">
+        <v>1.95</v>
+      </c>
+      <c r="W206">
+        <v>0.444</v>
+      </c>
+      <c r="X206">
+        <v>-1</v>
+      </c>
+      <c r="Y206">
+        <v>-1</v>
+      </c>
+      <c r="Z206">
+        <v>0.8</v>
+      </c>
+      <c r="AA206">
+        <v>-1</v>
+      </c>
+      <c r="AB206">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC206">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>6834829</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45340.36805555555</v>
+      </c>
+      <c r="F207" t="s">
+        <v>33</v>
+      </c>
+      <c r="G207" t="s">
+        <v>30</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207" t="s">
+        <v>44</v>
+      </c>
+      <c r="K207">
+        <v>1.571</v>
+      </c>
+      <c r="L207">
+        <v>3.8</v>
+      </c>
+      <c r="M207">
+        <v>4.75</v>
+      </c>
+      <c r="N207">
+        <v>1.363</v>
+      </c>
+      <c r="O207">
+        <v>4</v>
+      </c>
+      <c r="P207">
+        <v>7.5</v>
+      </c>
+      <c r="Q207">
+        <v>-1.25</v>
+      </c>
+      <c r="R207">
+        <v>1.95</v>
+      </c>
+      <c r="S207">
+        <v>1.85</v>
+      </c>
+      <c r="T207">
+        <v>2.5</v>
+      </c>
+      <c r="U207">
+        <v>1.825</v>
+      </c>
+      <c r="V207">
+        <v>1.975</v>
+      </c>
+      <c r="W207">
+        <v>-1</v>
+      </c>
+      <c r="X207">
+        <v>3</v>
+      </c>
+      <c r="Y207">
+        <v>-1</v>
+      </c>
+      <c r="Z207">
+        <v>-1</v>
+      </c>
+      <c r="AA207">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB207">
+        <v>-1</v>
+      </c>
+      <c r="AC207">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -2482,7 +2482,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5404353</v>
+        <v>5404355</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2494,76 +2494,76 @@
         <v>44996.47916666666</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23">
+        <v>2.25</v>
+      </c>
+      <c r="L23">
+        <v>3.2</v>
+      </c>
+      <c r="M23">
+        <v>2.8</v>
+      </c>
+      <c r="N23">
+        <v>2.4</v>
+      </c>
+      <c r="O23">
+        <v>3.2</v>
+      </c>
+      <c r="P23">
+        <v>2.625</v>
+      </c>
+      <c r="Q23">
         <v>0</v>
       </c>
-      <c r="J23" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23">
+      <c r="R23">
         <v>1.8</v>
       </c>
-      <c r="L23">
-        <v>3.4</v>
-      </c>
-      <c r="M23">
-        <v>3.75</v>
-      </c>
-      <c r="N23">
-        <v>1.727</v>
-      </c>
-      <c r="O23">
-        <v>3.4</v>
-      </c>
-      <c r="P23">
-        <v>4.2</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>1.75</v>
-      </c>
       <c r="S23">
+        <v>2</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>1.85</v>
+      </c>
+      <c r="V23">
         <v>1.95</v>
       </c>
-      <c r="T23">
-        <v>2.25</v>
-      </c>
-      <c r="U23">
-        <v>1.875</v>
-      </c>
-      <c r="V23">
-        <v>1.925</v>
-      </c>
       <c r="W23">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z23">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2571,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5404355</v>
+        <v>5404353</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2583,76 +2583,76 @@
         <v>44996.47916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
         <v>0</v>
       </c>
-      <c r="I24">
-        <v>2</v>
-      </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
+        <v>1.8</v>
+      </c>
+      <c r="L24">
+        <v>3.4</v>
+      </c>
+      <c r="M24">
+        <v>3.75</v>
+      </c>
+      <c r="N24">
+        <v>1.727</v>
+      </c>
+      <c r="O24">
+        <v>3.4</v>
+      </c>
+      <c r="P24">
+        <v>4.2</v>
+      </c>
+      <c r="Q24">
+        <v>-0.5</v>
+      </c>
+      <c r="R24">
+        <v>1.75</v>
+      </c>
+      <c r="S24">
+        <v>1.95</v>
+      </c>
+      <c r="T24">
         <v>2.25</v>
       </c>
-      <c r="L24">
-        <v>3.2</v>
-      </c>
-      <c r="M24">
-        <v>2.8</v>
-      </c>
-      <c r="N24">
-        <v>2.4</v>
-      </c>
-      <c r="O24">
-        <v>3.2</v>
-      </c>
-      <c r="P24">
-        <v>2.625</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>1.8</v>
-      </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC24">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3817,7 +3817,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6425793</v>
+        <v>6424833</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3829,55 +3829,55 @@
         <v>45011.47916666666</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>1</v>
-      </c>
-      <c r="I38">
-        <v>2</v>
       </c>
       <c r="J38" t="s">
         <v>45</v>
       </c>
       <c r="K38">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L38">
         <v>3.4</v>
       </c>
       <c r="M38">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O38">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P38">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q38">
         <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3886,19 +3886,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB38">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3906,7 +3906,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6424833</v>
+        <v>6425793</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3918,55 +3918,55 @@
         <v>45011.47916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>45</v>
       </c>
       <c r="K39">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L39">
         <v>3.4</v>
       </c>
       <c r="M39">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N39">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O39">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q39">
         <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3975,19 +3975,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC39">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4796,7 +4796,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6425853</v>
+        <v>6425801</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4808,58 +4808,58 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>46</v>
       </c>
       <c r="K49">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N49">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P49">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q49">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.3999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4868,13 +4868,13 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4885,7 +4885,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6425801</v>
+        <v>6425853</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4897,58 +4897,58 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="N50">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O50">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
-        <v>1.05</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4957,13 +4957,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -5686,7 +5686,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6425809</v>
+        <v>6425812</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5698,58 +5698,58 @@
         <v>45038.5</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>46</v>
       </c>
       <c r="K59">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L59">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M59">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N59">
-        <v>1.95</v>
+        <v>1.222</v>
       </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P59">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R59">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S59">
+        <v>2</v>
+      </c>
+      <c r="T59">
+        <v>2.5</v>
+      </c>
+      <c r="U59">
+        <v>1.825</v>
+      </c>
+      <c r="V59">
         <v>1.975</v>
       </c>
-      <c r="T59">
-        <v>2.25</v>
-      </c>
-      <c r="U59">
-        <v>1.875</v>
-      </c>
-      <c r="V59">
-        <v>1.925</v>
-      </c>
       <c r="W59">
-        <v>0.95</v>
+        <v>0.222</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5758,16 +5758,16 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA59">
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC59">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5775,7 +5775,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6425808</v>
+        <v>6425809</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5787,76 +5787,76 @@
         <v>45038.5</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L60">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O60">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P60">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
         <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X60">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC60">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5864,7 +5864,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6425812</v>
+        <v>6425808</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5876,40 +5876,40 @@
         <v>45038.5</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K61">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="L61">
+        <v>3.6</v>
+      </c>
+      <c r="M61">
         <v>5</v>
       </c>
-      <c r="M61">
-        <v>9</v>
-      </c>
       <c r="N61">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="O61">
+        <v>3.6</v>
+      </c>
+      <c r="P61">
         <v>4.75</v>
       </c>
-      <c r="P61">
-        <v>11</v>
-      </c>
       <c r="Q61">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
         <v>1.8</v>
@@ -5918,34 +5918,34 @@
         <v>2</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB61">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6398,7 +6398,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6425818</v>
+        <v>6425816</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6410,76 +6410,76 @@
         <v>45045.5</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
         <v>45</v>
       </c>
       <c r="K67">
+        <v>1.8</v>
+      </c>
+      <c r="L67">
+        <v>3.4</v>
+      </c>
+      <c r="M67">
+        <v>3.75</v>
+      </c>
+      <c r="N67">
+        <v>1.833</v>
+      </c>
+      <c r="O67">
+        <v>3.5</v>
+      </c>
+      <c r="P67">
+        <v>3.8</v>
+      </c>
+      <c r="Q67">
+        <v>-0.5</v>
+      </c>
+      <c r="R67">
+        <v>1.85</v>
+      </c>
+      <c r="S67">
+        <v>1.95</v>
+      </c>
+      <c r="T67">
+        <v>2.5</v>
+      </c>
+      <c r="U67">
+        <v>1.9</v>
+      </c>
+      <c r="V67">
+        <v>1.9</v>
+      </c>
+      <c r="W67">
+        <v>-1</v>
+      </c>
+      <c r="X67">
+        <v>-1</v>
+      </c>
+      <c r="Y67">
         <v>2.8</v>
       </c>
-      <c r="L67">
-        <v>3.1</v>
-      </c>
-      <c r="M67">
-        <v>2.3</v>
-      </c>
-      <c r="N67">
-        <v>2.55</v>
-      </c>
-      <c r="O67">
-        <v>3.1</v>
-      </c>
-      <c r="P67">
-        <v>2.5</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>1.875</v>
-      </c>
-      <c r="S67">
-        <v>1.925</v>
-      </c>
-      <c r="T67">
-        <v>2</v>
-      </c>
-      <c r="U67">
-        <v>1.75</v>
-      </c>
-      <c r="V67">
-        <v>2.05</v>
-      </c>
-      <c r="W67">
-        <v>-1</v>
-      </c>
-      <c r="X67">
-        <v>-1</v>
-      </c>
-      <c r="Y67">
-        <v>1.5</v>
-      </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC67">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6487,7 +6487,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6425816</v>
+        <v>6425818</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6499,55 +6499,55 @@
         <v>45045.5</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
         <v>1</v>
-      </c>
-      <c r="I68">
-        <v>2</v>
       </c>
       <c r="J68" t="s">
         <v>45</v>
       </c>
       <c r="K68">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M68">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N68">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P68">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6556,19 +6556,19 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -7466,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6425827</v>
+        <v>6425828</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7478,28 +7478,28 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>46</v>
       </c>
       <c r="K79">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N79">
         <v>1.571</v>
@@ -7511,22 +7511,22 @@
         <v>5</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R79">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S79">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W79">
         <v>0.571</v>
@@ -7538,16 +7538,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7555,7 +7555,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6425828</v>
+        <v>6425827</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7567,28 +7567,28 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>46</v>
       </c>
       <c r="K80">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N80">
         <v>1.571</v>
@@ -7600,22 +7600,22 @@
         <v>5</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S80">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
         <v>0.571</v>
@@ -7627,16 +7627,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA80">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6425846</v>
+        <v>6425845</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,76 +9080,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M97">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N97">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O97">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q97">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
+        <v>2</v>
+      </c>
+      <c r="V97">
         <v>1.8</v>
       </c>
-      <c r="V97">
-        <v>2</v>
-      </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>0.8</v>
-      </c>
-      <c r="AC97">
-        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9246,7 +9246,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6425845</v>
+        <v>6425846</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9258,76 +9258,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K99">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N99">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P99">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R99">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y99">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7045999</v>
+        <v>6834729</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,76 +9525,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K102">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L102">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N102">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O102">
         <v>3.25</v>
       </c>
       <c r="P102">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V102">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y102">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9602,7 +9602,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6834729</v>
+        <v>7045999</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9614,76 +9614,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K103">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L103">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M103">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N103">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O103">
         <v>3.25</v>
       </c>
       <c r="P103">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V103">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9958,7 +9958,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6834738</v>
+        <v>6834735</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9970,76 +9970,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>44</v>
+      </c>
+      <c r="K107">
+        <v>2.4</v>
+      </c>
+      <c r="L107">
         <v>3</v>
       </c>
-      <c r="J107" t="s">
-        <v>45</v>
-      </c>
-      <c r="K107">
+      <c r="M107">
         <v>2.75</v>
       </c>
-      <c r="L107">
-        <v>3.2</v>
-      </c>
-      <c r="M107">
-        <v>2.3</v>
-      </c>
       <c r="N107">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P107">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S107">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V107">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y107">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10136,7 +10136,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6834735</v>
+        <v>6834738</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10148,76 +10148,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K109">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L109">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M109">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N109">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O109">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V109">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC109">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6834743</v>
+        <v>6834742</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,76 +10593,76 @@
         <v>45164.5</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114">
         <v>0</v>
       </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L114">
+        <v>3.25</v>
+      </c>
+      <c r="M114">
         <v>3.3</v>
       </c>
-      <c r="M114">
-        <v>2.1</v>
-      </c>
       <c r="N114">
+        <v>2.15</v>
+      </c>
+      <c r="O114">
+        <v>3.1</v>
+      </c>
+      <c r="P114">
+        <v>3.1</v>
+      </c>
+      <c r="Q114">
+        <v>-0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.9</v>
+      </c>
+      <c r="S114">
+        <v>1.9</v>
+      </c>
+      <c r="T114">
+        <v>2.25</v>
+      </c>
+      <c r="U114">
+        <v>1.75</v>
+      </c>
+      <c r="V114">
         <v>1.95</v>
       </c>
-      <c r="O114">
-        <v>3.4</v>
-      </c>
-      <c r="P114">
-        <v>3.3</v>
-      </c>
-      <c r="Q114">
-        <v>-0.5</v>
-      </c>
-      <c r="R114">
-        <v>2</v>
-      </c>
-      <c r="S114">
-        <v>1.8</v>
-      </c>
-      <c r="T114">
-        <v>2.5</v>
-      </c>
-      <c r="U114">
-        <v>2</v>
-      </c>
-      <c r="V114">
-        <v>1.8</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10670,7 +10670,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6834742</v>
+        <v>6834743</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10682,76 +10682,76 @@
         <v>45164.5</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" t="s">
+        <v>45</v>
+      </c>
+      <c r="K115">
         <v>3</v>
       </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115" t="s">
-        <v>46</v>
-      </c>
-      <c r="K115">
-        <v>2</v>
-      </c>
       <c r="L115">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M115">
+        <v>2.1</v>
+      </c>
+      <c r="N115">
+        <v>1.95</v>
+      </c>
+      <c r="O115">
+        <v>3.4</v>
+      </c>
+      <c r="P115">
         <v>3.3</v>
       </c>
-      <c r="N115">
-        <v>2.15</v>
-      </c>
-      <c r="O115">
-        <v>3.1</v>
-      </c>
-      <c r="P115">
-        <v>3.1</v>
-      </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z115">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB115">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -11204,7 +11204,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6834750</v>
+        <v>6834749</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11216,13 +11216,13 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -11231,43 +11231,43 @@
         <v>46</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L121">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M121">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N121">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O121">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P121">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
+        <v>2</v>
+      </c>
+      <c r="S121">
+        <v>1.8</v>
+      </c>
+      <c r="T121">
+        <v>2.25</v>
+      </c>
+      <c r="U121">
+        <v>1.925</v>
+      </c>
+      <c r="V121">
         <v>1.875</v>
       </c>
-      <c r="S121">
-        <v>1.925</v>
-      </c>
-      <c r="T121">
-        <v>2.5</v>
-      </c>
-      <c r="U121">
-        <v>1.825</v>
-      </c>
-      <c r="V121">
-        <v>1.975</v>
-      </c>
       <c r="W121">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11276,13 +11276,13 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11293,7 +11293,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6834749</v>
+        <v>6834750</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11305,13 +11305,13 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11320,43 +11320,43 @@
         <v>46</v>
       </c>
       <c r="K122">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L122">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N122">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P122">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q122">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W122">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11365,13 +11365,13 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -11560,7 +11560,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6834755</v>
+        <v>6834753</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11572,58 +11572,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H125">
+        <v>5</v>
+      </c>
+      <c r="I125">
         <v>4</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="L125">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="N125">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O125">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
-        <v>0.6659999999999999</v>
+        <v>3</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11632,13 +11632,13 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC125">
         <v>-1</v>
@@ -11649,7 +11649,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6834752</v>
+        <v>6834755</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11661,13 +11661,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11676,43 +11676,43 @@
         <v>46</v>
       </c>
       <c r="K126">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M126">
+        <v>2.75</v>
+      </c>
+      <c r="N126">
+        <v>1.666</v>
+      </c>
+      <c r="O126">
+        <v>3.5</v>
+      </c>
+      <c r="P126">
         <v>4.2</v>
       </c>
-      <c r="N126">
-        <v>1.833</v>
-      </c>
-      <c r="O126">
-        <v>3.4</v>
-      </c>
-      <c r="P126">
-        <v>4</v>
-      </c>
       <c r="Q126">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S126">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V126">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W126">
-        <v>0.833</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11721,16 +11721,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC126">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11738,7 +11738,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6834753</v>
+        <v>6834752</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11750,58 +11750,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H127">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
         <v>46</v>
       </c>
       <c r="K127">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L127">
         <v>3.4</v>
       </c>
       <c r="M127">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N127">
+        <v>1.833</v>
+      </c>
+      <c r="O127">
+        <v>3.4</v>
+      </c>
+      <c r="P127">
         <v>4</v>
       </c>
-      <c r="O127">
-        <v>3.3</v>
-      </c>
-      <c r="P127">
-        <v>1.833</v>
-      </c>
       <c r="Q127">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V127">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W127">
-        <v>3</v>
+        <v>0.833</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11810,16 +11810,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -13340,7 +13340,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6834770</v>
+        <v>6834769</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13352,61 +13352,61 @@
         <v>45199.4375</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>44</v>
       </c>
       <c r="K145">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N145">
         <v>1.909</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P145">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q145">
         <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T145">
         <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y145">
         <v>-1</v>
@@ -13415,13 +13415,13 @@
         <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13429,7 +13429,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6834769</v>
+        <v>6834770</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13441,61 +13441,61 @@
         <v>45199.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>44</v>
       </c>
       <c r="K146">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L146">
+        <v>3.4</v>
+      </c>
+      <c r="M146">
         <v>3.6</v>
-      </c>
-      <c r="M146">
-        <v>3.8</v>
       </c>
       <c r="N146">
         <v>1.909</v>
       </c>
       <c r="O146">
+        <v>3.4</v>
+      </c>
+      <c r="P146">
         <v>3.5</v>
-      </c>
-      <c r="P146">
-        <v>3.2</v>
       </c>
       <c r="Q146">
         <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S146">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13504,13 +13504,13 @@
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13785,7 +13785,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6834774</v>
+        <v>6834775</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13797,40 +13797,40 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K150">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M150">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="N150">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P150">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
         <v>1.925</v>
@@ -13842,31 +13842,31 @@
         <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y150">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA150">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13874,7 +13874,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6834775</v>
+        <v>6834774</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13886,40 +13886,40 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G151" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H151">
         <v>0</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K151">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L151">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M151">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="N151">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O151">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q151">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R151">
         <v>1.925</v>
@@ -13931,31 +13931,31 @@
         <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V151">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z151">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14319,7 +14319,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6834781</v>
+        <v>6834783</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14331,76 +14331,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K156">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L156">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M156">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N156">
+        <v>1.95</v>
+      </c>
+      <c r="O156">
+        <v>3.3</v>
+      </c>
+      <c r="P156">
+        <v>3.25</v>
+      </c>
+      <c r="Q156">
+        <v>-0.25</v>
+      </c>
+      <c r="R156">
         <v>1.75</v>
       </c>
-      <c r="O156">
-        <v>3.5</v>
-      </c>
-      <c r="P156">
-        <v>3.8</v>
-      </c>
-      <c r="Q156">
-        <v>-0.75</v>
-      </c>
-      <c r="R156">
+      <c r="S156">
         <v>1.95</v>
       </c>
-      <c r="S156">
-        <v>1.75</v>
-      </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V156">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y156">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA156">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14408,7 +14408,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6834783</v>
+        <v>6834781</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14420,76 +14420,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K157">
+        <v>1.666</v>
+      </c>
+      <c r="L157">
+        <v>3.8</v>
+      </c>
+      <c r="M157">
+        <v>4</v>
+      </c>
+      <c r="N157">
+        <v>1.75</v>
+      </c>
+      <c r="O157">
+        <v>3.5</v>
+      </c>
+      <c r="P157">
+        <v>3.8</v>
+      </c>
+      <c r="Q157">
+        <v>-0.75</v>
+      </c>
+      <c r="R157">
+        <v>1.95</v>
+      </c>
+      <c r="S157">
+        <v>1.75</v>
+      </c>
+      <c r="T157">
         <v>2.25</v>
       </c>
-      <c r="L157">
-        <v>3.25</v>
-      </c>
-      <c r="M157">
-        <v>2.75</v>
-      </c>
-      <c r="N157">
-        <v>1.95</v>
-      </c>
-      <c r="O157">
-        <v>3.3</v>
-      </c>
-      <c r="P157">
-        <v>3.25</v>
-      </c>
-      <c r="Q157">
-        <v>-0.25</v>
-      </c>
-      <c r="R157">
-        <v>1.75</v>
-      </c>
-      <c r="S157">
-        <v>1.95</v>
-      </c>
-      <c r="T157">
-        <v>2.75</v>
-      </c>
       <c r="U157">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V157">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AB157">
         <v>-1</v>
       </c>
       <c r="AC157">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -16811,7 +16811,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6834809</v>
+        <v>7481395</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16823,76 +16823,76 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F184" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K184">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L184">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M184">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N184">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="O184">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P184">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q184">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R184">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S184">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T184">
         <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z184">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16900,7 +16900,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7481395</v>
+        <v>6834809</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16912,76 +16912,76 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G185" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K185">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L185">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M185">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N185">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="O185">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P185">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q185">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
         <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA185">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC185">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17523,7 +17523,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6834819</v>
+        <v>6834818</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17535,76 +17535,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K192">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L192">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M192">
         <v>3</v>
       </c>
       <c r="N192">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O192">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P192">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S192">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z192">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB192">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17612,7 +17612,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6834818</v>
+        <v>6834814</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17624,55 +17624,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H193">
         <v>0</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
         <v>45</v>
       </c>
       <c r="K193">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L193">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M193">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N193">
+        <v>4.333</v>
+      </c>
+      <c r="O193">
+        <v>3.2</v>
+      </c>
+      <c r="P193">
+        <v>1.75</v>
+      </c>
+      <c r="Q193">
+        <v>0.5</v>
+      </c>
+      <c r="R193">
+        <v>2</v>
+      </c>
+      <c r="S193">
         <v>1.8</v>
       </c>
-      <c r="O193">
-        <v>3.5</v>
-      </c>
-      <c r="P193">
-        <v>3.6</v>
-      </c>
-      <c r="Q193">
-        <v>-0.5</v>
-      </c>
-      <c r="R193">
-        <v>1.85</v>
-      </c>
-      <c r="S193">
-        <v>1.95</v>
-      </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W193">
         <v>-1</v>
@@ -17681,19 +17681,19 @@
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>2.6</v>
+        <v>0.75</v>
       </c>
       <c r="Z193">
         <v>-1</v>
       </c>
       <c r="AA193">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17701,7 +17701,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6834814</v>
+        <v>6834819</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17713,76 +17713,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G194" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K194">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L194">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M194">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N194">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O194">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P194">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q194">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R194">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S194">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T194">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U194">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V194">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA194">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC194">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -118,10 +118,10 @@
     <t>Vukovar 91</t>
   </si>
   <si>
-    <t>NK Rudes</t>
+    <t>Orijent</t>
   </si>
   <si>
-    <t>Orijent</t>
+    <t>NK Rudes</t>
   </si>
   <si>
     <t>NK Dubrava Zagreb</t>
@@ -628,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5404338</v>
+        <v>5404925</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1073,73 +1073,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>1.142</v>
+        <v>1.75</v>
       </c>
       <c r="L7">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>1.222</v>
+        <v>1.7</v>
       </c>
       <c r="O7">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="Q7">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1147,7 +1147,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5404925</v>
+        <v>5404338</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1162,73 +1162,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>1.75</v>
+        <v>1.142</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N8">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P8">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R8">
+        <v>1.9</v>
+      </c>
+      <c r="S8">
+        <v>1.9</v>
+      </c>
+      <c r="T8">
+        <v>2.75</v>
+      </c>
+      <c r="U8">
+        <v>1.85</v>
+      </c>
+      <c r="V8">
         <v>1.95</v>
       </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
-      <c r="T8">
-        <v>2.5</v>
-      </c>
-      <c r="U8">
-        <v>1.925</v>
-      </c>
-      <c r="V8">
-        <v>1.875</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X8">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1426,7 +1426,7 @@
         <v>44982.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5404342</v>
+        <v>5404343</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,76 +1515,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N12">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="O12">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P12">
         <v>4</v>
       </c>
       <c r="Q12">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X12">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5404343</v>
+        <v>5404342</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1604,76 +1604,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L13">
+        <v>3.3</v>
+      </c>
+      <c r="M13">
+        <v>3.5</v>
+      </c>
+      <c r="N13">
+        <v>1.833</v>
+      </c>
+      <c r="O13">
         <v>3.4</v>
-      </c>
-      <c r="M13">
-        <v>3.75</v>
-      </c>
-      <c r="N13">
-        <v>1.727</v>
-      </c>
-      <c r="O13">
-        <v>3.75</v>
       </c>
       <c r="P13">
         <v>4</v>
       </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T13">
         <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1871,7 +1871,7 @@
         <v>44989.47916666666</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
         <v>37</v>
@@ -2141,7 +2141,7 @@
         <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2319,7 +2319,7 @@
         <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2672,10 +2672,10 @@
         <v>44997.375</v>
       </c>
       <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s">
         <v>34</v>
-      </c>
-      <c r="G25" t="s">
-        <v>35</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3028,7 +3028,7 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -3209,7 +3209,7 @@
         <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3740,10 +3740,10 @@
         <v>45011.45833333334</v>
       </c>
       <c r="F37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s">
         <v>34</v>
-      </c>
-      <c r="G37" t="s">
-        <v>35</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -4188,7 +4188,7 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4455,7 +4455,7 @@
         <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6425801</v>
+        <v>6425800</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4808,13 +4808,13 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -4823,43 +4823,43 @@
         <v>46</v>
       </c>
       <c r="K49">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L49">
         <v>3.4</v>
       </c>
       <c r="M49">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N49">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O49">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W49">
-        <v>1.05</v>
+        <v>0.909</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4868,13 +4868,13 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4885,7 +4885,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6425853</v>
+        <v>6425801</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4897,58 +4897,58 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N50">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P50">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q50">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W50">
-        <v>0.3999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4957,13 +4957,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6425800</v>
+        <v>6425853</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,46 +4989,46 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>4</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
+        <v>1.4</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>6.5</v>
+      </c>
+      <c r="N51">
+        <v>1.4</v>
+      </c>
+      <c r="O51">
+        <v>4</v>
+      </c>
+      <c r="P51">
+        <v>6.5</v>
+      </c>
+      <c r="Q51">
+        <v>-1.25</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
         <v>1.8</v>
       </c>
-      <c r="L51">
-        <v>3.4</v>
-      </c>
-      <c r="M51">
-        <v>3.75</v>
-      </c>
-      <c r="N51">
-        <v>1.909</v>
-      </c>
-      <c r="O51">
-        <v>3.3</v>
-      </c>
-      <c r="P51">
-        <v>3.4</v>
-      </c>
-      <c r="Q51">
-        <v>-0.5</v>
-      </c>
-      <c r="R51">
-        <v>1.975</v>
-      </c>
-      <c r="S51">
-        <v>1.825</v>
-      </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
         <v>1.925</v>
@@ -5037,7 +5037,7 @@
         <v>1.875</v>
       </c>
       <c r="W51">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5046,7 +5046,7 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA51">
         <v>-1</v>
@@ -5078,7 +5078,7 @@
         <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5523,7 +5523,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
         <v>39</v>
@@ -5787,7 +5787,7 @@
         <v>45038.5</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
         <v>30</v>
@@ -6146,7 +6146,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6398,7 +6398,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6425816</v>
+        <v>6425818</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6410,55 +6410,55 @@
         <v>45045.5</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>1</v>
-      </c>
-      <c r="I67">
-        <v>2</v>
       </c>
       <c r="J67" t="s">
         <v>45</v>
       </c>
       <c r="K67">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M67">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N67">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P67">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6467,19 +6467,19 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6487,7 +6487,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6425818</v>
+        <v>6425816</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6499,76 +6499,76 @@
         <v>45045.5</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
         <v>45</v>
       </c>
       <c r="K68">
+        <v>1.8</v>
+      </c>
+      <c r="L68">
+        <v>3.4</v>
+      </c>
+      <c r="M68">
+        <v>3.75</v>
+      </c>
+      <c r="N68">
+        <v>1.833</v>
+      </c>
+      <c r="O68">
+        <v>3.5</v>
+      </c>
+      <c r="P68">
+        <v>3.8</v>
+      </c>
+      <c r="Q68">
+        <v>-0.5</v>
+      </c>
+      <c r="R68">
+        <v>1.85</v>
+      </c>
+      <c r="S68">
+        <v>1.95</v>
+      </c>
+      <c r="T68">
+        <v>2.5</v>
+      </c>
+      <c r="U68">
+        <v>1.9</v>
+      </c>
+      <c r="V68">
+        <v>1.9</v>
+      </c>
+      <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
+        <v>-1</v>
+      </c>
+      <c r="Y68">
         <v>2.8</v>
       </c>
-      <c r="L68">
-        <v>3.1</v>
-      </c>
-      <c r="M68">
-        <v>2.3</v>
-      </c>
-      <c r="N68">
-        <v>2.55</v>
-      </c>
-      <c r="O68">
-        <v>3.1</v>
-      </c>
-      <c r="P68">
-        <v>2.5</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>1.875</v>
-      </c>
-      <c r="S68">
-        <v>1.925</v>
-      </c>
-      <c r="T68">
-        <v>2</v>
-      </c>
-      <c r="U68">
-        <v>1.75</v>
-      </c>
-      <c r="V68">
-        <v>2.05</v>
-      </c>
-      <c r="W68">
-        <v>-1</v>
-      </c>
-      <c r="X68">
-        <v>-1</v>
-      </c>
-      <c r="Y68">
-        <v>1.5</v>
-      </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC68">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6591,7 +6591,7 @@
         <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6677,7 +6677,7 @@
         <v>45051.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
         <v>40</v>
@@ -6932,7 +6932,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6425822</v>
+        <v>6425823</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6944,10 +6944,10 @@
         <v>45052.5</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -6959,46 +6959,46 @@
         <v>44</v>
       </c>
       <c r="K73">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="L73">
         <v>4</v>
       </c>
       <c r="M73">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="N73">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P73">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q73">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T73">
         <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y73">
         <v>-1</v>
@@ -7007,13 +7007,13 @@
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7021,7 +7021,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6425823</v>
+        <v>6425822</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7033,10 +7033,10 @@
         <v>45052.5</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7048,46 +7048,46 @@
         <v>44</v>
       </c>
       <c r="K74">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L74">
         <v>4</v>
       </c>
       <c r="M74">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N74">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q74">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R74">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T74">
         <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Y74">
         <v>-1</v>
@@ -7096,13 +7096,13 @@
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7481,7 +7481,7 @@
         <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7745,7 +7745,7 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>39</v>
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6425833</v>
+        <v>6425836</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,76 +7834,76 @@
         <v>45066.52083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K83">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="L83">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M83">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N83">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="O83">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P83">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="Q83">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
+        <v>1.75</v>
+      </c>
+      <c r="S83">
         <v>1.95</v>
       </c>
-      <c r="S83">
-        <v>1.85</v>
-      </c>
       <c r="T83">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y83">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB83">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC83">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6425836</v>
+        <v>6425833</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7923,76 +7923,76 @@
         <v>45066.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K84">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="L84">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M84">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N84">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="O84">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P84">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R84">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S84">
+        <v>1.85</v>
+      </c>
+      <c r="T84">
+        <v>3</v>
+      </c>
+      <c r="U84">
         <v>1.95</v>
       </c>
-      <c r="T84">
-        <v>2.25</v>
-      </c>
-      <c r="U84">
-        <v>2.025</v>
-      </c>
       <c r="V84">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB84">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC84">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8445,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6425840</v>
+        <v>6425843</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8457,13 +8457,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -8472,43 +8472,43 @@
         <v>46</v>
       </c>
       <c r="K90">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N90">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P90">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W90">
-        <v>0.833</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8517,7 +8517,7 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8526,7 +8526,7 @@
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6425843</v>
+        <v>6425840</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,13 +8546,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -8561,43 +8561,43 @@
         <v>46</v>
       </c>
       <c r="K91">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N91">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="O91">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P91">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
-        <v>0.3999999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8606,7 +8606,7 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8615,7 +8615,7 @@
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8902,7 +8902,7 @@
         <v>45079.52083333334</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
         <v>33</v>
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6425845</v>
+        <v>6425847</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,19 +9080,19 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
         <v>0</v>
       </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K97">
         <v>2.1</v>
@@ -9104,25 +9104,25 @@
         <v>2.875</v>
       </c>
       <c r="N97">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
         <v>3.5</v>
       </c>
       <c r="P97">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
         <v>2</v>
@@ -9131,25 +9131,25 @@
         <v>1.8</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC97">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9157,7 +9157,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6425847</v>
+        <v>6425845</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9169,19 +9169,19 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>2.1</v>
@@ -9193,25 +9193,25 @@
         <v>2.875</v>
       </c>
       <c r="N98">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O98">
         <v>3.5</v>
       </c>
       <c r="P98">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S98">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
         <v>2</v>
@@ -9220,25 +9220,25 @@
         <v>1.8</v>
       </c>
       <c r="W98">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z98">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9258,7 +9258,7 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
         <v>37</v>
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6834732</v>
+        <v>7045999</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,76 +9436,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K101">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M101">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N101">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O101">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P101">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
+        <v>1.775</v>
+      </c>
+      <c r="S101">
         <v>2.025</v>
       </c>
-      <c r="S101">
+      <c r="T101">
+        <v>2</v>
+      </c>
+      <c r="U101">
         <v>1.775</v>
       </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
-      <c r="U101">
-        <v>1.825</v>
-      </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6834729</v>
+        <v>6834732</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,16 +9525,16 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>44</v>
@@ -9549,37 +9549,37 @@
         <v>3.1</v>
       </c>
       <c r="N102">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O102">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
@@ -9588,13 +9588,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA102">
-        <v>0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9602,7 +9602,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7045999</v>
+        <v>6834733</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9614,76 +9614,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
         <v>0</v>
       </c>
-      <c r="I103">
+      <c r="J103" t="s">
+        <v>46</v>
+      </c>
+      <c r="K103">
+        <v>1.65</v>
+      </c>
+      <c r="L103">
+        <v>3.5</v>
+      </c>
+      <c r="M103">
+        <v>4.5</v>
+      </c>
+      <c r="N103">
+        <v>1.909</v>
+      </c>
+      <c r="O103">
+        <v>3.3</v>
+      </c>
+      <c r="P103">
+        <v>3.3</v>
+      </c>
+      <c r="Q103">
+        <v>-0.5</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
+        <v>1.8</v>
+      </c>
+      <c r="T103">
+        <v>2.25</v>
+      </c>
+      <c r="U103">
+        <v>1.95</v>
+      </c>
+      <c r="V103">
+        <v>1.85</v>
+      </c>
+      <c r="W103">
+        <v>0.909</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
         <v>1</v>
       </c>
-      <c r="J103" t="s">
-        <v>45</v>
-      </c>
-      <c r="K103">
-        <v>2.4</v>
-      </c>
-      <c r="L103">
-        <v>3.25</v>
-      </c>
-      <c r="M103">
-        <v>2.6</v>
-      </c>
-      <c r="N103">
-        <v>2.4</v>
-      </c>
-      <c r="O103">
-        <v>3.25</v>
-      </c>
-      <c r="P103">
-        <v>2.6</v>
-      </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="R103">
-        <v>1.775</v>
-      </c>
-      <c r="S103">
-        <v>2.025</v>
-      </c>
-      <c r="T103">
-        <v>2</v>
-      </c>
-      <c r="U103">
-        <v>1.775</v>
-      </c>
-      <c r="V103">
-        <v>2.025</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>1.6</v>
-      </c>
-      <c r="Z103">
-        <v>-1</v>
-      </c>
       <c r="AA103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
         <v>-1</v>
       </c>
       <c r="AC103">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9691,7 +9691,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6834733</v>
+        <v>6834729</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9703,76 +9703,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K104">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M104">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N104">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O104">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P104">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.8</v>
+      </c>
+      <c r="S104">
+        <v>2</v>
+      </c>
+      <c r="T104">
+        <v>2.5</v>
+      </c>
+      <c r="U104">
+        <v>2</v>
+      </c>
+      <c r="V104">
+        <v>1.8</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>2.25</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
         <v>-0.5</v>
       </c>
-      <c r="R104">
-        <v>2</v>
-      </c>
-      <c r="S104">
-        <v>1.8</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>1.95</v>
-      </c>
-      <c r="V104">
-        <v>1.85</v>
-      </c>
-      <c r="W104">
-        <v>0.909</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
-        <v>1</v>
-      </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9958,7 +9958,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6834735</v>
+        <v>6834734</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9970,10 +9970,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9985,61 +9985,61 @@
         <v>44</v>
       </c>
       <c r="K107">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N107">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O107">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P107">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S107">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V107">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB107">
         <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10047,7 +10047,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6834734</v>
+        <v>6834738</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10059,76 +10059,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K108">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L108">
         <v>3.2</v>
       </c>
       <c r="M108">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="N108">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O108">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V108">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC108">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10136,7 +10136,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6834738</v>
+        <v>6834735</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10148,76 +10148,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>44</v>
+      </c>
+      <c r="K109">
+        <v>2.4</v>
+      </c>
+      <c r="L109">
         <v>3</v>
       </c>
-      <c r="J109" t="s">
-        <v>45</v>
-      </c>
-      <c r="K109">
+      <c r="M109">
         <v>2.75</v>
       </c>
-      <c r="L109">
-        <v>3.2</v>
-      </c>
-      <c r="M109">
-        <v>2.3</v>
-      </c>
       <c r="N109">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="O109">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P109">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y109">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA109">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10329,7 +10329,7 @@
         <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>4</v>
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6834744</v>
+        <v>6834742</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,58 +10504,58 @@
         <v>45164.5</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H113">
         <v>3</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>46</v>
       </c>
       <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>3.25</v>
+      </c>
+      <c r="M113">
+        <v>3.3</v>
+      </c>
+      <c r="N113">
+        <v>2.15</v>
+      </c>
+      <c r="O113">
+        <v>3.1</v>
+      </c>
+      <c r="P113">
+        <v>3.1</v>
+      </c>
+      <c r="Q113">
+        <v>-0.25</v>
+      </c>
+      <c r="R113">
+        <v>1.9</v>
+      </c>
+      <c r="S113">
+        <v>1.9</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
         <v>1.75</v>
       </c>
-      <c r="L113">
-        <v>3.4</v>
-      </c>
-      <c r="M113">
-        <v>4</v>
-      </c>
-      <c r="N113">
-        <v>1.666</v>
-      </c>
-      <c r="O113">
-        <v>3.6</v>
-      </c>
-      <c r="P113">
-        <v>4.2</v>
-      </c>
-      <c r="Q113">
-        <v>-0.75</v>
-      </c>
-      <c r="R113">
-        <v>1.925</v>
-      </c>
-      <c r="S113">
-        <v>1.875</v>
-      </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
-      <c r="U113">
-        <v>1.825</v>
-      </c>
       <c r="V113">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X113">
         <v>-1</v>
@@ -10564,13 +10564,13 @@
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA113">
         <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6834742</v>
+        <v>6834744</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,58 +10593,58 @@
         <v>45164.5</v>
       </c>
       <c r="F114" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>3</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
         <v>46</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L114">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M114">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N114">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O114">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P114">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R114">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X114">
         <v>-1</v>
@@ -10653,13 +10653,13 @@
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC114">
         <v>-1</v>
@@ -10682,7 +10682,7 @@
         <v>45164.5</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G115" t="s">
         <v>33</v>
@@ -11026,7 +11026,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6834746</v>
+        <v>6834750</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11038,76 +11038,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M119">
+        <v>3</v>
+      </c>
+      <c r="N119">
+        <v>2.1</v>
+      </c>
+      <c r="O119">
         <v>3.3</v>
       </c>
-      <c r="N119">
-        <v>2.05</v>
-      </c>
-      <c r="O119">
-        <v>3.1</v>
-      </c>
       <c r="P119">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q119">
         <v>-0.25</v>
       </c>
       <c r="R119">
+        <v>1.875</v>
+      </c>
+      <c r="S119">
+        <v>1.925</v>
+      </c>
+      <c r="T119">
+        <v>2.5</v>
+      </c>
+      <c r="U119">
         <v>1.825</v>
       </c>
-      <c r="S119">
+      <c r="V119">
         <v>1.975</v>
       </c>
-      <c r="T119">
-        <v>2.25</v>
-      </c>
-      <c r="U119">
-        <v>1.925</v>
-      </c>
-      <c r="V119">
-        <v>1.875</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X119">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA119">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC119">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11115,7 +11115,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6834748</v>
+        <v>6834749</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11127,34 +11127,34 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>46</v>
       </c>
       <c r="K120">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L120">
+        <v>3.1</v>
+      </c>
+      <c r="M120">
         <v>3.25</v>
       </c>
-      <c r="M120">
-        <v>3.5</v>
-      </c>
       <c r="N120">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O120">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
         <v>3.5</v>
@@ -11163,22 +11163,22 @@
         <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S120">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11187,16 +11187,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11204,7 +11204,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6834749</v>
+        <v>6834748</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11216,34 +11216,34 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>46</v>
       </c>
       <c r="K121">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
+        <v>3.5</v>
+      </c>
+      <c r="N121">
+        <v>1.909</v>
+      </c>
+      <c r="O121">
         <v>3.25</v>
-      </c>
-      <c r="N121">
-        <v>1.95</v>
-      </c>
-      <c r="O121">
-        <v>3.2</v>
       </c>
       <c r="P121">
         <v>3.5</v>
@@ -11252,22 +11252,22 @@
         <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11276,16 +11276,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11293,7 +11293,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6834750</v>
+        <v>6834746</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11305,76 +11305,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K122">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L122">
+        <v>3.2</v>
+      </c>
+      <c r="M122">
         <v>3.3</v>
       </c>
-      <c r="M122">
-        <v>3</v>
-      </c>
       <c r="N122">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P122">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q122">
         <v>-0.25</v>
       </c>
       <c r="R122">
+        <v>1.825</v>
+      </c>
+      <c r="S122">
+        <v>1.975</v>
+      </c>
+      <c r="T122">
+        <v>2.25</v>
+      </c>
+      <c r="U122">
+        <v>1.925</v>
+      </c>
+      <c r="V122">
         <v>1.875</v>
       </c>
-      <c r="S122">
-        <v>1.925</v>
-      </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
-      <c r="U122">
-        <v>1.825</v>
-      </c>
-      <c r="V122">
-        <v>1.975</v>
-      </c>
       <c r="W122">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
+        <v>-0.5</v>
+      </c>
+      <c r="AA122">
+        <v>0.4875</v>
+      </c>
+      <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
         <v>0.875</v>
-      </c>
-      <c r="AA122">
-        <v>-1</v>
-      </c>
-      <c r="AB122">
-        <v>0.825</v>
-      </c>
-      <c r="AC122">
-        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11560,7 +11560,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6834753</v>
+        <v>6834752</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11572,58 +11572,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L125">
         <v>3.4</v>
       </c>
       <c r="M125">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N125">
+        <v>1.833</v>
+      </c>
+      <c r="O125">
+        <v>3.4</v>
+      </c>
+      <c r="P125">
         <v>4</v>
       </c>
-      <c r="O125">
-        <v>3.3</v>
-      </c>
-      <c r="P125">
-        <v>1.833</v>
-      </c>
       <c r="Q125">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V125">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W125">
-        <v>3</v>
+        <v>0.833</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11632,16 +11632,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11649,7 +11649,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6834755</v>
+        <v>6834753</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11661,58 +11661,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H126">
+        <v>5</v>
+      </c>
+      <c r="I126">
         <v>4</v>
-      </c>
-      <c r="I126">
-        <v>0</v>
       </c>
       <c r="J126" t="s">
         <v>46</v>
       </c>
       <c r="K126">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="L126">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M126">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="N126">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P126">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q126">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S126">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T126">
         <v>2.5</v>
       </c>
       <c r="U126">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V126">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
-        <v>0.6659999999999999</v>
+        <v>3</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11721,13 +11721,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11738,7 +11738,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6834752</v>
+        <v>6834755</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11750,13 +11750,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -11765,43 +11765,43 @@
         <v>46</v>
       </c>
       <c r="K127">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L127">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M127">
+        <v>2.75</v>
+      </c>
+      <c r="N127">
+        <v>1.666</v>
+      </c>
+      <c r="O127">
+        <v>3.5</v>
+      </c>
+      <c r="P127">
         <v>4.2</v>
       </c>
-      <c r="N127">
-        <v>1.833</v>
-      </c>
-      <c r="O127">
-        <v>3.4</v>
-      </c>
-      <c r="P127">
-        <v>4</v>
-      </c>
       <c r="Q127">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S127">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V127">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W127">
-        <v>0.833</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11810,16 +11810,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC127">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12020,7 +12020,7 @@
         <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12717,7 +12717,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6834764</v>
+        <v>6834763</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12729,76 +12729,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <v>3.3</v>
+      </c>
+      <c r="M138">
+        <v>3.2</v>
+      </c>
+      <c r="N138">
+        <v>2.15</v>
+      </c>
+      <c r="O138">
+        <v>3.3</v>
+      </c>
+      <c r="P138">
+        <v>3.1</v>
+      </c>
+      <c r="Q138">
+        <v>-0.25</v>
+      </c>
+      <c r="R138">
+        <v>1.85</v>
+      </c>
+      <c r="S138">
         <v>1.95</v>
       </c>
-      <c r="L138">
-        <v>3.2</v>
-      </c>
-      <c r="M138">
-        <v>3.5</v>
-      </c>
-      <c r="N138">
-        <v>1.95</v>
-      </c>
-      <c r="O138">
-        <v>3</v>
-      </c>
-      <c r="P138">
-        <v>3.75</v>
-      </c>
-      <c r="Q138">
-        <v>-0.5</v>
-      </c>
-      <c r="R138">
-        <v>2.025</v>
-      </c>
-      <c r="S138">
-        <v>1.775</v>
-      </c>
       <c r="T138">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U138">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA138">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12806,7 +12806,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6834763</v>
+        <v>6834764</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12818,76 +12818,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L139">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M139">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N139">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O139">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P139">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S139">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U139">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V139">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z139">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13174,7 +13174,7 @@
         <v>45199.40972222222</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
         <v>38</v>
@@ -13251,7 +13251,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6834768</v>
+        <v>6834770</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13263,10 +13263,10 @@
         <v>45199.4375</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13278,34 +13278,34 @@
         <v>44</v>
       </c>
       <c r="K144">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N144">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O144">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
         <v>1.9</v>
@@ -13317,16 +13317,16 @@
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
         <v>-1</v>
@@ -13340,7 +13340,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6834769</v>
+        <v>6834768</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13352,76 +13352,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>44</v>
       </c>
       <c r="K145">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="N145">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O145">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P145">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q145">
+        <v>-0.25</v>
+      </c>
+      <c r="R145">
+        <v>1.9</v>
+      </c>
+      <c r="S145">
+        <v>1.9</v>
+      </c>
+      <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
+        <v>1.9</v>
+      </c>
+      <c r="V145">
+        <v>1.9</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>2.3</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
         <v>-0.5</v>
       </c>
-      <c r="R145">
-        <v>2</v>
-      </c>
-      <c r="S145">
-        <v>1.8</v>
-      </c>
-      <c r="T145">
-        <v>2.5</v>
-      </c>
-      <c r="U145">
-        <v>1.975</v>
-      </c>
-      <c r="V145">
-        <v>1.825</v>
-      </c>
-      <c r="W145">
-        <v>-1</v>
-      </c>
-      <c r="X145">
-        <v>2.5</v>
-      </c>
-      <c r="Y145">
-        <v>-1</v>
-      </c>
-      <c r="Z145">
-        <v>-1</v>
-      </c>
       <c r="AA145">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB145">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13429,7 +13429,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6834770</v>
+        <v>6834769</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13441,61 +13441,61 @@
         <v>45199.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
         <v>44</v>
       </c>
       <c r="K146">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L146">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N146">
         <v>1.909</v>
       </c>
       <c r="O146">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P146">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q146">
         <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S146">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13504,13 +13504,13 @@
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC146">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -14230,7 +14230,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6834779</v>
+        <v>6834783</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14242,76 +14242,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K155">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M155">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N155">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O155">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P155">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q155">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S155">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
         <v>1.95</v>
       </c>
       <c r="V155">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W155">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB155">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14319,7 +14319,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6834783</v>
+        <v>6834779</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14331,76 +14331,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K156">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L156">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M156">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N156">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O156">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P156">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q156">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R156">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S156">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
         <v>1.95</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X156">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y156">
         <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA156">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC156">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14598,7 +14598,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
         <v>29</v>
@@ -14853,7 +14853,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6834786</v>
+        <v>6834789</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14865,73 +14865,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G162" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H162">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K162">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L162">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M162">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N162">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="O162">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P162">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q162">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>1.8</v>
+      </c>
+      <c r="T162">
+        <v>2.75</v>
+      </c>
+      <c r="U162">
+        <v>1.825</v>
+      </c>
+      <c r="V162">
         <v>1.975</v>
       </c>
-      <c r="S162">
-        <v>1.825</v>
-      </c>
-      <c r="T162">
-        <v>2.25</v>
-      </c>
-      <c r="U162">
-        <v>1.875</v>
-      </c>
-      <c r="V162">
-        <v>1.925</v>
-      </c>
       <c r="W162">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB162">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14942,7 +14942,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6834789</v>
+        <v>6834786</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14954,73 +14954,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K163">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L163">
+        <v>3.1</v>
+      </c>
+      <c r="M163">
         <v>3.75</v>
       </c>
-      <c r="M163">
-        <v>5.5</v>
-      </c>
       <c r="N163">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="O163">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P163">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q163">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R163">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X163">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15046,7 +15046,7 @@
         <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H164">
         <v>6</v>
@@ -15224,7 +15224,7 @@
         <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H166">
         <v>3</v>
@@ -15921,7 +15921,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6834799</v>
+        <v>6834798</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15933,76 +15933,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H174">
         <v>1</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K174">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L174">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M174">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N174">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O174">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
+        <v>2.25</v>
+      </c>
+      <c r="U174">
+        <v>1.875</v>
+      </c>
+      <c r="V174">
+        <v>1.925</v>
+      </c>
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
         <v>2.5</v>
       </c>
-      <c r="U174">
-        <v>1.95</v>
-      </c>
-      <c r="V174">
-        <v>1.85</v>
-      </c>
-      <c r="W174">
-        <v>1.3</v>
-      </c>
-      <c r="X174">
-        <v>-1</v>
-      </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC174">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16010,7 +16010,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6834800</v>
+        <v>6834799</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16022,76 +16022,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G175" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H175">
+        <v>1</v>
+      </c>
+      <c r="I175">
         <v>0</v>
       </c>
-      <c r="I175">
+      <c r="J175" t="s">
+        <v>46</v>
+      </c>
+      <c r="K175">
+        <v>2.375</v>
+      </c>
+      <c r="L175">
+        <v>3.3</v>
+      </c>
+      <c r="M175">
+        <v>2.6</v>
+      </c>
+      <c r="N175">
+        <v>2.3</v>
+      </c>
+      <c r="O175">
+        <v>3.6</v>
+      </c>
+      <c r="P175">
+        <v>2.8</v>
+      </c>
+      <c r="Q175">
+        <v>-0.25</v>
+      </c>
+      <c r="R175">
+        <v>2</v>
+      </c>
+      <c r="S175">
+        <v>1.8</v>
+      </c>
+      <c r="T175">
+        <v>2.5</v>
+      </c>
+      <c r="U175">
+        <v>1.95</v>
+      </c>
+      <c r="V175">
+        <v>1.85</v>
+      </c>
+      <c r="W175">
+        <v>1.3</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>-1</v>
+      </c>
+      <c r="Z175">
         <v>1</v>
       </c>
-      <c r="J175" t="s">
-        <v>45</v>
-      </c>
-      <c r="K175">
-        <v>2.1</v>
-      </c>
-      <c r="L175">
-        <v>3.6</v>
-      </c>
-      <c r="M175">
-        <v>2.75</v>
-      </c>
-      <c r="N175">
-        <v>1.909</v>
-      </c>
-      <c r="O175">
-        <v>3.75</v>
-      </c>
-      <c r="P175">
-        <v>3.1</v>
-      </c>
-      <c r="Q175">
-        <v>-0.5</v>
-      </c>
-      <c r="R175">
-        <v>1.975</v>
-      </c>
-      <c r="S175">
-        <v>1.825</v>
-      </c>
-      <c r="T175">
-        <v>2.75</v>
-      </c>
-      <c r="U175">
-        <v>1.9</v>
-      </c>
-      <c r="V175">
-        <v>1.9</v>
-      </c>
-      <c r="W175">
-        <v>-1</v>
-      </c>
-      <c r="X175">
-        <v>-1</v>
-      </c>
-      <c r="Y175">
-        <v>2.1</v>
-      </c>
-      <c r="Z175">
-        <v>-1</v>
-      </c>
       <c r="AA175">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
         <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16099,7 +16099,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6834798</v>
+        <v>6834800</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16111,76 +16111,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K176">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L176">
         <v>3.6</v>
       </c>
       <c r="M176">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N176">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O176">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P176">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q176">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T176">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z176">
         <v>-1</v>
       </c>
       <c r="AA176">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16455,7 +16455,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6834803</v>
+        <v>6834805</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16467,76 +16467,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G180" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
         <v>0</v>
       </c>
-      <c r="I180">
-        <v>1</v>
-      </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K180">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M180">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N180">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P180">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="Q180">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R180">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.3625</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16544,7 +16544,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6834805</v>
+        <v>6834803</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16556,76 +16556,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K181">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L181">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N181">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="O181">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P181">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="Q181">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S181">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V181">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W181">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z181">
-        <v>0.95</v>
+        <v>0.3625</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16811,7 +16811,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7481395</v>
+        <v>6834809</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16823,76 +16823,76 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G184" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K184">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L184">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M184">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N184">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="O184">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P184">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q184">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S184">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T184">
         <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V184">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA184">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC184">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16900,7 +16900,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6834809</v>
+        <v>7481395</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16912,76 +16912,76 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F185" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K185">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L185">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M185">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N185">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="O185">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P185">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q185">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R185">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S185">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T185">
         <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V185">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W185">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z185">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB185">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17001,7 +17001,7 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
         <v>32</v>
@@ -17612,7 +17612,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6834814</v>
+        <v>6834819</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17624,76 +17624,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G193" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193">
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K193">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L193">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M193">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N193">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O193">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P193">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q193">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S193">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T193">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U193">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V193">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA193">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC193">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17701,7 +17701,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6834819</v>
+        <v>6834814</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17713,76 +17713,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G194" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K194">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L194">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M194">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N194">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="O194">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P194">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="Q194">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R194">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S194">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T194">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U194">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V194">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W194">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z194">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB194">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17805,7 +17805,7 @@
         <v>41</v>
       </c>
       <c r="G195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -18247,7 +18247,7 @@
         <v>45263.36805555555</v>
       </c>
       <c r="F200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G200" t="s">
         <v>43</v>
@@ -18591,7 +18591,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6834828</v>
+        <v>6834826</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18603,28 +18603,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J204" t="s">
         <v>44</v>
       </c>
       <c r="K204">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L204">
+        <v>3</v>
+      </c>
+      <c r="M204">
         <v>3.1</v>
-      </c>
-      <c r="M204">
-        <v>3.4</v>
       </c>
       <c r="N204">
         <v>2.25</v>
@@ -18633,7 +18633,7 @@
         <v>3</v>
       </c>
       <c r="P204">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q204">
         <v>-0.25</v>
@@ -18648,10 +18648,10 @@
         <v>2.25</v>
       </c>
       <c r="U204">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V204">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18669,10 +18669,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC204">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18680,7 +18680,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6834826</v>
+        <v>6834828</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18692,28 +18692,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F205" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
         <v>44</v>
       </c>
       <c r="K205">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L205">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M205">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N205">
         <v>2.25</v>
@@ -18722,7 +18722,7 @@
         <v>3</v>
       </c>
       <c r="P205">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q205">
         <v>-0.25</v>
@@ -18737,10 +18737,10 @@
         <v>2.25</v>
       </c>
       <c r="U205">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V205">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W205">
         <v>-1</v>
@@ -18758,10 +18758,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB205">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="206" spans="1:29">

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -115,13 +115,13 @@
     <t>NK Solin</t>
   </si>
   <si>
-    <t>Vukovar 91</t>
-  </si>
-  <si>
     <t>Orijent</t>
   </si>
   <si>
     <t>NK Rudes</t>
+  </si>
+  <si>
+    <t>Vukovar 91</t>
   </si>
   <si>
     <t>NK Dubrava Zagreb</t>
@@ -628,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5404337</v>
+        <v>5404925</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -984,73 +984,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L6">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
         <v>4</v>
       </c>
       <c r="N6">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="O6">
         <v>3.6</v>
       </c>
       <c r="P6">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R6">
+        <v>1.95</v>
+      </c>
+      <c r="S6">
         <v>1.85</v>
       </c>
-      <c r="S6">
-        <v>1.95</v>
-      </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W6">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
+        <v>-1</v>
+      </c>
+      <c r="AA6">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA6">
-        <v>-1</v>
-      </c>
       <c r="AB6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5404925</v>
+        <v>5404338</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1073,73 +1073,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>1.75</v>
+        <v>1.142</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N7">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P7">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R7">
+        <v>1.9</v>
+      </c>
+      <c r="S7">
+        <v>1.9</v>
+      </c>
+      <c r="T7">
+        <v>2.75</v>
+      </c>
+      <c r="U7">
+        <v>1.85</v>
+      </c>
+      <c r="V7">
         <v>1.95</v>
       </c>
-      <c r="S7">
-        <v>1.85</v>
-      </c>
-      <c r="T7">
-        <v>2.5</v>
-      </c>
-      <c r="U7">
-        <v>1.925</v>
-      </c>
-      <c r="V7">
-        <v>1.875</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X7">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1147,7 +1147,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5404338</v>
+        <v>5404337</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1162,7 +1162,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -1174,34 +1174,34 @@
         <v>46</v>
       </c>
       <c r="K8">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="L8">
+        <v>3.25</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>1.45</v>
+      </c>
+      <c r="O8">
+        <v>3.6</v>
+      </c>
+      <c r="P8">
         <v>6.5</v>
       </c>
-      <c r="M8">
-        <v>15</v>
-      </c>
-      <c r="N8">
-        <v>1.222</v>
-      </c>
-      <c r="O8">
-        <v>5.5</v>
-      </c>
-      <c r="P8">
-        <v>11</v>
-      </c>
       <c r="Q8">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
         <v>1.85</v>
@@ -1210,7 +1210,7 @@
         <v>1.95</v>
       </c>
       <c r="W8">
-        <v>0.222</v>
+        <v>0.45</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1219,16 +1219,16 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>44982.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5404343</v>
+        <v>5404342</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,76 +1515,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
+        <v>3.3</v>
+      </c>
+      <c r="M12">
+        <v>3.5</v>
+      </c>
+      <c r="N12">
+        <v>1.833</v>
+      </c>
+      <c r="O12">
         <v>3.4</v>
-      </c>
-      <c r="M12">
-        <v>3.75</v>
-      </c>
-      <c r="N12">
-        <v>1.727</v>
-      </c>
-      <c r="O12">
-        <v>3.75</v>
       </c>
       <c r="P12">
         <v>4</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5404342</v>
+        <v>5404343</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1604,76 +1604,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N13">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P13">
         <v>4</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T13">
         <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X13">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1859,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5404346</v>
+        <v>5404350</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1871,46 +1871,46 @@
         <v>44989.47916666666</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="N16">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P16">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
+        <v>1.825</v>
+      </c>
+      <c r="S16">
         <v>1.975</v>
-      </c>
-      <c r="S16">
-        <v>1.825</v>
       </c>
       <c r="T16">
         <v>2.25</v>
@@ -1922,25 +1922,25 @@
         <v>1.975</v>
       </c>
       <c r="W16">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
       <c r="AB16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5404349</v>
+        <v>5404346</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,76 +1960,76 @@
         <v>44989.47916666666</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="N17">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="O17">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X17">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA17">
+        <v>-1</v>
+      </c>
+      <c r="AB17">
         <v>-0.5</v>
       </c>
-      <c r="AA17">
-        <v>0.4375</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
       <c r="AC17">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2037,7 +2037,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5404350</v>
+        <v>5404349</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2049,34 +2049,34 @@
         <v>44989.47916666666</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L18">
         <v>3</v>
       </c>
       <c r="M18">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="N18">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O18">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P18">
         <v>3.4</v>
@@ -2085,40 +2085,40 @@
         <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y18">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA18">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2138,10 +2138,10 @@
         <v>44990.375</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2319,7 +2319,7 @@
         <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>44996.47916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -2672,10 +2672,10 @@
         <v>44997.375</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3028,10 +3028,10 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3283,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6416611</v>
+        <v>5404357</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3295,49 +3295,49 @@
         <v>45004.375</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M32">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N32">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
         <v>1.9</v>
@@ -3349,22 +3349,22 @@
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y32">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB32">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3372,7 +3372,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5404357</v>
+        <v>6416611</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3384,49 +3384,49 @@
         <v>45004.375</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L33">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M33">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N33">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O33">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
         <v>1.9</v>
@@ -3438,22 +3438,22 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
+        <v>0.8</v>
+      </c>
+      <c r="AB33">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB33">
-        <v>-0.5</v>
-      </c>
       <c r="AC33">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3562,7 +3562,7 @@
         <v>45010.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
@@ -3740,10 +3740,10 @@
         <v>45011.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3817,7 +3817,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6424833</v>
+        <v>6425793</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3829,55 +3829,55 @@
         <v>45011.47916666666</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
         <v>45</v>
       </c>
       <c r="K38">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L38">
         <v>3.4</v>
       </c>
       <c r="M38">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N38">
-        <v>1.6</v>
+        <v>1.666</v>
       </c>
       <c r="O38">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P38">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q38">
         <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V38">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W38">
         <v>-1</v>
@@ -3886,19 +3886,19 @@
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="Z38">
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC38">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3906,7 +3906,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6425793</v>
+        <v>6424833</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3918,55 +3918,55 @@
         <v>45011.47916666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>1</v>
-      </c>
-      <c r="I39">
-        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>45</v>
       </c>
       <c r="K39">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L39">
         <v>3.4</v>
       </c>
       <c r="M39">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N39">
-        <v>1.666</v>
+        <v>1.6</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P39">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q39">
         <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W39">
         <v>-1</v>
@@ -3975,19 +3975,19 @@
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>3.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z39">
         <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB39">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4188,7 +4188,7 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4366,7 +4366,7 @@
         <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4455,7 +4455,7 @@
         <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>45023.375</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4796,7 +4796,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6425800</v>
+        <v>6425853</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,46 +4811,46 @@
         <v>34</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>4</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
         <v>46</v>
       </c>
       <c r="K49">
+        <v>1.4</v>
+      </c>
+      <c r="L49">
+        <v>4</v>
+      </c>
+      <c r="M49">
+        <v>6.5</v>
+      </c>
+      <c r="N49">
+        <v>1.4</v>
+      </c>
+      <c r="O49">
+        <v>4</v>
+      </c>
+      <c r="P49">
+        <v>6.5</v>
+      </c>
+      <c r="Q49">
+        <v>-1.25</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
         <v>1.8</v>
       </c>
-      <c r="L49">
-        <v>3.4</v>
-      </c>
-      <c r="M49">
-        <v>3.75</v>
-      </c>
-      <c r="N49">
-        <v>1.909</v>
-      </c>
-      <c r="O49">
-        <v>3.3</v>
-      </c>
-      <c r="P49">
-        <v>3.4</v>
-      </c>
-      <c r="Q49">
-        <v>-0.5</v>
-      </c>
-      <c r="R49">
-        <v>1.975</v>
-      </c>
-      <c r="S49">
-        <v>1.825</v>
-      </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
         <v>1.925</v>
@@ -4859,7 +4859,7 @@
         <v>1.875</v>
       </c>
       <c r="W49">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4868,7 +4868,7 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA49">
         <v>-1</v>
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6425853</v>
+        <v>6425800</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4986,49 +4986,49 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51">
         <v>4</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N51">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P51">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q51">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
         <v>1.925</v>
@@ -5037,7 +5037,7 @@
         <v>1.875</v>
       </c>
       <c r="W51">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5046,7 +5046,7 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
         <v>-1</v>
@@ -5078,7 +5078,7 @@
         <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5256,7 +5256,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5330,7 +5330,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6425807</v>
+        <v>6425854</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5342,76 +5342,76 @@
         <v>45032.47916666666</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
         <v>0</v>
       </c>
-      <c r="I55">
+      <c r="J55" t="s">
+        <v>46</v>
+      </c>
+      <c r="K55">
+        <v>1.727</v>
+      </c>
+      <c r="L55">
+        <v>3.5</v>
+      </c>
+      <c r="M55">
         <v>4</v>
       </c>
-      <c r="J55" t="s">
-        <v>45</v>
-      </c>
-      <c r="K55">
-        <v>1.909</v>
-      </c>
-      <c r="L55">
-        <v>3.2</v>
-      </c>
-      <c r="M55">
-        <v>3.6</v>
-      </c>
       <c r="N55">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O55">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P55">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q55">
         <v>-0.75</v>
       </c>
       <c r="R55">
+        <v>1.975</v>
+      </c>
+      <c r="S55">
+        <v>1.825</v>
+      </c>
+      <c r="T55">
+        <v>2.5</v>
+      </c>
+      <c r="U55">
+        <v>1.85</v>
+      </c>
+      <c r="V55">
         <v>1.95</v>
       </c>
-      <c r="S55">
-        <v>1.85</v>
-      </c>
-      <c r="T55">
-        <v>2.25</v>
-      </c>
-      <c r="U55">
-        <v>1.8</v>
-      </c>
-      <c r="V55">
-        <v>2</v>
-      </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X55">
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA55">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB55">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5419,7 +5419,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6425854</v>
+        <v>6425807</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5431,76 +5431,76 @@
         <v>45032.47916666666</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K56">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L56">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N56">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O56">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q56">
         <v>-0.75</v>
       </c>
       <c r="R56">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S56">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W56">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X56">
         <v>-1</v>
       </c>
       <c r="Y56">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z56">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5523,7 +5523,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
         <v>39</v>
@@ -5698,7 +5698,7 @@
         <v>45038.5</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
         <v>37</v>
@@ -5775,7 +5775,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6425809</v>
+        <v>6425808</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5787,76 +5787,76 @@
         <v>45038.5</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K60">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L60">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N60">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O60">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P60">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S60">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T60">
         <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB60">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5864,7 +5864,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6425808</v>
+        <v>6425809</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5876,76 +5876,76 @@
         <v>45038.5</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K61">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L61">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O61">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P61">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T61">
         <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X61">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC61">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6146,7 +6146,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6398,7 +6398,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6425818</v>
+        <v>6425816</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6410,76 +6410,76 @@
         <v>45045.5</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
         <v>45</v>
       </c>
       <c r="K67">
+        <v>1.8</v>
+      </c>
+      <c r="L67">
+        <v>3.4</v>
+      </c>
+      <c r="M67">
+        <v>3.75</v>
+      </c>
+      <c r="N67">
+        <v>1.833</v>
+      </c>
+      <c r="O67">
+        <v>3.5</v>
+      </c>
+      <c r="P67">
+        <v>3.8</v>
+      </c>
+      <c r="Q67">
+        <v>-0.5</v>
+      </c>
+      <c r="R67">
+        <v>1.85</v>
+      </c>
+      <c r="S67">
+        <v>1.95</v>
+      </c>
+      <c r="T67">
+        <v>2.5</v>
+      </c>
+      <c r="U67">
+        <v>1.9</v>
+      </c>
+      <c r="V67">
+        <v>1.9</v>
+      </c>
+      <c r="W67">
+        <v>-1</v>
+      </c>
+      <c r="X67">
+        <v>-1</v>
+      </c>
+      <c r="Y67">
         <v>2.8</v>
       </c>
-      <c r="L67">
-        <v>3.1</v>
-      </c>
-      <c r="M67">
-        <v>2.3</v>
-      </c>
-      <c r="N67">
-        <v>2.55</v>
-      </c>
-      <c r="O67">
-        <v>3.1</v>
-      </c>
-      <c r="P67">
-        <v>2.5</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>1.875</v>
-      </c>
-      <c r="S67">
-        <v>1.925</v>
-      </c>
-      <c r="T67">
-        <v>2</v>
-      </c>
-      <c r="U67">
-        <v>1.75</v>
-      </c>
-      <c r="V67">
-        <v>2.05</v>
-      </c>
-      <c r="W67">
-        <v>-1</v>
-      </c>
-      <c r="X67">
-        <v>-1</v>
-      </c>
-      <c r="Y67">
-        <v>1.5</v>
-      </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC67">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6487,7 +6487,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6425816</v>
+        <v>6425818</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6499,55 +6499,55 @@
         <v>45045.5</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
         <v>1</v>
-      </c>
-      <c r="I68">
-        <v>2</v>
       </c>
       <c r="J68" t="s">
         <v>45</v>
       </c>
       <c r="K68">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M68">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N68">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P68">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6556,19 +6556,19 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6591,7 +6591,7 @@
         <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6677,7 +6677,7 @@
         <v>45051.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
         <v>40</v>
@@ -6932,7 +6932,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6425823</v>
+        <v>6425822</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6944,10 +6944,10 @@
         <v>45052.5</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -6959,46 +6959,46 @@
         <v>44</v>
       </c>
       <c r="K73">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L73">
         <v>4</v>
       </c>
       <c r="M73">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="N73">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O73">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q73">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T73">
         <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Y73">
         <v>-1</v>
@@ -7007,13 +7007,13 @@
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7021,7 +7021,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6425822</v>
+        <v>6425823</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,7 +7036,7 @@
         <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7048,46 +7048,46 @@
         <v>44</v>
       </c>
       <c r="K74">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="L74">
         <v>4</v>
       </c>
       <c r="M74">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="N74">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q74">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T74">
         <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y74">
         <v>-1</v>
@@ -7096,13 +7096,13 @@
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB74">
         <v>-1</v>
       </c>
       <c r="AC74">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7481,7 +7481,7 @@
         <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7659,7 +7659,7 @@
         <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7745,7 +7745,7 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>39</v>
@@ -7834,7 +7834,7 @@
         <v>45066.52083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>38</v>
@@ -7923,7 +7923,7 @@
         <v>45066.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
         <v>32</v>
@@ -8445,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6425843</v>
+        <v>6425840</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8457,13 +8457,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -8472,43 +8472,43 @@
         <v>46</v>
       </c>
       <c r="K90">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N90">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="O90">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V90">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8517,7 +8517,7 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8526,7 +8526,7 @@
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6425840</v>
+        <v>6425843</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,13 +8546,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -8561,43 +8561,43 @@
         <v>46</v>
       </c>
       <c r="K91">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N91">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O91">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P91">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S91">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W91">
-        <v>0.833</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8606,7 +8606,7 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8615,7 +8615,7 @@
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8902,10 +8902,10 @@
         <v>45079.52083333334</v>
       </c>
       <c r="F95" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95" t="s">
         <v>35</v>
-      </c>
-      <c r="G95" t="s">
-        <v>33</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9157,7 +9157,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6425845</v>
+        <v>6425846</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9169,76 +9169,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K98">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M98">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N98">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P98">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R98">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y98">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9246,7 +9246,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6425846</v>
+        <v>6425845</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9258,76 +9258,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K99">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N99">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O99">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q99">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
+        <v>2</v>
+      </c>
+      <c r="V99">
         <v>1.8</v>
       </c>
-      <c r="V99">
-        <v>2</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>0.8</v>
-      </c>
-      <c r="AC99">
-        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7045999</v>
+        <v>6834729</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,76 +9436,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K101">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L101">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N101">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O101">
         <v>3.25</v>
       </c>
       <c r="P101">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V101">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y101">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA101">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9525,7 +9525,7 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>36</v>
@@ -9691,7 +9691,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6834729</v>
+        <v>7045999</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9703,76 +9703,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K104">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M104">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N104">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O104">
         <v>3.25</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S104">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V104">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9881,7 +9881,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
         <v>43</v>
@@ -9958,7 +9958,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6834734</v>
+        <v>6834735</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9970,10 +9970,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9985,61 +9985,61 @@
         <v>44</v>
       </c>
       <c r="K107">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M107">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N107">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O107">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P107">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S107">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V107">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
         <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10136,7 +10136,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6834735</v>
+        <v>6834734</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10148,10 +10148,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F109" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10163,61 +10163,61 @@
         <v>44</v>
       </c>
       <c r="K109">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L109">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M109">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N109">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O109">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P109">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V109">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB109">
         <v>-0.5</v>
       </c>
       <c r="AC109">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10329,7 +10329,7 @@
         <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H111">
         <v>4</v>
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6834742</v>
+        <v>6834743</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,76 +10504,76 @@
         <v>45164.5</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>45</v>
+      </c>
+      <c r="K113">
         <v>3</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113" t="s">
-        <v>46</v>
-      </c>
-      <c r="K113">
-        <v>2</v>
-      </c>
       <c r="L113">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M113">
+        <v>2.1</v>
+      </c>
+      <c r="N113">
+        <v>1.95</v>
+      </c>
+      <c r="O113">
+        <v>3.4</v>
+      </c>
+      <c r="P113">
         <v>3.3</v>
       </c>
-      <c r="N113">
-        <v>2.15</v>
-      </c>
-      <c r="O113">
-        <v>3.1</v>
-      </c>
-      <c r="P113">
-        <v>3.1</v>
-      </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z113">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB113">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10670,7 +10670,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6834743</v>
+        <v>6834742</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10682,76 +10682,76 @@
         <v>45164.5</v>
       </c>
       <c r="F115" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H115">
+        <v>3</v>
+      </c>
+      <c r="I115">
         <v>0</v>
       </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L115">
+        <v>3.25</v>
+      </c>
+      <c r="M115">
         <v>3.3</v>
       </c>
-      <c r="M115">
-        <v>2.1</v>
-      </c>
       <c r="N115">
+        <v>2.15</v>
+      </c>
+      <c r="O115">
+        <v>3.1</v>
+      </c>
+      <c r="P115">
+        <v>3.1</v>
+      </c>
+      <c r="Q115">
+        <v>-0.25</v>
+      </c>
+      <c r="R115">
+        <v>1.9</v>
+      </c>
+      <c r="S115">
+        <v>1.9</v>
+      </c>
+      <c r="T115">
+        <v>2.25</v>
+      </c>
+      <c r="U115">
+        <v>1.75</v>
+      </c>
+      <c r="V115">
         <v>1.95</v>
       </c>
-      <c r="O115">
-        <v>3.4</v>
-      </c>
-      <c r="P115">
-        <v>3.3</v>
-      </c>
-      <c r="Q115">
-        <v>-0.5</v>
-      </c>
-      <c r="R115">
-        <v>2</v>
-      </c>
-      <c r="S115">
-        <v>1.8</v>
-      </c>
-      <c r="T115">
-        <v>2.5</v>
-      </c>
-      <c r="U115">
-        <v>2</v>
-      </c>
-      <c r="V115">
-        <v>1.8</v>
-      </c>
       <c r="W115">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -11041,7 +11041,7 @@
         <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>4</v>
@@ -11115,7 +11115,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6834749</v>
+        <v>6834748</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11127,34 +11127,34 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>46</v>
       </c>
       <c r="K120">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L120">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
+        <v>3.5</v>
+      </c>
+      <c r="N120">
+        <v>1.909</v>
+      </c>
+      <c r="O120">
         <v>3.25</v>
-      </c>
-      <c r="N120">
-        <v>1.95</v>
-      </c>
-      <c r="O120">
-        <v>3.2</v>
       </c>
       <c r="P120">
         <v>3.5</v>
@@ -11163,22 +11163,22 @@
         <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S120">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11187,16 +11187,16 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11204,7 +11204,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6834748</v>
+        <v>6834746</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11216,76 +11216,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L121">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N121">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O121">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P121">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q121">
+        <v>-0.25</v>
+      </c>
+      <c r="R121">
+        <v>1.825</v>
+      </c>
+      <c r="S121">
+        <v>1.975</v>
+      </c>
+      <c r="T121">
+        <v>2.25</v>
+      </c>
+      <c r="U121">
+        <v>1.925</v>
+      </c>
+      <c r="V121">
+        <v>1.875</v>
+      </c>
+      <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>2.1</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
         <v>-0.5</v>
       </c>
-      <c r="R121">
-        <v>1.975</v>
-      </c>
-      <c r="S121">
-        <v>1.825</v>
-      </c>
-      <c r="T121">
-        <v>2.5</v>
-      </c>
-      <c r="U121">
-        <v>1.9</v>
-      </c>
-      <c r="V121">
-        <v>1.9</v>
-      </c>
-      <c r="W121">
-        <v>0.909</v>
-      </c>
-      <c r="X121">
-        <v>-1</v>
-      </c>
-      <c r="Y121">
-        <v>-1</v>
-      </c>
-      <c r="Z121">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11293,7 +11293,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6834746</v>
+        <v>6834749</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11305,46 +11305,46 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L122">
+        <v>3.1</v>
+      </c>
+      <c r="M122">
+        <v>3.25</v>
+      </c>
+      <c r="N122">
+        <v>1.95</v>
+      </c>
+      <c r="O122">
         <v>3.2</v>
       </c>
-      <c r="M122">
-        <v>3.3</v>
-      </c>
-      <c r="N122">
-        <v>2.05</v>
-      </c>
-      <c r="O122">
-        <v>3.1</v>
-      </c>
       <c r="P122">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
         <v>2.25</v>
@@ -11356,25 +11356,25 @@
         <v>1.875</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA122">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC122">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11560,7 +11560,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6834752</v>
+        <v>6834753</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11572,58 +11572,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L125">
         <v>3.4</v>
       </c>
       <c r="M125">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125">
+        <v>3.3</v>
+      </c>
+      <c r="P125">
         <v>1.833</v>
       </c>
-      <c r="O125">
-        <v>3.4</v>
-      </c>
-      <c r="P125">
-        <v>4</v>
-      </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R125">
+        <v>1.975</v>
+      </c>
+      <c r="S125">
+        <v>1.825</v>
+      </c>
+      <c r="T125">
+        <v>2.5</v>
+      </c>
+      <c r="U125">
+        <v>1.95</v>
+      </c>
+      <c r="V125">
         <v>1.85</v>
       </c>
-      <c r="S125">
-        <v>1.95</v>
-      </c>
-      <c r="T125">
-        <v>2.25</v>
-      </c>
-      <c r="U125">
-        <v>1.8</v>
-      </c>
-      <c r="V125">
-        <v>2</v>
-      </c>
       <c r="W125">
-        <v>0.833</v>
+        <v>3</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11632,16 +11632,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC125">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11649,7 +11649,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6834753</v>
+        <v>6834755</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11661,58 +11661,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I126">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
         <v>46</v>
       </c>
       <c r="K126">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M126">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="N126">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O126">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P126">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="Q126">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S126">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T126">
         <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V126">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W126">
-        <v>3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11721,13 +11721,13 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC126">
         <v>-1</v>
@@ -11738,7 +11738,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6834755</v>
+        <v>6834752</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11750,13 +11750,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -11765,43 +11765,43 @@
         <v>46</v>
       </c>
       <c r="K127">
+        <v>1.727</v>
+      </c>
+      <c r="L127">
+        <v>3.4</v>
+      </c>
+      <c r="M127">
+        <v>4.2</v>
+      </c>
+      <c r="N127">
+        <v>1.833</v>
+      </c>
+      <c r="O127">
+        <v>3.4</v>
+      </c>
+      <c r="P127">
+        <v>4</v>
+      </c>
+      <c r="Q127">
+        <v>-0.5</v>
+      </c>
+      <c r="R127">
+        <v>1.85</v>
+      </c>
+      <c r="S127">
+        <v>1.95</v>
+      </c>
+      <c r="T127">
         <v>2.25</v>
       </c>
-      <c r="L127">
-        <v>3.25</v>
-      </c>
-      <c r="M127">
-        <v>2.75</v>
-      </c>
-      <c r="N127">
-        <v>1.666</v>
-      </c>
-      <c r="O127">
-        <v>3.5</v>
-      </c>
-      <c r="P127">
-        <v>4.2</v>
-      </c>
-      <c r="Q127">
-        <v>-0.75</v>
-      </c>
-      <c r="R127">
-        <v>2</v>
-      </c>
-      <c r="S127">
+      <c r="U127">
         <v>1.8</v>
       </c>
-      <c r="T127">
-        <v>2.5</v>
-      </c>
-      <c r="U127">
-        <v>2.025</v>
-      </c>
       <c r="V127">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W127">
-        <v>0.6659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11810,16 +11810,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA127">
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>-1</v>
+      </c>
+      <c r="AC127">
         <v>1</v>
-      </c>
-      <c r="AA127">
-        <v>-1</v>
-      </c>
-      <c r="AB127">
-        <v>1.025</v>
-      </c>
-      <c r="AC127">
-        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12020,7 +12020,7 @@
         <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12106,7 +12106,7 @@
         <v>45184.47916666666</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
         <v>29</v>
@@ -12272,7 +12272,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6834757</v>
+        <v>6834760</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12284,76 +12284,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K133">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L133">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N133">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O133">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P133">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12361,7 +12361,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6834760</v>
+        <v>6834757</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12373,76 +12373,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K134">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L134">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N134">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P134">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q134">
+        <v>-0.25</v>
+      </c>
+      <c r="R134">
+        <v>1.925</v>
+      </c>
+      <c r="S134">
+        <v>1.875</v>
+      </c>
+      <c r="T134">
+        <v>2.25</v>
+      </c>
+      <c r="U134">
+        <v>1.875</v>
+      </c>
+      <c r="V134">
+        <v>1.925</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>2</v>
+      </c>
+      <c r="Y134">
+        <v>-1</v>
+      </c>
+      <c r="Z134">
         <v>-0.5</v>
       </c>
-      <c r="R134">
-        <v>2</v>
-      </c>
-      <c r="S134">
-        <v>1.8</v>
-      </c>
-      <c r="T134">
-        <v>2.5</v>
-      </c>
-      <c r="U134">
-        <v>1.8</v>
-      </c>
-      <c r="V134">
-        <v>2</v>
-      </c>
-      <c r="W134">
-        <v>-1</v>
-      </c>
-      <c r="X134">
-        <v>-1</v>
-      </c>
-      <c r="Y134">
-        <v>2.5</v>
-      </c>
-      <c r="Z134">
-        <v>-1</v>
-      </c>
       <c r="AA134">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12729,7 +12729,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
         <v>39</v>
@@ -12910,7 +12910,7 @@
         <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13174,7 +13174,7 @@
         <v>45199.40972222222</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G143" t="s">
         <v>38</v>
@@ -13251,7 +13251,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6834770</v>
+        <v>6834768</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13263,10 +13263,10 @@
         <v>45199.4375</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13278,34 +13278,34 @@
         <v>44</v>
       </c>
       <c r="K144">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="N144">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P144">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
         <v>1.9</v>
@@ -13317,16 +13317,16 @@
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB144">
         <v>-1</v>
@@ -13340,7 +13340,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6834768</v>
+        <v>6834770</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13352,10 +13352,10 @@
         <v>45199.4375</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13367,34 +13367,34 @@
         <v>44</v>
       </c>
       <c r="K145">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M145">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N145">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O145">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
         <v>1.9</v>
@@ -13406,16 +13406,16 @@
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB145">
         <v>-1</v>
@@ -13441,7 +13441,7 @@
         <v>45199.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
         <v>36</v>
@@ -13622,7 +13622,7 @@
         <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13711,7 +13711,7 @@
         <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -14156,7 +14156,7 @@
         <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14319,7 +14319,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6834779</v>
+        <v>6834781</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14331,76 +14331,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G156" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156" t="s">
+        <v>45</v>
+      </c>
+      <c r="K156">
+        <v>1.666</v>
+      </c>
+      <c r="L156">
+        <v>3.8</v>
+      </c>
+      <c r="M156">
         <v>4</v>
       </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156" t="s">
-        <v>46</v>
-      </c>
-      <c r="K156">
-        <v>1.5</v>
-      </c>
-      <c r="L156">
-        <v>4</v>
-      </c>
-      <c r="M156">
-        <v>5</v>
-      </c>
       <c r="N156">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O156">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P156">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q156">
         <v>-0.75</v>
       </c>
       <c r="R156">
+        <v>1.95</v>
+      </c>
+      <c r="S156">
+        <v>1.75</v>
+      </c>
+      <c r="T156">
+        <v>2.25</v>
+      </c>
+      <c r="U156">
+        <v>2</v>
+      </c>
+      <c r="V156">
         <v>1.8</v>
       </c>
-      <c r="S156">
-        <v>2</v>
-      </c>
-      <c r="T156">
-        <v>2.5</v>
-      </c>
-      <c r="U156">
-        <v>1.95</v>
-      </c>
-      <c r="V156">
-        <v>1.75</v>
-      </c>
       <c r="W156">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z156">
+        <v>-1</v>
+      </c>
+      <c r="AA156">
+        <v>0.75</v>
+      </c>
+      <c r="AB156">
+        <v>-1</v>
+      </c>
+      <c r="AC156">
         <v>0.8</v>
-      </c>
-      <c r="AA156">
-        <v>-1</v>
-      </c>
-      <c r="AB156">
-        <v>0.95</v>
-      </c>
-      <c r="AC156">
-        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14408,7 +14408,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6834781</v>
+        <v>6834779</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14420,76 +14420,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H157">
+        <v>4</v>
+      </c>
+      <c r="I157">
         <v>0</v>
       </c>
-      <c r="I157">
-        <v>1</v>
-      </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K157">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L157">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M157">
+        <v>5</v>
+      </c>
+      <c r="N157">
+        <v>1.6</v>
+      </c>
+      <c r="O157">
         <v>4</v>
       </c>
-      <c r="N157">
-        <v>1.75</v>
-      </c>
-      <c r="O157">
-        <v>3.5</v>
-      </c>
       <c r="P157">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q157">
         <v>-0.75</v>
       </c>
       <c r="R157">
+        <v>1.8</v>
+      </c>
+      <c r="S157">
+        <v>2</v>
+      </c>
+      <c r="T157">
+        <v>2.5</v>
+      </c>
+      <c r="U157">
         <v>1.95</v>
       </c>
-      <c r="S157">
+      <c r="V157">
         <v>1.75</v>
       </c>
-      <c r="T157">
-        <v>2.25</v>
-      </c>
-      <c r="U157">
-        <v>2</v>
-      </c>
-      <c r="V157">
-        <v>1.8</v>
-      </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA157">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC157">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14598,7 +14598,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G159" t="s">
         <v>29</v>
@@ -14865,7 +14865,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
         <v>32</v>
@@ -15046,7 +15046,7 @@
         <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H164">
         <v>6</v>
@@ -15224,7 +15224,7 @@
         <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H166">
         <v>3</v>
@@ -15310,7 +15310,7 @@
         <v>45227.36805555555</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15387,7 +15387,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6834791</v>
+        <v>6834795</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15399,10 +15399,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15414,61 +15414,61 @@
         <v>44</v>
       </c>
       <c r="K168">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L168">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M168">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N168">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O168">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P168">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S168">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T168">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U168">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V168">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB168">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15476,7 +15476,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6834795</v>
+        <v>6834791</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15488,10 +15488,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G169" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15503,61 +15503,61 @@
         <v>44</v>
       </c>
       <c r="K169">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L169">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M169">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N169">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O169">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P169">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q169">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S169">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T169">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U169">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V169">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA169">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB169">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC169">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15847,7 +15847,7 @@
         <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -16111,7 +16111,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G176" t="s">
         <v>31</v>
@@ -16467,10 +16467,10 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F180" t="s">
+        <v>35</v>
+      </c>
+      <c r="G180" t="s">
         <v>33</v>
-      </c>
-      <c r="G180" t="s">
-        <v>34</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -16915,7 +16915,7 @@
         <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17001,7 +17001,7 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G186" t="s">
         <v>32</v>
@@ -17167,7 +17167,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6835155</v>
+        <v>6834813</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17179,76 +17179,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F188" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K188">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L188">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M188">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N188">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O188">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P188">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
+        <v>1.925</v>
+      </c>
+      <c r="V188">
         <v>1.875</v>
       </c>
-      <c r="V188">
-        <v>1.925</v>
-      </c>
       <c r="W188">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB188">
         <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>0.4625</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17256,7 +17256,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6834813</v>
+        <v>6835155</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17268,76 +17268,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K189">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L189">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M189">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N189">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O189">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P189">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q189">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R189">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S189">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T189">
         <v>2.25</v>
       </c>
       <c r="U189">
+        <v>1.875</v>
+      </c>
+      <c r="V189">
         <v>1.925</v>
       </c>
-      <c r="V189">
-        <v>1.875</v>
-      </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X189">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA189">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
         <v>-0.5</v>
       </c>
       <c r="AC189">
-        <v>0.4375</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17357,7 +17357,7 @@
         <v>45254.39583333334</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G190" t="s">
         <v>42</v>
@@ -17612,7 +17612,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6834819</v>
+        <v>6834814</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17624,76 +17624,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G193" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K193">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L193">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M193">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N193">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="O193">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P193">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="Q193">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R193">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S193">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T193">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U193">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V193">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W193">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z193">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB193">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17701,7 +17701,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6834814</v>
+        <v>6834819</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17713,76 +17713,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G194" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K194">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L194">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M194">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N194">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O194">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P194">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q194">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R194">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S194">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T194">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U194">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V194">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA194">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC194">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17805,7 +17805,7 @@
         <v>41</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -18161,7 +18161,7 @@
         <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18247,7 +18247,7 @@
         <v>45263.36805555555</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G200" t="s">
         <v>43</v>
@@ -18606,7 +18606,7 @@
         <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -18870,7 +18870,7 @@
         <v>45340.36805555555</v>
       </c>
       <c r="F207" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
         <v>30</v>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -115,13 +115,13 @@
     <t>NK Solin</t>
   </si>
   <si>
-    <t>Orijent</t>
-  </si>
-  <si>
     <t>NK Rudes</t>
   </si>
   <si>
     <t>Vukovar 91</t>
+  </si>
+  <si>
+    <t>Orijent</t>
   </si>
   <si>
     <t>NK Dubrava Zagreb</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC207"/>
+  <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5404925</v>
+        <v>5404338</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -984,73 +984,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>1.75</v>
+        <v>1.142</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N6">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P6">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="Q6">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R6">
+        <v>1.9</v>
+      </c>
+      <c r="S6">
+        <v>1.9</v>
+      </c>
+      <c r="T6">
+        <v>2.75</v>
+      </c>
+      <c r="U6">
+        <v>1.85</v>
+      </c>
+      <c r="V6">
         <v>1.95</v>
       </c>
-      <c r="S6">
-        <v>1.85</v>
-      </c>
-      <c r="T6">
-        <v>2.5</v>
-      </c>
-      <c r="U6">
-        <v>1.925</v>
-      </c>
-      <c r="V6">
-        <v>1.875</v>
-      </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X6">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC6">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5404338</v>
+        <v>5404337</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1073,7 +1073,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1085,34 +1085,34 @@
         <v>46</v>
       </c>
       <c r="K7">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="L7">
+        <v>3.25</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>1.45</v>
+      </c>
+      <c r="O7">
+        <v>3.6</v>
+      </c>
+      <c r="P7">
         <v>6.5</v>
       </c>
-      <c r="M7">
-        <v>15</v>
-      </c>
-      <c r="N7">
-        <v>1.222</v>
-      </c>
-      <c r="O7">
-        <v>5.5</v>
-      </c>
-      <c r="P7">
-        <v>11</v>
-      </c>
       <c r="Q7">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
         <v>1.85</v>
@@ -1121,7 +1121,7 @@
         <v>1.95</v>
       </c>
       <c r="W7">
-        <v>0.222</v>
+        <v>0.45</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1130,16 +1130,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1147,7 +1147,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5404337</v>
+        <v>5404925</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1162,73 +1162,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L8">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
         <v>4</v>
       </c>
       <c r="N8">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="O8">
         <v>3.6</v>
       </c>
       <c r="P8">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q8">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
+        <v>1.95</v>
+      </c>
+      <c r="S8">
         <v>1.85</v>
       </c>
-      <c r="S8">
-        <v>1.95</v>
-      </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>-1</v>
+      </c>
+      <c r="AA8">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
       <c r="AB8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>44982.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5404342</v>
+        <v>5404343</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,76 +1515,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N12">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="O12">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P12">
         <v>4</v>
       </c>
       <c r="Q12">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X12">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5404343</v>
+        <v>5404342</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1604,76 +1604,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L13">
+        <v>3.3</v>
+      </c>
+      <c r="M13">
+        <v>3.5</v>
+      </c>
+      <c r="N13">
+        <v>1.833</v>
+      </c>
+      <c r="O13">
         <v>3.4</v>
-      </c>
-      <c r="M13">
-        <v>3.75</v>
-      </c>
-      <c r="N13">
-        <v>1.727</v>
-      </c>
-      <c r="O13">
-        <v>3.75</v>
       </c>
       <c r="P13">
         <v>4</v>
       </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T13">
         <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1859,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5404350</v>
+        <v>5404346</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1871,46 +1871,46 @@
         <v>44989.47916666666</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="N16">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O16">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
+        <v>1.975</v>
+      </c>
+      <c r="S16">
         <v>1.825</v>
-      </c>
-      <c r="S16">
-        <v>1.975</v>
       </c>
       <c r="T16">
         <v>2.25</v>
@@ -1922,25 +1922,25 @@
         <v>1.975</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5404346</v>
+        <v>5404350</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,46 +1960,46 @@
         <v>44989.47916666666</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="N17">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O17">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P17">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
+        <v>1.825</v>
+      </c>
+      <c r="S17">
         <v>1.975</v>
-      </c>
-      <c r="S17">
-        <v>1.825</v>
       </c>
       <c r="T17">
         <v>2.25</v>
@@ -2011,25 +2011,25 @@
         <v>1.975</v>
       </c>
       <c r="W17">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z17">
+        <v>-1</v>
+      </c>
+      <c r="AA17">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA17">
-        <v>-1</v>
-      </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2138,10 +2138,10 @@
         <v>44990.375</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2319,7 +2319,7 @@
         <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>44996.47916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -2672,10 +2672,10 @@
         <v>44997.375</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3028,10 +3028,10 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3562,7 +3562,7 @@
         <v>45010.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
@@ -3740,10 +3740,10 @@
         <v>45011.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -4188,7 +4188,7 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4366,7 +4366,7 @@
         <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4455,7 +4455,7 @@
         <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>45023.375</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4796,7 +4796,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6425853</v>
+        <v>6425800</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4808,49 +4808,49 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>4</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>46</v>
       </c>
       <c r="K49">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N49">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q49">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
         <v>1.925</v>
@@ -4859,7 +4859,7 @@
         <v>1.875</v>
       </c>
       <c r="W49">
-        <v>0.3999999999999999</v>
+        <v>0.909</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4868,7 +4868,7 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA49">
         <v>-1</v>
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6425800</v>
+        <v>6425853</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,46 +4989,46 @@
         <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>4</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
+        <v>1.4</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>6.5</v>
+      </c>
+      <c r="N51">
+        <v>1.4</v>
+      </c>
+      <c r="O51">
+        <v>4</v>
+      </c>
+      <c r="P51">
+        <v>6.5</v>
+      </c>
+      <c r="Q51">
+        <v>-1.25</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
+      </c>
+      <c r="S51">
         <v>1.8</v>
       </c>
-      <c r="L51">
-        <v>3.4</v>
-      </c>
-      <c r="M51">
-        <v>3.75</v>
-      </c>
-      <c r="N51">
-        <v>1.909</v>
-      </c>
-      <c r="O51">
-        <v>3.3</v>
-      </c>
-      <c r="P51">
-        <v>3.4</v>
-      </c>
-      <c r="Q51">
-        <v>-0.5</v>
-      </c>
-      <c r="R51">
-        <v>1.975</v>
-      </c>
-      <c r="S51">
-        <v>1.825</v>
-      </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
         <v>1.925</v>
@@ -5037,7 +5037,7 @@
         <v>1.875</v>
       </c>
       <c r="W51">
-        <v>0.909</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5046,7 +5046,7 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA51">
         <v>-1</v>
@@ -5078,7 +5078,7 @@
         <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5256,7 +5256,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5523,7 +5523,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>39</v>
@@ -5686,7 +5686,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6425812</v>
+        <v>6425808</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5698,40 +5698,40 @@
         <v>45038.5</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K59">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="L59">
+        <v>3.6</v>
+      </c>
+      <c r="M59">
         <v>5</v>
       </c>
-      <c r="M59">
-        <v>9</v>
-      </c>
       <c r="N59">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="O59">
+        <v>3.6</v>
+      </c>
+      <c r="P59">
         <v>4.75</v>
       </c>
-      <c r="P59">
-        <v>11</v>
-      </c>
       <c r="Q59">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
         <v>1.8</v>
@@ -5740,34 +5740,34 @@
         <v>2</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5775,7 +5775,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6425808</v>
+        <v>6425809</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5787,76 +5787,76 @@
         <v>45038.5</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L60">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M60">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N60">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O60">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P60">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R60">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S60">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T60">
         <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V60">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X60">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA60">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC60">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5864,7 +5864,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6425809</v>
+        <v>6425812</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5876,58 +5876,58 @@
         <v>45038.5</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
         <v>46</v>
       </c>
       <c r="K61">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="L61">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M61">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N61">
-        <v>1.95</v>
+        <v>1.222</v>
       </c>
       <c r="O61">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P61">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="Q61">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R61">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61">
+        <v>2.5</v>
+      </c>
+      <c r="U61">
+        <v>1.825</v>
+      </c>
+      <c r="V61">
         <v>1.975</v>
       </c>
-      <c r="T61">
-        <v>2.25</v>
-      </c>
-      <c r="U61">
-        <v>1.875</v>
-      </c>
-      <c r="V61">
-        <v>1.925</v>
-      </c>
       <c r="W61">
-        <v>0.95</v>
+        <v>0.222</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5936,16 +5936,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.7250000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA61">
         <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC61">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6146,7 +6146,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6398,7 +6398,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6425816</v>
+        <v>6425818</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6410,55 +6410,55 @@
         <v>45045.5</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>1</v>
-      </c>
-      <c r="I67">
-        <v>2</v>
       </c>
       <c r="J67" t="s">
         <v>45</v>
       </c>
       <c r="K67">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L67">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M67">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N67">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="O67">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P67">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U67">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V67">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6467,19 +6467,19 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB67">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6487,7 +6487,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6425818</v>
+        <v>6425816</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6499,76 +6499,76 @@
         <v>45045.5</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
         <v>45</v>
       </c>
       <c r="K68">
+        <v>1.8</v>
+      </c>
+      <c r="L68">
+        <v>3.4</v>
+      </c>
+      <c r="M68">
+        <v>3.75</v>
+      </c>
+      <c r="N68">
+        <v>1.833</v>
+      </c>
+      <c r="O68">
+        <v>3.5</v>
+      </c>
+      <c r="P68">
+        <v>3.8</v>
+      </c>
+      <c r="Q68">
+        <v>-0.5</v>
+      </c>
+      <c r="R68">
+        <v>1.85</v>
+      </c>
+      <c r="S68">
+        <v>1.95</v>
+      </c>
+      <c r="T68">
+        <v>2.5</v>
+      </c>
+      <c r="U68">
+        <v>1.9</v>
+      </c>
+      <c r="V68">
+        <v>1.9</v>
+      </c>
+      <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
+        <v>-1</v>
+      </c>
+      <c r="Y68">
         <v>2.8</v>
       </c>
-      <c r="L68">
-        <v>3.1</v>
-      </c>
-      <c r="M68">
-        <v>2.3</v>
-      </c>
-      <c r="N68">
-        <v>2.55</v>
-      </c>
-      <c r="O68">
-        <v>3.1</v>
-      </c>
-      <c r="P68">
-        <v>2.5</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="R68">
-        <v>1.875</v>
-      </c>
-      <c r="S68">
-        <v>1.925</v>
-      </c>
-      <c r="T68">
-        <v>2</v>
-      </c>
-      <c r="U68">
-        <v>1.75</v>
-      </c>
-      <c r="V68">
-        <v>2.05</v>
-      </c>
-      <c r="W68">
-        <v>-1</v>
-      </c>
-      <c r="X68">
-        <v>-1</v>
-      </c>
-      <c r="Y68">
-        <v>1.5</v>
-      </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC68">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6591,7 +6591,7 @@
         <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6677,7 +6677,7 @@
         <v>45051.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
         <v>40</v>
@@ -6944,7 +6944,7 @@
         <v>45052.5</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
         <v>29</v>
@@ -7033,7 +7033,7 @@
         <v>45052.5</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
         <v>36</v>
@@ -7392,7 +7392,7 @@
         <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7466,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6425828</v>
+        <v>6425827</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7478,28 +7478,28 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>46</v>
       </c>
       <c r="K79">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L79">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N79">
         <v>1.571</v>
@@ -7511,22 +7511,22 @@
         <v>5</v>
       </c>
       <c r="Q79">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S79">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
         <v>0.571</v>
@@ -7538,16 +7538,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA79">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7555,7 +7555,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6425827</v>
+        <v>6425828</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7567,28 +7567,28 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>46</v>
       </c>
       <c r="K80">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L80">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M80">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N80">
         <v>1.571</v>
@@ -7600,22 +7600,22 @@
         <v>5</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R80">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S80">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V80">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
         <v>0.571</v>
@@ -7627,16 +7627,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC80">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7659,7 +7659,7 @@
         <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7745,7 +7745,7 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
         <v>39</v>
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6425836</v>
+        <v>6425833</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,76 +7834,76 @@
         <v>45066.52083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="L83">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="M83">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N83">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="O83">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="P83">
-        <v>4.333</v>
+        <v>8</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R83">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S83">
+        <v>1.85</v>
+      </c>
+      <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
         <v>1.95</v>
       </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>2.025</v>
-      </c>
       <c r="V83">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB83">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC83">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6425833</v>
+        <v>6425836</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,73 +7926,73 @@
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K84">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="L84">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="M84">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N84">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="O84">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P84">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="Q84">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
+        <v>1.75</v>
+      </c>
+      <c r="S84">
         <v>1.95</v>
       </c>
-      <c r="S84">
-        <v>1.85</v>
-      </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V84">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y84">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC84">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8445,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6425840</v>
+        <v>6425843</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8457,13 +8457,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -8472,43 +8472,43 @@
         <v>46</v>
       </c>
       <c r="K90">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N90">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P90">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W90">
-        <v>0.833</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8517,7 +8517,7 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8526,7 +8526,7 @@
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6425843</v>
+        <v>6425840</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,13 +8546,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -8561,43 +8561,43 @@
         <v>46</v>
       </c>
       <c r="K91">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N91">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="O91">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P91">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
-        <v>0.3999999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8606,7 +8606,7 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8615,7 +8615,7 @@
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8902,10 +8902,10 @@
         <v>45079.52083333334</v>
       </c>
       <c r="F95" t="s">
+        <v>33</v>
+      </c>
+      <c r="G95" t="s">
         <v>34</v>
-      </c>
-      <c r="G95" t="s">
-        <v>35</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6425847</v>
+        <v>6425845</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,19 +9080,19 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>2.1</v>
@@ -9104,25 +9104,25 @@
         <v>2.875</v>
       </c>
       <c r="N97">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O97">
         <v>3.5</v>
       </c>
       <c r="P97">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
         <v>2</v>
@@ -9131,25 +9131,25 @@
         <v>1.8</v>
       </c>
       <c r="W97">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB97">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9169,7 +9169,7 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>37</v>
@@ -9246,7 +9246,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6425845</v>
+        <v>6425847</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9258,19 +9258,19 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H99">
+        <v>3</v>
+      </c>
+      <c r="I99">
         <v>0</v>
       </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K99">
         <v>2.1</v>
@@ -9282,25 +9282,25 @@
         <v>2.875</v>
       </c>
       <c r="N99">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O99">
         <v>3.5</v>
       </c>
       <c r="P99">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
         <v>2</v>
@@ -9309,25 +9309,25 @@
         <v>1.8</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC99">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6834729</v>
+        <v>7045999</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,76 +9436,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K101">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M101">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N101">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O101">
         <v>3.25</v>
       </c>
       <c r="P101">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U101">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V101">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6834732</v>
+        <v>6834733</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,76 +9525,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K102">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L102">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N102">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O102">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P102">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T102">
         <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X102">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA102">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9602,7 +9602,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6834733</v>
+        <v>6834732</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9614,76 +9614,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K103">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L103">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N103">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q103">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T103">
         <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W103">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9691,7 +9691,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7045999</v>
+        <v>6834729</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9703,76 +9703,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K104">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L104">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M104">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N104">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O104">
         <v>3.25</v>
       </c>
       <c r="P104">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S104">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T104">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V104">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y104">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA104">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9881,7 +9881,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
         <v>43</v>
@@ -9958,7 +9958,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6834735</v>
+        <v>6834734</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9970,10 +9970,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9985,61 +9985,61 @@
         <v>44</v>
       </c>
       <c r="K107">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N107">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O107">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P107">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S107">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V107">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB107">
         <v>-0.5</v>
       </c>
       <c r="AC107">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10047,7 +10047,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6834738</v>
+        <v>6834735</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10059,76 +10059,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>44</v>
+      </c>
+      <c r="K108">
+        <v>2.4</v>
+      </c>
+      <c r="L108">
         <v>3</v>
       </c>
-      <c r="J108" t="s">
-        <v>45</v>
-      </c>
-      <c r="K108">
+      <c r="M108">
         <v>2.75</v>
       </c>
-      <c r="L108">
-        <v>3.2</v>
-      </c>
-      <c r="M108">
-        <v>2.3</v>
-      </c>
       <c r="N108">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="O108">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P108">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y108">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB108">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10136,7 +10136,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6834734</v>
+        <v>6834738</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10148,76 +10148,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K109">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L109">
         <v>3.2</v>
       </c>
       <c r="M109">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="N109">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O109">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P109">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB109">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC109">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10329,7 +10329,7 @@
         <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>4</v>
@@ -10504,10 +10504,10 @@
         <v>45164.5</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>32</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>4</v>
@@ -11115,7 +11115,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6834748</v>
+        <v>6834746</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11127,76 +11127,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K120">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L120">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N120">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O120">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P120">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q120">
+        <v>-0.25</v>
+      </c>
+      <c r="R120">
+        <v>1.825</v>
+      </c>
+      <c r="S120">
+        <v>1.975</v>
+      </c>
+      <c r="T120">
+        <v>2.25</v>
+      </c>
+      <c r="U120">
+        <v>1.925</v>
+      </c>
+      <c r="V120">
+        <v>1.875</v>
+      </c>
+      <c r="W120">
+        <v>-1</v>
+      </c>
+      <c r="X120">
+        <v>2.1</v>
+      </c>
+      <c r="Y120">
+        <v>-1</v>
+      </c>
+      <c r="Z120">
         <v>-0.5</v>
       </c>
-      <c r="R120">
-        <v>1.975</v>
-      </c>
-      <c r="S120">
-        <v>1.825</v>
-      </c>
-      <c r="T120">
-        <v>2.5</v>
-      </c>
-      <c r="U120">
-        <v>1.9</v>
-      </c>
-      <c r="V120">
-        <v>1.9</v>
-      </c>
-      <c r="W120">
-        <v>0.909</v>
-      </c>
-      <c r="X120">
-        <v>-1</v>
-      </c>
-      <c r="Y120">
-        <v>-1</v>
-      </c>
-      <c r="Z120">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11204,7 +11204,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6834746</v>
+        <v>6834748</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11216,76 +11216,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N121">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O121">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P121">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
+        <v>1.975</v>
+      </c>
+      <c r="S121">
         <v>1.825</v>
       </c>
-      <c r="S121">
-        <v>1.975</v>
-      </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X121">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA121">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11305,7 +11305,7 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
         <v>38</v>
@@ -11486,7 +11486,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11572,7 +11572,7 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G125" t="s">
         <v>41</v>
@@ -11649,7 +11649,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6834755</v>
+        <v>6834752</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11661,13 +11661,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F126" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -11676,43 +11676,43 @@
         <v>46</v>
       </c>
       <c r="K126">
+        <v>1.727</v>
+      </c>
+      <c r="L126">
+        <v>3.4</v>
+      </c>
+      <c r="M126">
+        <v>4.2</v>
+      </c>
+      <c r="N126">
+        <v>1.833</v>
+      </c>
+      <c r="O126">
+        <v>3.4</v>
+      </c>
+      <c r="P126">
+        <v>4</v>
+      </c>
+      <c r="Q126">
+        <v>-0.5</v>
+      </c>
+      <c r="R126">
+        <v>1.85</v>
+      </c>
+      <c r="S126">
+        <v>1.95</v>
+      </c>
+      <c r="T126">
         <v>2.25</v>
       </c>
-      <c r="L126">
-        <v>3.25</v>
-      </c>
-      <c r="M126">
-        <v>2.75</v>
-      </c>
-      <c r="N126">
-        <v>1.666</v>
-      </c>
-      <c r="O126">
-        <v>3.5</v>
-      </c>
-      <c r="P126">
-        <v>4.2</v>
-      </c>
-      <c r="Q126">
-        <v>-0.75</v>
-      </c>
-      <c r="R126">
-        <v>2</v>
-      </c>
-      <c r="S126">
+      <c r="U126">
         <v>1.8</v>
       </c>
-      <c r="T126">
-        <v>2.5</v>
-      </c>
-      <c r="U126">
-        <v>2.025</v>
-      </c>
       <c r="V126">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W126">
-        <v>0.6659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11721,16 +11721,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
+        <v>-1</v>
+      </c>
+      <c r="AC126">
         <v>1</v>
-      </c>
-      <c r="AA126">
-        <v>-1</v>
-      </c>
-      <c r="AB126">
-        <v>1.025</v>
-      </c>
-      <c r="AC126">
-        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11738,7 +11738,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6834752</v>
+        <v>6834755</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11750,13 +11750,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F127" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -11765,43 +11765,43 @@
         <v>46</v>
       </c>
       <c r="K127">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L127">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M127">
+        <v>2.75</v>
+      </c>
+      <c r="N127">
+        <v>1.666</v>
+      </c>
+      <c r="O127">
+        <v>3.5</v>
+      </c>
+      <c r="P127">
         <v>4.2</v>
       </c>
-      <c r="N127">
-        <v>1.833</v>
-      </c>
-      <c r="O127">
-        <v>3.4</v>
-      </c>
-      <c r="P127">
-        <v>4</v>
-      </c>
       <c r="Q127">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S127">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V127">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W127">
-        <v>0.833</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11810,16 +11810,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA127">
         <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC127">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12020,7 +12020,7 @@
         <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12106,7 +12106,7 @@
         <v>45184.47916666666</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
         <v>29</v>
@@ -12272,7 +12272,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6834760</v>
+        <v>6834757</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12284,76 +12284,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K133">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M133">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N133">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O133">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P133">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q133">
+        <v>-0.25</v>
+      </c>
+      <c r="R133">
+        <v>1.925</v>
+      </c>
+      <c r="S133">
+        <v>1.875</v>
+      </c>
+      <c r="T133">
+        <v>2.25</v>
+      </c>
+      <c r="U133">
+        <v>1.875</v>
+      </c>
+      <c r="V133">
+        <v>1.925</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>2</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
         <v>-0.5</v>
       </c>
-      <c r="R133">
-        <v>2</v>
-      </c>
-      <c r="S133">
-        <v>1.8</v>
-      </c>
-      <c r="T133">
-        <v>2.5</v>
-      </c>
-      <c r="U133">
-        <v>1.8</v>
-      </c>
-      <c r="V133">
-        <v>2</v>
-      </c>
-      <c r="W133">
-        <v>-1</v>
-      </c>
-      <c r="X133">
-        <v>-1</v>
-      </c>
-      <c r="Y133">
-        <v>2.5</v>
-      </c>
-      <c r="Z133">
-        <v>-1</v>
-      </c>
       <c r="AA133">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC133">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12361,7 +12361,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6834757</v>
+        <v>6834760</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12373,76 +12373,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K134">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L134">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M134">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N134">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O134">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P134">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q134">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V134">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12729,7 +12729,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
         <v>39</v>
@@ -12910,7 +12910,7 @@
         <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13174,7 +13174,7 @@
         <v>45199.40972222222</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G143" t="s">
         <v>38</v>
@@ -13251,7 +13251,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6834768</v>
+        <v>6834769</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13263,76 +13263,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>44</v>
       </c>
       <c r="K144">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N144">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O144">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P144">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13340,7 +13340,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6834770</v>
+        <v>6834768</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13352,10 +13352,10 @@
         <v>45199.4375</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -13367,34 +13367,34 @@
         <v>44</v>
       </c>
       <c r="K145">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="N145">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O145">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P145">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q145">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U145">
         <v>1.9</v>
@@ -13406,16 +13406,16 @@
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB145">
         <v>-1</v>
@@ -13429,7 +13429,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6834769</v>
+        <v>6834770</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13441,61 +13441,61 @@
         <v>45199.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>44</v>
       </c>
       <c r="K146">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L146">
+        <v>3.4</v>
+      </c>
+      <c r="M146">
         <v>3.6</v>
-      </c>
-      <c r="M146">
-        <v>3.8</v>
       </c>
       <c r="N146">
         <v>1.909</v>
       </c>
       <c r="O146">
+        <v>3.4</v>
+      </c>
+      <c r="P146">
         <v>3.5</v>
-      </c>
-      <c r="P146">
-        <v>3.2</v>
       </c>
       <c r="Q146">
         <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S146">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V146">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13504,13 +13504,13 @@
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13711,7 +13711,7 @@
         <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -14156,7 +14156,7 @@
         <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14598,7 +14598,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
         <v>29</v>
@@ -14853,7 +14853,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6834789</v>
+        <v>6834786</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14865,73 +14865,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K162">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L162">
+        <v>3.1</v>
+      </c>
+      <c r="M162">
         <v>3.75</v>
       </c>
-      <c r="M162">
-        <v>5.5</v>
-      </c>
       <c r="N162">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="O162">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P162">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q162">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R162">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V162">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X162">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA162">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14942,7 +14942,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6834786</v>
+        <v>6834789</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14954,73 +14954,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K163">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L163">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M163">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N163">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="O163">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P163">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q163">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
+        <v>2</v>
+      </c>
+      <c r="S163">
+        <v>1.8</v>
+      </c>
+      <c r="T163">
+        <v>2.75</v>
+      </c>
+      <c r="U163">
+        <v>1.825</v>
+      </c>
+      <c r="V163">
         <v>1.975</v>
       </c>
-      <c r="S163">
-        <v>1.825</v>
-      </c>
-      <c r="T163">
-        <v>2.25</v>
-      </c>
-      <c r="U163">
-        <v>1.875</v>
-      </c>
-      <c r="V163">
-        <v>1.925</v>
-      </c>
       <c r="W163">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB163">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15046,7 +15046,7 @@
         <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H164">
         <v>6</v>
@@ -15224,7 +15224,7 @@
         <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H166">
         <v>3</v>
@@ -15310,7 +15310,7 @@
         <v>45227.36805555555</v>
       </c>
       <c r="F167" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15387,7 +15387,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6834795</v>
+        <v>6834791</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15399,10 +15399,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G168" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15414,61 +15414,61 @@
         <v>44</v>
       </c>
       <c r="K168">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L168">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M168">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N168">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O168">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P168">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S168">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V168">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W168">
         <v>-1</v>
       </c>
       <c r="X168">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA168">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC168">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15476,7 +15476,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6834791</v>
+        <v>6834795</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15488,10 +15488,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15503,61 +15503,61 @@
         <v>44</v>
       </c>
       <c r="K169">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L169">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M169">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N169">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O169">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P169">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R169">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S169">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T169">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U169">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V169">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W169">
         <v>-1</v>
       </c>
       <c r="X169">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB169">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15847,7 +15847,7 @@
         <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -15921,7 +15921,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6834798</v>
+        <v>6834800</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15933,76 +15933,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K174">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L174">
         <v>3.6</v>
       </c>
       <c r="M174">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N174">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P174">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q174">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R174">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S174">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U174">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z174">
         <v>-1</v>
       </c>
       <c r="AA174">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16099,7 +16099,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6834800</v>
+        <v>6834798</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16111,76 +16111,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K176">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L176">
         <v>3.6</v>
       </c>
       <c r="M176">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N176">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O176">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P176">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q176">
+        <v>-0.75</v>
+      </c>
+      <c r="R176">
+        <v>1.85</v>
+      </c>
+      <c r="S176">
+        <v>1.95</v>
+      </c>
+      <c r="T176">
+        <v>2.25</v>
+      </c>
+      <c r="U176">
+        <v>1.875</v>
+      </c>
+      <c r="V176">
+        <v>1.925</v>
+      </c>
+      <c r="W176">
+        <v>-1</v>
+      </c>
+      <c r="X176">
+        <v>2.5</v>
+      </c>
+      <c r="Y176">
+        <v>-1</v>
+      </c>
+      <c r="Z176">
+        <v>-1</v>
+      </c>
+      <c r="AA176">
+        <v>0.95</v>
+      </c>
+      <c r="AB176">
         <v>-0.5</v>
       </c>
-      <c r="R176">
-        <v>1.975</v>
-      </c>
-      <c r="S176">
-        <v>1.825</v>
-      </c>
-      <c r="T176">
-        <v>2.75</v>
-      </c>
-      <c r="U176">
-        <v>1.9</v>
-      </c>
-      <c r="V176">
-        <v>1.9</v>
-      </c>
-      <c r="W176">
-        <v>-1</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
-      <c r="Y176">
-        <v>2.1</v>
-      </c>
-      <c r="Z176">
-        <v>-1</v>
-      </c>
-      <c r="AA176">
-        <v>0.825</v>
-      </c>
-      <c r="AB176">
-        <v>-1</v>
-      </c>
       <c r="AC176">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16455,7 +16455,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6834805</v>
+        <v>6834803</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16467,76 +16467,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G180" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K180">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L180">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M180">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N180">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="O180">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P180">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="Q180">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R180">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S180">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T180">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V180">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W180">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z180">
-        <v>0.95</v>
+        <v>0.3625</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16544,7 +16544,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6834803</v>
+        <v>6834805</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16556,76 +16556,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G181" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
         <v>0</v>
       </c>
-      <c r="I181">
-        <v>1</v>
-      </c>
       <c r="J181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K181">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L181">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M181">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N181">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="O181">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P181">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="Q181">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R181">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S181">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U181">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V181">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.3625</v>
+        <v>0.95</v>
       </c>
       <c r="AA181">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16915,7 +16915,7 @@
         <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -16989,7 +16989,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6834812</v>
+        <v>6834810</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17001,76 +17001,76 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G186" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H186">
         <v>1</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K186">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L186">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N186">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O186">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S186">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T186">
         <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17078,7 +17078,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6834810</v>
+        <v>6834812</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17090,76 +17090,76 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H187">
         <v>1</v>
       </c>
       <c r="I187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K187">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L187">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M187">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N187">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O187">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P187">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q187">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S187">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V187">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y187">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA187">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB187">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17357,7 +17357,7 @@
         <v>45254.39583333334</v>
       </c>
       <c r="F190" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G190" t="s">
         <v>42</v>
@@ -17523,7 +17523,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6834818</v>
+        <v>6834819</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17535,76 +17535,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G192" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K192">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L192">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M192">
         <v>3</v>
       </c>
       <c r="N192">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O192">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P192">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q192">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R192">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S192">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T192">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA192">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC192">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17701,7 +17701,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6834819</v>
+        <v>6834818</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17713,76 +17713,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K194">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L194">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M194">
         <v>3</v>
       </c>
       <c r="N194">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O194">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P194">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q194">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R194">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S194">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T194">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V194">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z194">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB194">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17805,7 +17805,7 @@
         <v>41</v>
       </c>
       <c r="G195" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -18161,7 +18161,7 @@
         <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18247,7 +18247,7 @@
         <v>45263.36805555555</v>
       </c>
       <c r="F200" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G200" t="s">
         <v>43</v>
@@ -18606,7 +18606,7 @@
         <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -18870,7 +18870,7 @@
         <v>45340.36805555555</v>
       </c>
       <c r="F207" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
         <v>30</v>
@@ -18940,6 +18940,154 @@
       </c>
       <c r="AC207">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>6835157</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45345.45138888889</v>
+      </c>
+      <c r="F208" t="s">
+        <v>42</v>
+      </c>
+      <c r="G208" t="s">
+        <v>43</v>
+      </c>
+      <c r="K208">
+        <v>3</v>
+      </c>
+      <c r="L208">
+        <v>3</v>
+      </c>
+      <c r="M208">
+        <v>2.25</v>
+      </c>
+      <c r="N208">
+        <v>3.5</v>
+      </c>
+      <c r="O208">
+        <v>2.9</v>
+      </c>
+      <c r="P208">
+        <v>2.15</v>
+      </c>
+      <c r="Q208">
+        <v>0.25</v>
+      </c>
+      <c r="R208">
+        <v>1.95</v>
+      </c>
+      <c r="S208">
+        <v>1.85</v>
+      </c>
+      <c r="T208">
+        <v>2</v>
+      </c>
+      <c r="U208">
+        <v>2.05</v>
+      </c>
+      <c r="V208">
+        <v>1.75</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>6834831</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45345.45833333334</v>
+      </c>
+      <c r="F209" t="s">
+        <v>31</v>
+      </c>
+      <c r="G209" t="s">
+        <v>39</v>
+      </c>
+      <c r="K209">
+        <v>1.75</v>
+      </c>
+      <c r="L209">
+        <v>3.2</v>
+      </c>
+      <c r="M209">
+        <v>4.333</v>
+      </c>
+      <c r="N209">
+        <v>1.8</v>
+      </c>
+      <c r="O209">
+        <v>3.1</v>
+      </c>
+      <c r="P209">
+        <v>4.5</v>
+      </c>
+      <c r="Q209">
+        <v>-0.5</v>
+      </c>
+      <c r="R209">
+        <v>1.85</v>
+      </c>
+      <c r="S209">
+        <v>1.95</v>
+      </c>
+      <c r="T209">
+        <v>2.25</v>
+      </c>
+      <c r="U209">
+        <v>2.05</v>
+      </c>
+      <c r="V209">
+        <v>1.75</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -115,13 +115,13 @@
     <t>NK Solin</t>
   </si>
   <si>
-    <t>NK Rudes</t>
-  </si>
-  <si>
     <t>Vukovar 91</t>
   </si>
   <si>
     <t>Orijent</t>
+  </si>
+  <si>
+    <t>NK Rudes</t>
   </si>
   <si>
     <t>NK Dubrava Zagreb</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC209"/>
+  <dimension ref="A1:AC210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5404338</v>
+        <v>5404337</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -984,7 +984,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -996,34 +996,34 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.142</v>
+        <v>1.8</v>
       </c>
       <c r="L6">
+        <v>3.25</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>1.45</v>
+      </c>
+      <c r="O6">
+        <v>3.6</v>
+      </c>
+      <c r="P6">
         <v>6.5</v>
       </c>
-      <c r="M6">
-        <v>15</v>
-      </c>
-      <c r="N6">
-        <v>1.222</v>
-      </c>
-      <c r="O6">
-        <v>5.5</v>
-      </c>
-      <c r="P6">
-        <v>11</v>
-      </c>
       <c r="Q6">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S6">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
         <v>1.85</v>
@@ -1032,7 +1032,7 @@
         <v>1.95</v>
       </c>
       <c r="W6">
-        <v>0.222</v>
+        <v>0.45</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1041,16 +1041,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.425</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5404337</v>
+        <v>5404925</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1073,73 +1073,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L7">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
         <v>4</v>
       </c>
       <c r="N7">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="O7">
         <v>3.6</v>
       </c>
       <c r="P7">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
+        <v>1.95</v>
+      </c>
+      <c r="S7">
         <v>1.85</v>
       </c>
-      <c r="S7">
-        <v>1.95</v>
-      </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
+        <v>-1</v>
+      </c>
+      <c r="AA7">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
       <c r="AB7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1147,7 +1147,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5404925</v>
+        <v>5404338</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1162,73 +1162,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K8">
-        <v>1.75</v>
+        <v>1.142</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N8">
-        <v>1.7</v>
+        <v>1.222</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P8">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="Q8">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R8">
+        <v>1.9</v>
+      </c>
+      <c r="S8">
+        <v>1.9</v>
+      </c>
+      <c r="T8">
+        <v>2.75</v>
+      </c>
+      <c r="U8">
+        <v>1.85</v>
+      </c>
+      <c r="V8">
         <v>1.95</v>
       </c>
-      <c r="S8">
-        <v>1.85</v>
-      </c>
-      <c r="T8">
-        <v>2.5</v>
-      </c>
-      <c r="U8">
-        <v>1.925</v>
-      </c>
-      <c r="V8">
-        <v>1.875</v>
-      </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X8">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>44982.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1871,7 +1871,7 @@
         <v>44989.47916666666</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
         <v>37</v>
@@ -2138,10 +2138,10 @@
         <v>44990.375</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2319,7 +2319,7 @@
         <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>44996.47916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -2672,10 +2672,10 @@
         <v>44997.375</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3028,10 +3028,10 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5404359</v>
+        <v>5404361</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="L30">
         <v>3.25</v>
       </c>
       <c r="M30">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N30">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O30">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P30">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V30">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y30">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA30">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5404361</v>
+        <v>5404359</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,76 +3206,76 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
         <v>3.25</v>
       </c>
       <c r="M31">
+        <v>3.5</v>
+      </c>
+      <c r="N31">
         <v>1.909</v>
       </c>
-      <c r="N31">
-        <v>3</v>
-      </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P31">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S31">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z31">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3283,7 +3283,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>5404357</v>
+        <v>6416611</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3295,49 +3295,49 @@
         <v>45004.375</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L32">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M32">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N32">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O32">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
         <v>1.9</v>
@@ -3349,22 +3349,22 @@
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z32">
         <v>-1</v>
       </c>
       <c r="AA32">
+        <v>0.8</v>
+      </c>
+      <c r="AB32">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB32">
-        <v>-0.5</v>
-      </c>
       <c r="AC32">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3372,7 +3372,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6416611</v>
+        <v>5404357</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3384,49 +3384,49 @@
         <v>45004.375</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M33">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N33">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P33">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
         <v>1.9</v>
@@ -3438,22 +3438,22 @@
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y33">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
         <v>-1</v>
       </c>
       <c r="AA33">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB33">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3562,7 +3562,7 @@
         <v>45010.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
@@ -3740,10 +3740,10 @@
         <v>45011.45833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -4188,7 +4188,7 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4366,7 +4366,7 @@
         <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4455,7 +4455,7 @@
         <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>45023.375</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4808,7 +4808,7 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>31</v>
@@ -4885,7 +4885,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6425801</v>
+        <v>6425853</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4897,58 +4897,58 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M50">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="N50">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O50">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R50">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
-        <v>1.05</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4957,13 +4957,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6425853</v>
+        <v>6425801</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4986,58 +4986,58 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N51">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P51">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q51">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R51">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W51">
-        <v>0.3999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5046,13 +5046,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5078,7 +5078,7 @@
         <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5256,7 +5256,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5523,7 +5523,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
         <v>39</v>
@@ -5686,7 +5686,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6425808</v>
+        <v>6425812</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5698,40 +5698,40 @@
         <v>45038.5</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="L59">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M59">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N59">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="O59">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P59">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R59">
         <v>1.8</v>
@@ -5740,34 +5740,34 @@
         <v>2</v>
       </c>
       <c r="T59">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U59">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X59">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5787,7 +5787,7 @@
         <v>45038.5</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
         <v>30</v>
@@ -5864,7 +5864,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6425812</v>
+        <v>6425808</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5876,40 +5876,40 @@
         <v>45038.5</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K61">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="L61">
+        <v>3.6</v>
+      </c>
+      <c r="M61">
         <v>5</v>
       </c>
-      <c r="M61">
-        <v>9</v>
-      </c>
       <c r="N61">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="O61">
+        <v>3.6</v>
+      </c>
+      <c r="P61">
         <v>4.75</v>
       </c>
-      <c r="P61">
-        <v>11</v>
-      </c>
       <c r="Q61">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
         <v>1.8</v>
@@ -5918,34 +5918,34 @@
         <v>2</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U61">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V61">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W61">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X61">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB61">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6146,7 +6146,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6398,7 +6398,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6425818</v>
+        <v>6425816</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6410,76 +6410,76 @@
         <v>45045.5</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
         <v>45</v>
       </c>
       <c r="K67">
+        <v>1.8</v>
+      </c>
+      <c r="L67">
+        <v>3.4</v>
+      </c>
+      <c r="M67">
+        <v>3.75</v>
+      </c>
+      <c r="N67">
+        <v>1.833</v>
+      </c>
+      <c r="O67">
+        <v>3.5</v>
+      </c>
+      <c r="P67">
+        <v>3.8</v>
+      </c>
+      <c r="Q67">
+        <v>-0.5</v>
+      </c>
+      <c r="R67">
+        <v>1.85</v>
+      </c>
+      <c r="S67">
+        <v>1.95</v>
+      </c>
+      <c r="T67">
+        <v>2.5</v>
+      </c>
+      <c r="U67">
+        <v>1.9</v>
+      </c>
+      <c r="V67">
+        <v>1.9</v>
+      </c>
+      <c r="W67">
+        <v>-1</v>
+      </c>
+      <c r="X67">
+        <v>-1</v>
+      </c>
+      <c r="Y67">
         <v>2.8</v>
       </c>
-      <c r="L67">
-        <v>3.1</v>
-      </c>
-      <c r="M67">
-        <v>2.3</v>
-      </c>
-      <c r="N67">
-        <v>2.55</v>
-      </c>
-      <c r="O67">
-        <v>3.1</v>
-      </c>
-      <c r="P67">
-        <v>2.5</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67">
-        <v>1.875</v>
-      </c>
-      <c r="S67">
-        <v>1.925</v>
-      </c>
-      <c r="T67">
-        <v>2</v>
-      </c>
-      <c r="U67">
-        <v>1.75</v>
-      </c>
-      <c r="V67">
-        <v>2.05</v>
-      </c>
-      <c r="W67">
-        <v>-1</v>
-      </c>
-      <c r="X67">
-        <v>-1</v>
-      </c>
-      <c r="Y67">
-        <v>1.5</v>
-      </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC67">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6487,7 +6487,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6425816</v>
+        <v>6425818</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6499,55 +6499,55 @@
         <v>45045.5</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
         <v>1</v>
-      </c>
-      <c r="I68">
-        <v>2</v>
       </c>
       <c r="J68" t="s">
         <v>45</v>
       </c>
       <c r="K68">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M68">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="N68">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P68">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6556,19 +6556,19 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB68">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6591,7 +6591,7 @@
         <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6677,7 +6677,7 @@
         <v>45051.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
         <v>40</v>
@@ -6944,7 +6944,7 @@
         <v>45052.5</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
         <v>29</v>
@@ -7033,7 +7033,7 @@
         <v>45052.5</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
         <v>36</v>
@@ -7392,7 +7392,7 @@
         <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7570,7 +7570,7 @@
         <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -7659,7 +7659,7 @@
         <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7745,7 +7745,7 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>39</v>
@@ -7834,7 +7834,7 @@
         <v>45066.52083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -7923,7 +7923,7 @@
         <v>45066.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
         <v>38</v>
@@ -8445,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6425843</v>
+        <v>6425840</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8457,13 +8457,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -8472,43 +8472,43 @@
         <v>46</v>
       </c>
       <c r="K90">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N90">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="O90">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P90">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V90">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8517,7 +8517,7 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8526,7 +8526,7 @@
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6425840</v>
+        <v>6425843</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,13 +8546,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -8561,43 +8561,43 @@
         <v>46</v>
       </c>
       <c r="K91">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M91">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N91">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O91">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P91">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S91">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W91">
-        <v>0.833</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8606,7 +8606,7 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8615,7 +8615,7 @@
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8902,10 +8902,10 @@
         <v>45079.52083333334</v>
       </c>
       <c r="F95" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95" t="s">
         <v>33</v>
-      </c>
-      <c r="G95" t="s">
-        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6425845</v>
+        <v>6425847</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,19 +9080,19 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
         <v>0</v>
       </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K97">
         <v>2.1</v>
@@ -9104,25 +9104,25 @@
         <v>2.875</v>
       </c>
       <c r="N97">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O97">
         <v>3.5</v>
       </c>
       <c r="P97">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S97">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T97">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
         <v>2</v>
@@ -9131,25 +9131,25 @@
         <v>1.8</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC97">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9169,7 +9169,7 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
         <v>37</v>
@@ -9246,7 +9246,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6425847</v>
+        <v>6425845</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9258,19 +9258,19 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K99">
         <v>2.1</v>
@@ -9282,25 +9282,25 @@
         <v>2.875</v>
       </c>
       <c r="N99">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O99">
         <v>3.5</v>
       </c>
       <c r="P99">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q99">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S99">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
         <v>2</v>
@@ -9309,25 +9309,25 @@
         <v>1.8</v>
       </c>
       <c r="W99">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB99">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6834733</v>
+        <v>6834732</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,76 +9525,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K102">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N102">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T102">
         <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9602,7 +9602,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6834732</v>
+        <v>6834729</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9614,16 +9614,16 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>44</v>
@@ -9638,37 +9638,37 @@
         <v>3.1</v>
       </c>
       <c r="N103">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O103">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P103">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T103">
+        <v>2.5</v>
+      </c>
+      <c r="U103">
+        <v>2</v>
+      </c>
+      <c r="V103">
+        <v>1.8</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
         <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.825</v>
-      </c>
-      <c r="V103">
-        <v>1.975</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>2.1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
@@ -9677,13 +9677,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>0.3875</v>
+        <v>0.5</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9691,7 +9691,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6834729</v>
+        <v>6834733</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9703,76 +9703,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N104">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O104">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
         <v>1.8</v>
       </c>
-      <c r="S104">
-        <v>2</v>
-      </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X104">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA104">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9881,7 +9881,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
         <v>43</v>
@@ -10329,7 +10329,7 @@
         <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>4</v>
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6834743</v>
+        <v>6834742</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,76 +10504,76 @@
         <v>45164.5</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H113">
+        <v>3</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L113">
+        <v>3.25</v>
+      </c>
+      <c r="M113">
         <v>3.3</v>
       </c>
-      <c r="M113">
-        <v>2.1</v>
-      </c>
       <c r="N113">
+        <v>2.15</v>
+      </c>
+      <c r="O113">
+        <v>3.1</v>
+      </c>
+      <c r="P113">
+        <v>3.1</v>
+      </c>
+      <c r="Q113">
+        <v>-0.25</v>
+      </c>
+      <c r="R113">
+        <v>1.9</v>
+      </c>
+      <c r="S113">
+        <v>1.9</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
+        <v>1.75</v>
+      </c>
+      <c r="V113">
         <v>1.95</v>
       </c>
-      <c r="O113">
-        <v>3.4</v>
-      </c>
-      <c r="P113">
-        <v>3.3</v>
-      </c>
-      <c r="Q113">
-        <v>-0.5</v>
-      </c>
-      <c r="R113">
-        <v>2</v>
-      </c>
-      <c r="S113">
-        <v>1.8</v>
-      </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
-      <c r="U113">
-        <v>2</v>
-      </c>
-      <c r="V113">
-        <v>1.8</v>
-      </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA113">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC113">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6834744</v>
+        <v>6834743</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,76 +10593,76 @@
         <v>45164.5</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L114">
+        <v>3.3</v>
+      </c>
+      <c r="M114">
+        <v>2.1</v>
+      </c>
+      <c r="N114">
+        <v>1.95</v>
+      </c>
+      <c r="O114">
         <v>3.4</v>
       </c>
-      <c r="M114">
-        <v>4</v>
-      </c>
-      <c r="N114">
-        <v>1.666</v>
-      </c>
-      <c r="O114">
-        <v>3.6</v>
-      </c>
       <c r="P114">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S114">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T114">
         <v>2.5</v>
       </c>
       <c r="U114">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V114">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W114">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10670,7 +10670,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6834742</v>
+        <v>6834744</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10682,58 +10682,58 @@
         <v>45164.5</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>3</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>46</v>
       </c>
       <c r="K115">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L115">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M115">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N115">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O115">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W115">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10742,13 +10742,13 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -11026,7 +11026,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6834750</v>
+        <v>6834748</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11038,58 +11038,58 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G119" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>46</v>
       </c>
       <c r="K119">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L119">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N119">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O119">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P119">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S119">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T119">
         <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11098,16 +11098,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11204,7 +11204,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6834748</v>
+        <v>6834750</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11216,58 +11216,58 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>46</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L121">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N121">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O121">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P121">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W121">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11276,16 +11276,16 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC121">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11305,7 +11305,7 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
         <v>38</v>
@@ -11486,7 +11486,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11560,7 +11560,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6834753</v>
+        <v>6834752</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11572,58 +11572,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L125">
         <v>3.4</v>
       </c>
       <c r="M125">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N125">
+        <v>1.833</v>
+      </c>
+      <c r="O125">
+        <v>3.4</v>
+      </c>
+      <c r="P125">
         <v>4</v>
       </c>
-      <c r="O125">
-        <v>3.3</v>
-      </c>
-      <c r="P125">
-        <v>1.833</v>
-      </c>
       <c r="Q125">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V125">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W125">
-        <v>3</v>
+        <v>0.833</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11632,16 +11632,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11649,7 +11649,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6834752</v>
+        <v>6834753</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11661,58 +11661,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J126" t="s">
         <v>46</v>
       </c>
       <c r="K126">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L126">
         <v>3.4</v>
       </c>
       <c r="M126">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126">
+        <v>3.3</v>
+      </c>
+      <c r="P126">
         <v>1.833</v>
       </c>
-      <c r="O126">
-        <v>3.4</v>
-      </c>
-      <c r="P126">
-        <v>4</v>
-      </c>
       <c r="Q126">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R126">
+        <v>1.975</v>
+      </c>
+      <c r="S126">
+        <v>1.825</v>
+      </c>
+      <c r="T126">
+        <v>2.5</v>
+      </c>
+      <c r="U126">
+        <v>1.95</v>
+      </c>
+      <c r="V126">
         <v>1.85</v>
       </c>
-      <c r="S126">
-        <v>1.95</v>
-      </c>
-      <c r="T126">
-        <v>2.25</v>
-      </c>
-      <c r="U126">
-        <v>1.8</v>
-      </c>
-      <c r="V126">
-        <v>2</v>
-      </c>
       <c r="W126">
-        <v>0.833</v>
+        <v>3</v>
       </c>
       <c r="X126">
         <v>-1</v>
@@ -11721,16 +11721,16 @@
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA126">
         <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC126">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -12020,7 +12020,7 @@
         <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12106,7 +12106,7 @@
         <v>45184.47916666666</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
         <v>29</v>
@@ -12272,7 +12272,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6834757</v>
+        <v>6834760</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12284,76 +12284,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K133">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L133">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N133">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O133">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P133">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12361,7 +12361,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6834760</v>
+        <v>6834757</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12373,76 +12373,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K134">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L134">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M134">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N134">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P134">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q134">
+        <v>-0.25</v>
+      </c>
+      <c r="R134">
+        <v>1.925</v>
+      </c>
+      <c r="S134">
+        <v>1.875</v>
+      </c>
+      <c r="T134">
+        <v>2.25</v>
+      </c>
+      <c r="U134">
+        <v>1.875</v>
+      </c>
+      <c r="V134">
+        <v>1.925</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>2</v>
+      </c>
+      <c r="Y134">
+        <v>-1</v>
+      </c>
+      <c r="Z134">
         <v>-0.5</v>
       </c>
-      <c r="R134">
-        <v>2</v>
-      </c>
-      <c r="S134">
-        <v>1.8</v>
-      </c>
-      <c r="T134">
-        <v>2.5</v>
-      </c>
-      <c r="U134">
-        <v>1.8</v>
-      </c>
-      <c r="V134">
-        <v>2</v>
-      </c>
-      <c r="W134">
-        <v>-1</v>
-      </c>
-      <c r="X134">
-        <v>-1</v>
-      </c>
-      <c r="Y134">
-        <v>2.5</v>
-      </c>
-      <c r="Z134">
-        <v>-1</v>
-      </c>
       <c r="AA134">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC134">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12729,7 +12729,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
         <v>39</v>
@@ -12910,7 +12910,7 @@
         <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13174,7 +13174,7 @@
         <v>45199.40972222222</v>
       </c>
       <c r="F143" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
         <v>38</v>
@@ -13251,7 +13251,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6834769</v>
+        <v>6834768</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13263,76 +13263,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
         <v>44</v>
       </c>
       <c r="K144">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="N144">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O144">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P144">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q144">
+        <v>-0.25</v>
+      </c>
+      <c r="R144">
+        <v>1.9</v>
+      </c>
+      <c r="S144">
+        <v>1.9</v>
+      </c>
+      <c r="T144">
+        <v>2.25</v>
+      </c>
+      <c r="U144">
+        <v>1.9</v>
+      </c>
+      <c r="V144">
+        <v>1.9</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>2.3</v>
+      </c>
+      <c r="Y144">
+        <v>-1</v>
+      </c>
+      <c r="Z144">
         <v>-0.5</v>
       </c>
-      <c r="R144">
-        <v>2</v>
-      </c>
-      <c r="S144">
-        <v>1.8</v>
-      </c>
-      <c r="T144">
-        <v>2.5</v>
-      </c>
-      <c r="U144">
-        <v>1.975</v>
-      </c>
-      <c r="V144">
-        <v>1.825</v>
-      </c>
-      <c r="W144">
-        <v>-1</v>
-      </c>
-      <c r="X144">
-        <v>2.5</v>
-      </c>
-      <c r="Y144">
-        <v>-1</v>
-      </c>
-      <c r="Z144">
-        <v>-1</v>
-      </c>
       <c r="AA144">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB144">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13340,7 +13340,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6834768</v>
+        <v>6834769</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13352,76 +13352,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F145" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G145" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>44</v>
       </c>
       <c r="K145">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L145">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M145">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N145">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O145">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P145">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q145">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R145">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S145">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T145">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U145">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V145">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA145">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC145">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13711,7 +13711,7 @@
         <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13785,7 +13785,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6834775</v>
+        <v>6834774</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13797,40 +13797,40 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K150">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L150">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M150">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="N150">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O150">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P150">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q150">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R150">
         <v>1.925</v>
@@ -13842,31 +13842,31 @@
         <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13874,7 +13874,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6834774</v>
+        <v>6834775</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13886,40 +13886,40 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H151">
         <v>0</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K151">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L151">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M151">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="N151">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O151">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P151">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q151">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R151">
         <v>1.925</v>
@@ -13931,31 +13931,31 @@
         <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y151">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA151">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB151">
         <v>-1</v>
       </c>
       <c r="AC151">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14156,7 +14156,7 @@
         <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14230,7 +14230,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6834783</v>
+        <v>6834779</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14242,76 +14242,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F155" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K155">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L155">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M155">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N155">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O155">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P155">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q155">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R155">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S155">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
         <v>1.95</v>
       </c>
       <c r="V155">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X155">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA155">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC155">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14319,7 +14319,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6834781</v>
+        <v>6834783</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14331,76 +14331,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G156" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K156">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L156">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M156">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N156">
+        <v>1.95</v>
+      </c>
+      <c r="O156">
+        <v>3.3</v>
+      </c>
+      <c r="P156">
+        <v>3.25</v>
+      </c>
+      <c r="Q156">
+        <v>-0.25</v>
+      </c>
+      <c r="R156">
         <v>1.75</v>
       </c>
-      <c r="O156">
-        <v>3.5</v>
-      </c>
-      <c r="P156">
-        <v>3.8</v>
-      </c>
-      <c r="Q156">
-        <v>-0.75</v>
-      </c>
-      <c r="R156">
+      <c r="S156">
         <v>1.95</v>
       </c>
-      <c r="S156">
-        <v>1.75</v>
-      </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V156">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y156">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA156">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AB156">
         <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14408,7 +14408,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6834779</v>
+        <v>6834781</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14420,76 +14420,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" t="s">
+        <v>45</v>
+      </c>
+      <c r="K157">
+        <v>1.666</v>
+      </c>
+      <c r="L157">
+        <v>3.8</v>
+      </c>
+      <c r="M157">
         <v>4</v>
       </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157" t="s">
-        <v>46</v>
-      </c>
-      <c r="K157">
-        <v>1.5</v>
-      </c>
-      <c r="L157">
-        <v>4</v>
-      </c>
-      <c r="M157">
-        <v>5</v>
-      </c>
       <c r="N157">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O157">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P157">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q157">
         <v>-0.75</v>
       </c>
       <c r="R157">
+        <v>1.95</v>
+      </c>
+      <c r="S157">
+        <v>1.75</v>
+      </c>
+      <c r="T157">
+        <v>2.25</v>
+      </c>
+      <c r="U157">
+        <v>2</v>
+      </c>
+      <c r="V157">
         <v>1.8</v>
       </c>
-      <c r="S157">
-        <v>2</v>
-      </c>
-      <c r="T157">
-        <v>2.5</v>
-      </c>
-      <c r="U157">
-        <v>1.95</v>
-      </c>
-      <c r="V157">
-        <v>1.75</v>
-      </c>
       <c r="W157">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X157">
         <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z157">
+        <v>-1</v>
+      </c>
+      <c r="AA157">
+        <v>0.75</v>
+      </c>
+      <c r="AB157">
+        <v>-1</v>
+      </c>
+      <c r="AC157">
         <v>0.8</v>
-      </c>
-      <c r="AA157">
-        <v>-1</v>
-      </c>
-      <c r="AB157">
-        <v>0.95</v>
-      </c>
-      <c r="AC157">
-        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14598,7 +14598,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G159" t="s">
         <v>29</v>
@@ -14954,7 +14954,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G163" t="s">
         <v>32</v>
@@ -15046,7 +15046,7 @@
         <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H164">
         <v>6</v>
@@ -15224,7 +15224,7 @@
         <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H166">
         <v>3</v>
@@ -15310,7 +15310,7 @@
         <v>45227.36805555555</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15847,7 +15847,7 @@
         <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -15933,7 +15933,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
         <v>31</v>
@@ -16556,10 +16556,10 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F181" t="s">
+        <v>33</v>
+      </c>
+      <c r="G181" t="s">
         <v>34</v>
-      </c>
-      <c r="G181" t="s">
-        <v>35</v>
       </c>
       <c r="H181">
         <v>2</v>
@@ -16915,7 +16915,7 @@
         <v>38</v>
       </c>
       <c r="G185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -16989,7 +16989,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6834810</v>
+        <v>6834812</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17001,76 +17001,76 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F186" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H186">
         <v>1</v>
       </c>
       <c r="I186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K186">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L186">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M186">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N186">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O186">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P186">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q186">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S186">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T186">
         <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V186">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y186">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA186">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB186">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17078,7 +17078,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6834812</v>
+        <v>6834810</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17090,76 +17090,76 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G187" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H187">
         <v>1</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K187">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L187">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N187">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O187">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P187">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R187">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S187">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V187">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y187">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z187">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17167,7 +17167,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6834813</v>
+        <v>6835155</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17179,76 +17179,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G188" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K188">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L188">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M188">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N188">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O188">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P188">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q188">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S188">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T188">
         <v>2.25</v>
       </c>
       <c r="U188">
+        <v>1.875</v>
+      </c>
+      <c r="V188">
         <v>1.925</v>
       </c>
-      <c r="V188">
-        <v>1.875</v>
-      </c>
       <c r="W188">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X188">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA188">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
         <v>-0.5</v>
       </c>
       <c r="AC188">
-        <v>0.4375</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17256,7 +17256,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6835155</v>
+        <v>6834813</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17268,76 +17268,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F189" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K189">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L189">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N189">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O189">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P189">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q189">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R189">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T189">
         <v>2.25</v>
       </c>
       <c r="U189">
+        <v>1.925</v>
+      </c>
+      <c r="V189">
         <v>1.875</v>
       </c>
-      <c r="V189">
-        <v>1.925</v>
-      </c>
       <c r="W189">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB189">
         <v>-0.5</v>
       </c>
       <c r="AC189">
-        <v>0.4625</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17357,7 +17357,7 @@
         <v>45254.39583333334</v>
       </c>
       <c r="F190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G190" t="s">
         <v>42</v>
@@ -17523,7 +17523,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6834819</v>
+        <v>6834818</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17535,76 +17535,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K192">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L192">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M192">
         <v>3</v>
       </c>
       <c r="N192">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O192">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P192">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q192">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S192">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T192">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V192">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W192">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z192">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB192">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC192">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17701,7 +17701,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6834818</v>
+        <v>6834819</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17713,76 +17713,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G194" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K194">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L194">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M194">
         <v>3</v>
       </c>
       <c r="N194">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O194">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P194">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q194">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R194">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S194">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U194">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V194">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA194">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC194">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17805,7 +17805,7 @@
         <v>41</v>
       </c>
       <c r="G195" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -18161,7 +18161,7 @@
         <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18247,7 +18247,7 @@
         <v>45263.36805555555</v>
       </c>
       <c r="F200" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G200" t="s">
         <v>43</v>
@@ -18606,7 +18606,7 @@
         <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -18870,7 +18870,7 @@
         <v>45340.36805555555</v>
       </c>
       <c r="F207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G207" t="s">
         <v>30</v>
@@ -18964,6 +18964,15 @@
       <c r="G208" t="s">
         <v>43</v>
       </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="s">
+        <v>45</v>
+      </c>
       <c r="K208">
         <v>3</v>
       </c>
@@ -18974,49 +18983,55 @@
         <v>2.25</v>
       </c>
       <c r="N208">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="O208">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P208">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="Q208">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R208">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S208">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T208">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U208">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="V208">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -19038,6 +19053,15 @@
       <c r="G209" t="s">
         <v>39</v>
       </c>
+      <c r="H209">
+        <v>2</v>
+      </c>
+      <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209" t="s">
+        <v>44</v>
+      </c>
       <c r="K209">
         <v>1.75</v>
       </c>
@@ -19048,45 +19072,125 @@
         <v>4.333</v>
       </c>
       <c r="N209">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O209">
         <v>3.1</v>
       </c>
       <c r="P209">
-        <v>4.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q209">
         <v>-0.5</v>
       </c>
       <c r="R209">
+        <v>1.95</v>
+      </c>
+      <c r="S209">
         <v>1.85</v>
       </c>
-      <c r="S209">
-        <v>1.95</v>
-      </c>
       <c r="T209">
+        <v>2</v>
+      </c>
+      <c r="U209">
+        <v>1.775</v>
+      </c>
+      <c r="V209">
+        <v>2.025</v>
+      </c>
+      <c r="W209">
+        <v>-1</v>
+      </c>
+      <c r="X209">
+        <v>2.1</v>
+      </c>
+      <c r="Y209">
+        <v>-1</v>
+      </c>
+      <c r="Z209">
+        <v>-1</v>
+      </c>
+      <c r="AA209">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB209">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC209">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>6834833</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45346.36805555555</v>
+      </c>
+      <c r="F210" t="s">
+        <v>29</v>
+      </c>
+      <c r="G210" t="s">
+        <v>41</v>
+      </c>
+      <c r="K210">
+        <v>3.2</v>
+      </c>
+      <c r="L210">
+        <v>3.2</v>
+      </c>
+      <c r="M210">
+        <v>2.05</v>
+      </c>
+      <c r="N210">
+        <v>4.333</v>
+      </c>
+      <c r="O210">
+        <v>3.5</v>
+      </c>
+      <c r="P210">
+        <v>1.727</v>
+      </c>
+      <c r="Q210">
+        <v>0.75</v>
+      </c>
+      <c r="R210">
+        <v>1.775</v>
+      </c>
+      <c r="S210">
+        <v>2.025</v>
+      </c>
+      <c r="T210">
         <v>2.25</v>
       </c>
-      <c r="U209">
-        <v>2.05</v>
-      </c>
-      <c r="V209">
-        <v>1.75</v>
-      </c>
-      <c r="W209">
+      <c r="U210">
+        <v>1.9</v>
+      </c>
+      <c r="V210">
+        <v>1.9</v>
+      </c>
+      <c r="W210">
         <v>0</v>
       </c>
-      <c r="X209">
+      <c r="X210">
         <v>0</v>
       </c>
-      <c r="Y209">
+      <c r="Y210">
         <v>0</v>
       </c>
-      <c r="Z209">
+      <c r="Z210">
         <v>0</v>
       </c>
-      <c r="AA209">
+      <c r="AA210">
         <v>0</v>
       </c>
     </row>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC210"/>
+  <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9157,7 +9157,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6425846</v>
+        <v>6425845</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9169,76 +9169,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K98">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N98">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O98">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q98">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S98">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
+        <v>2</v>
+      </c>
+      <c r="V98">
         <v>1.8</v>
       </c>
-      <c r="V98">
-        <v>2</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>0.8</v>
-      </c>
-      <c r="AC98">
-        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9246,7 +9246,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6425845</v>
+        <v>6425846</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9258,76 +9258,76 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K99">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M99">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N99">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P99">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q99">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R99">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V99">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y99">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC99">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6834732</v>
+        <v>6834733</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,76 +9525,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K102">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L102">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M102">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N102">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O102">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P102">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T102">
         <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X102">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA102">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9602,7 +9602,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6834729</v>
+        <v>6834732</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9614,16 +9614,16 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>44</v>
@@ -9638,37 +9638,37 @@
         <v>3.1</v>
       </c>
       <c r="N103">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O103">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S103">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
@@ -9677,13 +9677,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9691,7 +9691,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6834733</v>
+        <v>6834729</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9703,76 +9703,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K104">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L104">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M104">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N104">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O104">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P104">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.8</v>
+      </c>
+      <c r="S104">
+        <v>2</v>
+      </c>
+      <c r="T104">
+        <v>2.5</v>
+      </c>
+      <c r="U104">
+        <v>2</v>
+      </c>
+      <c r="V104">
+        <v>1.8</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>2.25</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
         <v>-0.5</v>
       </c>
-      <c r="R104">
-        <v>2</v>
-      </c>
-      <c r="S104">
-        <v>1.8</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>1.95</v>
-      </c>
-      <c r="V104">
-        <v>1.85</v>
-      </c>
-      <c r="W104">
-        <v>0.909</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
-        <v>1</v>
-      </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -11204,7 +11204,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6834750</v>
+        <v>6834749</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11216,13 +11216,13 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -11231,43 +11231,43 @@
         <v>46</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L121">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M121">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N121">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O121">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P121">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
+        <v>2</v>
+      </c>
+      <c r="S121">
+        <v>1.8</v>
+      </c>
+      <c r="T121">
+        <v>2.25</v>
+      </c>
+      <c r="U121">
+        <v>1.925</v>
+      </c>
+      <c r="V121">
         <v>1.875</v>
       </c>
-      <c r="S121">
-        <v>1.925</v>
-      </c>
-      <c r="T121">
-        <v>2.5</v>
-      </c>
-      <c r="U121">
-        <v>1.825</v>
-      </c>
-      <c r="V121">
-        <v>1.975</v>
-      </c>
       <c r="W121">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11276,13 +11276,13 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11293,7 +11293,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6834749</v>
+        <v>6834750</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11305,13 +11305,13 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -11320,43 +11320,43 @@
         <v>46</v>
       </c>
       <c r="K122">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L122">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N122">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P122">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q122">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W122">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11365,13 +11365,13 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC122">
         <v>-1</v>
@@ -19118,80 +19118,6 @@
       </c>
       <c r="AC209">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:29">
-      <c r="A210" s="1">
-        <v>208</v>
-      </c>
-      <c r="B210">
-        <v>6834833</v>
-      </c>
-      <c r="C210" t="s">
-        <v>28</v>
-      </c>
-      <c r="D210" t="s">
-        <v>28</v>
-      </c>
-      <c r="E210" s="2">
-        <v>45346.36805555555</v>
-      </c>
-      <c r="F210" t="s">
-        <v>29</v>
-      </c>
-      <c r="G210" t="s">
-        <v>41</v>
-      </c>
-      <c r="K210">
-        <v>3.2</v>
-      </c>
-      <c r="L210">
-        <v>3.2</v>
-      </c>
-      <c r="M210">
-        <v>2.05</v>
-      </c>
-      <c r="N210">
-        <v>4.333</v>
-      </c>
-      <c r="O210">
-        <v>3.5</v>
-      </c>
-      <c r="P210">
-        <v>1.727</v>
-      </c>
-      <c r="Q210">
-        <v>0.75</v>
-      </c>
-      <c r="R210">
-        <v>1.775</v>
-      </c>
-      <c r="S210">
-        <v>2.025</v>
-      </c>
-      <c r="T210">
-        <v>2.25</v>
-      </c>
-      <c r="U210">
-        <v>1.9</v>
-      </c>
-      <c r="V210">
-        <v>1.9</v>
-      </c>
-      <c r="W210">
-        <v>0</v>
-      </c>
-      <c r="X210">
-        <v>0</v>
-      </c>
-      <c r="Y210">
-        <v>0</v>
-      </c>
-      <c r="Z210">
-        <v>0</v>
-      </c>
-      <c r="AA210">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -115,13 +115,13 @@
     <t>NK Solin</t>
   </si>
   <si>
+    <t>NK Rudes</t>
+  </si>
+  <si>
     <t>Vukovar 91</t>
   </si>
   <si>
     <t>Orijent</t>
-  </si>
-  <si>
-    <t>NK Rudes</t>
   </si>
   <si>
     <t>NK Dubrava Zagreb</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC209"/>
+  <dimension ref="A1:AC211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5404337</v>
+        <v>5404338</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -984,7 +984,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -996,34 +996,34 @@
         <v>46</v>
       </c>
       <c r="K6">
-        <v>1.8</v>
+        <v>1.142</v>
       </c>
       <c r="L6">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N6">
-        <v>1.45</v>
+        <v>1.222</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P6">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R6">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
         <v>1.85</v>
@@ -1032,7 +1032,7 @@
         <v>1.95</v>
       </c>
       <c r="W6">
-        <v>0.45</v>
+        <v>0.222</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1041,16 +1041,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8500000000000001</v>
+        <v>0.425</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5404925</v>
+        <v>5404337</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1073,73 +1073,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M7">
         <v>4</v>
       </c>
       <c r="N7">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="O7">
         <v>3.6</v>
       </c>
       <c r="P7">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R7">
+        <v>1.85</v>
+      </c>
+      <c r="S7">
         <v>1.95</v>
       </c>
-      <c r="S7">
+      <c r="T7">
+        <v>2.25</v>
+      </c>
+      <c r="U7">
         <v>1.85</v>
       </c>
-      <c r="T7">
-        <v>2.5</v>
-      </c>
-      <c r="U7">
-        <v>1.925</v>
-      </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X7">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AB7">
-        <v>-1</v>
-      </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1147,7 +1147,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5404338</v>
+        <v>5404925</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1162,73 +1162,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K8">
-        <v>1.142</v>
+        <v>1.75</v>
       </c>
       <c r="L8">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>1.222</v>
+        <v>1.7</v>
       </c>
       <c r="O8">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="Q8">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1340,7 +1340,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>44982.41666666666</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5404343</v>
+        <v>5404342</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,76 +1515,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L12">
+        <v>3.3</v>
+      </c>
+      <c r="M12">
+        <v>3.5</v>
+      </c>
+      <c r="N12">
+        <v>1.833</v>
+      </c>
+      <c r="O12">
         <v>3.4</v>
-      </c>
-      <c r="M12">
-        <v>3.75</v>
-      </c>
-      <c r="N12">
-        <v>1.727</v>
-      </c>
-      <c r="O12">
-        <v>3.75</v>
       </c>
       <c r="P12">
         <v>4</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5404342</v>
+        <v>5404343</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1604,76 +1604,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M13">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N13">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P13">
         <v>4</v>
       </c>
       <c r="Q13">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T13">
         <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X13">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1859,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5404346</v>
+        <v>5404350</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1871,46 +1871,46 @@
         <v>44989.47916666666</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>5.75</v>
+        <v>3.1</v>
       </c>
       <c r="N16">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P16">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
+        <v>1.825</v>
+      </c>
+      <c r="S16">
         <v>1.975</v>
-      </c>
-      <c r="S16">
-        <v>1.825</v>
       </c>
       <c r="T16">
         <v>2.25</v>
@@ -1922,25 +1922,25 @@
         <v>1.975</v>
       </c>
       <c r="W16">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z16">
+        <v>-1</v>
+      </c>
+      <c r="AA16">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA16">
-        <v>-1</v>
-      </c>
       <c r="AB16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>0.4875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5404350</v>
+        <v>5404346</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,46 +1960,46 @@
         <v>44989.47916666666</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>2.2</v>
+        <v>1.45</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>3.1</v>
+        <v>5.75</v>
       </c>
       <c r="N17">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O17">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
+        <v>1.975</v>
+      </c>
+      <c r="S17">
         <v>1.825</v>
-      </c>
-      <c r="S17">
-        <v>1.975</v>
       </c>
       <c r="T17">
         <v>2.25</v>
@@ -2011,25 +2011,25 @@
         <v>1.975</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>0.9750000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2138,10 +2138,10 @@
         <v>44990.375</v>
       </c>
       <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
         <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>35</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2319,7 +2319,7 @@
         <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2583,7 +2583,7 @@
         <v>44996.47916666666</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
@@ -2672,10 +2672,10 @@
         <v>44997.375</v>
       </c>
       <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
         <v>35</v>
-      </c>
-      <c r="G25" t="s">
-        <v>34</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3028,10 +3028,10 @@
         <v>45003.41666666666</v>
       </c>
       <c r="F29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" t="s">
         <v>34</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5404361</v>
+        <v>5404359</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
         <v>3.25</v>
       </c>
       <c r="M30">
+        <v>3.5</v>
+      </c>
+      <c r="N30">
         <v>1.909</v>
       </c>
-      <c r="N30">
-        <v>3</v>
-      </c>
       <c r="O30">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
         <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z30">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>5404359</v>
+        <v>5404361</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3206,76 +3206,76 @@
         <v>45003.47916666666</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>3.5</v>
       </c>
       <c r="L31">
         <v>3.25</v>
       </c>
       <c r="M31">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N31">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="O31">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P31">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V31">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y31">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3562,7 +3562,7 @@
         <v>45010.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
@@ -3740,10 +3740,10 @@
         <v>45011.45833333334</v>
       </c>
       <c r="F37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" t="s">
         <v>35</v>
-      </c>
-      <c r="G37" t="s">
-        <v>34</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -4188,7 +4188,7 @@
         <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4366,7 +4366,7 @@
         <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4455,7 +4455,7 @@
         <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4719,7 +4719,7 @@
         <v>45023.375</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4796,7 +4796,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6425800</v>
+        <v>6425801</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4808,13 +4808,13 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F49" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -4823,43 +4823,43 @@
         <v>46</v>
       </c>
       <c r="K49">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="L49">
         <v>3.4</v>
       </c>
       <c r="M49">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N49">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P49">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S49">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T49">
         <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W49">
-        <v>0.909</v>
+        <v>1.05</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4868,13 +4868,13 @@
         <v>-1</v>
       </c>
       <c r="Z49">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA49">
+        <v>-1</v>
+      </c>
+      <c r="AB49">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>0.925</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4897,7 +4897,7 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
         <v>30</v>
@@ -4974,7 +4974,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6425801</v>
+        <v>6425800</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4986,13 +4986,13 @@
         <v>45024.47916666666</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5001,43 +5001,43 @@
         <v>46</v>
       </c>
       <c r="K51">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L51">
         <v>3.4</v>
       </c>
       <c r="M51">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N51">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O51">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P51">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q51">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W51">
-        <v>1.05</v>
+        <v>0.909</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5046,13 +5046,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5078,7 +5078,7 @@
         <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -5256,7 +5256,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -5523,7 +5523,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5609,7 +5609,7 @@
         <v>45038.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
         <v>39</v>
@@ -5686,7 +5686,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6425812</v>
+        <v>6425808</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5698,40 +5698,40 @@
         <v>45038.5</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K59">
-        <v>1.25</v>
+        <v>1.571</v>
       </c>
       <c r="L59">
+        <v>3.6</v>
+      </c>
+      <c r="M59">
         <v>5</v>
       </c>
-      <c r="M59">
-        <v>9</v>
-      </c>
       <c r="N59">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="O59">
+        <v>3.6</v>
+      </c>
+      <c r="P59">
         <v>4.75</v>
       </c>
-      <c r="P59">
-        <v>11</v>
-      </c>
       <c r="Q59">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
         <v>1.8</v>
@@ -5740,34 +5740,34 @@
         <v>2</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5787,7 +5787,7 @@
         <v>45038.5</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
         <v>30</v>
@@ -5864,7 +5864,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6425808</v>
+        <v>6425812</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5876,40 +5876,40 @@
         <v>45038.5</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K61">
-        <v>1.571</v>
+        <v>1.25</v>
       </c>
       <c r="L61">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M61">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N61">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="O61">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P61">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R61">
         <v>1.8</v>
@@ -5918,34 +5918,34 @@
         <v>2</v>
       </c>
       <c r="T61">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V61">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W61">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X61">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC61">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6146,7 +6146,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6502,7 +6502,7 @@
         <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6591,7 +6591,7 @@
         <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6677,7 +6677,7 @@
         <v>45051.45833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
         <v>40</v>
@@ -6944,7 +6944,7 @@
         <v>45052.5</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
         <v>29</v>
@@ -7033,7 +7033,7 @@
         <v>45052.5</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
         <v>36</v>
@@ -7392,7 +7392,7 @@
         <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7466,7 +7466,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6425827</v>
+        <v>6425828</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7478,28 +7478,28 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>46</v>
       </c>
       <c r="K79">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N79">
         <v>1.571</v>
@@ -7511,22 +7511,22 @@
         <v>5</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R79">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S79">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W79">
         <v>0.571</v>
@@ -7538,16 +7538,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.3875</v>
+        <v>0</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7555,7 +7555,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6425828</v>
+        <v>6425827</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7567,28 +7567,28 @@
         <v>45059.52083333334</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>46</v>
       </c>
       <c r="K80">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N80">
         <v>1.571</v>
@@ -7600,22 +7600,22 @@
         <v>5</v>
       </c>
       <c r="Q80">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S80">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
         <v>0.571</v>
@@ -7627,16 +7627,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0</v>
+        <v>0.3875</v>
       </c>
       <c r="AA80">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB80">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7659,7 +7659,7 @@
         <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7745,7 +7745,7 @@
         <v>45066.45833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
         <v>39</v>
@@ -7834,7 +7834,7 @@
         <v>45066.52083333334</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
         <v>32</v>
@@ -7923,7 +7923,7 @@
         <v>45066.52083333334</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
         <v>38</v>
@@ -8445,7 +8445,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6425840</v>
+        <v>6425843</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8457,13 +8457,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -8472,43 +8472,43 @@
         <v>46</v>
       </c>
       <c r="K90">
-        <v>1.833</v>
+        <v>1.5</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N90">
-        <v>1.833</v>
+        <v>1.4</v>
       </c>
       <c r="O90">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P90">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W90">
-        <v>0.833</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8517,7 +8517,7 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA90">
         <v>-1</v>
@@ -8526,7 +8526,7 @@
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8534,7 +8534,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6425843</v>
+        <v>6425840</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8546,13 +8546,13 @@
         <v>45073.52083333334</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -8561,43 +8561,43 @@
         <v>46</v>
       </c>
       <c r="K91">
-        <v>1.5</v>
+        <v>1.833</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N91">
-        <v>1.4</v>
+        <v>1.833</v>
       </c>
       <c r="O91">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P91">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
-        <v>0.3999999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8606,7 +8606,7 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.7250000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA91">
         <v>-1</v>
@@ -8615,7 +8615,7 @@
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8902,10 +8902,10 @@
         <v>45079.52083333334</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6425847</v>
+        <v>6425846</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,40 +9080,40 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K97">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L97">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M97">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N97">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P97">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R97">
         <v>1.95</v>
@@ -9122,34 +9122,34 @@
         <v>1.85</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U97">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V97">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB97">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9246,7 +9246,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6425846</v>
+        <v>6425847</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9258,40 +9258,40 @@
         <v>45080.52083333334</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K99">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N99">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="O99">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="Q99">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
         <v>1.95</v>
@@ -9300,34 +9300,34 @@
         <v>1.85</v>
       </c>
       <c r="T99">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
+        <v>2</v>
+      </c>
+      <c r="V99">
         <v>1.8</v>
       </c>
-      <c r="V99">
-        <v>2</v>
-      </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X99">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA99">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9350,7 +9350,7 @@
         <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6834733</v>
+        <v>6834732</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,76 +9525,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K102">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L102">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N102">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T102">
         <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W102">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9602,7 +9602,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6834732</v>
+        <v>6834729</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9614,16 +9614,16 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>44</v>
@@ -9638,37 +9638,37 @@
         <v>3.1</v>
       </c>
       <c r="N103">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O103">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P103">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S103">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T103">
+        <v>2.5</v>
+      </c>
+      <c r="U103">
+        <v>2</v>
+      </c>
+      <c r="V103">
+        <v>1.8</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
         <v>2.25</v>
-      </c>
-      <c r="U103">
-        <v>1.825</v>
-      </c>
-      <c r="V103">
-        <v>1.975</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>2.1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
@@ -9677,13 +9677,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>0.3875</v>
+        <v>0.5</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9691,7 +9691,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6834729</v>
+        <v>6834733</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9703,76 +9703,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K104">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M104">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N104">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O104">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
+        <v>2</v>
+      </c>
+      <c r="S104">
         <v>1.8</v>
       </c>
-      <c r="S104">
-        <v>2</v>
-      </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X104">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA104">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9881,7 +9881,7 @@
         <v>45156.52083333334</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
         <v>43</v>
@@ -10047,7 +10047,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6834735</v>
+        <v>6834738</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10059,76 +10059,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K108">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N108">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O108">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P108">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB108">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC108">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10136,7 +10136,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6834738</v>
+        <v>6834735</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10148,76 +10148,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G109" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>44</v>
+      </c>
+      <c r="K109">
+        <v>2.4</v>
+      </c>
+      <c r="L109">
         <v>3</v>
       </c>
-      <c r="J109" t="s">
-        <v>45</v>
-      </c>
-      <c r="K109">
+      <c r="M109">
         <v>2.75</v>
       </c>
-      <c r="L109">
-        <v>3.2</v>
-      </c>
-      <c r="M109">
-        <v>2.3</v>
-      </c>
       <c r="N109">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="O109">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P109">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V109">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y109">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA109">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10329,7 +10329,7 @@
         <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>4</v>
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6834742</v>
+        <v>6834743</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,76 +10504,76 @@
         <v>45164.5</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" t="s">
+        <v>45</v>
+      </c>
+      <c r="K113">
         <v>3</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
-      <c r="J113" t="s">
-        <v>46</v>
-      </c>
-      <c r="K113">
-        <v>2</v>
-      </c>
       <c r="L113">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M113">
+        <v>2.1</v>
+      </c>
+      <c r="N113">
+        <v>1.95</v>
+      </c>
+      <c r="O113">
+        <v>3.4</v>
+      </c>
+      <c r="P113">
         <v>3.3</v>
       </c>
-      <c r="N113">
-        <v>2.15</v>
-      </c>
-      <c r="O113">
-        <v>3.1</v>
-      </c>
-      <c r="P113">
-        <v>3.1</v>
-      </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z113">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB113">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10581,7 +10581,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6834743</v>
+        <v>6834742</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10593,76 +10593,76 @@
         <v>45164.5</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114">
         <v>0</v>
       </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L114">
+        <v>3.25</v>
+      </c>
+      <c r="M114">
         <v>3.3</v>
       </c>
-      <c r="M114">
-        <v>2.1</v>
-      </c>
       <c r="N114">
+        <v>2.15</v>
+      </c>
+      <c r="O114">
+        <v>3.1</v>
+      </c>
+      <c r="P114">
+        <v>3.1</v>
+      </c>
+      <c r="Q114">
+        <v>-0.25</v>
+      </c>
+      <c r="R114">
+        <v>1.9</v>
+      </c>
+      <c r="S114">
+        <v>1.9</v>
+      </c>
+      <c r="T114">
+        <v>2.25</v>
+      </c>
+      <c r="U114">
+        <v>1.75</v>
+      </c>
+      <c r="V114">
         <v>1.95</v>
       </c>
-      <c r="O114">
-        <v>3.4</v>
-      </c>
-      <c r="P114">
-        <v>3.3</v>
-      </c>
-      <c r="Q114">
-        <v>-0.5</v>
-      </c>
-      <c r="R114">
-        <v>2</v>
-      </c>
-      <c r="S114">
-        <v>1.8</v>
-      </c>
-      <c r="T114">
-        <v>2.5</v>
-      </c>
-      <c r="U114">
-        <v>2</v>
-      </c>
-      <c r="V114">
-        <v>1.8</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC114">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -11026,7 +11026,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6834748</v>
+        <v>6834749</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11038,34 +11038,34 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>46</v>
       </c>
       <c r="K119">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L119">
+        <v>3.1</v>
+      </c>
+      <c r="M119">
         <v>3.25</v>
       </c>
-      <c r="M119">
-        <v>3.5</v>
-      </c>
       <c r="N119">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O119">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P119">
         <v>3.5</v>
@@ -11074,22 +11074,22 @@
         <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W119">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11098,16 +11098,16 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC119">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11115,7 +11115,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6834746</v>
+        <v>6834748</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11127,76 +11127,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N120">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O120">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P120">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
+        <v>1.975</v>
+      </c>
+      <c r="S120">
         <v>1.825</v>
       </c>
-      <c r="S120">
-        <v>1.975</v>
-      </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X120">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA120">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11204,7 +11204,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6834749</v>
+        <v>6834746</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11216,46 +11216,46 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>3.2</v>
+      </c>
+      <c r="M121">
+        <v>3.3</v>
+      </c>
+      <c r="N121">
         <v>2.05</v>
       </c>
-      <c r="L121">
+      <c r="O121">
         <v>3.1</v>
       </c>
-      <c r="M121">
-        <v>3.25</v>
-      </c>
-      <c r="N121">
-        <v>1.95</v>
-      </c>
-      <c r="O121">
+      <c r="P121">
         <v>3.2</v>
       </c>
-      <c r="P121">
-        <v>3.5</v>
-      </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S121">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T121">
         <v>2.25</v>
@@ -11267,25 +11267,25 @@
         <v>1.875</v>
       </c>
       <c r="W121">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11308,7 +11308,7 @@
         <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H122">
         <v>4</v>
@@ -11486,7 +11486,7 @@
         <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11560,7 +11560,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6834752</v>
+        <v>6834755</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11572,13 +11572,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -11587,43 +11587,43 @@
         <v>46</v>
       </c>
       <c r="K125">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M125">
+        <v>2.75</v>
+      </c>
+      <c r="N125">
+        <v>1.666</v>
+      </c>
+      <c r="O125">
+        <v>3.5</v>
+      </c>
+      <c r="P125">
         <v>4.2</v>
       </c>
-      <c r="N125">
-        <v>1.833</v>
-      </c>
-      <c r="O125">
-        <v>3.4</v>
-      </c>
-      <c r="P125">
-        <v>4</v>
-      </c>
       <c r="Q125">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W125">
-        <v>0.833</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11632,16 +11632,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC125">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11661,7 +11661,7 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
         <v>41</v>
@@ -11738,7 +11738,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6834755</v>
+        <v>6834752</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11750,13 +11750,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F127" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -11765,43 +11765,43 @@
         <v>46</v>
       </c>
       <c r="K127">
+        <v>1.727</v>
+      </c>
+      <c r="L127">
+        <v>3.4</v>
+      </c>
+      <c r="M127">
+        <v>4.2</v>
+      </c>
+      <c r="N127">
+        <v>1.833</v>
+      </c>
+      <c r="O127">
+        <v>3.4</v>
+      </c>
+      <c r="P127">
+        <v>4</v>
+      </c>
+      <c r="Q127">
+        <v>-0.5</v>
+      </c>
+      <c r="R127">
+        <v>1.85</v>
+      </c>
+      <c r="S127">
+        <v>1.95</v>
+      </c>
+      <c r="T127">
         <v>2.25</v>
       </c>
-      <c r="L127">
-        <v>3.25</v>
-      </c>
-      <c r="M127">
-        <v>2.75</v>
-      </c>
-      <c r="N127">
-        <v>1.666</v>
-      </c>
-      <c r="O127">
-        <v>3.5</v>
-      </c>
-      <c r="P127">
-        <v>4.2</v>
-      </c>
-      <c r="Q127">
-        <v>-0.75</v>
-      </c>
-      <c r="R127">
-        <v>2</v>
-      </c>
-      <c r="S127">
+      <c r="U127">
         <v>1.8</v>
       </c>
-      <c r="T127">
-        <v>2.5</v>
-      </c>
-      <c r="U127">
-        <v>2.025</v>
-      </c>
       <c r="V127">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W127">
-        <v>0.6659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11810,16 +11810,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA127">
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>-1</v>
+      </c>
+      <c r="AC127">
         <v>1</v>
-      </c>
-      <c r="AA127">
-        <v>-1</v>
-      </c>
-      <c r="AB127">
-        <v>1.025</v>
-      </c>
-      <c r="AC127">
-        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12020,7 +12020,7 @@
         <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12106,7 +12106,7 @@
         <v>45184.47916666666</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
         <v>29</v>
@@ -12729,7 +12729,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
         <v>39</v>
@@ -12910,7 +12910,7 @@
         <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13174,7 +13174,7 @@
         <v>45199.40972222222</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G143" t="s">
         <v>38</v>
@@ -13251,7 +13251,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6834768</v>
+        <v>6834770</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13263,10 +13263,10 @@
         <v>45199.4375</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13278,34 +13278,34 @@
         <v>44</v>
       </c>
       <c r="K144">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="L144">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N144">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O144">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
         <v>1.9</v>
@@ -13317,16 +13317,16 @@
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
         <v>-1</v>
@@ -13340,7 +13340,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6834769</v>
+        <v>6834768</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13352,76 +13352,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>44</v>
       </c>
       <c r="K145">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L145">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M145">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="N145">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O145">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P145">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q145">
+        <v>-0.25</v>
+      </c>
+      <c r="R145">
+        <v>1.9</v>
+      </c>
+      <c r="S145">
+        <v>1.9</v>
+      </c>
+      <c r="T145">
+        <v>2.25</v>
+      </c>
+      <c r="U145">
+        <v>1.9</v>
+      </c>
+      <c r="V145">
+        <v>1.9</v>
+      </c>
+      <c r="W145">
+        <v>-1</v>
+      </c>
+      <c r="X145">
+        <v>2.3</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
         <v>-0.5</v>
       </c>
-      <c r="R145">
-        <v>2</v>
-      </c>
-      <c r="S145">
-        <v>1.8</v>
-      </c>
-      <c r="T145">
-        <v>2.5</v>
-      </c>
-      <c r="U145">
-        <v>1.975</v>
-      </c>
-      <c r="V145">
-        <v>1.825</v>
-      </c>
-      <c r="W145">
-        <v>-1</v>
-      </c>
-      <c r="X145">
-        <v>2.5</v>
-      </c>
-      <c r="Y145">
-        <v>-1</v>
-      </c>
-      <c r="Z145">
-        <v>-1</v>
-      </c>
       <c r="AA145">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB145">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13429,7 +13429,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6834770</v>
+        <v>6834769</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13441,61 +13441,61 @@
         <v>45199.4375</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
         <v>44</v>
       </c>
       <c r="K146">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L146">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M146">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N146">
         <v>1.909</v>
       </c>
       <c r="O146">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P146">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q146">
         <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S146">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T146">
         <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V146">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13504,13 +13504,13 @@
         <v>-1</v>
       </c>
       <c r="AA146">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC146">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13622,7 +13622,7 @@
         <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -13711,7 +13711,7 @@
         <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -14156,7 +14156,7 @@
         <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14598,7 +14598,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
         <v>29</v>
@@ -14954,7 +14954,7 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
         <v>32</v>
@@ -15046,7 +15046,7 @@
         <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H164">
         <v>6</v>
@@ -15224,7 +15224,7 @@
         <v>36</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H166">
         <v>3</v>
@@ -15310,7 +15310,7 @@
         <v>45227.36805555555</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
         <v>41</v>
@@ -15847,7 +15847,7 @@
         <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -15933,7 +15933,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G174" t="s">
         <v>31</v>
@@ -16010,7 +16010,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6834799</v>
+        <v>6834798</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16022,76 +16022,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H175">
         <v>1</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K175">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L175">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M175">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N175">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O175">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q175">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R175">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S175">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T175">
+        <v>2.25</v>
+      </c>
+      <c r="U175">
+        <v>1.875</v>
+      </c>
+      <c r="V175">
+        <v>1.925</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
         <v>2.5</v>
       </c>
-      <c r="U175">
-        <v>1.95</v>
-      </c>
-      <c r="V175">
-        <v>1.85</v>
-      </c>
-      <c r="W175">
-        <v>1.3</v>
-      </c>
-      <c r="X175">
-        <v>-1</v>
-      </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC175">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16099,7 +16099,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6834798</v>
+        <v>6834799</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16111,76 +16111,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F176" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H176">
         <v>1</v>
       </c>
       <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176" t="s">
+        <v>46</v>
+      </c>
+      <c r="K176">
+        <v>2.375</v>
+      </c>
+      <c r="L176">
+        <v>3.3</v>
+      </c>
+      <c r="M176">
+        <v>2.6</v>
+      </c>
+      <c r="N176">
+        <v>2.3</v>
+      </c>
+      <c r="O176">
+        <v>3.6</v>
+      </c>
+      <c r="P176">
+        <v>2.8</v>
+      </c>
+      <c r="Q176">
+        <v>-0.25</v>
+      </c>
+      <c r="R176">
+        <v>2</v>
+      </c>
+      <c r="S176">
+        <v>1.8</v>
+      </c>
+      <c r="T176">
+        <v>2.5</v>
+      </c>
+      <c r="U176">
+        <v>1.95</v>
+      </c>
+      <c r="V176">
+        <v>1.85</v>
+      </c>
+      <c r="W176">
+        <v>1.3</v>
+      </c>
+      <c r="X176">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
+        <v>-1</v>
+      </c>
+      <c r="Z176">
         <v>1</v>
       </c>
-      <c r="J176" t="s">
-        <v>44</v>
-      </c>
-      <c r="K176">
-        <v>1.571</v>
-      </c>
-      <c r="L176">
-        <v>3.6</v>
-      </c>
-      <c r="M176">
-        <v>5</v>
-      </c>
-      <c r="N176">
-        <v>1.615</v>
-      </c>
-      <c r="O176">
-        <v>3.5</v>
-      </c>
-      <c r="P176">
-        <v>4.75</v>
-      </c>
-      <c r="Q176">
-        <v>-0.75</v>
-      </c>
-      <c r="R176">
-        <v>1.85</v>
-      </c>
-      <c r="S176">
-        <v>1.95</v>
-      </c>
-      <c r="T176">
-        <v>2.25</v>
-      </c>
-      <c r="U176">
-        <v>1.875</v>
-      </c>
-      <c r="V176">
-        <v>1.925</v>
-      </c>
-      <c r="W176">
-        <v>-1</v>
-      </c>
-      <c r="X176">
-        <v>2.5</v>
-      </c>
-      <c r="Y176">
-        <v>-1</v>
-      </c>
-      <c r="Z176">
-        <v>-1</v>
-      </c>
       <c r="AA176">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16455,7 +16455,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6834803</v>
+        <v>6834805</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16467,76 +16467,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F180" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G180" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
         <v>0</v>
       </c>
-      <c r="I180">
-        <v>1</v>
-      </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K180">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M180">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N180">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="O180">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P180">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="Q180">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R180">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U180">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V180">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0.3625</v>
+        <v>0.95</v>
       </c>
       <c r="AA180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
         <v>-1</v>
       </c>
       <c r="AC180">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16544,7 +16544,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6834805</v>
+        <v>6834803</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16556,76 +16556,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F181" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G181" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K181">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L181">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M181">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N181">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="O181">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P181">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="Q181">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S181">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T181">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V181">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W181">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z181">
-        <v>0.95</v>
+        <v>0.3625</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB181">
         <v>-1</v>
       </c>
       <c r="AC181">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16811,7 +16811,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6834809</v>
+        <v>7481395</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16823,76 +16823,76 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F184" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G184" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
         <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K184">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L184">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M184">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N184">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="O184">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P184">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q184">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R184">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S184">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T184">
         <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W184">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X184">
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z184">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB184">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16900,7 +16900,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7481395</v>
+        <v>6834809</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16912,76 +16912,76 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F185" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G185" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K185">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L185">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M185">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N185">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="O185">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P185">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q185">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
         <v>2.25</v>
       </c>
       <c r="U185">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V185">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X185">
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA185">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC185">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16989,7 +16989,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6834812</v>
+        <v>6834810</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17001,76 +17001,76 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G186" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H186">
         <v>1</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K186">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L186">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N186">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O186">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S186">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T186">
         <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V186">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W186">
         <v>-1</v>
       </c>
       <c r="X186">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y186">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17078,7 +17078,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6834810</v>
+        <v>6834812</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17090,76 +17090,76 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H187">
         <v>1</v>
       </c>
       <c r="I187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K187">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L187">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M187">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N187">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O187">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P187">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q187">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S187">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T187">
         <v>2.5</v>
       </c>
       <c r="U187">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V187">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y187">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA187">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB187">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17357,7 +17357,7 @@
         <v>45254.39583333334</v>
       </c>
       <c r="F190" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G190" t="s">
         <v>42</v>
@@ -17523,7 +17523,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6834818</v>
+        <v>6834814</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17535,55 +17535,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H192">
         <v>0</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J192" t="s">
         <v>45</v>
       </c>
       <c r="K192">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L192">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M192">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N192">
+        <v>4.333</v>
+      </c>
+      <c r="O192">
+        <v>3.2</v>
+      </c>
+      <c r="P192">
+        <v>1.75</v>
+      </c>
+      <c r="Q192">
+        <v>0.5</v>
+      </c>
+      <c r="R192">
+        <v>2</v>
+      </c>
+      <c r="S192">
         <v>1.8</v>
       </c>
-      <c r="O192">
-        <v>3.5</v>
-      </c>
-      <c r="P192">
-        <v>3.6</v>
-      </c>
-      <c r="Q192">
-        <v>-0.5</v>
-      </c>
-      <c r="R192">
-        <v>1.85</v>
-      </c>
-      <c r="S192">
-        <v>1.95</v>
-      </c>
       <c r="T192">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U192">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V192">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W192">
         <v>-1</v>
@@ -17592,19 +17592,19 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>2.6</v>
+        <v>0.75</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17612,7 +17612,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6834814</v>
+        <v>6834819</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17624,76 +17624,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G193" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193">
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K193">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L193">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M193">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N193">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O193">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P193">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q193">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S193">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T193">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U193">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V193">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA193">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC193">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17701,7 +17701,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6834819</v>
+        <v>6834818</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17713,76 +17713,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K194">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L194">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M194">
         <v>3</v>
       </c>
       <c r="N194">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O194">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P194">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q194">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R194">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S194">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T194">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V194">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z194">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB194">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17805,7 +17805,7 @@
         <v>41</v>
       </c>
       <c r="G195" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -18161,7 +18161,7 @@
         <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H199">
         <v>1</v>
@@ -18247,7 +18247,7 @@
         <v>45263.36805555555</v>
       </c>
       <c r="F200" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G200" t="s">
         <v>43</v>
@@ -18606,7 +18606,7 @@
         <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -18870,7 +18870,7 @@
         <v>45340.36805555555</v>
       </c>
       <c r="F207" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G207" t="s">
         <v>30</v>
@@ -19118,6 +19118,184 @@
       </c>
       <c r="AC209">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>6834833</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45346.36805555555</v>
+      </c>
+      <c r="F210" t="s">
+        <v>29</v>
+      </c>
+      <c r="G210" t="s">
+        <v>41</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210" t="s">
+        <v>44</v>
+      </c>
+      <c r="K210">
+        <v>3.2</v>
+      </c>
+      <c r="L210">
+        <v>3.2</v>
+      </c>
+      <c r="M210">
+        <v>2.05</v>
+      </c>
+      <c r="N210">
+        <v>5</v>
+      </c>
+      <c r="O210">
+        <v>3.75</v>
+      </c>
+      <c r="P210">
+        <v>1.6</v>
+      </c>
+      <c r="Q210">
+        <v>0.75</v>
+      </c>
+      <c r="R210">
+        <v>2</v>
+      </c>
+      <c r="S210">
+        <v>1.8</v>
+      </c>
+      <c r="T210">
+        <v>2.25</v>
+      </c>
+      <c r="U210">
+        <v>1.85</v>
+      </c>
+      <c r="V210">
+        <v>1.95</v>
+      </c>
+      <c r="W210">
+        <v>-1</v>
+      </c>
+      <c r="X210">
+        <v>2.75</v>
+      </c>
+      <c r="Y210">
+        <v>-1</v>
+      </c>
+      <c r="Z210">
+        <v>1</v>
+      </c>
+      <c r="AA210">
+        <v>-1</v>
+      </c>
+      <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>6834834</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F211" t="s">
+        <v>38</v>
+      </c>
+      <c r="G211" t="s">
+        <v>35</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>46</v>
+      </c>
+      <c r="K211">
+        <v>1.85</v>
+      </c>
+      <c r="L211">
+        <v>3.5</v>
+      </c>
+      <c r="M211">
+        <v>3.5</v>
+      </c>
+      <c r="N211">
+        <v>2.1</v>
+      </c>
+      <c r="O211">
+        <v>3.4</v>
+      </c>
+      <c r="P211">
+        <v>2.9</v>
+      </c>
+      <c r="Q211">
+        <v>-0.25</v>
+      </c>
+      <c r="R211">
+        <v>1.9</v>
+      </c>
+      <c r="S211">
+        <v>1.9</v>
+      </c>
+      <c r="T211">
+        <v>2.25</v>
+      </c>
+      <c r="U211">
+        <v>1.8</v>
+      </c>
+      <c r="V211">
+        <v>2</v>
+      </c>
+      <c r="W211">
+        <v>1.1</v>
+      </c>
+      <c r="X211">
+        <v>-1</v>
+      </c>
+      <c r="Y211">
+        <v>-1</v>
+      </c>
+      <c r="Z211">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA211">
+        <v>-1</v>
+      </c>
+      <c r="AB211">
+        <v>-1</v>
+      </c>
+      <c r="AC211">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -112,13 +112,13 @@
     <t>Bijelo Brdo</t>
   </si>
   <si>
+    <t>NK Croatia Zmijavci</t>
+  </si>
+  <si>
     <t>Orijent</t>
   </si>
   <si>
     <t>NK Kustosija</t>
-  </si>
-  <si>
-    <t>NK Croatia Zmijavci</t>
   </si>
   <si>
     <t>HNK Sibenik</t>
@@ -127,10 +127,10 @@
     <t>NK Solin</t>
   </si>
   <si>
-    <t>NK Sesvete</t>
+    <t>HNK Cibalia</t>
   </si>
   <si>
-    <t>HNK Cibalia</t>
+    <t>NK Sesvete</t>
   </si>
   <si>
     <t>NK Zrinski Jurjevac</t>
@@ -628,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6425846</v>
+        <v>6425847</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -895,37 +895,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N5">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="O5">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="Q5">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
         <v>1.95</v>
@@ -934,34 +934,34 @@
         <v>1.85</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.8</v>
       </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X5">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6425845</v>
+        <v>6425846</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -984,73 +984,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P6">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R6">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y6">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6425847</v>
+        <v>6425845</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1073,16 +1073,16 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>2.1</v>
@@ -1094,25 +1094,25 @@
         <v>2.875</v>
       </c>
       <c r="N7">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O7">
         <v>3.5</v>
       </c>
       <c r="P7">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
         <v>2</v>
@@ -1121,25 +1121,25 @@
         <v>1.8</v>
       </c>
       <c r="W7">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1337,7 +1337,7 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7045999</v>
+        <v>6834733</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,73 +1429,73 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N11">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="O11">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6834733</v>
+        <v>7045999</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,73 +1518,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12">
+        <v>2.4</v>
+      </c>
+      <c r="L12">
+        <v>3.25</v>
+      </c>
+      <c r="M12">
+        <v>2.6</v>
+      </c>
+      <c r="N12">
+        <v>2.4</v>
+      </c>
+      <c r="O12">
+        <v>3.25</v>
+      </c>
+      <c r="P12">
+        <v>2.6</v>
+      </c>
+      <c r="Q12">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K12">
-        <v>1.65</v>
-      </c>
-      <c r="L12">
-        <v>3.5</v>
-      </c>
-      <c r="M12">
-        <v>4.5</v>
-      </c>
-      <c r="N12">
-        <v>1.909</v>
-      </c>
-      <c r="O12">
-        <v>3.3</v>
-      </c>
-      <c r="P12">
-        <v>3.3</v>
-      </c>
-      <c r="Q12">
-        <v>-0.5</v>
-      </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W12">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1785,7 +1785,7 @@
         <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6834738</v>
+        <v>6834734</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1871,76 +1871,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L16">
         <v>3.2</v>
       </c>
       <c r="M16">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="N16">
+        <v>2.2</v>
+      </c>
+      <c r="O16">
         <v>3.2</v>
       </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
       <c r="P16">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y16">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB16">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6834734</v>
+        <v>6834738</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,76 +1960,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L17">
         <v>3.2</v>
       </c>
       <c r="M17">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="N17">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O17">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC17">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2049,10 +2049,10 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -2230,7 +2230,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2304,7 +2304,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6834742</v>
+        <v>6834744</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2316,58 +2316,58 @@
         <v>45164.5</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>44</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O21">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P21">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2376,13 +2376,13 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2405,7 +2405,7 @@
         <v>45164.5</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2482,7 +2482,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6834744</v>
+        <v>6834742</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2494,58 +2494,58 @@
         <v>45164.5</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>3</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>44</v>
       </c>
       <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>3.25</v>
+      </c>
+      <c r="M23">
+        <v>3.3</v>
+      </c>
+      <c r="N23">
+        <v>2.15</v>
+      </c>
+      <c r="O23">
+        <v>3.1</v>
+      </c>
+      <c r="P23">
+        <v>3.1</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.9</v>
+      </c>
+      <c r="S23">
+        <v>1.9</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
         <v>1.75</v>
       </c>
-      <c r="L23">
-        <v>3.4</v>
-      </c>
-      <c r="M23">
-        <v>4</v>
-      </c>
-      <c r="N23">
-        <v>1.666</v>
-      </c>
-      <c r="O23">
-        <v>3.6</v>
-      </c>
-      <c r="P23">
-        <v>4.2</v>
-      </c>
-      <c r="Q23">
-        <v>-0.75</v>
-      </c>
-      <c r="R23">
-        <v>1.925</v>
-      </c>
-      <c r="S23">
-        <v>1.875</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.825</v>
-      </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2554,13 +2554,13 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2672,7 +2672,7 @@
         <v>45166.5</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2838,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6834746</v>
+        <v>6834748</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2850,76 +2850,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M27">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N27">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P27">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
+        <v>1.975</v>
+      </c>
+      <c r="S27">
         <v>1.825</v>
       </c>
-      <c r="S27">
-        <v>1.975</v>
-      </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X27">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA27">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2927,7 +2927,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6834748</v>
+        <v>6834749</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2939,34 +2939,34 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
       </c>
       <c r="K28">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L28">
+        <v>3.1</v>
+      </c>
+      <c r="M28">
         <v>3.25</v>
       </c>
-      <c r="M28">
-        <v>3.5</v>
-      </c>
       <c r="N28">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O28">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
         <v>3.5</v>
@@ -2975,22 +2975,22 @@
         <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2999,16 +2999,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6834749</v>
+        <v>6834750</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,13 +3028,13 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -3043,43 +3043,43 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L29">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M29">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O29">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P29">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3088,13 +3088,13 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6834750</v>
+        <v>6834746</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L30">
+        <v>3.2</v>
+      </c>
+      <c r="M30">
         <v>3.3</v>
       </c>
-      <c r="M30">
-        <v>3</v>
-      </c>
       <c r="N30">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q30">
         <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>1.825</v>
+      </c>
+      <c r="S30">
+        <v>1.975</v>
+      </c>
+      <c r="T30">
+        <v>2.25</v>
+      </c>
+      <c r="U30">
+        <v>1.925</v>
+      </c>
+      <c r="V30">
         <v>1.875</v>
       </c>
-      <c r="S30">
-        <v>1.925</v>
-      </c>
-      <c r="T30">
-        <v>2.5</v>
-      </c>
-      <c r="U30">
-        <v>1.825</v>
-      </c>
-      <c r="V30">
-        <v>1.975</v>
-      </c>
       <c r="W30">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
+        <v>-0.5</v>
+      </c>
+      <c r="AA30">
+        <v>0.4875</v>
+      </c>
+      <c r="AB30">
+        <v>-1</v>
+      </c>
+      <c r="AC30">
         <v>0.875</v>
-      </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
-      <c r="AB30">
-        <v>0.825</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3295,7 +3295,7 @@
         <v>45177.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3372,7 +3372,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6834755</v>
+        <v>6834752</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3384,13 +3384,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3399,43 +3399,43 @@
         <v>44</v>
       </c>
       <c r="K33">
+        <v>1.727</v>
+      </c>
+      <c r="L33">
+        <v>3.4</v>
+      </c>
+      <c r="M33">
+        <v>4.2</v>
+      </c>
+      <c r="N33">
+        <v>1.833</v>
+      </c>
+      <c r="O33">
+        <v>3.4</v>
+      </c>
+      <c r="P33">
+        <v>4</v>
+      </c>
+      <c r="Q33">
+        <v>-0.5</v>
+      </c>
+      <c r="R33">
+        <v>1.85</v>
+      </c>
+      <c r="S33">
+        <v>1.95</v>
+      </c>
+      <c r="T33">
         <v>2.25</v>
       </c>
-      <c r="L33">
-        <v>3.25</v>
-      </c>
-      <c r="M33">
-        <v>2.75</v>
-      </c>
-      <c r="N33">
-        <v>1.666</v>
-      </c>
-      <c r="O33">
-        <v>3.5</v>
-      </c>
-      <c r="P33">
-        <v>4.2</v>
-      </c>
-      <c r="Q33">
-        <v>-0.75</v>
-      </c>
-      <c r="R33">
-        <v>2</v>
-      </c>
-      <c r="S33">
+      <c r="U33">
         <v>1.8</v>
       </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
-      <c r="U33">
-        <v>2.025</v>
-      </c>
       <c r="V33">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>0.6659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3444,16 +3444,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3473,7 +3473,7 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
         <v>35</v>
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6834752</v>
+        <v>6834755</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3562,13 +3562,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3577,43 +3577,43 @@
         <v>44</v>
       </c>
       <c r="K35">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M35">
+        <v>2.75</v>
+      </c>
+      <c r="N35">
+        <v>1.666</v>
+      </c>
+      <c r="O35">
+        <v>3.5</v>
+      </c>
+      <c r="P35">
         <v>4.2</v>
       </c>
-      <c r="N35">
-        <v>1.833</v>
-      </c>
-      <c r="O35">
-        <v>3.4</v>
-      </c>
-      <c r="P35">
-        <v>4</v>
-      </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T35">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W35">
-        <v>0.833</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3622,16 +3622,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3651,7 +3651,7 @@
         <v>45179.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
         <v>36</v>
@@ -3740,7 +3740,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3832,7 +3832,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4010,7 +4010,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4084,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6834757</v>
+        <v>6834760</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4096,76 +4096,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N41">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P41">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4173,7 +4173,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6834760</v>
+        <v>6834757</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4185,76 +4185,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K42">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N42">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O42">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q42">
+        <v>-0.25</v>
+      </c>
+      <c r="R42">
+        <v>1.925</v>
+      </c>
+      <c r="S42">
+        <v>1.875</v>
+      </c>
+      <c r="T42">
+        <v>2.25</v>
+      </c>
+      <c r="U42">
+        <v>1.875</v>
+      </c>
+      <c r="V42">
+        <v>1.925</v>
+      </c>
+      <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
+        <v>2</v>
+      </c>
+      <c r="Y42">
+        <v>-1</v>
+      </c>
+      <c r="Z42">
         <v>-0.5</v>
       </c>
-      <c r="R42">
-        <v>2</v>
-      </c>
-      <c r="S42">
-        <v>1.8</v>
-      </c>
-      <c r="T42">
-        <v>2.5</v>
-      </c>
-      <c r="U42">
-        <v>1.8</v>
-      </c>
-      <c r="V42">
-        <v>2</v>
-      </c>
-      <c r="W42">
-        <v>-1</v>
-      </c>
-      <c r="X42">
-        <v>-1</v>
-      </c>
-      <c r="Y42">
-        <v>2.5</v>
-      </c>
-      <c r="Z42">
-        <v>-1</v>
-      </c>
       <c r="AA42">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,7 +4277,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4452,7 +4452,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -4529,7 +4529,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6834764</v>
+        <v>6834763</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4541,76 +4541,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>3.3</v>
+      </c>
+      <c r="M46">
+        <v>3.2</v>
+      </c>
+      <c r="N46">
+        <v>2.15</v>
+      </c>
+      <c r="O46">
+        <v>3.3</v>
+      </c>
+      <c r="P46">
+        <v>3.1</v>
+      </c>
+      <c r="Q46">
+        <v>-0.25</v>
+      </c>
+      <c r="R46">
+        <v>1.85</v>
+      </c>
+      <c r="S46">
         <v>1.95</v>
       </c>
-      <c r="L46">
-        <v>3.2</v>
-      </c>
-      <c r="M46">
-        <v>3.5</v>
-      </c>
-      <c r="N46">
-        <v>1.95</v>
-      </c>
-      <c r="O46">
-        <v>3</v>
-      </c>
-      <c r="P46">
-        <v>3.75</v>
-      </c>
-      <c r="Q46">
-        <v>-0.5</v>
-      </c>
-      <c r="R46">
-        <v>2.025</v>
-      </c>
-      <c r="S46">
-        <v>1.775</v>
-      </c>
       <c r="T46">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4618,7 +4618,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6834763</v>
+        <v>6834764</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4630,76 +4630,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N47">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P47">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4719,7 +4719,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4900,7 +4900,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4986,10 +4986,10 @@
         <v>45199.40972222222</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6834769</v>
+        <v>6834770</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5164,61 +5164,61 @@
         <v>45199.4375</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>46</v>
       </c>
       <c r="K53">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L53">
+        <v>3.4</v>
+      </c>
+      <c r="M53">
         <v>3.6</v>
-      </c>
-      <c r="M53">
-        <v>3.8</v>
       </c>
       <c r="N53">
         <v>1.909</v>
       </c>
       <c r="O53">
+        <v>3.4</v>
+      </c>
+      <c r="P53">
         <v>3.5</v>
-      </c>
-      <c r="P53">
-        <v>3.2</v>
       </c>
       <c r="Q53">
         <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T53">
         <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5227,13 +5227,13 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB53">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5241,7 +5241,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6834770</v>
+        <v>6834769</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5253,61 +5253,61 @@
         <v>45199.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>46</v>
       </c>
       <c r="K54">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N54">
         <v>1.909</v>
       </c>
       <c r="O54">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T54">
         <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5316,13 +5316,13 @@
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5431,10 +5431,10 @@
         <v>45205.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5698,7 +5698,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
@@ -5787,7 +5787,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -6057,7 +6057,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>4</v>
@@ -6131,7 +6131,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6834783</v>
+        <v>6834781</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6143,76 +6143,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K64">
+        <v>1.666</v>
+      </c>
+      <c r="L64">
+        <v>3.8</v>
+      </c>
+      <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>1.75</v>
+      </c>
+      <c r="O64">
+        <v>3.5</v>
+      </c>
+      <c r="P64">
+        <v>3.8</v>
+      </c>
+      <c r="Q64">
+        <v>-0.75</v>
+      </c>
+      <c r="R64">
+        <v>1.95</v>
+      </c>
+      <c r="S64">
+        <v>1.75</v>
+      </c>
+      <c r="T64">
         <v>2.25</v>
       </c>
-      <c r="L64">
-        <v>3.25</v>
-      </c>
-      <c r="M64">
-        <v>2.75</v>
-      </c>
-      <c r="N64">
-        <v>1.95</v>
-      </c>
-      <c r="O64">
-        <v>3.3</v>
-      </c>
-      <c r="P64">
-        <v>3.25</v>
-      </c>
-      <c r="Q64">
-        <v>-0.25</v>
-      </c>
-      <c r="R64">
-        <v>1.75</v>
-      </c>
-      <c r="S64">
-        <v>1.95</v>
-      </c>
-      <c r="T64">
-        <v>2.75</v>
-      </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V64">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6220,7 +6220,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6834781</v>
+        <v>6834783</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6232,76 +6232,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L65">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N65">
+        <v>1.95</v>
+      </c>
+      <c r="O65">
+        <v>3.3</v>
+      </c>
+      <c r="P65">
+        <v>3.25</v>
+      </c>
+      <c r="Q65">
+        <v>-0.25</v>
+      </c>
+      <c r="R65">
         <v>1.75</v>
       </c>
-      <c r="O65">
-        <v>3.5</v>
-      </c>
-      <c r="P65">
-        <v>3.8</v>
-      </c>
-      <c r="Q65">
-        <v>-0.75</v>
-      </c>
-      <c r="R65">
+      <c r="S65">
         <v>1.95</v>
       </c>
-      <c r="S65">
-        <v>1.75</v>
-      </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y65">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6410,7 +6410,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
         <v>42</v>
@@ -6499,7 +6499,7 @@
         <v>45219.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
         <v>31</v>
@@ -6680,7 +6680,7 @@
         <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6855,10 +6855,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>6</v>
@@ -7036,7 +7036,7 @@
         <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7199,7 +7199,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6834795</v>
+        <v>6834791</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7211,10 +7211,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7226,61 +7226,61 @@
         <v>46</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M76">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N76">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P76">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7288,7 +7288,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6834791</v>
+        <v>6834795</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7300,10 +7300,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7315,61 +7315,61 @@
         <v>46</v>
       </c>
       <c r="K77">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N77">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O77">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7389,10 +7389,10 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -7567,10 +7567,10 @@
         <v>45233.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7745,7 +7745,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6834798</v>
+        <v>6834799</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,76 +7834,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K83">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L83">
+        <v>3.3</v>
+      </c>
+      <c r="M83">
+        <v>2.6</v>
+      </c>
+      <c r="N83">
+        <v>2.3</v>
+      </c>
+      <c r="O83">
         <v>3.6</v>
       </c>
-      <c r="M83">
-        <v>5</v>
-      </c>
-      <c r="N83">
-        <v>1.615</v>
-      </c>
-      <c r="O83">
-        <v>3.5</v>
-      </c>
       <c r="P83">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>1.8</v>
+      </c>
+      <c r="T83">
+        <v>2.5</v>
+      </c>
+      <c r="U83">
+        <v>1.95</v>
+      </c>
+      <c r="V83">
         <v>1.85</v>
       </c>
-      <c r="S83">
-        <v>1.95</v>
-      </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>1.875</v>
-      </c>
-      <c r="V83">
-        <v>1.925</v>
-      </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X83">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6834799</v>
+        <v>6834798</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7923,76 +7923,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K84">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L84">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N84">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P84">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T84">
+        <v>2.25</v>
+      </c>
+      <c r="U84">
+        <v>1.875</v>
+      </c>
+      <c r="V84">
+        <v>1.925</v>
+      </c>
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
         <v>2.5</v>
       </c>
-      <c r="U84">
-        <v>1.95</v>
-      </c>
-      <c r="V84">
-        <v>1.85</v>
-      </c>
-      <c r="W84">
-        <v>1.3</v>
-      </c>
-      <c r="X84">
-        <v>-1</v>
-      </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8193,7 +8193,7 @@
         <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6834805</v>
+        <v>6834803</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8279,76 +8279,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N88">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="O88">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P88">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="Q88">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R88">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z88">
-        <v>0.95</v>
+        <v>0.3625</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8356,7 +8356,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6834803</v>
+        <v>6834805</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8368,76 +8368,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
         <v>0</v>
       </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K89">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N89">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="O89">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="Q89">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.3625</v>
+        <v>0.95</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8457,7 +8457,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
@@ -8549,7 +8549,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8623,7 +8623,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7481395</v>
+        <v>6834809</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,73 +8638,73 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K92">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L92">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M92">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N92">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="O92">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P92">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q92">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8712,7 +8712,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6834809</v>
+        <v>7481395</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,73 +8727,73 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K93">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L93">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M93">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N93">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="O93">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P93">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q93">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R93">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
         <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8902,7 +8902,7 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
         <v>36</v>
@@ -8991,7 +8991,7 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>31</v>
@@ -9172,7 +9172,7 @@
         <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9261,7 +9261,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6834819</v>
+        <v>6834818</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,76 +9436,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K101">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L101">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
         <v>3</v>
       </c>
       <c r="N101">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O101">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P101">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z101">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6834818</v>
+        <v>6834819</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,76 +9525,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K102">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M102">
         <v>3</v>
       </c>
       <c r="N102">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O102">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P102">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9792,7 +9792,7 @@
         <v>45261.39583333334</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
         <v>36</v>
@@ -9881,7 +9881,7 @@
         <v>45262.35416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
         <v>35</v>
@@ -10059,7 +10059,7 @@
         <v>45263.36805555555</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10148,7 +10148,7 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -10329,7 +10329,7 @@
         <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10403,7 +10403,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6834828</v>
+        <v>6834826</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10415,28 +10415,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>46</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
         <v>3.1</v>
-      </c>
-      <c r="M112">
-        <v>3.4</v>
       </c>
       <c r="N112">
         <v>2.25</v>
@@ -10445,7 +10445,7 @@
         <v>3</v>
       </c>
       <c r="P112">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q112">
         <v>-0.25</v>
@@ -10460,10 +10460,10 @@
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10481,10 +10481,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6834826</v>
+        <v>6834828</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,28 +10504,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>46</v>
       </c>
       <c r="K113">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M113">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
         <v>2.25</v>
@@ -10534,7 +10534,7 @@
         <v>3</v>
       </c>
       <c r="P113">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q113">
         <v>-0.25</v>
@@ -10549,10 +10549,10 @@
         <v>2.25</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10570,10 +10570,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10685,7 +10685,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10771,7 +10771,7 @@
         <v>45345.45138888889</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
         <v>39</v>
@@ -11038,10 +11038,10 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11216,7 +11216,7 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
         <v>36</v>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -127,10 +127,10 @@
     <t>NK Solin</t>
   </si>
   <si>
-    <t>HNK Cibalia</t>
+    <t>NK Sesvete</t>
   </si>
   <si>
-    <t>NK Sesvete</t>
+    <t>HNK Cibalia</t>
   </si>
   <si>
     <t>NK Zrinski Jurjevac</t>
@@ -628,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6834733</v>
+        <v>7045999</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,73 +1429,73 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11">
+        <v>2.4</v>
+      </c>
+      <c r="L11">
+        <v>3.25</v>
+      </c>
+      <c r="M11">
+        <v>2.6</v>
+      </c>
+      <c r="N11">
+        <v>2.4</v>
+      </c>
+      <c r="O11">
+        <v>3.25</v>
+      </c>
+      <c r="P11">
+        <v>2.6</v>
+      </c>
+      <c r="Q11">
         <v>0</v>
       </c>
-      <c r="J11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K11">
-        <v>1.65</v>
-      </c>
-      <c r="L11">
-        <v>3.5</v>
-      </c>
-      <c r="M11">
-        <v>4.5</v>
-      </c>
-      <c r="N11">
-        <v>1.909</v>
-      </c>
-      <c r="O11">
-        <v>3.3</v>
-      </c>
-      <c r="P11">
-        <v>3.3</v>
-      </c>
-      <c r="Q11">
-        <v>-0.5</v>
-      </c>
       <c r="R11">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T11">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W11">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7045999</v>
+        <v>6834733</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,73 +1518,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L12">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N12">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="O12">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X12">
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6834735</v>
+        <v>6834734</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1782,10 +1782,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1797,61 +1797,61 @@
         <v>46</v>
       </c>
       <c r="K15">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N15">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P15">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB15">
         <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1859,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6834734</v>
+        <v>6834735</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1871,10 +1871,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1886,61 +1886,61 @@
         <v>46</v>
       </c>
       <c r="K16">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L16">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N16">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB16">
         <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2052,7 +2052,7 @@
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6834744</v>
+        <v>6834742</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2316,58 +2316,58 @@
         <v>45164.5</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>44</v>
       </c>
       <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>3.25</v>
+      </c>
+      <c r="M21">
+        <v>3.3</v>
+      </c>
+      <c r="N21">
+        <v>2.15</v>
+      </c>
+      <c r="O21">
+        <v>3.1</v>
+      </c>
+      <c r="P21">
+        <v>3.1</v>
+      </c>
+      <c r="Q21">
+        <v>-0.25</v>
+      </c>
+      <c r="R21">
+        <v>1.9</v>
+      </c>
+      <c r="S21">
+        <v>1.9</v>
+      </c>
+      <c r="T21">
+        <v>2.25</v>
+      </c>
+      <c r="U21">
         <v>1.75</v>
       </c>
-      <c r="L21">
-        <v>3.4</v>
-      </c>
-      <c r="M21">
-        <v>4</v>
-      </c>
-      <c r="N21">
-        <v>1.666</v>
-      </c>
-      <c r="O21">
-        <v>3.6</v>
-      </c>
-      <c r="P21">
-        <v>4.2</v>
-      </c>
-      <c r="Q21">
-        <v>-0.75</v>
-      </c>
-      <c r="R21">
-        <v>1.925</v>
-      </c>
-      <c r="S21">
-        <v>1.875</v>
-      </c>
-      <c r="T21">
-        <v>2.5</v>
-      </c>
-      <c r="U21">
-        <v>1.825</v>
-      </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2376,13 +2376,13 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2482,7 +2482,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6834742</v>
+        <v>6834744</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2494,58 +2494,58 @@
         <v>45164.5</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H23">
         <v>3</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>44</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L23">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N23">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O23">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2554,13 +2554,13 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2672,7 +2672,7 @@
         <v>45166.5</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2838,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6834748</v>
+        <v>6834749</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2850,34 +2850,34 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
         <v>38</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
       </c>
       <c r="K27">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L27">
+        <v>3.1</v>
+      </c>
+      <c r="M27">
         <v>3.25</v>
       </c>
-      <c r="M27">
-        <v>3.5</v>
-      </c>
       <c r="N27">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O27">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
         <v>3.5</v>
@@ -2886,22 +2886,22 @@
         <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2910,16 +2910,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2927,7 +2927,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6834749</v>
+        <v>6834748</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2939,34 +2939,34 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
         <v>37</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
       </c>
       <c r="K28">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L28">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M28">
+        <v>3.5</v>
+      </c>
+      <c r="N28">
+        <v>1.909</v>
+      </c>
+      <c r="O28">
         <v>3.25</v>
-      </c>
-      <c r="N28">
-        <v>1.95</v>
-      </c>
-      <c r="O28">
-        <v>3.2</v>
       </c>
       <c r="P28">
         <v>3.5</v>
@@ -2975,22 +2975,22 @@
         <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2999,16 +2999,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6834750</v>
+        <v>6834746</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,76 +3028,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L29">
+        <v>3.2</v>
+      </c>
+      <c r="M29">
         <v>3.3</v>
       </c>
-      <c r="M29">
-        <v>3</v>
-      </c>
       <c r="N29">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O29">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q29">
         <v>-0.25</v>
       </c>
       <c r="R29">
+        <v>1.825</v>
+      </c>
+      <c r="S29">
+        <v>1.975</v>
+      </c>
+      <c r="T29">
+        <v>2.25</v>
+      </c>
+      <c r="U29">
+        <v>1.925</v>
+      </c>
+      <c r="V29">
         <v>1.875</v>
       </c>
-      <c r="S29">
-        <v>1.925</v>
-      </c>
-      <c r="T29">
-        <v>2.5</v>
-      </c>
-      <c r="U29">
-        <v>1.825</v>
-      </c>
-      <c r="V29">
-        <v>1.975</v>
-      </c>
       <c r="W29">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
+        <v>-0.5</v>
+      </c>
+      <c r="AA29">
+        <v>0.4875</v>
+      </c>
+      <c r="AB29">
+        <v>-1</v>
+      </c>
+      <c r="AC29">
         <v>0.875</v>
-      </c>
-      <c r="AA29">
-        <v>-1</v>
-      </c>
-      <c r="AB29">
-        <v>0.825</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6834746</v>
+        <v>6834750</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>2.1</v>
+      </c>
+      <c r="O30">
         <v>3.3</v>
       </c>
-      <c r="N30">
-        <v>2.05</v>
-      </c>
-      <c r="O30">
-        <v>3.1</v>
-      </c>
       <c r="P30">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q30">
         <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>1.875</v>
+      </c>
+      <c r="S30">
+        <v>1.925</v>
+      </c>
+      <c r="T30">
+        <v>2.5</v>
+      </c>
+      <c r="U30">
         <v>1.825</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>1.975</v>
       </c>
-      <c r="T30">
-        <v>2.25</v>
-      </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
-      <c r="V30">
-        <v>1.875</v>
-      </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X30">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA30">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC30">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3295,7 +3295,7 @@
         <v>45177.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3651,7 +3651,7 @@
         <v>45179.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
         <v>36</v>
@@ -4099,7 +4099,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4452,7 +4452,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -4529,7 +4529,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6834763</v>
+        <v>6834764</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4541,76 +4541,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L46">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N46">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O46">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4618,7 +4618,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6834764</v>
+        <v>6834763</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4630,76 +4630,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>3.3</v>
+      </c>
+      <c r="M47">
+        <v>3.2</v>
+      </c>
+      <c r="N47">
+        <v>2.15</v>
+      </c>
+      <c r="O47">
+        <v>3.3</v>
+      </c>
+      <c r="P47">
+        <v>3.1</v>
+      </c>
+      <c r="Q47">
+        <v>-0.25</v>
+      </c>
+      <c r="R47">
+        <v>1.85</v>
+      </c>
+      <c r="S47">
         <v>1.95</v>
       </c>
-      <c r="L47">
-        <v>3.2</v>
-      </c>
-      <c r="M47">
-        <v>3.5</v>
-      </c>
-      <c r="N47">
-        <v>1.95</v>
-      </c>
-      <c r="O47">
-        <v>3</v>
-      </c>
-      <c r="P47">
-        <v>3.75</v>
-      </c>
-      <c r="Q47">
-        <v>-0.5</v>
-      </c>
-      <c r="R47">
-        <v>2.025</v>
-      </c>
-      <c r="S47">
-        <v>1.775</v>
-      </c>
       <c r="T47">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4900,7 +4900,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4989,7 +4989,7 @@
         <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5063,7 +5063,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6834768</v>
+        <v>6834769</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5075,76 +5075,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
         <v>46</v>
       </c>
       <c r="K52">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N52">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O52">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5152,7 +5152,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6834770</v>
+        <v>6834768</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5164,10 +5164,10 @@
         <v>45199.4375</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5179,34 +5179,34 @@
         <v>46</v>
       </c>
       <c r="K53">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="N53">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O53">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P53">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
         <v>1.9</v>
@@ -5218,16 +5218,16 @@
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA53">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB53">
         <v>-1</v>
@@ -5241,7 +5241,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6834769</v>
+        <v>6834770</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5253,61 +5253,61 @@
         <v>45199.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>46</v>
       </c>
       <c r="K54">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L54">
+        <v>3.4</v>
+      </c>
+      <c r="M54">
         <v>3.6</v>
-      </c>
-      <c r="M54">
-        <v>3.8</v>
       </c>
       <c r="N54">
         <v>1.909</v>
       </c>
       <c r="O54">
+        <v>3.4</v>
+      </c>
+      <c r="P54">
         <v>3.5</v>
-      </c>
-      <c r="P54">
-        <v>3.2</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T54">
         <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5316,13 +5316,13 @@
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5431,7 +5431,7 @@
         <v>45205.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5698,7 +5698,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
@@ -6042,7 +6042,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6834779</v>
+        <v>6834781</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6054,76 +6054,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63" t="s">
+        <v>45</v>
+      </c>
+      <c r="K63">
+        <v>1.666</v>
+      </c>
+      <c r="L63">
+        <v>3.8</v>
+      </c>
+      <c r="M63">
         <v>4</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63" t="s">
-        <v>44</v>
-      </c>
-      <c r="K63">
-        <v>1.5</v>
-      </c>
-      <c r="L63">
-        <v>4</v>
-      </c>
-      <c r="M63">
-        <v>5</v>
-      </c>
       <c r="N63">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P63">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q63">
         <v>-0.75</v>
       </c>
       <c r="R63">
+        <v>1.95</v>
+      </c>
+      <c r="S63">
+        <v>1.75</v>
+      </c>
+      <c r="T63">
+        <v>2.25</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
         <v>1.8</v>
       </c>
-      <c r="S63">
-        <v>2</v>
-      </c>
-      <c r="T63">
-        <v>2.5</v>
-      </c>
-      <c r="U63">
-        <v>1.95</v>
-      </c>
-      <c r="V63">
-        <v>1.75</v>
-      </c>
       <c r="W63">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z63">
+        <v>-1</v>
+      </c>
+      <c r="AA63">
+        <v>0.75</v>
+      </c>
+      <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.8</v>
-      </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
-      <c r="AB63">
-        <v>0.95</v>
-      </c>
-      <c r="AC63">
-        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6131,7 +6131,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6834781</v>
+        <v>6834783</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6143,76 +6143,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K64">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L64">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M64">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N64">
+        <v>1.95</v>
+      </c>
+      <c r="O64">
+        <v>3.3</v>
+      </c>
+      <c r="P64">
+        <v>3.25</v>
+      </c>
+      <c r="Q64">
+        <v>-0.25</v>
+      </c>
+      <c r="R64">
         <v>1.75</v>
       </c>
-      <c r="O64">
-        <v>3.5</v>
-      </c>
-      <c r="P64">
-        <v>3.8</v>
-      </c>
-      <c r="Q64">
-        <v>-0.75</v>
-      </c>
-      <c r="R64">
+      <c r="S64">
         <v>1.95</v>
       </c>
-      <c r="S64">
-        <v>1.75</v>
-      </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y64">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA64">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6220,7 +6220,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6834783</v>
+        <v>6834779</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6232,76 +6232,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K65">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L65">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N65">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O65">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P65">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R65">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S65">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
         <v>1.95</v>
       </c>
       <c r="V65">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X65">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA65">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6499,7 +6499,7 @@
         <v>45219.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
         <v>31</v>
@@ -6665,7 +6665,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6834786</v>
+        <v>6834789</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6677,73 +6677,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K70">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L70">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N70">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="O70">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>1.8</v>
+      </c>
+      <c r="T70">
+        <v>2.75</v>
+      </c>
+      <c r="U70">
+        <v>1.825</v>
+      </c>
+      <c r="V70">
         <v>1.975</v>
       </c>
-      <c r="S70">
-        <v>1.825</v>
-      </c>
-      <c r="T70">
-        <v>2.25</v>
-      </c>
-      <c r="U70">
-        <v>1.875</v>
-      </c>
-      <c r="V70">
-        <v>1.925</v>
-      </c>
       <c r="W70">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6754,7 +6754,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6834789</v>
+        <v>6834786</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6766,73 +6766,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K71">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L71">
+        <v>3.1</v>
+      </c>
+      <c r="M71">
         <v>3.75</v>
       </c>
-      <c r="M71">
-        <v>5.5</v>
-      </c>
       <c r="N71">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="O71">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X71">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -7303,7 +7303,7 @@
         <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7392,7 +7392,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -7567,7 +7567,7 @@
         <v>45233.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
         <v>32</v>
@@ -7733,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6834800</v>
+        <v>6834799</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7745,76 +7745,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
         <v>0</v>
       </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K82">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L82">
+        <v>3.3</v>
+      </c>
+      <c r="M82">
+        <v>2.6</v>
+      </c>
+      <c r="N82">
+        <v>2.3</v>
+      </c>
+      <c r="O82">
         <v>3.6</v>
       </c>
-      <c r="M82">
-        <v>2.75</v>
-      </c>
-      <c r="N82">
-        <v>1.909</v>
-      </c>
-      <c r="O82">
-        <v>3.75</v>
-      </c>
       <c r="P82">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q82">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6834799</v>
+        <v>6834798</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,76 +7834,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K83">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L83">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N83">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O83">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P83">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
+        <v>2.25</v>
+      </c>
+      <c r="U83">
+        <v>1.875</v>
+      </c>
+      <c r="V83">
+        <v>1.925</v>
+      </c>
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
         <v>2.5</v>
       </c>
-      <c r="U83">
-        <v>1.95</v>
-      </c>
-      <c r="V83">
-        <v>1.85</v>
-      </c>
-      <c r="W83">
-        <v>1.3</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6834798</v>
+        <v>6834800</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7923,76 +7923,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K84">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
         <v>3.6</v>
       </c>
       <c r="M84">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N84">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O84">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8193,7 +8193,7 @@
         <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6834803</v>
+        <v>6834805</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8279,76 +8279,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N88">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="O88">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="Q88">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R88">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.3625</v>
+        <v>0.95</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8356,7 +8356,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6834805</v>
+        <v>6834803</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8368,76 +8368,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K89">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N89">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="O89">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P89">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R89">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z89">
-        <v>0.95</v>
+        <v>0.3625</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8635,7 +8635,7 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
         <v>29</v>
@@ -8724,7 +8724,7 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
         <v>40</v>
@@ -8801,7 +8801,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6834810</v>
+        <v>6834812</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8813,76 +8813,76 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K94">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L94">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N94">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O94">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P94">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V94">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y94">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6834812</v>
+        <v>6834810</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,76 +8902,76 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K95">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L95">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N95">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O95">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6834813</v>
+        <v>6835155</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,76 +8991,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K96">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M96">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N96">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P96">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q96">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
+        <v>1.875</v>
+      </c>
+      <c r="V96">
         <v>1.925</v>
       </c>
-      <c r="V96">
-        <v>1.875</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X96">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
         <v>-0.5</v>
       </c>
       <c r="AC96">
-        <v>0.4375</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6835155</v>
+        <v>6834813</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,76 +9080,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K97">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L97">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N97">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O97">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P97">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T97">
         <v>2.25</v>
       </c>
       <c r="U97">
+        <v>1.925</v>
+      </c>
+      <c r="V97">
         <v>1.875</v>
       </c>
-      <c r="V97">
-        <v>1.925</v>
-      </c>
       <c r="W97">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB97">
         <v>-0.5</v>
       </c>
       <c r="AC97">
-        <v>0.4625</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9172,7 +9172,7 @@
         <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9261,7 +9261,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6834814</v>
+        <v>6834819</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9347,76 +9347,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K100">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M100">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N100">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q100">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6834818</v>
+        <v>6834814</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,55 +9436,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
         <v>45</v>
       </c>
       <c r="K101">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M101">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N101">
+        <v>4.333</v>
+      </c>
+      <c r="O101">
+        <v>3.2</v>
+      </c>
+      <c r="P101">
+        <v>1.75</v>
+      </c>
+      <c r="Q101">
+        <v>0.5</v>
+      </c>
+      <c r="R101">
+        <v>2</v>
+      </c>
+      <c r="S101">
         <v>1.8</v>
       </c>
-      <c r="O101">
-        <v>3.5</v>
-      </c>
-      <c r="P101">
-        <v>3.6</v>
-      </c>
-      <c r="Q101">
-        <v>-0.5</v>
-      </c>
-      <c r="R101">
-        <v>1.85</v>
-      </c>
-      <c r="S101">
-        <v>1.95</v>
-      </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9493,19 +9493,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.6</v>
+        <v>0.75</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6834819</v>
+        <v>6834818</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,76 +9525,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K102">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L102">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M102">
         <v>3</v>
       </c>
       <c r="N102">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O102">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P102">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9792,7 +9792,7 @@
         <v>45261.39583333334</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
         <v>36</v>
@@ -9881,7 +9881,7 @@
         <v>45262.35416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
         <v>35</v>
@@ -10329,7 +10329,7 @@
         <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10403,7 +10403,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6834826</v>
+        <v>6834828</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10415,28 +10415,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>46</v>
       </c>
       <c r="K112">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M112">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
         <v>2.25</v>
@@ -10445,7 +10445,7 @@
         <v>3</v>
       </c>
       <c r="P112">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q112">
         <v>-0.25</v>
@@ -10460,10 +10460,10 @@
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10481,10 +10481,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6834828</v>
+        <v>6834826</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,28 +10504,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>46</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
         <v>3.1</v>
-      </c>
-      <c r="M113">
-        <v>3.4</v>
       </c>
       <c r="N113">
         <v>2.25</v>
@@ -10534,7 +10534,7 @@
         <v>3</v>
       </c>
       <c r="P113">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q113">
         <v>-0.25</v>
@@ -10549,10 +10549,10 @@
         <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10570,10 +10570,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10771,7 +10771,7 @@
         <v>45345.45138888889</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
         <v>39</v>
@@ -11038,7 +11038,7 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
         <v>33</v>
@@ -11221,6 +11221,15 @@
       <c r="G121" t="s">
         <v>36</v>
       </c>
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>44</v>
+      </c>
       <c r="K121">
         <v>1.615</v>
       </c>
@@ -11231,46 +11240,52 @@
         <v>4.75</v>
       </c>
       <c r="N121">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O121">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P121">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q121">
         <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T121">
         <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V121">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA121">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB121">
+        <v>0.75</v>
+      </c>
+      <c r="AC121">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -112,25 +112,25 @@
     <t>Bijelo Brdo</t>
   </si>
   <si>
+    <t>NK Kustosija</t>
+  </si>
+  <si>
     <t>NK Croatia Zmijavci</t>
   </si>
   <si>
     <t>Orijent</t>
   </si>
   <si>
-    <t>NK Kustosija</t>
-  </si>
-  <si>
     <t>HNK Sibenik</t>
   </si>
   <si>
-    <t>NK Solin</t>
+    <t>HNK Cibalia</t>
   </si>
   <si>
     <t>NK Sesvete</t>
   </si>
   <si>
-    <t>HNK Cibalia</t>
+    <t>NK Solin</t>
   </si>
   <si>
     <t>NK Zrinski Jurjevac</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC121"/>
+  <dimension ref="A1:AC124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6425847</v>
+        <v>6425845</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -895,16 +895,16 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>2.1</v>
@@ -916,25 +916,25 @@
         <v>2.875</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O5">
         <v>3.5</v>
       </c>
       <c r="P5">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
         <v>2</v>
@@ -943,25 +943,25 @@
         <v>1.8</v>
       </c>
       <c r="W5">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB5">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6425846</v>
+        <v>6425847</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -984,37 +984,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N6">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="Q6">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
         <v>1.95</v>
@@ -1023,34 +1023,34 @@
         <v>1.85</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
         <v>1.8</v>
       </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X6">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6425845</v>
+        <v>6425846</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1073,73 +1073,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P7">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R7">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y7">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1236,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6834729</v>
+        <v>6834733</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1251,73 +1251,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N9">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O9">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P9">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
         <v>1.8</v>
       </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X9">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1325,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6834732</v>
+        <v>7045999</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1337,76 +1337,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N10">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P10">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
+        <v>1.775</v>
+      </c>
+      <c r="S10">
         <v>2.025</v>
       </c>
-      <c r="S10">
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
         <v>1.775</v>
       </c>
-      <c r="T10">
-        <v>2.25</v>
-      </c>
-      <c r="U10">
-        <v>1.825</v>
-      </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
       <c r="AB10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7045999</v>
+        <v>6834729</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,76 +1426,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M11">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O11">
         <v>3.25</v>
       </c>
       <c r="P11">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U11">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y11">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6834733</v>
+        <v>6834732</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,76 +1515,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M12">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N12">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P12">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q12">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6834734</v>
+        <v>6834738</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1782,76 +1782,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L15">
         <v>3.2</v>
       </c>
       <c r="M15">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC15">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1859,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6834735</v>
+        <v>6834734</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1871,10 +1871,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1886,61 +1886,61 @@
         <v>46</v>
       </c>
       <c r="K16">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M16">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N16">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P16">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB16">
         <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6834738</v>
+        <v>6834735</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,76 +1960,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
         <v>36</v>
       </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17">
+        <v>2.4</v>
+      </c>
+      <c r="L17">
         <v>3</v>
       </c>
-      <c r="J17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17">
+      <c r="M17">
         <v>2.75</v>
       </c>
-      <c r="L17">
-        <v>3.2</v>
-      </c>
-      <c r="M17">
-        <v>2.3</v>
-      </c>
       <c r="N17">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="O17">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y17">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2049,7 +2049,7 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
         <v>37</v>
@@ -2141,7 +2141,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -2230,7 +2230,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2304,7 +2304,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6834742</v>
+        <v>6834743</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2316,76 +2316,76 @@
         <v>45164.5</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21">
         <v>3</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M21">
+        <v>2.1</v>
+      </c>
+      <c r="N21">
+        <v>1.95</v>
+      </c>
+      <c r="O21">
+        <v>3.4</v>
+      </c>
+      <c r="P21">
         <v>3.3</v>
       </c>
-      <c r="N21">
-        <v>2.15</v>
-      </c>
-      <c r="O21">
-        <v>3.1</v>
-      </c>
-      <c r="P21">
-        <v>3.1</v>
-      </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB21">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2393,7 +2393,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6834743</v>
+        <v>6834742</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2405,76 +2405,76 @@
         <v>45164.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
+        <v>3.25</v>
+      </c>
+      <c r="M22">
         <v>3.3</v>
       </c>
-      <c r="M22">
-        <v>2.1</v>
-      </c>
       <c r="N22">
+        <v>2.15</v>
+      </c>
+      <c r="O22">
+        <v>3.1</v>
+      </c>
+      <c r="P22">
+        <v>3.1</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.9</v>
+      </c>
+      <c r="S22">
+        <v>1.9</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>1.75</v>
+      </c>
+      <c r="V22">
         <v>1.95</v>
       </c>
-      <c r="O22">
-        <v>3.4</v>
-      </c>
-      <c r="P22">
-        <v>3.3</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
-      <c r="U22">
-        <v>2</v>
-      </c>
-      <c r="V22">
-        <v>1.8</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2494,7 +2494,7 @@
         <v>45164.5</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
         <v>29</v>
@@ -2853,7 +2853,7 @@
         <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2927,7 +2927,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6834748</v>
+        <v>6834750</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2939,58 +2939,58 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
       </c>
       <c r="K28">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L28">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M28">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O28">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P28">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S28">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
         <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2999,16 +2999,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3031,7 +3031,7 @@
         <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6834750</v>
+        <v>6834748</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,58 +3117,58 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>44</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L30">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N30">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3177,16 +3177,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3372,7 +3372,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6834752</v>
+        <v>6834753</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3384,58 +3384,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
         <v>44</v>
       </c>
       <c r="K33">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L33">
         <v>3.4</v>
       </c>
       <c r="M33">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>3.3</v>
+      </c>
+      <c r="P33">
         <v>1.833</v>
       </c>
-      <c r="O33">
-        <v>3.4</v>
-      </c>
-      <c r="P33">
-        <v>4</v>
-      </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
+        <v>1.975</v>
+      </c>
+      <c r="S33">
+        <v>1.825</v>
+      </c>
+      <c r="T33">
+        <v>2.5</v>
+      </c>
+      <c r="U33">
+        <v>1.95</v>
+      </c>
+      <c r="V33">
         <v>1.85</v>
       </c>
-      <c r="S33">
-        <v>1.95</v>
-      </c>
-      <c r="T33">
-        <v>2.25</v>
-      </c>
-      <c r="U33">
-        <v>1.8</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
       <c r="W33">
-        <v>0.833</v>
+        <v>3</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3444,16 +3444,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3461,7 +3461,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6834753</v>
+        <v>6834752</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3473,58 +3473,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>44</v>
       </c>
       <c r="K34">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L34">
         <v>3.4</v>
       </c>
       <c r="M34">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N34">
+        <v>1.833</v>
+      </c>
+      <c r="O34">
+        <v>3.4</v>
+      </c>
+      <c r="P34">
         <v>4</v>
       </c>
-      <c r="O34">
-        <v>3.3</v>
-      </c>
-      <c r="P34">
-        <v>1.833</v>
-      </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W34">
-        <v>3</v>
+        <v>0.833</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3533,16 +3533,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3651,10 +3651,10 @@
         <v>45179.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
         <v>38</v>
-      </c>
-      <c r="G36" t="s">
-        <v>36</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3740,7 +3740,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3832,7 +3832,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4010,7 +4010,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4084,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6834760</v>
+        <v>6834757</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4096,76 +4096,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K41">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N41">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O41">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q41">
+        <v>-0.25</v>
+      </c>
+      <c r="R41">
+        <v>1.925</v>
+      </c>
+      <c r="S41">
+        <v>1.875</v>
+      </c>
+      <c r="T41">
+        <v>2.25</v>
+      </c>
+      <c r="U41">
+        <v>1.875</v>
+      </c>
+      <c r="V41">
+        <v>1.925</v>
+      </c>
+      <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
+        <v>2</v>
+      </c>
+      <c r="Y41">
+        <v>-1</v>
+      </c>
+      <c r="Z41">
         <v>-0.5</v>
       </c>
-      <c r="R41">
-        <v>2</v>
-      </c>
-      <c r="S41">
-        <v>1.8</v>
-      </c>
-      <c r="T41">
-        <v>2.5</v>
-      </c>
-      <c r="U41">
-        <v>1.8</v>
-      </c>
-      <c r="V41">
-        <v>2</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
-      <c r="X41">
-        <v>-1</v>
-      </c>
-      <c r="Y41">
-        <v>2.5</v>
-      </c>
-      <c r="Z41">
-        <v>-1</v>
-      </c>
       <c r="AA41">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4173,7 +4173,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6834757</v>
+        <v>6834760</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4185,76 +4185,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N42">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P42">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,7 +4277,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4529,7 +4529,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6834764</v>
+        <v>6834763</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4541,76 +4541,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>3.3</v>
+      </c>
+      <c r="M46">
+        <v>3.2</v>
+      </c>
+      <c r="N46">
+        <v>2.15</v>
+      </c>
+      <c r="O46">
+        <v>3.3</v>
+      </c>
+      <c r="P46">
+        <v>3.1</v>
+      </c>
+      <c r="Q46">
+        <v>-0.25</v>
+      </c>
+      <c r="R46">
+        <v>1.85</v>
+      </c>
+      <c r="S46">
         <v>1.95</v>
       </c>
-      <c r="L46">
-        <v>3.2</v>
-      </c>
-      <c r="M46">
-        <v>3.5</v>
-      </c>
-      <c r="N46">
-        <v>1.95</v>
-      </c>
-      <c r="O46">
-        <v>3</v>
-      </c>
-      <c r="P46">
-        <v>3.75</v>
-      </c>
-      <c r="Q46">
-        <v>-0.5</v>
-      </c>
-      <c r="R46">
-        <v>2.025</v>
-      </c>
-      <c r="S46">
-        <v>1.775</v>
-      </c>
       <c r="T46">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4618,7 +4618,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6834763</v>
+        <v>6834764</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4630,76 +4630,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N47">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P47">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4719,7 +4719,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4986,10 +4986,10 @@
         <v>45199.40972222222</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5253,10 +5253,10 @@
         <v>45199.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5597,7 +5597,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6834775</v>
+        <v>6834774</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5609,40 +5609,40 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K58">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L58">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="N58">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O58">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
         <v>1.925</v>
@@ -5654,31 +5654,31 @@
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5686,7 +5686,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6834774</v>
+        <v>6834775</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5698,40 +5698,40 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L59">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M59">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="N59">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P59">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
         <v>1.925</v>
@@ -5743,31 +5743,31 @@
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y59">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA59">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5787,7 +5787,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5879,7 +5879,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6042,7 +6042,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6834781</v>
+        <v>6834783</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,73 +6057,73 @@
         <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L63">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N63">
+        <v>1.95</v>
+      </c>
+      <c r="O63">
+        <v>3.3</v>
+      </c>
+      <c r="P63">
+        <v>3.25</v>
+      </c>
+      <c r="Q63">
+        <v>-0.25</v>
+      </c>
+      <c r="R63">
         <v>1.75</v>
       </c>
-      <c r="O63">
-        <v>3.5</v>
-      </c>
-      <c r="P63">
-        <v>3.8</v>
-      </c>
-      <c r="Q63">
-        <v>-0.75</v>
-      </c>
-      <c r="R63">
+      <c r="S63">
         <v>1.95</v>
       </c>
-      <c r="S63">
-        <v>1.75</v>
-      </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y63">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6131,7 +6131,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6834783</v>
+        <v>6834781</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,73 +6146,73 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K64">
+        <v>1.666</v>
+      </c>
+      <c r="L64">
+        <v>3.8</v>
+      </c>
+      <c r="M64">
+        <v>4</v>
+      </c>
+      <c r="N64">
+        <v>1.75</v>
+      </c>
+      <c r="O64">
+        <v>3.5</v>
+      </c>
+      <c r="P64">
+        <v>3.8</v>
+      </c>
+      <c r="Q64">
+        <v>-0.75</v>
+      </c>
+      <c r="R64">
+        <v>1.95</v>
+      </c>
+      <c r="S64">
+        <v>1.75</v>
+      </c>
+      <c r="T64">
         <v>2.25</v>
       </c>
-      <c r="L64">
-        <v>3.25</v>
-      </c>
-      <c r="M64">
-        <v>2.75</v>
-      </c>
-      <c r="N64">
-        <v>1.95</v>
-      </c>
-      <c r="O64">
-        <v>3.3</v>
-      </c>
-      <c r="P64">
-        <v>3.25</v>
-      </c>
-      <c r="Q64">
-        <v>-0.25</v>
-      </c>
-      <c r="R64">
-        <v>1.75</v>
-      </c>
-      <c r="S64">
-        <v>1.95</v>
-      </c>
-      <c r="T64">
-        <v>2.75</v>
-      </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V64">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>4</v>
@@ -6410,7 +6410,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
         <v>42</v>
@@ -6680,7 +6680,7 @@
         <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -6769,7 +6769,7 @@
         <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>4</v>
@@ -6855,10 +6855,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>6</v>
@@ -7036,7 +7036,7 @@
         <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7214,7 +7214,7 @@
         <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7389,10 +7389,10 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -7570,7 +7570,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7733,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6834799</v>
+        <v>6834798</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7745,76 +7745,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L82">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N82">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P82">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
+        <v>2.25</v>
+      </c>
+      <c r="U82">
+        <v>1.875</v>
+      </c>
+      <c r="V82">
+        <v>1.925</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
         <v>2.5</v>
       </c>
-      <c r="U82">
-        <v>1.95</v>
-      </c>
-      <c r="V82">
-        <v>1.85</v>
-      </c>
-      <c r="W82">
-        <v>1.3</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6834798</v>
+        <v>6834800</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,76 +7834,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L83">
         <v>3.6</v>
       </c>
       <c r="M83">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N83">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O83">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6834800</v>
+        <v>6834799</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7923,76 +7923,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
         <v>0</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L84">
+        <v>3.3</v>
+      </c>
+      <c r="M84">
+        <v>2.6</v>
+      </c>
+      <c r="N84">
+        <v>2.3</v>
+      </c>
+      <c r="O84">
         <v>3.6</v>
       </c>
-      <c r="M84">
-        <v>2.75</v>
-      </c>
-      <c r="N84">
-        <v>1.909</v>
-      </c>
-      <c r="O84">
-        <v>3.75</v>
-      </c>
       <c r="P84">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8101,7 +8101,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
         <v>39</v>
@@ -8267,7 +8267,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6834805</v>
+        <v>6834803</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8279,76 +8279,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N88">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="O88">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P88">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="Q88">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R88">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z88">
-        <v>0.95</v>
+        <v>0.3625</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8356,7 +8356,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6834803</v>
+        <v>6834805</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8368,76 +8368,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
         <v>0</v>
       </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K89">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N89">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="O89">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="Q89">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.3625</v>
+        <v>0.95</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8457,7 +8457,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
@@ -8549,7 +8549,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8724,7 +8724,7 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
         <v>40</v>
@@ -8813,10 +8813,10 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -9080,7 +9080,7 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
         <v>31</v>
@@ -9258,10 +9258,10 @@
         <v>45255.36805555555</v>
       </c>
       <c r="F99" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99" t="s">
         <v>36</v>
-      </c>
-      <c r="G99" t="s">
-        <v>38</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6834819</v>
+        <v>6834818</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9347,76 +9347,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L100">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
         <v>3</v>
       </c>
       <c r="N100">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6834814</v>
+        <v>6834819</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,76 +9436,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K101">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L101">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M101">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N101">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O101">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P101">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q101">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC101">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6834818</v>
+        <v>6834814</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,55 +9525,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>45</v>
       </c>
       <c r="K102">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N102">
+        <v>4.333</v>
+      </c>
+      <c r="O102">
+        <v>3.2</v>
+      </c>
+      <c r="P102">
+        <v>1.75</v>
+      </c>
+      <c r="Q102">
+        <v>0.5</v>
+      </c>
+      <c r="R102">
+        <v>2</v>
+      </c>
+      <c r="S102">
         <v>1.8</v>
       </c>
-      <c r="O102">
-        <v>3.5</v>
-      </c>
-      <c r="P102">
-        <v>3.6</v>
-      </c>
-      <c r="Q102">
-        <v>-0.5</v>
-      </c>
-      <c r="R102">
-        <v>1.85</v>
-      </c>
-      <c r="S102">
-        <v>1.95</v>
-      </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9582,19 +9582,19 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.6</v>
+        <v>0.75</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9795,7 +9795,7 @@
         <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9881,7 +9881,7 @@
         <v>45262.35416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
         <v>35</v>
@@ -10059,7 +10059,7 @@
         <v>45263.36805555555</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10148,7 +10148,7 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -10329,7 +10329,7 @@
         <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10403,7 +10403,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6834828</v>
+        <v>6834826</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10415,28 +10415,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>46</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
         <v>3.1</v>
-      </c>
-      <c r="M112">
-        <v>3.4</v>
       </c>
       <c r="N112">
         <v>2.25</v>
@@ -10445,7 +10445,7 @@
         <v>3</v>
       </c>
       <c r="P112">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q112">
         <v>-0.25</v>
@@ -10460,10 +10460,10 @@
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10481,10 +10481,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6834826</v>
+        <v>6834828</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,28 +10504,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>46</v>
       </c>
       <c r="K113">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M113">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
         <v>2.25</v>
@@ -10534,7 +10534,7 @@
         <v>3</v>
       </c>
       <c r="P113">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q113">
         <v>-0.25</v>
@@ -10549,10 +10549,10 @@
         <v>2.25</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10570,10 +10570,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10685,7 +10685,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -11038,10 +11038,10 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11216,10 +11216,10 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11286,6 +11286,243 @@
       </c>
       <c r="AC121">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>6834838</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45352.45138888889</v>
+      </c>
+      <c r="F122" t="s">
+        <v>39</v>
+      </c>
+      <c r="G122" t="s">
+        <v>42</v>
+      </c>
+      <c r="H122">
+        <v>3</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>44</v>
+      </c>
+      <c r="K122">
+        <v>1.5</v>
+      </c>
+      <c r="L122">
+        <v>3.75</v>
+      </c>
+      <c r="M122">
+        <v>5.5</v>
+      </c>
+      <c r="N122">
+        <v>1.444</v>
+      </c>
+      <c r="O122">
+        <v>3.75</v>
+      </c>
+      <c r="P122">
+        <v>7.5</v>
+      </c>
+      <c r="Q122">
+        <v>-1</v>
+      </c>
+      <c r="R122">
+        <v>1.8</v>
+      </c>
+      <c r="S122">
+        <v>2</v>
+      </c>
+      <c r="T122">
+        <v>2.25</v>
+      </c>
+      <c r="U122">
+        <v>1.875</v>
+      </c>
+      <c r="V122">
+        <v>1.925</v>
+      </c>
+      <c r="W122">
+        <v>0.444</v>
+      </c>
+      <c r="X122">
+        <v>-1</v>
+      </c>
+      <c r="Y122">
+        <v>-1</v>
+      </c>
+      <c r="Z122">
+        <v>0.8</v>
+      </c>
+      <c r="AA122">
+        <v>-1</v>
+      </c>
+      <c r="AB122">
+        <v>0.875</v>
+      </c>
+      <c r="AC122">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>6834839</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45353.36805555555</v>
+      </c>
+      <c r="F123" t="s">
+        <v>35</v>
+      </c>
+      <c r="G123" t="s">
+        <v>33</v>
+      </c>
+      <c r="K123">
+        <v>1.363</v>
+      </c>
+      <c r="L123">
+        <v>4.333</v>
+      </c>
+      <c r="M123">
+        <v>6.5</v>
+      </c>
+      <c r="N123">
+        <v>1.3</v>
+      </c>
+      <c r="O123">
+        <v>4.75</v>
+      </c>
+      <c r="P123">
+        <v>7</v>
+      </c>
+      <c r="Q123">
+        <v>-1.5</v>
+      </c>
+      <c r="R123">
+        <v>1.975</v>
+      </c>
+      <c r="S123">
+        <v>1.825</v>
+      </c>
+      <c r="T123">
+        <v>2.5</v>
+      </c>
+      <c r="U123">
+        <v>1.9</v>
+      </c>
+      <c r="V123">
+        <v>1.9</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>6834836</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45353.45833333334</v>
+      </c>
+      <c r="F124" t="s">
+        <v>31</v>
+      </c>
+      <c r="G124" t="s">
+        <v>36</v>
+      </c>
+      <c r="K124">
+        <v>2.25</v>
+      </c>
+      <c r="L124">
+        <v>3</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+      <c r="N124">
+        <v>1.85</v>
+      </c>
+      <c r="O124">
+        <v>3.2</v>
+      </c>
+      <c r="P124">
+        <v>4</v>
+      </c>
+      <c r="Q124">
+        <v>-0.5</v>
+      </c>
+      <c r="R124">
+        <v>1.9</v>
+      </c>
+      <c r="S124">
+        <v>1.9</v>
+      </c>
+      <c r="T124">
+        <v>2</v>
+      </c>
+      <c r="U124">
+        <v>1.825</v>
+      </c>
+      <c r="V124">
+        <v>1.975</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -115,22 +115,22 @@
     <t>NK Kustosija</t>
   </si>
   <si>
+    <t>Orijent</t>
+  </si>
+  <si>
     <t>NK Croatia Zmijavci</t>
   </si>
   <si>
-    <t>Orijent</t>
-  </si>
-  <si>
     <t>HNK Sibenik</t>
-  </si>
-  <si>
-    <t>HNK Cibalia</t>
   </si>
   <si>
     <t>NK Sesvete</t>
   </si>
   <si>
     <t>NK Solin</t>
+  </si>
+  <si>
+    <t>HNK Cibalia</t>
   </si>
   <si>
     <t>NK Zrinski Jurjevac</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC124"/>
+  <dimension ref="A1:AC125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6425847</v>
+        <v>6425846</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -984,37 +984,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P6">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R6">
         <v>1.95</v>
@@ -1023,34 +1023,34 @@
         <v>1.85</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6425846</v>
+        <v>6425847</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1073,37 +1073,37 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N7">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="Q7">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
         <v>1.95</v>
@@ -1112,34 +1112,34 @@
         <v>1.85</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
         <v>1.8</v>
       </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X7">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1236,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6834733</v>
+        <v>7045999</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1251,73 +1251,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9">
+        <v>2.4</v>
+      </c>
+      <c r="L9">
+        <v>3.25</v>
+      </c>
+      <c r="M9">
+        <v>2.6</v>
+      </c>
+      <c r="N9">
+        <v>2.4</v>
+      </c>
+      <c r="O9">
+        <v>3.25</v>
+      </c>
+      <c r="P9">
+        <v>2.6</v>
+      </c>
+      <c r="Q9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9">
-        <v>1.65</v>
-      </c>
-      <c r="L9">
-        <v>3.5</v>
-      </c>
-      <c r="M9">
-        <v>4.5</v>
-      </c>
-      <c r="N9">
-        <v>1.909</v>
-      </c>
-      <c r="O9">
-        <v>3.3</v>
-      </c>
-      <c r="P9">
-        <v>3.3</v>
-      </c>
-      <c r="Q9">
-        <v>-0.5</v>
-      </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W9">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1325,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7045999</v>
+        <v>6834729</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1340,73 +1340,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N10">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O10">
         <v>3.25</v>
       </c>
       <c r="P10">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y10">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6834729</v>
+        <v>6834733</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,73 +1429,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L11">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N11">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O11">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
+        <v>2</v>
+      </c>
+      <c r="S11">
         <v>1.8</v>
       </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X11">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1515,7 +1515,7 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
         <v>41</v>
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6834738</v>
+        <v>6834734</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1782,76 +1782,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L15">
         <v>3.2</v>
       </c>
       <c r="M15">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="N15">
+        <v>2.2</v>
+      </c>
+      <c r="O15">
         <v>3.2</v>
       </c>
-      <c r="O15">
-        <v>3.3</v>
-      </c>
       <c r="P15">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y15">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB15">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1859,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6834734</v>
+        <v>6834738</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1871,76 +1871,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L16">
         <v>3.2</v>
       </c>
       <c r="M16">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="N16">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB16">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC16">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1963,7 +1963,7 @@
         <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2049,10 +2049,10 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -2230,7 +2230,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2304,7 +2304,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6834743</v>
+        <v>6834742</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2316,76 +2316,76 @@
         <v>45164.5</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
+        <v>3.25</v>
+      </c>
+      <c r="M21">
         <v>3.3</v>
       </c>
-      <c r="M21">
-        <v>2.1</v>
-      </c>
       <c r="N21">
+        <v>2.15</v>
+      </c>
+      <c r="O21">
+        <v>3.1</v>
+      </c>
+      <c r="P21">
+        <v>3.1</v>
+      </c>
+      <c r="Q21">
+        <v>-0.25</v>
+      </c>
+      <c r="R21">
+        <v>1.9</v>
+      </c>
+      <c r="S21">
+        <v>1.9</v>
+      </c>
+      <c r="T21">
+        <v>2.25</v>
+      </c>
+      <c r="U21">
+        <v>1.75</v>
+      </c>
+      <c r="V21">
         <v>1.95</v>
       </c>
-      <c r="O21">
-        <v>3.4</v>
-      </c>
-      <c r="P21">
-        <v>3.3</v>
-      </c>
-      <c r="Q21">
-        <v>-0.5</v>
-      </c>
-      <c r="R21">
-        <v>2</v>
-      </c>
-      <c r="S21">
-        <v>1.8</v>
-      </c>
-      <c r="T21">
-        <v>2.5</v>
-      </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
-      <c r="V21">
-        <v>1.8</v>
-      </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2393,7 +2393,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6834742</v>
+        <v>6834744</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2405,58 +2405,58 @@
         <v>45164.5</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H22">
         <v>3</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>44</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O22">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W22">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2465,13 +2465,13 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2482,7 +2482,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6834744</v>
+        <v>6834743</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2494,76 +2494,76 @@
         <v>45164.5</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23">
         <v>3</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23">
-        <v>1.75</v>
-      </c>
       <c r="L23">
+        <v>3.3</v>
+      </c>
+      <c r="M23">
+        <v>2.1</v>
+      </c>
+      <c r="N23">
+        <v>1.95</v>
+      </c>
+      <c r="O23">
         <v>3.4</v>
       </c>
-      <c r="M23">
-        <v>4</v>
-      </c>
-      <c r="N23">
-        <v>1.666</v>
-      </c>
-      <c r="O23">
-        <v>3.6</v>
-      </c>
       <c r="P23">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z23">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2672,7 +2672,7 @@
         <v>45166.5</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2853,7 +2853,7 @@
         <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H27">
         <v>3</v>
@@ -2939,10 +2939,10 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6834746</v>
+        <v>6834748</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,76 +3028,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M29">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N29">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O29">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P29">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
+        <v>1.975</v>
+      </c>
+      <c r="S29">
         <v>1.825</v>
       </c>
-      <c r="S29">
-        <v>1.975</v>
-      </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X29">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA29">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6834748</v>
+        <v>6834746</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M30">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N30">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O30">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P30">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q30">
+        <v>-0.25</v>
+      </c>
+      <c r="R30">
+        <v>1.825</v>
+      </c>
+      <c r="S30">
+        <v>1.975</v>
+      </c>
+      <c r="T30">
+        <v>2.25</v>
+      </c>
+      <c r="U30">
+        <v>1.925</v>
+      </c>
+      <c r="V30">
+        <v>1.875</v>
+      </c>
+      <c r="W30">
+        <v>-1</v>
+      </c>
+      <c r="X30">
+        <v>2.1</v>
+      </c>
+      <c r="Y30">
+        <v>-1</v>
+      </c>
+      <c r="Z30">
         <v>-0.5</v>
       </c>
-      <c r="R30">
-        <v>1.975</v>
-      </c>
-      <c r="S30">
-        <v>1.825</v>
-      </c>
-      <c r="T30">
-        <v>2.5</v>
-      </c>
-      <c r="U30">
-        <v>1.9</v>
-      </c>
-      <c r="V30">
-        <v>1.9</v>
-      </c>
-      <c r="W30">
-        <v>0.909</v>
-      </c>
-      <c r="X30">
-        <v>-1</v>
-      </c>
-      <c r="Y30">
-        <v>-1</v>
-      </c>
-      <c r="Z30">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3295,7 +3295,7 @@
         <v>45177.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3384,7 +3384,7 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
         <v>35</v>
@@ -3651,10 +3651,10 @@
         <v>45179.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3740,7 +3740,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3832,7 +3832,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4010,7 +4010,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4185,10 +4185,10 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4452,7 +4452,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -4541,7 +4541,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
@@ -4630,7 +4630,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -4719,7 +4719,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4900,7 +4900,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4986,10 +4986,10 @@
         <v>45199.40972222222</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5063,7 +5063,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6834769</v>
+        <v>6834768</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5075,76 +5075,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>46</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M52">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="N52">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P52">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q52">
+        <v>-0.25</v>
+      </c>
+      <c r="R52">
+        <v>1.9</v>
+      </c>
+      <c r="S52">
+        <v>1.9</v>
+      </c>
+      <c r="T52">
+        <v>2.25</v>
+      </c>
+      <c r="U52">
+        <v>1.9</v>
+      </c>
+      <c r="V52">
+        <v>1.9</v>
+      </c>
+      <c r="W52">
+        <v>-1</v>
+      </c>
+      <c r="X52">
+        <v>2.3</v>
+      </c>
+      <c r="Y52">
+        <v>-1</v>
+      </c>
+      <c r="Z52">
         <v>-0.5</v>
       </c>
-      <c r="R52">
-        <v>2</v>
-      </c>
-      <c r="S52">
-        <v>1.8</v>
-      </c>
-      <c r="T52">
-        <v>2.5</v>
-      </c>
-      <c r="U52">
-        <v>1.975</v>
-      </c>
-      <c r="V52">
-        <v>1.825</v>
-      </c>
-      <c r="W52">
-        <v>-1</v>
-      </c>
-      <c r="X52">
-        <v>2.5</v>
-      </c>
-      <c r="Y52">
-        <v>-1</v>
-      </c>
-      <c r="Z52">
-        <v>-1</v>
-      </c>
       <c r="AA52">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5152,7 +5152,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6834768</v>
+        <v>6834770</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5164,10 +5164,10 @@
         <v>45199.4375</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5179,34 +5179,34 @@
         <v>46</v>
       </c>
       <c r="K53">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="L53">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O53">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
         <v>1.9</v>
@@ -5218,16 +5218,16 @@
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB53">
         <v>-1</v>
@@ -5241,7 +5241,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6834770</v>
+        <v>6834769</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5253,61 +5253,61 @@
         <v>45199.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>46</v>
       </c>
       <c r="K54">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N54">
         <v>1.909</v>
       </c>
       <c r="O54">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T54">
         <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5316,13 +5316,13 @@
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5431,10 +5431,10 @@
         <v>45205.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5609,7 +5609,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
         <v>31</v>
@@ -5787,7 +5787,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5879,7 +5879,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6042,7 +6042,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6834783</v>
+        <v>6834781</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,73 +6057,73 @@
         <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63">
+        <v>1.666</v>
+      </c>
+      <c r="L63">
+        <v>3.8</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63">
+        <v>1.75</v>
+      </c>
+      <c r="O63">
+        <v>3.5</v>
+      </c>
+      <c r="P63">
+        <v>3.8</v>
+      </c>
+      <c r="Q63">
+        <v>-0.75</v>
+      </c>
+      <c r="R63">
+        <v>1.95</v>
+      </c>
+      <c r="S63">
+        <v>1.75</v>
+      </c>
+      <c r="T63">
         <v>2.25</v>
       </c>
-      <c r="L63">
-        <v>3.25</v>
-      </c>
-      <c r="M63">
-        <v>2.75</v>
-      </c>
-      <c r="N63">
-        <v>1.95</v>
-      </c>
-      <c r="O63">
-        <v>3.3</v>
-      </c>
-      <c r="P63">
-        <v>3.25</v>
-      </c>
-      <c r="Q63">
-        <v>-0.25</v>
-      </c>
-      <c r="R63">
-        <v>1.75</v>
-      </c>
-      <c r="S63">
-        <v>1.95</v>
-      </c>
-      <c r="T63">
-        <v>2.75</v>
-      </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6131,7 +6131,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6834781</v>
+        <v>6834779</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6143,76 +6143,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64">
         <v>0</v>
       </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K64">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L64">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M64">
+        <v>5</v>
+      </c>
+      <c r="N64">
+        <v>1.6</v>
+      </c>
+      <c r="O64">
         <v>4</v>
       </c>
-      <c r="N64">
-        <v>1.75</v>
-      </c>
-      <c r="O64">
-        <v>3.5</v>
-      </c>
       <c r="P64">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q64">
         <v>-0.75</v>
       </c>
       <c r="R64">
+        <v>1.8</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>2.5</v>
+      </c>
+      <c r="U64">
         <v>1.95</v>
       </c>
-      <c r="S64">
+      <c r="V64">
         <v>1.75</v>
       </c>
-      <c r="T64">
-        <v>2.25</v>
-      </c>
-      <c r="U64">
-        <v>2</v>
-      </c>
-      <c r="V64">
-        <v>1.8</v>
-      </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6220,7 +6220,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6834779</v>
+        <v>6834783</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6232,76 +6232,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M65">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N65">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P65">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q65">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T65">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
         <v>1.95</v>
       </c>
       <c r="V65">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W65">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6410,7 +6410,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
         <v>42</v>
@@ -6499,7 +6499,7 @@
         <v>45219.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
         <v>31</v>
@@ -6665,7 +6665,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6834789</v>
+        <v>6834786</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6677,73 +6677,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K70">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L70">
+        <v>3.1</v>
+      </c>
+      <c r="M70">
         <v>3.75</v>
       </c>
-      <c r="M70">
-        <v>5.5</v>
-      </c>
       <c r="N70">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="O70">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X70">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6754,7 +6754,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6834786</v>
+        <v>6834789</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6766,73 +6766,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K71">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L71">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N71">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="O71">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>1.8</v>
+      </c>
+      <c r="T71">
+        <v>2.75</v>
+      </c>
+      <c r="U71">
+        <v>1.825</v>
+      </c>
+      <c r="V71">
         <v>1.975</v>
       </c>
-      <c r="S71">
-        <v>1.825</v>
-      </c>
-      <c r="T71">
-        <v>2.25</v>
-      </c>
-      <c r="U71">
-        <v>1.875</v>
-      </c>
-      <c r="V71">
-        <v>1.925</v>
-      </c>
       <c r="W71">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB71">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6855,10 +6855,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" t="s">
         <v>33</v>
-      </c>
-      <c r="G72" t="s">
-        <v>34</v>
       </c>
       <c r="H72">
         <v>6</v>
@@ -7036,7 +7036,7 @@
         <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7214,7 +7214,7 @@
         <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7303,7 +7303,7 @@
         <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7389,10 +7389,10 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -7567,10 +7567,10 @@
         <v>45233.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7834,7 +7834,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
         <v>29</v>
@@ -7923,7 +7923,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
         <v>41</v>
@@ -8015,7 +8015,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8101,7 +8101,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
         <v>39</v>
@@ -8193,7 +8193,7 @@
         <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6834803</v>
+        <v>6834805</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8279,76 +8279,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N88">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="O88">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="Q88">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R88">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.3625</v>
+        <v>0.95</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8356,7 +8356,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6834805</v>
+        <v>6834803</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8368,76 +8368,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K89">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N89">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="O89">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P89">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R89">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z89">
-        <v>0.95</v>
+        <v>0.3625</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8457,7 +8457,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
@@ -8549,7 +8549,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8623,7 +8623,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6834809</v>
+        <v>7481395</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8635,76 +8635,76 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K92">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L92">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M92">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N92">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P92">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R92">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8712,7 +8712,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7481395</v>
+        <v>6834809</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,73 +8727,73 @@
         <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K93">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L93">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M93">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N93">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="O93">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P93">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q93">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S93">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
         <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8813,10 +8813,10 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6835155</v>
+        <v>6834813</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,76 +8991,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K96">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N96">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O96">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
+        <v>1.925</v>
+      </c>
+      <c r="V96">
         <v>1.875</v>
       </c>
-      <c r="V96">
-        <v>1.925</v>
-      </c>
       <c r="W96">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB96">
         <v>-0.5</v>
       </c>
       <c r="AC96">
-        <v>0.4625</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6834813</v>
+        <v>6835155</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,76 +9080,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K97">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N97">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P97">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
         <v>2.25</v>
       </c>
       <c r="U97">
+        <v>1.875</v>
+      </c>
+      <c r="V97">
         <v>1.925</v>
       </c>
-      <c r="V97">
-        <v>1.875</v>
-      </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X97">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>-0.5</v>
       </c>
       <c r="AC97">
-        <v>0.4375</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9172,7 +9172,7 @@
         <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9258,10 +9258,10 @@
         <v>45255.36805555555</v>
       </c>
       <c r="F99" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" t="s">
         <v>38</v>
-      </c>
-      <c r="G99" t="s">
-        <v>36</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6834818</v>
+        <v>6834819</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9347,76 +9347,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K100">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M100">
         <v>3</v>
       </c>
       <c r="N100">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O100">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6834819</v>
+        <v>6834814</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,76 +9436,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K101">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L101">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M101">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N101">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="O101">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P101">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z101">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB101">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6834814</v>
+        <v>6834818</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,55 +9525,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>45</v>
       </c>
       <c r="K102">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L102">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
         <v>1.8</v>
       </c>
-      <c r="N102">
-        <v>4.333</v>
-      </c>
       <c r="O102">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P102">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q102">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9582,19 +9582,19 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.75</v>
+        <v>2.6</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9792,10 +9792,10 @@
         <v>45261.39583333334</v>
       </c>
       <c r="F105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105" t="s">
         <v>37</v>
-      </c>
-      <c r="G105" t="s">
-        <v>38</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9881,7 +9881,7 @@
         <v>45262.35416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
         <v>35</v>
@@ -10059,7 +10059,7 @@
         <v>45263.36805555555</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10148,7 +10148,7 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -10329,7 +10329,7 @@
         <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10418,7 +10418,7 @@
         <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10504,7 +10504,7 @@
         <v>45339.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
         <v>42</v>
@@ -10596,7 +10596,7 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10685,7 +10685,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10771,7 +10771,7 @@
         <v>45345.45138888889</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
         <v>39</v>
@@ -11038,10 +11038,10 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11216,10 +11216,10 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11397,7 +11397,16 @@
         <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>44</v>
       </c>
       <c r="K123">
         <v>1.363</v>
@@ -11409,46 +11418,52 @@
         <v>6.5</v>
       </c>
       <c r="N123">
-        <v>1.3</v>
+        <v>1.285</v>
       </c>
       <c r="O123">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P123">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q123">
         <v>-1.5</v>
       </c>
       <c r="R123">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
         <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W123">
-        <v>0</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB123">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC123">
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11471,7 +11486,16 @@
         <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124" t="s">
+        <v>46</v>
       </c>
       <c r="K124">
         <v>2.25</v>
@@ -11486,42 +11510,122 @@
         <v>1.85</v>
       </c>
       <c r="O124">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P124">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q124">
         <v>-0.5</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>2</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>-1</v>
+      </c>
+      <c r="AA124">
+        <v>0.875</v>
+      </c>
+      <c r="AB124">
+        <v>0.8</v>
+      </c>
+      <c r="AC124">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>6834837</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45354.36805555555</v>
+      </c>
+      <c r="F125" t="s">
+        <v>33</v>
+      </c>
+      <c r="G125" t="s">
+        <v>36</v>
+      </c>
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <v>3.1</v>
+      </c>
+      <c r="M125">
+        <v>2.2</v>
+      </c>
+      <c r="N125">
+        <v>2.55</v>
+      </c>
+      <c r="O125">
+        <v>3.1</v>
+      </c>
+      <c r="P125">
+        <v>2.5</v>
+      </c>
+      <c r="Q125">
         <v>0</v>
       </c>
-      <c r="X124">
+      <c r="R125">
+        <v>1.925</v>
+      </c>
+      <c r="S125">
+        <v>1.875</v>
+      </c>
+      <c r="T125">
+        <v>2.25</v>
+      </c>
+      <c r="U125">
+        <v>1.8</v>
+      </c>
+      <c r="V125">
+        <v>2</v>
+      </c>
+      <c r="W125">
         <v>0</v>
       </c>
-      <c r="Y124">
+      <c r="X125">
         <v>0</v>
       </c>
-      <c r="Z124">
+      <c r="Y125">
         <v>0</v>
       </c>
-      <c r="AA124">
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
         <v>0</v>
       </c>
     </row>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -112,25 +112,25 @@
     <t>Bijelo Brdo</t>
   </si>
   <si>
-    <t>NK Kustosija</t>
+    <t>NK Croatia Zmijavci</t>
   </si>
   <si>
     <t>Orijent</t>
   </si>
   <si>
-    <t>NK Croatia Zmijavci</t>
+    <t>NK Kustosija</t>
   </si>
   <si>
     <t>HNK Sibenik</t>
+  </si>
+  <si>
+    <t>HNK Cibalia</t>
   </si>
   <si>
     <t>NK Sesvete</t>
   </si>
   <si>
     <t>NK Solin</t>
-  </si>
-  <si>
-    <t>HNK Cibalia</t>
   </si>
   <si>
     <t>NK Zrinski Jurjevac</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC125"/>
+  <dimension ref="A1:AC127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6425845</v>
+        <v>6425847</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -895,16 +895,16 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>2.1</v>
@@ -916,25 +916,25 @@
         <v>2.875</v>
       </c>
       <c r="N5">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O5">
         <v>3.5</v>
       </c>
       <c r="P5">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
         <v>2</v>
@@ -943,25 +943,25 @@
         <v>1.8</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6425847</v>
+        <v>6425845</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1073,16 +1073,16 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>2.1</v>
@@ -1094,25 +1094,25 @@
         <v>2.875</v>
       </c>
       <c r="N7">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O7">
         <v>3.5</v>
       </c>
       <c r="P7">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
         <v>2</v>
@@ -1121,25 +1121,25 @@
         <v>1.8</v>
       </c>
       <c r="W7">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1236,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7045999</v>
+        <v>6834733</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1251,73 +1251,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L9">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N9">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="O9">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P9">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1325,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6834729</v>
+        <v>7045999</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1340,73 +1340,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N10">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O10">
         <v>3.25</v>
       </c>
       <c r="P10">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T10">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6834733</v>
+        <v>6834732</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,76 +1426,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M11">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P11">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q11">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T11">
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6834732</v>
+        <v>6834729</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,16 +1515,16 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
@@ -1539,37 +1539,37 @@
         <v>3.1</v>
       </c>
       <c r="N12">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P12">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T12">
+        <v>2.5</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>1.8</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
         <v>2.25</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
-      <c r="V12">
-        <v>1.975</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>2.1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1578,13 +1578,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>0.3875</v>
+        <v>0.5</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6834734</v>
+        <v>6834735</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1782,10 +1782,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1797,61 +1797,61 @@
         <v>46</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
         <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1859,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6834738</v>
+        <v>6834734</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1871,76 +1871,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L16">
         <v>3.2</v>
       </c>
       <c r="M16">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="N16">
+        <v>2.2</v>
+      </c>
+      <c r="O16">
         <v>3.2</v>
       </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
       <c r="P16">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y16">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB16">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6834735</v>
+        <v>6834738</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,76 +1960,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M17">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N17">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC17">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2049,10 +2049,10 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2304,7 +2304,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6834742</v>
+        <v>6834743</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2316,76 +2316,76 @@
         <v>45164.5</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21">
         <v>3</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>44</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M21">
+        <v>2.1</v>
+      </c>
+      <c r="N21">
+        <v>1.95</v>
+      </c>
+      <c r="O21">
+        <v>3.4</v>
+      </c>
+      <c r="P21">
         <v>3.3</v>
       </c>
-      <c r="N21">
-        <v>2.15</v>
-      </c>
-      <c r="O21">
-        <v>3.1</v>
-      </c>
-      <c r="P21">
-        <v>3.1</v>
-      </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z21">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB21">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2393,7 +2393,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6834744</v>
+        <v>6834742</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2405,58 +2405,58 @@
         <v>45164.5</v>
       </c>
       <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s">
         <v>38</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
       </c>
       <c r="H22">
         <v>3</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>44</v>
       </c>
       <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>3.25</v>
+      </c>
+      <c r="M22">
+        <v>3.3</v>
+      </c>
+      <c r="N22">
+        <v>2.15</v>
+      </c>
+      <c r="O22">
+        <v>3.1</v>
+      </c>
+      <c r="P22">
+        <v>3.1</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.9</v>
+      </c>
+      <c r="S22">
+        <v>1.9</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
         <v>1.75</v>
       </c>
-      <c r="L22">
-        <v>3.4</v>
-      </c>
-      <c r="M22">
-        <v>4</v>
-      </c>
-      <c r="N22">
-        <v>1.666</v>
-      </c>
-      <c r="O22">
-        <v>3.6</v>
-      </c>
-      <c r="P22">
-        <v>4.2</v>
-      </c>
-      <c r="Q22">
-        <v>-0.75</v>
-      </c>
-      <c r="R22">
-        <v>1.925</v>
-      </c>
-      <c r="S22">
-        <v>1.875</v>
-      </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
-      <c r="U22">
-        <v>1.825</v>
-      </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2465,13 +2465,13 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2482,7 +2482,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6834743</v>
+        <v>6834744</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2494,76 +2494,76 @@
         <v>45164.5</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N23">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2672,7 +2672,7 @@
         <v>45166.5</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2838,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6834749</v>
+        <v>6834748</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2850,34 +2850,34 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
       </c>
       <c r="K27">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L27">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M27">
+        <v>3.5</v>
+      </c>
+      <c r="N27">
+        <v>1.909</v>
+      </c>
+      <c r="O27">
         <v>3.25</v>
-      </c>
-      <c r="N27">
-        <v>1.95</v>
-      </c>
-      <c r="O27">
-        <v>3.2</v>
       </c>
       <c r="P27">
         <v>3.5</v>
@@ -2886,22 +2886,22 @@
         <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2910,16 +2910,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2939,7 +2939,7 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6834748</v>
+        <v>6834749</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,34 +3028,34 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
         <v>36</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>44</v>
       </c>
       <c r="K29">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L29">
+        <v>3.1</v>
+      </c>
+      <c r="M29">
         <v>3.25</v>
       </c>
-      <c r="M29">
-        <v>3.5</v>
-      </c>
       <c r="N29">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O29">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P29">
         <v>3.5</v>
@@ -3064,22 +3064,22 @@
         <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3088,16 +3088,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3120,7 +3120,7 @@
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         <v>45177.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3372,7 +3372,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6834753</v>
+        <v>6834752</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3384,58 +3384,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>44</v>
       </c>
       <c r="K33">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L33">
         <v>3.4</v>
       </c>
       <c r="M33">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N33">
+        <v>1.833</v>
+      </c>
+      <c r="O33">
+        <v>3.4</v>
+      </c>
+      <c r="P33">
         <v>4</v>
       </c>
-      <c r="O33">
-        <v>3.3</v>
-      </c>
-      <c r="P33">
-        <v>1.833</v>
-      </c>
       <c r="Q33">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V33">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>3</v>
+        <v>0.833</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3444,16 +3444,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3461,7 +3461,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6834752</v>
+        <v>6834755</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3473,13 +3473,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3488,43 +3488,43 @@
         <v>44</v>
       </c>
       <c r="K34">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M34">
+        <v>2.75</v>
+      </c>
+      <c r="N34">
+        <v>1.666</v>
+      </c>
+      <c r="O34">
+        <v>3.5</v>
+      </c>
+      <c r="P34">
         <v>4.2</v>
       </c>
-      <c r="N34">
-        <v>1.833</v>
-      </c>
-      <c r="O34">
-        <v>3.4</v>
-      </c>
-      <c r="P34">
-        <v>4</v>
-      </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R34">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W34">
-        <v>0.833</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3533,16 +3533,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6834755</v>
+        <v>6834753</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3562,58 +3562,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
         <v>4</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>44</v>
       </c>
       <c r="K35">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="L35">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="N35">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P35">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S35">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T35">
         <v>2.5</v>
       </c>
       <c r="U35">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>0.6659999999999999</v>
+        <v>3</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3622,13 +3622,13 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3651,10 +3651,10 @@
         <v>45179.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
         <v>38</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3740,7 +3740,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -4010,7 +4010,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4084,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6834757</v>
+        <v>6834760</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4096,76 +4096,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N41">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P41">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4173,7 +4173,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6834760</v>
+        <v>6834757</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4185,76 +4185,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K42">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N42">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O42">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q42">
+        <v>-0.25</v>
+      </c>
+      <c r="R42">
+        <v>1.925</v>
+      </c>
+      <c r="S42">
+        <v>1.875</v>
+      </c>
+      <c r="T42">
+        <v>2.25</v>
+      </c>
+      <c r="U42">
+        <v>1.875</v>
+      </c>
+      <c r="V42">
+        <v>1.925</v>
+      </c>
+      <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
+        <v>2</v>
+      </c>
+      <c r="Y42">
+        <v>-1</v>
+      </c>
+      <c r="Z42">
         <v>-0.5</v>
       </c>
-      <c r="R42">
-        <v>2</v>
-      </c>
-      <c r="S42">
-        <v>1.8</v>
-      </c>
-      <c r="T42">
-        <v>2.5</v>
-      </c>
-      <c r="U42">
-        <v>1.8</v>
-      </c>
-      <c r="V42">
-        <v>2</v>
-      </c>
-      <c r="W42">
-        <v>-1</v>
-      </c>
-      <c r="X42">
-        <v>-1</v>
-      </c>
-      <c r="Y42">
-        <v>2.5</v>
-      </c>
-      <c r="Z42">
-        <v>-1</v>
-      </c>
       <c r="AA42">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,7 +4277,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4452,7 +4452,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -4630,7 +4630,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -4719,7 +4719,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4900,7 +4900,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4989,7 +4989,7 @@
         <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5164,10 +5164,10 @@
         <v>45199.4375</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5431,7 +5431,7 @@
         <v>45205.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5609,7 +5609,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>31</v>
@@ -5787,7 +5787,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5879,7 +5879,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6042,7 +6042,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6834781</v>
+        <v>6834783</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,73 +6057,73 @@
         <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K63">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L63">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N63">
+        <v>1.95</v>
+      </c>
+      <c r="O63">
+        <v>3.3</v>
+      </c>
+      <c r="P63">
+        <v>3.25</v>
+      </c>
+      <c r="Q63">
+        <v>-0.25</v>
+      </c>
+      <c r="R63">
         <v>1.75</v>
       </c>
-      <c r="O63">
-        <v>3.5</v>
-      </c>
-      <c r="P63">
-        <v>3.8</v>
-      </c>
-      <c r="Q63">
-        <v>-0.75</v>
-      </c>
-      <c r="R63">
+      <c r="S63">
         <v>1.95</v>
       </c>
-      <c r="S63">
-        <v>1.75</v>
-      </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y63">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6131,7 +6131,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6834779</v>
+        <v>6834781</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6143,76 +6143,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>45</v>
+      </c>
+      <c r="K64">
+        <v>1.666</v>
+      </c>
+      <c r="L64">
+        <v>3.8</v>
+      </c>
+      <c r="M64">
         <v>4</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>44</v>
-      </c>
-      <c r="K64">
-        <v>1.5</v>
-      </c>
-      <c r="L64">
-        <v>4</v>
-      </c>
-      <c r="M64">
-        <v>5</v>
-      </c>
       <c r="N64">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q64">
         <v>-0.75</v>
       </c>
       <c r="R64">
+        <v>1.95</v>
+      </c>
+      <c r="S64">
+        <v>1.75</v>
+      </c>
+      <c r="T64">
+        <v>2.25</v>
+      </c>
+      <c r="U64">
+        <v>2</v>
+      </c>
+      <c r="V64">
         <v>1.8</v>
       </c>
-      <c r="S64">
-        <v>2</v>
-      </c>
-      <c r="T64">
-        <v>2.5</v>
-      </c>
-      <c r="U64">
-        <v>1.95</v>
-      </c>
-      <c r="V64">
-        <v>1.75</v>
-      </c>
       <c r="W64">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
+        <v>0.75</v>
+      </c>
+      <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.8</v>
-      </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
-      <c r="AB64">
-        <v>0.95</v>
-      </c>
-      <c r="AC64">
-        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6220,7 +6220,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6834783</v>
+        <v>6834779</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6232,76 +6232,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K65">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L65">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M65">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N65">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O65">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P65">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R65">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S65">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
         <v>1.95</v>
       </c>
       <c r="V65">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X65">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA65">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC65">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6499,7 +6499,7 @@
         <v>45219.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
         <v>31</v>
@@ -6665,7 +6665,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6834786</v>
+        <v>6834789</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6677,73 +6677,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K70">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L70">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N70">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="O70">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>1.8</v>
+      </c>
+      <c r="T70">
+        <v>2.75</v>
+      </c>
+      <c r="U70">
+        <v>1.825</v>
+      </c>
+      <c r="V70">
         <v>1.975</v>
       </c>
-      <c r="S70">
-        <v>1.825</v>
-      </c>
-      <c r="T70">
-        <v>2.25</v>
-      </c>
-      <c r="U70">
-        <v>1.875</v>
-      </c>
-      <c r="V70">
-        <v>1.925</v>
-      </c>
       <c r="W70">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6754,7 +6754,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6834789</v>
+        <v>6834786</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6766,73 +6766,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K71">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L71">
+        <v>3.1</v>
+      </c>
+      <c r="M71">
         <v>3.75</v>
       </c>
-      <c r="M71">
-        <v>5.5</v>
-      </c>
       <c r="N71">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="O71">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X71">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6855,7 +6855,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
@@ -7199,7 +7199,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6834791</v>
+        <v>6834795</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7211,7 +7211,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
         <v>37</v>
@@ -7226,61 +7226,61 @@
         <v>46</v>
       </c>
       <c r="K76">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L76">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N76">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O76">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7288,7 +7288,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6834795</v>
+        <v>6834791</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7300,10 +7300,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7315,61 +7315,61 @@
         <v>46</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M77">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N77">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P77">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7389,10 +7389,10 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -7567,10 +7567,10 @@
         <v>45233.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7733,7 +7733,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6834798</v>
+        <v>6834800</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7745,76 +7745,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L82">
         <v>3.6</v>
       </c>
       <c r="M82">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N82">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O82">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7822,7 +7822,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6834800</v>
+        <v>6834799</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7834,76 +7834,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
         <v>0</v>
       </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K83">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L83">
+        <v>3.3</v>
+      </c>
+      <c r="M83">
+        <v>2.6</v>
+      </c>
+      <c r="N83">
+        <v>2.3</v>
+      </c>
+      <c r="O83">
         <v>3.6</v>
       </c>
-      <c r="M83">
-        <v>2.75</v>
-      </c>
-      <c r="N83">
-        <v>1.909</v>
-      </c>
-      <c r="O83">
-        <v>3.75</v>
-      </c>
       <c r="P83">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7911,7 +7911,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6834799</v>
+        <v>6834798</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7923,76 +7923,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K84">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L84">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N84">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P84">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T84">
+        <v>2.25</v>
+      </c>
+      <c r="U84">
+        <v>1.875</v>
+      </c>
+      <c r="V84">
+        <v>1.925</v>
+      </c>
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
         <v>2.5</v>
       </c>
-      <c r="U84">
-        <v>1.95</v>
-      </c>
-      <c r="V84">
-        <v>1.85</v>
-      </c>
-      <c r="W84">
-        <v>1.3</v>
-      </c>
-      <c r="X84">
-        <v>-1</v>
-      </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC84">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8015,7 +8015,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8101,7 +8101,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
         <v>39</v>
@@ -8193,7 +8193,7 @@
         <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8457,7 +8457,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
@@ -8549,7 +8549,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8635,7 +8635,7 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>40</v>
@@ -8724,7 +8724,7 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
@@ -8816,7 +8816,7 @@
         <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8979,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6834813</v>
+        <v>6835155</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8991,76 +8991,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K96">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M96">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N96">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P96">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q96">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
+        <v>1.875</v>
+      </c>
+      <c r="V96">
         <v>1.925</v>
       </c>
-      <c r="V96">
-        <v>1.875</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X96">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
         <v>-0.5</v>
       </c>
       <c r="AC96">
-        <v>0.4375</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9068,7 +9068,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6835155</v>
+        <v>6834813</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9080,76 +9080,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K97">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L97">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N97">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O97">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P97">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T97">
         <v>2.25</v>
       </c>
       <c r="U97">
+        <v>1.925</v>
+      </c>
+      <c r="V97">
         <v>1.875</v>
       </c>
-      <c r="V97">
-        <v>1.925</v>
-      </c>
       <c r="W97">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB97">
         <v>-0.5</v>
       </c>
       <c r="AC97">
-        <v>0.4625</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9172,7 +9172,7 @@
         <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9258,10 +9258,10 @@
         <v>45255.36805555555</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9350,7 +9350,7 @@
         <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9792,10 +9792,10 @@
         <v>45261.39583333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9881,7 +9881,7 @@
         <v>45262.35416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
         <v>35</v>
@@ -10148,7 +10148,7 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -10329,7 +10329,7 @@
         <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10403,7 +10403,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6834826</v>
+        <v>6834828</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10415,28 +10415,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>46</v>
       </c>
       <c r="K112">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M112">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
         <v>2.25</v>
@@ -10445,7 +10445,7 @@
         <v>3</v>
       </c>
       <c r="P112">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q112">
         <v>-0.25</v>
@@ -10460,10 +10460,10 @@
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10481,10 +10481,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6834828</v>
+        <v>6834826</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,28 +10504,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>46</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
         <v>3.1</v>
-      </c>
-      <c r="M113">
-        <v>3.4</v>
       </c>
       <c r="N113">
         <v>2.25</v>
@@ -10534,7 +10534,7 @@
         <v>3</v>
       </c>
       <c r="P113">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q113">
         <v>-0.25</v>
@@ -10549,10 +10549,10 @@
         <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10570,10 +10570,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10685,7 +10685,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10771,7 +10771,7 @@
         <v>45345.45138888889</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
         <v>39</v>
@@ -11038,7 +11038,7 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
         <v>33</v>
@@ -11216,10 +11216,10 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11397,7 +11397,7 @@
         <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11486,7 +11486,7 @@
         <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11575,7 +11575,16 @@
         <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" t="s">
+        <v>44</v>
       </c>
       <c r="K125">
         <v>3</v>
@@ -11587,46 +11596,230 @@
         <v>2.2</v>
       </c>
       <c r="N125">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O125">
         <v>3.1</v>
       </c>
       <c r="P125">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S125">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T125">
         <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
+        <v>1.15</v>
+      </c>
+      <c r="X125">
+        <v>-1</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>0.95</v>
+      </c>
+      <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>6834841</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45354.45833333334</v>
+      </c>
+      <c r="F126" t="s">
+        <v>40</v>
+      </c>
+      <c r="G126" t="s">
+        <v>29</v>
+      </c>
+      <c r="H126">
         <v>0</v>
       </c>
-      <c r="X125">
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" t="s">
+        <v>45</v>
+      </c>
+      <c r="K126">
+        <v>1.5</v>
+      </c>
+      <c r="L126">
+        <v>4.2</v>
+      </c>
+      <c r="M126">
+        <v>4.75</v>
+      </c>
+      <c r="N126">
+        <v>1.4</v>
+      </c>
+      <c r="O126">
+        <v>4.75</v>
+      </c>
+      <c r="P126">
+        <v>5.5</v>
+      </c>
+      <c r="Q126">
+        <v>-1.25</v>
+      </c>
+      <c r="R126">
+        <v>1.95</v>
+      </c>
+      <c r="S126">
+        <v>1.85</v>
+      </c>
+      <c r="T126">
+        <v>2.75</v>
+      </c>
+      <c r="U126">
+        <v>1.95</v>
+      </c>
+      <c r="V126">
+        <v>1.85</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>4.5</v>
+      </c>
+      <c r="Z126">
+        <v>-1</v>
+      </c>
+      <c r="AA126">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB126">
+        <v>-1</v>
+      </c>
+      <c r="AC126">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>6834840</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45354.45833333334</v>
+      </c>
+      <c r="F127" t="s">
+        <v>38</v>
+      </c>
+      <c r="G127" t="s">
+        <v>41</v>
+      </c>
+      <c r="H127">
+        <v>3</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>44</v>
+      </c>
+      <c r="K127">
+        <v>2.5</v>
+      </c>
+      <c r="L127">
+        <v>3.2</v>
+      </c>
+      <c r="M127">
+        <v>2.5</v>
+      </c>
+      <c r="N127">
+        <v>2.5</v>
+      </c>
+      <c r="O127">
+        <v>3.2</v>
+      </c>
+      <c r="P127">
+        <v>2.5</v>
+      </c>
+      <c r="Q127">
         <v>0</v>
       </c>
-      <c r="Y125">
-        <v>0</v>
-      </c>
-      <c r="Z125">
-        <v>0</v>
-      </c>
-      <c r="AA125">
-        <v>0</v>
+      <c r="R127">
+        <v>1.9</v>
+      </c>
+      <c r="S127">
+        <v>1.9</v>
+      </c>
+      <c r="T127">
+        <v>2.25</v>
+      </c>
+      <c r="U127">
+        <v>1.825</v>
+      </c>
+      <c r="V127">
+        <v>1.975</v>
+      </c>
+      <c r="W127">
+        <v>1.5</v>
+      </c>
+      <c r="X127">
+        <v>-1</v>
+      </c>
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA127">
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>0.825</v>
+      </c>
+      <c r="AC127">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -124,13 +124,13 @@
     <t>HNK Sibenik</t>
   </si>
   <si>
-    <t>HNK Cibalia</t>
-  </si>
-  <si>
     <t>NK Sesvete</t>
   </si>
   <si>
     <t>NK Solin</t>
+  </si>
+  <si>
+    <t>HNK Cibalia</t>
   </si>
   <si>
     <t>NK Zrinski Jurjevac</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC127"/>
+  <dimension ref="A1:AC128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +628,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -895,7 +895,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1236,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6834733</v>
+        <v>7045999</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1251,73 +1251,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9">
+        <v>2.4</v>
+      </c>
+      <c r="L9">
+        <v>3.25</v>
+      </c>
+      <c r="M9">
+        <v>2.6</v>
+      </c>
+      <c r="N9">
+        <v>2.4</v>
+      </c>
+      <c r="O9">
+        <v>3.25</v>
+      </c>
+      <c r="P9">
+        <v>2.6</v>
+      </c>
+      <c r="Q9">
         <v>0</v>
       </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9">
-        <v>1.65</v>
-      </c>
-      <c r="L9">
-        <v>3.5</v>
-      </c>
-      <c r="M9">
-        <v>4.5</v>
-      </c>
-      <c r="N9">
-        <v>1.909</v>
-      </c>
-      <c r="O9">
-        <v>3.3</v>
-      </c>
-      <c r="P9">
-        <v>3.3</v>
-      </c>
-      <c r="Q9">
-        <v>-0.5</v>
-      </c>
       <c r="R9">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W9">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1325,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7045999</v>
+        <v>6834729</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1340,73 +1340,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N10">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O10">
         <v>3.25</v>
       </c>
       <c r="P10">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S10">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y10">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1414,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6834732</v>
+        <v>6834733</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1426,76 +1426,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L11">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O11">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X11">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6834729</v>
+        <v>6834732</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1515,16 +1515,16 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
@@ -1539,37 +1539,37 @@
         <v>3.1</v>
       </c>
       <c r="N12">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O12">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P12">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
@@ -1578,13 +1578,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6834735</v>
+        <v>6834734</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1782,10 +1782,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1797,61 +1797,61 @@
         <v>46</v>
       </c>
       <c r="K15">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N15">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P15">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB15">
         <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1859,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6834734</v>
+        <v>6834738</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1871,76 +1871,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L16">
         <v>3.2</v>
       </c>
       <c r="M16">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="N16">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB16">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC16">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6834738</v>
+        <v>6834735</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,76 +1960,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
         <v>38</v>
       </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17">
+        <v>2.4</v>
+      </c>
+      <c r="L17">
         <v>3</v>
       </c>
-      <c r="J17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K17">
+      <c r="M17">
         <v>2.75</v>
       </c>
-      <c r="L17">
-        <v>3.2</v>
-      </c>
-      <c r="M17">
-        <v>2.3</v>
-      </c>
       <c r="N17">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="O17">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y17">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,7 +2052,7 @@
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6834743</v>
+        <v>6834744</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2316,76 +2316,76 @@
         <v>45164.5</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L21">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O21">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P21">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2393,7 +2393,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6834742</v>
+        <v>6834743</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2405,76 +2405,76 @@
         <v>45164.5</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22">
         <v>3</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>44</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M22">
+        <v>2.1</v>
+      </c>
+      <c r="N22">
+        <v>1.95</v>
+      </c>
+      <c r="O22">
+        <v>3.4</v>
+      </c>
+      <c r="P22">
         <v>3.3</v>
       </c>
-      <c r="N22">
-        <v>2.15</v>
-      </c>
-      <c r="O22">
-        <v>3.1</v>
-      </c>
-      <c r="P22">
-        <v>3.1</v>
-      </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2482,7 +2482,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6834744</v>
+        <v>6834742</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2494,58 +2494,58 @@
         <v>45164.5</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>3</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
         <v>44</v>
       </c>
       <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>3.25</v>
+      </c>
+      <c r="M23">
+        <v>3.3</v>
+      </c>
+      <c r="N23">
+        <v>2.15</v>
+      </c>
+      <c r="O23">
+        <v>3.1</v>
+      </c>
+      <c r="P23">
+        <v>3.1</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.9</v>
+      </c>
+      <c r="S23">
+        <v>1.9</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
         <v>1.75</v>
       </c>
-      <c r="L23">
-        <v>3.4</v>
-      </c>
-      <c r="M23">
-        <v>4</v>
-      </c>
-      <c r="N23">
-        <v>1.666</v>
-      </c>
-      <c r="O23">
-        <v>3.6</v>
-      </c>
-      <c r="P23">
-        <v>4.2</v>
-      </c>
-      <c r="Q23">
-        <v>-0.75</v>
-      </c>
-      <c r="R23">
-        <v>1.925</v>
-      </c>
-      <c r="S23">
-        <v>1.875</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.825</v>
-      </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2554,13 +2554,13 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2672,7 +2672,7 @@
         <v>45166.5</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2838,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6834748</v>
+        <v>6834750</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2850,58 +2850,58 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
       </c>
       <c r="K27">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M27">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O27">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P27">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q27">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W27">
-        <v>0.909</v>
+        <v>1.1</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2910,16 +2910,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2927,7 +2927,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6834750</v>
+        <v>6834749</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2939,13 +2939,13 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" t="s">
         <v>38</v>
       </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
       <c r="H28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2954,43 +2954,43 @@
         <v>44</v>
       </c>
       <c r="K28">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L28">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N28">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O28">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>1.8</v>
+      </c>
+      <c r="T28">
+        <v>2.25</v>
+      </c>
+      <c r="U28">
+        <v>1.925</v>
+      </c>
+      <c r="V28">
         <v>1.875</v>
       </c>
-      <c r="S28">
-        <v>1.925</v>
-      </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
-      <c r="U28">
-        <v>1.825</v>
-      </c>
-      <c r="V28">
-        <v>1.975</v>
-      </c>
       <c r="W28">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2999,13 +2999,13 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6834749</v>
+        <v>6834748</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,34 +3028,34 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
         <v>36</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>44</v>
       </c>
       <c r="K29">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L29">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M29">
+        <v>3.5</v>
+      </c>
+      <c r="N29">
+        <v>1.909</v>
+      </c>
+      <c r="O29">
         <v>3.25</v>
-      </c>
-      <c r="N29">
-        <v>1.95</v>
-      </c>
-      <c r="O29">
-        <v>3.2</v>
       </c>
       <c r="P29">
         <v>3.5</v>
@@ -3064,22 +3064,22 @@
         <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3088,16 +3088,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3295,7 +3295,7 @@
         <v>45177.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3372,7 +3372,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6834752</v>
+        <v>6834755</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3384,13 +3384,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3399,43 +3399,43 @@
         <v>44</v>
       </c>
       <c r="K33">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M33">
+        <v>2.75</v>
+      </c>
+      <c r="N33">
+        <v>1.666</v>
+      </c>
+      <c r="O33">
+        <v>3.5</v>
+      </c>
+      <c r="P33">
         <v>4.2</v>
       </c>
-      <c r="N33">
-        <v>1.833</v>
-      </c>
-      <c r="O33">
-        <v>3.4</v>
-      </c>
-      <c r="P33">
-        <v>4</v>
-      </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W33">
-        <v>0.833</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3444,16 +3444,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3461,7 +3461,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6834755</v>
+        <v>6834753</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3473,58 +3473,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
         <v>4</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>44</v>
       </c>
       <c r="K34">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="L34">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="N34">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O34">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P34">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q34">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
         <v>2.5</v>
       </c>
       <c r="U34">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V34">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W34">
-        <v>0.6659999999999999</v>
+        <v>3</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3533,13 +3533,13 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC34">
         <v>-1</v>
@@ -3550,7 +3550,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6834753</v>
+        <v>6834752</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3562,58 +3562,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>44</v>
       </c>
       <c r="K35">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L35">
         <v>3.4</v>
       </c>
       <c r="M35">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N35">
+        <v>1.833</v>
+      </c>
+      <c r="O35">
+        <v>3.4</v>
+      </c>
+      <c r="P35">
         <v>4</v>
       </c>
-      <c r="O35">
-        <v>3.3</v>
-      </c>
-      <c r="P35">
-        <v>1.833</v>
-      </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W35">
-        <v>3</v>
+        <v>0.833</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3622,16 +3622,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3651,10 +3651,10 @@
         <v>45179.45833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -4084,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6834760</v>
+        <v>6834757</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4096,76 +4096,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K41">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N41">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O41">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q41">
+        <v>-0.25</v>
+      </c>
+      <c r="R41">
+        <v>1.925</v>
+      </c>
+      <c r="S41">
+        <v>1.875</v>
+      </c>
+      <c r="T41">
+        <v>2.25</v>
+      </c>
+      <c r="U41">
+        <v>1.875</v>
+      </c>
+      <c r="V41">
+        <v>1.925</v>
+      </c>
+      <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
+        <v>2</v>
+      </c>
+      <c r="Y41">
+        <v>-1</v>
+      </c>
+      <c r="Z41">
         <v>-0.5</v>
       </c>
-      <c r="R41">
-        <v>2</v>
-      </c>
-      <c r="S41">
-        <v>1.8</v>
-      </c>
-      <c r="T41">
-        <v>2.5</v>
-      </c>
-      <c r="U41">
-        <v>1.8</v>
-      </c>
-      <c r="V41">
-        <v>2</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
-      <c r="X41">
-        <v>-1</v>
-      </c>
-      <c r="Y41">
-        <v>2.5</v>
-      </c>
-      <c r="Z41">
-        <v>-1</v>
-      </c>
       <c r="AA41">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4173,7 +4173,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6834757</v>
+        <v>6834760</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4185,76 +4185,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N42">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P42">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,7 +4277,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4452,7 +4452,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -4630,7 +4630,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
         <v>39</v>
@@ -4900,7 +4900,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4989,7 +4989,7 @@
         <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5063,7 +5063,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6834768</v>
+        <v>6834769</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5075,76 +5075,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
         <v>46</v>
       </c>
       <c r="K52">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="N52">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O52">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5164,7 +5164,7 @@
         <v>45199.4375</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
         <v>32</v>
@@ -5241,7 +5241,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6834769</v>
+        <v>6834768</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5253,76 +5253,76 @@
         <v>45199.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>46</v>
       </c>
       <c r="K54">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M54">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="N54">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q54">
+        <v>-0.25</v>
+      </c>
+      <c r="R54">
+        <v>1.9</v>
+      </c>
+      <c r="S54">
+        <v>1.9</v>
+      </c>
+      <c r="T54">
+        <v>2.25</v>
+      </c>
+      <c r="U54">
+        <v>1.9</v>
+      </c>
+      <c r="V54">
+        <v>1.9</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
+        <v>2.3</v>
+      </c>
+      <c r="Y54">
+        <v>-1</v>
+      </c>
+      <c r="Z54">
         <v>-0.5</v>
       </c>
-      <c r="R54">
-        <v>2</v>
-      </c>
-      <c r="S54">
-        <v>1.8</v>
-      </c>
-      <c r="T54">
-        <v>2.5</v>
-      </c>
-      <c r="U54">
-        <v>1.975</v>
-      </c>
-      <c r="V54">
-        <v>1.825</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>2.5</v>
-      </c>
-      <c r="Y54">
-        <v>-1</v>
-      </c>
-      <c r="Z54">
-        <v>-1</v>
-      </c>
       <c r="AA54">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="AB54">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5431,7 +5431,7 @@
         <v>45205.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5609,7 +5609,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
         <v>31</v>
@@ -5879,7 +5879,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6054,7 +6054,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
         <v>29</v>
@@ -6131,7 +6131,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6834781</v>
+        <v>6834779</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6143,76 +6143,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64">
         <v>0</v>
       </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K64">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L64">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M64">
+        <v>5</v>
+      </c>
+      <c r="N64">
+        <v>1.6</v>
+      </c>
+      <c r="O64">
         <v>4</v>
       </c>
-      <c r="N64">
-        <v>1.75</v>
-      </c>
-      <c r="O64">
-        <v>3.5</v>
-      </c>
       <c r="P64">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q64">
         <v>-0.75</v>
       </c>
       <c r="R64">
+        <v>1.8</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>2.5</v>
+      </c>
+      <c r="U64">
         <v>1.95</v>
       </c>
-      <c r="S64">
+      <c r="V64">
         <v>1.75</v>
       </c>
-      <c r="T64">
-        <v>2.25</v>
-      </c>
-      <c r="U64">
-        <v>2</v>
-      </c>
-      <c r="V64">
-        <v>1.8</v>
-      </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6220,7 +6220,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6834779</v>
+        <v>6834781</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6232,76 +6232,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65" t="s">
+        <v>45</v>
+      </c>
+      <c r="K65">
+        <v>1.666</v>
+      </c>
+      <c r="L65">
+        <v>3.8</v>
+      </c>
+      <c r="M65">
         <v>4</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65" t="s">
-        <v>44</v>
-      </c>
-      <c r="K65">
-        <v>1.5</v>
-      </c>
-      <c r="L65">
-        <v>4</v>
-      </c>
-      <c r="M65">
-        <v>5</v>
-      </c>
       <c r="N65">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q65">
         <v>-0.75</v>
       </c>
       <c r="R65">
+        <v>1.95</v>
+      </c>
+      <c r="S65">
+        <v>1.75</v>
+      </c>
+      <c r="T65">
+        <v>2.25</v>
+      </c>
+      <c r="U65">
+        <v>2</v>
+      </c>
+      <c r="V65">
         <v>1.8</v>
       </c>
-      <c r="S65">
-        <v>2</v>
-      </c>
-      <c r="T65">
-        <v>2.5</v>
-      </c>
-      <c r="U65">
-        <v>1.95</v>
-      </c>
-      <c r="V65">
-        <v>1.75</v>
-      </c>
       <c r="W65">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z65">
+        <v>-1</v>
+      </c>
+      <c r="AA65">
+        <v>0.75</v>
+      </c>
+      <c r="AB65">
+        <v>-1</v>
+      </c>
+      <c r="AC65">
         <v>0.8</v>
-      </c>
-      <c r="AA65">
-        <v>-1</v>
-      </c>
-      <c r="AB65">
-        <v>0.95</v>
-      </c>
-      <c r="AC65">
-        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6499,7 +6499,7 @@
         <v>45219.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
         <v>31</v>
@@ -6665,7 +6665,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6834789</v>
+        <v>6834786</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6677,73 +6677,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
         <v>38</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K70">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L70">
+        <v>3.1</v>
+      </c>
+      <c r="M70">
         <v>3.75</v>
       </c>
-      <c r="M70">
-        <v>5.5</v>
-      </c>
       <c r="N70">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="O70">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X70">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6754,7 +6754,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6834786</v>
+        <v>6834789</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6766,73 +6766,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K71">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L71">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N71">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="O71">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>1.8</v>
+      </c>
+      <c r="T71">
+        <v>2.75</v>
+      </c>
+      <c r="U71">
+        <v>1.825</v>
+      </c>
+      <c r="V71">
         <v>1.975</v>
       </c>
-      <c r="S71">
-        <v>1.825</v>
-      </c>
-      <c r="T71">
-        <v>2.25</v>
-      </c>
-      <c r="U71">
-        <v>1.875</v>
-      </c>
-      <c r="V71">
-        <v>1.925</v>
-      </c>
       <c r="W71">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB71">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -7199,7 +7199,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6834795</v>
+        <v>6834791</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7211,7 +7211,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
         <v>37</v>
@@ -7226,61 +7226,61 @@
         <v>46</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M76">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N76">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P76">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7288,7 +7288,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6834791</v>
+        <v>6834795</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7300,10 +7300,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7315,61 +7315,61 @@
         <v>46</v>
       </c>
       <c r="K77">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N77">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O77">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -7567,7 +7567,7 @@
         <v>45233.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
         <v>32</v>
@@ -7834,7 +7834,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
         <v>41</v>
@@ -8015,7 +8015,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8101,7 +8101,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
         <v>39</v>
@@ -8193,7 +8193,7 @@
         <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8267,7 +8267,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6834805</v>
+        <v>6834803</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8279,76 +8279,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N88">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="O88">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P88">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="Q88">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R88">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z88">
-        <v>0.95</v>
+        <v>0.3625</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8356,7 +8356,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6834803</v>
+        <v>6834805</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8368,76 +8368,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
         <v>0</v>
       </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K89">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N89">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="O89">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="Q89">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.3625</v>
+        <v>0.95</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8635,7 +8635,7 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
         <v>40</v>
@@ -8724,7 +8724,7 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
@@ -8801,7 +8801,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6834812</v>
+        <v>6834810</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8813,76 +8813,76 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K94">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L94">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O94">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P94">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC94">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6834810</v>
+        <v>6834812</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,76 +8902,76 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K95">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L95">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N95">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P95">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y95">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB95">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9172,7 +9172,7 @@
         <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9258,10 +9258,10 @@
         <v>45255.36805555555</v>
       </c>
       <c r="F99" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" t="s">
         <v>38</v>
-      </c>
-      <c r="G99" t="s">
-        <v>36</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9335,7 +9335,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6834819</v>
+        <v>6834814</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9347,76 +9347,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L100">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M100">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N100">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9424,7 +9424,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6834814</v>
+        <v>6834818</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,55 +9436,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>45</v>
       </c>
       <c r="K101">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L101">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
+        <v>3</v>
+      </c>
+      <c r="N101">
         <v>1.8</v>
       </c>
-      <c r="N101">
-        <v>4.333</v>
-      </c>
       <c r="O101">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P101">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q101">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9493,19 +9493,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.75</v>
+        <v>2.6</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
         <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6834818</v>
+        <v>6834819</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,76 +9525,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K102">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M102">
         <v>3</v>
       </c>
       <c r="N102">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O102">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P102">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA102">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9792,10 +9792,10 @@
         <v>45261.39583333334</v>
       </c>
       <c r="F105" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105" t="s">
         <v>37</v>
-      </c>
-      <c r="G105" t="s">
-        <v>38</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9881,7 +9881,7 @@
         <v>45262.35416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
         <v>35</v>
@@ -10329,7 +10329,7 @@
         <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10403,7 +10403,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6834828</v>
+        <v>6834826</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10415,28 +10415,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>46</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
         <v>3.1</v>
-      </c>
-      <c r="M112">
-        <v>3.4</v>
       </c>
       <c r="N112">
         <v>2.25</v>
@@ -10445,7 +10445,7 @@
         <v>3</v>
       </c>
       <c r="P112">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q112">
         <v>-0.25</v>
@@ -10460,10 +10460,10 @@
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10481,10 +10481,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6834826</v>
+        <v>6834828</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,28 +10504,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>46</v>
       </c>
       <c r="K113">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M113">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
         <v>2.25</v>
@@ -10534,7 +10534,7 @@
         <v>3</v>
       </c>
       <c r="P113">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q113">
         <v>-0.25</v>
@@ -10549,10 +10549,10 @@
         <v>2.25</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10570,10 +10570,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10771,7 +10771,7 @@
         <v>45345.45138888889</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
         <v>39</v>
@@ -11038,7 +11038,7 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
         <v>33</v>
@@ -11219,7 +11219,7 @@
         <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11486,7 +11486,7 @@
         <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11575,7 +11575,7 @@
         <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11750,7 +11750,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
         <v>41</v>
@@ -11819,6 +11819,95 @@
         <v>0.825</v>
       </c>
       <c r="AC127">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>6834842</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45359.45138888889</v>
+      </c>
+      <c r="F128" t="s">
+        <v>36</v>
+      </c>
+      <c r="G128" t="s">
+        <v>38</v>
+      </c>
+      <c r="H128">
+        <v>4</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>44</v>
+      </c>
+      <c r="K128">
+        <v>1.8</v>
+      </c>
+      <c r="L128">
+        <v>3.5</v>
+      </c>
+      <c r="M128">
+        <v>3.75</v>
+      </c>
+      <c r="N128">
+        <v>1.55</v>
+      </c>
+      <c r="O128">
+        <v>3.8</v>
+      </c>
+      <c r="P128">
+        <v>5</v>
+      </c>
+      <c r="Q128">
+        <v>-0.75</v>
+      </c>
+      <c r="R128">
+        <v>1.725</v>
+      </c>
+      <c r="S128">
+        <v>1.975</v>
+      </c>
+      <c r="T128">
+        <v>2.25</v>
+      </c>
+      <c r="U128">
+        <v>1.85</v>
+      </c>
+      <c r="V128">
+        <v>1.95</v>
+      </c>
+      <c r="W128">
+        <v>0.55</v>
+      </c>
+      <c r="X128">
+        <v>-1</v>
+      </c>
+      <c r="Y128">
+        <v>-1</v>
+      </c>
+      <c r="Z128">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA128">
+        <v>-1</v>
+      </c>
+      <c r="AB128">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC128">
         <v>-1</v>
       </c>
     </row>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -112,22 +112,22 @@
     <t>Bijelo Brdo</t>
   </si>
   <si>
-    <t>NK Croatia Zmijavci</t>
-  </si>
-  <si>
     <t>Orijent</t>
   </si>
   <si>
     <t>NK Kustosija</t>
   </si>
   <si>
+    <t>NK Croatia Zmijavci</t>
+  </si>
+  <si>
     <t>HNK Sibenik</t>
   </si>
   <si>
-    <t>NK Sesvete</t>
+    <t>NK Solin</t>
   </si>
   <si>
-    <t>NK Solin</t>
+    <t>NK Sesvete</t>
   </si>
   <si>
     <t>HNK Cibalia</t>
@@ -516,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC128"/>
+  <dimension ref="A1:AC133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6425847</v>
+        <v>6425846</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -895,37 +895,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R5">
         <v>1.95</v>
@@ -934,34 +934,34 @@
         <v>1.85</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -969,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6425846</v>
+        <v>6425845</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -984,73 +984,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N6">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O6">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q6">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
         <v>1.8</v>
       </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB6">
+        <v>-1</v>
+      </c>
+      <c r="AC6">
         <v>0.8</v>
-      </c>
-      <c r="AC6">
-        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6425845</v>
+        <v>6425847</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1073,16 +1073,16 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7">
         <v>2.1</v>
@@ -1094,25 +1094,25 @@
         <v>2.875</v>
       </c>
       <c r="N7">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
         <v>3.5</v>
       </c>
       <c r="P7">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
         <v>2</v>
@@ -1121,25 +1121,25 @@
         <v>1.8</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1236,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7045999</v>
+        <v>6834729</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1251,73 +1251,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N9">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="O9">
         <v>3.25</v>
       </c>
       <c r="P9">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V9">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y9">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>0.5</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1325,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6834729</v>
+        <v>7045999</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1340,73 +1340,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M10">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N10">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O10">
         <v>3.25</v>
       </c>
       <c r="P10">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T10">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V10">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1429,7 +1429,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1515,7 +1515,7 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>41</v>
@@ -1859,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6834738</v>
+        <v>6834735</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1871,76 +1871,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16">
+        <v>2.4</v>
+      </c>
+      <c r="L16">
         <v>3</v>
       </c>
-      <c r="J16" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16">
+      <c r="M16">
         <v>2.75</v>
       </c>
-      <c r="L16">
-        <v>3.2</v>
-      </c>
-      <c r="M16">
-        <v>2.3</v>
-      </c>
       <c r="N16">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="O16">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y16">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB16">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1948,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6834735</v>
+        <v>6834738</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1960,76 +1960,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M17">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N17">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC17">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2049,10 +2049,10 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -2230,7 +2230,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2405,7 +2405,7 @@
         <v>45164.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2497,7 +2497,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -2672,7 +2672,7 @@
         <v>45166.5</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2838,7 +2838,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6834750</v>
+        <v>6834748</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2850,58 +2850,58 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s">
         <v>37</v>
       </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
       <c r="H27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>44</v>
       </c>
       <c r="K27">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L27">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N27">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P27">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>1.1</v>
+        <v>0.909</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2910,16 +2910,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2927,7 +2927,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6834749</v>
+        <v>6834746</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2939,46 +2939,46 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>3.2</v>
+      </c>
+      <c r="M28">
+        <v>3.3</v>
+      </c>
+      <c r="N28">
         <v>2.05</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>3.1</v>
       </c>
-      <c r="M28">
-        <v>3.25</v>
-      </c>
-      <c r="N28">
-        <v>1.95</v>
-      </c>
-      <c r="O28">
+      <c r="P28">
         <v>3.2</v>
       </c>
-      <c r="P28">
-        <v>3.5</v>
-      </c>
       <c r="Q28">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T28">
         <v>2.25</v>
@@ -2990,25 +2990,25 @@
         <v>1.875</v>
       </c>
       <c r="W28">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3016,7 +3016,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6834748</v>
+        <v>6834749</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,34 +3028,34 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>44</v>
       </c>
       <c r="K29">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L29">
+        <v>3.1</v>
+      </c>
+      <c r="M29">
         <v>3.25</v>
       </c>
-      <c r="M29">
-        <v>3.5</v>
-      </c>
       <c r="N29">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O29">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P29">
         <v>3.5</v>
@@ -3064,22 +3064,22 @@
         <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3088,16 +3088,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3105,7 +3105,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6834746</v>
+        <v>6834750</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3117,76 +3117,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>2.1</v>
+      </c>
+      <c r="O30">
         <v>3.3</v>
       </c>
-      <c r="N30">
-        <v>2.05</v>
-      </c>
-      <c r="O30">
-        <v>3.1</v>
-      </c>
       <c r="P30">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q30">
         <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>1.875</v>
+      </c>
+      <c r="S30">
+        <v>1.925</v>
+      </c>
+      <c r="T30">
+        <v>2.5</v>
+      </c>
+      <c r="U30">
         <v>1.825</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>1.975</v>
       </c>
-      <c r="T30">
-        <v>2.25</v>
-      </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
-      <c r="V30">
-        <v>1.875</v>
-      </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X30">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA30">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC30">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3295,7 +3295,7 @@
         <v>45177.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3473,7 +3473,7 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
         <v>35</v>
@@ -3654,7 +3654,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3740,7 +3740,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3832,7 +3832,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4010,7 +4010,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4084,7 +4084,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6834757</v>
+        <v>6834760</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4096,76 +4096,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N41">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P41">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4173,7 +4173,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6834760</v>
+        <v>6834757</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4185,76 +4185,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K42">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N42">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O42">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q42">
+        <v>-0.25</v>
+      </c>
+      <c r="R42">
+        <v>1.925</v>
+      </c>
+      <c r="S42">
+        <v>1.875</v>
+      </c>
+      <c r="T42">
+        <v>2.25</v>
+      </c>
+      <c r="U42">
+        <v>1.875</v>
+      </c>
+      <c r="V42">
+        <v>1.925</v>
+      </c>
+      <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
+        <v>2</v>
+      </c>
+      <c r="Y42">
+        <v>-1</v>
+      </c>
+      <c r="Z42">
         <v>-0.5</v>
       </c>
-      <c r="R42">
-        <v>2</v>
-      </c>
-      <c r="S42">
-        <v>1.8</v>
-      </c>
-      <c r="T42">
-        <v>2.5</v>
-      </c>
-      <c r="U42">
-        <v>1.8</v>
-      </c>
-      <c r="V42">
-        <v>2</v>
-      </c>
-      <c r="W42">
-        <v>-1</v>
-      </c>
-      <c r="X42">
-        <v>-1</v>
-      </c>
-      <c r="Y42">
-        <v>2.5</v>
-      </c>
-      <c r="Z42">
-        <v>-1</v>
-      </c>
       <c r="AA42">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4366,7 +4366,7 @@
         <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4452,7 +4452,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -4541,7 +4541,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
@@ -4719,7 +4719,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4900,7 +4900,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4986,7 +4986,7 @@
         <v>45199.40972222222</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
         <v>38</v>
@@ -5152,7 +5152,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6834770</v>
+        <v>6834768</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5164,10 +5164,10 @@
         <v>45199.4375</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5179,34 +5179,34 @@
         <v>46</v>
       </c>
       <c r="K53">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="N53">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O53">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P53">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
         <v>1.9</v>
@@ -5218,16 +5218,16 @@
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA53">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB53">
         <v>-1</v>
@@ -5241,7 +5241,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6834768</v>
+        <v>6834770</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5253,10 +5253,10 @@
         <v>45199.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5268,34 +5268,34 @@
         <v>46</v>
       </c>
       <c r="K54">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="L54">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N54">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P54">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
         <v>1.9</v>
@@ -5307,16 +5307,16 @@
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB54">
         <v>-1</v>
@@ -5431,10 +5431,10 @@
         <v>45205.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5787,7 +5787,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5879,7 +5879,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6042,7 +6042,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6834783</v>
+        <v>6834779</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6054,76 +6054,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K63">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L63">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M63">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N63">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O63">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
         <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X63">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA63">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6131,7 +6131,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6834779</v>
+        <v>6834781</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6143,76 +6143,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>45</v>
+      </c>
+      <c r="K64">
+        <v>1.666</v>
+      </c>
+      <c r="L64">
+        <v>3.8</v>
+      </c>
+      <c r="M64">
         <v>4</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>44</v>
-      </c>
-      <c r="K64">
-        <v>1.5</v>
-      </c>
-      <c r="L64">
-        <v>4</v>
-      </c>
-      <c r="M64">
-        <v>5</v>
-      </c>
       <c r="N64">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q64">
         <v>-0.75</v>
       </c>
       <c r="R64">
+        <v>1.95</v>
+      </c>
+      <c r="S64">
+        <v>1.75</v>
+      </c>
+      <c r="T64">
+        <v>2.25</v>
+      </c>
+      <c r="U64">
+        <v>2</v>
+      </c>
+      <c r="V64">
         <v>1.8</v>
       </c>
-      <c r="S64">
-        <v>2</v>
-      </c>
-      <c r="T64">
-        <v>2.5</v>
-      </c>
-      <c r="U64">
-        <v>1.95</v>
-      </c>
-      <c r="V64">
-        <v>1.75</v>
-      </c>
       <c r="W64">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
+        <v>0.75</v>
+      </c>
+      <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.8</v>
-      </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
-      <c r="AB64">
-        <v>0.95</v>
-      </c>
-      <c r="AC64">
-        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6220,7 +6220,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6834781</v>
+        <v>6834783</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6232,76 +6232,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L65">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N65">
+        <v>1.95</v>
+      </c>
+      <c r="O65">
+        <v>3.3</v>
+      </c>
+      <c r="P65">
+        <v>3.25</v>
+      </c>
+      <c r="Q65">
+        <v>-0.25</v>
+      </c>
+      <c r="R65">
         <v>1.75</v>
       </c>
-      <c r="O65">
-        <v>3.5</v>
-      </c>
-      <c r="P65">
-        <v>3.8</v>
-      </c>
-      <c r="Q65">
-        <v>-0.75</v>
-      </c>
-      <c r="R65">
+      <c r="S65">
         <v>1.95</v>
       </c>
-      <c r="S65">
-        <v>1.75</v>
-      </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y65">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6410,7 +6410,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
         <v>42</v>
@@ -6499,7 +6499,7 @@
         <v>45219.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
         <v>31</v>
@@ -6665,7 +6665,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6834786</v>
+        <v>6834789</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6677,73 +6677,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K70">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L70">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N70">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="O70">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>1.8</v>
+      </c>
+      <c r="T70">
+        <v>2.75</v>
+      </c>
+      <c r="U70">
+        <v>1.825</v>
+      </c>
+      <c r="V70">
         <v>1.975</v>
       </c>
-      <c r="S70">
-        <v>1.825</v>
-      </c>
-      <c r="T70">
-        <v>2.25</v>
-      </c>
-      <c r="U70">
-        <v>1.875</v>
-      </c>
-      <c r="V70">
-        <v>1.925</v>
-      </c>
       <c r="W70">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6754,7 +6754,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6834789</v>
+        <v>6834786</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6766,73 +6766,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K71">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L71">
+        <v>3.1</v>
+      </c>
+      <c r="M71">
         <v>3.75</v>
       </c>
-      <c r="M71">
-        <v>5.5</v>
-      </c>
       <c r="N71">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="O71">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X71">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6855,10 +6855,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" t="s">
         <v>32</v>
-      </c>
-      <c r="G72" t="s">
-        <v>33</v>
       </c>
       <c r="H72">
         <v>6</v>
@@ -7036,7 +7036,7 @@
         <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7199,7 +7199,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6834791</v>
+        <v>6834795</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7211,7 +7211,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
         <v>37</v>
@@ -7226,61 +7226,61 @@
         <v>46</v>
       </c>
       <c r="K76">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L76">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N76">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O76">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7288,7 +7288,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6834795</v>
+        <v>6834791</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7300,7 +7300,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
         <v>36</v>
@@ -7315,61 +7315,61 @@
         <v>46</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M77">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N77">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P77">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7389,7 +7389,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7567,10 +7567,10 @@
         <v>45233.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7745,7 +7745,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>29</v>
@@ -8015,7 +8015,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8101,7 +8101,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>39</v>
@@ -8193,7 +8193,7 @@
         <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8457,7 +8457,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
@@ -8724,7 +8724,7 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
         <v>29</v>
@@ -8801,7 +8801,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6834810</v>
+        <v>6834812</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8813,76 +8813,76 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K94">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L94">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N94">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O94">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P94">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V94">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y94">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8890,7 +8890,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6834812</v>
+        <v>6834810</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,76 +8902,76 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K95">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L95">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N95">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O95">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9080,7 +9080,7 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
         <v>31</v>
@@ -9172,7 +9172,7 @@
         <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9258,7 +9258,7 @@
         <v>45255.36805555555</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
         <v>38</v>
@@ -9335,7 +9335,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6834814</v>
+        <v>6834819</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9347,76 +9347,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K100">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M100">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N100">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q100">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9513,7 +9513,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6834819</v>
+        <v>6834814</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9525,76 +9525,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K102">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L102">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N102">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="O102">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P102">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R102">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W102">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9617,7 +9617,7 @@
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9792,10 +9792,10 @@
         <v>45261.39583333334</v>
       </c>
       <c r="F105" t="s">
+        <v>37</v>
+      </c>
+      <c r="G105" t="s">
         <v>36</v>
-      </c>
-      <c r="G105" t="s">
-        <v>37</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -10059,7 +10059,7 @@
         <v>45263.36805555555</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10148,7 +10148,7 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -10403,7 +10403,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6834826</v>
+        <v>6834828</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10415,28 +10415,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>46</v>
       </c>
       <c r="K112">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M112">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
         <v>2.25</v>
@@ -10445,7 +10445,7 @@
         <v>3</v>
       </c>
       <c r="P112">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q112">
         <v>-0.25</v>
@@ -10460,10 +10460,10 @@
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10481,10 +10481,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10492,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6834828</v>
+        <v>6834826</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10504,28 +10504,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>46</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
         <v>3.1</v>
-      </c>
-      <c r="M113">
-        <v>3.4</v>
       </c>
       <c r="N113">
         <v>2.25</v>
@@ -10534,7 +10534,7 @@
         <v>3</v>
       </c>
       <c r="P113">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q113">
         <v>-0.25</v>
@@ -10549,10 +10549,10 @@
         <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10570,10 +10570,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10596,7 +10596,7 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10685,7 +10685,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10771,7 +10771,7 @@
         <v>45345.45138888889</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
         <v>39</v>
@@ -11041,7 +11041,7 @@
         <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11216,10 +11216,10 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11397,7 +11397,7 @@
         <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11572,10 +11572,10 @@
         <v>45354.36805555555</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11750,7 +11750,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G127" t="s">
         <v>41</v>
@@ -11839,7 +11839,7 @@
         <v>45359.45138888889</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
         <v>38</v>
@@ -11909,6 +11909,451 @@
       </c>
       <c r="AC128">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>6834843</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45360.36805555555</v>
+      </c>
+      <c r="F129" t="s">
+        <v>40</v>
+      </c>
+      <c r="G129" t="s">
+        <v>31</v>
+      </c>
+      <c r="H129">
+        <v>3</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129" t="s">
+        <v>44</v>
+      </c>
+      <c r="K129">
+        <v>1.4</v>
+      </c>
+      <c r="L129">
+        <v>4</v>
+      </c>
+      <c r="M129">
+        <v>7</v>
+      </c>
+      <c r="N129">
+        <v>1.4</v>
+      </c>
+      <c r="O129">
+        <v>4</v>
+      </c>
+      <c r="P129">
+        <v>7</v>
+      </c>
+      <c r="Q129">
+        <v>-1.25</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>1.8</v>
+      </c>
+      <c r="T129">
+        <v>2.25</v>
+      </c>
+      <c r="U129">
+        <v>1.8</v>
+      </c>
+      <c r="V129">
+        <v>2</v>
+      </c>
+      <c r="W129">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X129">
+        <v>-1</v>
+      </c>
+      <c r="Y129">
+        <v>-1</v>
+      </c>
+      <c r="Z129">
+        <v>-0.5</v>
+      </c>
+      <c r="AA129">
+        <v>0.4</v>
+      </c>
+      <c r="AB129">
+        <v>0.8</v>
+      </c>
+      <c r="AC129">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>6834844</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45360.47916666666</v>
+      </c>
+      <c r="F130" t="s">
+        <v>29</v>
+      </c>
+      <c r="G130" t="s">
+        <v>36</v>
+      </c>
+      <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>44</v>
+      </c>
+      <c r="K130">
+        <v>1.727</v>
+      </c>
+      <c r="L130">
+        <v>3.6</v>
+      </c>
+      <c r="M130">
+        <v>4</v>
+      </c>
+      <c r="N130">
+        <v>2.05</v>
+      </c>
+      <c r="O130">
+        <v>3.4</v>
+      </c>
+      <c r="P130">
+        <v>3.1</v>
+      </c>
+      <c r="Q130">
+        <v>-0.25</v>
+      </c>
+      <c r="R130">
+        <v>1.85</v>
+      </c>
+      <c r="S130">
+        <v>1.95</v>
+      </c>
+      <c r="T130">
+        <v>2.5</v>
+      </c>
+      <c r="U130">
+        <v>1.925</v>
+      </c>
+      <c r="V130">
+        <v>1.875</v>
+      </c>
+      <c r="W130">
+        <v>1.05</v>
+      </c>
+      <c r="X130">
+        <v>-1</v>
+      </c>
+      <c r="Y130">
+        <v>-1</v>
+      </c>
+      <c r="Z130">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>6834846</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45360.47916666666</v>
+      </c>
+      <c r="F131" t="s">
+        <v>42</v>
+      </c>
+      <c r="G131" t="s">
+        <v>32</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131" t="s">
+        <v>45</v>
+      </c>
+      <c r="K131">
+        <v>1.75</v>
+      </c>
+      <c r="L131">
+        <v>3.5</v>
+      </c>
+      <c r="M131">
+        <v>4</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131">
+        <v>3</v>
+      </c>
+      <c r="P131">
+        <v>3.6</v>
+      </c>
+      <c r="Q131">
+        <v>-0.25</v>
+      </c>
+      <c r="R131">
+        <v>1.725</v>
+      </c>
+      <c r="S131">
+        <v>1.975</v>
+      </c>
+      <c r="T131">
+        <v>2.25</v>
+      </c>
+      <c r="U131">
+        <v>1.9</v>
+      </c>
+      <c r="V131">
+        <v>1.9</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>-1</v>
+      </c>
+      <c r="Y131">
+        <v>2.6</v>
+      </c>
+      <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB131">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>6834845</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45360.47916666666</v>
+      </c>
+      <c r="F132" t="s">
+        <v>41</v>
+      </c>
+      <c r="G132" t="s">
+        <v>35</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>3</v>
+      </c>
+      <c r="J132" t="s">
+        <v>45</v>
+      </c>
+      <c r="K132">
+        <v>3.75</v>
+      </c>
+      <c r="L132">
+        <v>3.5</v>
+      </c>
+      <c r="M132">
+        <v>1.8</v>
+      </c>
+      <c r="N132">
+        <v>4.5</v>
+      </c>
+      <c r="O132">
+        <v>3.6</v>
+      </c>
+      <c r="P132">
+        <v>1.65</v>
+      </c>
+      <c r="Q132">
+        <v>0.75</v>
+      </c>
+      <c r="R132">
+        <v>1.925</v>
+      </c>
+      <c r="S132">
+        <v>1.875</v>
+      </c>
+      <c r="T132">
+        <v>2.25</v>
+      </c>
+      <c r="U132">
+        <v>1.9</v>
+      </c>
+      <c r="V132">
+        <v>1.9</v>
+      </c>
+      <c r="W132">
+        <v>-1</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="Z132">
+        <v>-1</v>
+      </c>
+      <c r="AA132">
+        <v>0.875</v>
+      </c>
+      <c r="AB132">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC132">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>6834847</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45361.35416666666</v>
+      </c>
+      <c r="F133" t="s">
+        <v>34</v>
+      </c>
+      <c r="G133" t="s">
+        <v>39</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>46</v>
+      </c>
+      <c r="K133">
+        <v>3.25</v>
+      </c>
+      <c r="L133">
+        <v>3.4</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>3.4</v>
+      </c>
+      <c r="O133">
+        <v>3.25</v>
+      </c>
+      <c r="P133">
+        <v>2</v>
+      </c>
+      <c r="Q133">
+        <v>0.25</v>
+      </c>
+      <c r="R133">
+        <v>2.025</v>
+      </c>
+      <c r="S133">
+        <v>1.775</v>
+      </c>
+      <c r="T133">
+        <v>2</v>
+      </c>
+      <c r="U133">
+        <v>2.025</v>
+      </c>
+      <c r="V133">
+        <v>1.775</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>2.25</v>
+      </c>
+      <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
+        <v>0.5125</v>
+      </c>
+      <c r="AA133">
+        <v>-0.5</v>
+      </c>
+      <c r="AB133">
+        <v>-1</v>
+      </c>
+      <c r="AC133">
+        <v>0.7749999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -112,25 +112,25 @@
     <t>Bijelo Brdo</t>
   </si>
   <si>
+    <t>NK Croatia Zmijavci</t>
+  </si>
+  <si>
     <t>Orijent</t>
   </si>
   <si>
     <t>NK Kustosija</t>
   </si>
   <si>
-    <t>NK Croatia Zmijavci</t>
-  </si>
-  <si>
     <t>HNK Sibenik</t>
-  </si>
-  <si>
-    <t>NK Solin</t>
   </si>
   <si>
     <t>NK Sesvete</t>
   </si>
   <si>
     <t>HNK Cibalia</t>
+  </si>
+  <si>
+    <t>NK Solin</t>
   </si>
   <si>
     <t>NK Zrinski Jurjevac</t>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>NK Dugopolje</t>
+  </si>
+  <si>
+    <t>NK Zrinski Osjecko 1664</t>
   </si>
   <si>
     <t>NK Hrvatski Dragovoljac</t>
@@ -516,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC133"/>
+  <dimension ref="A1:AC138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -637,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K2">
         <v>2.75</v>
@@ -726,7 +729,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>1.8</v>
@@ -815,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -880,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6425846</v>
+        <v>6425847</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -895,37 +898,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N5">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="O5">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="Q5">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
         <v>1.95</v>
@@ -934,34 +937,34 @@
         <v>1.85</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.8</v>
       </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X5">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -969,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6425845</v>
+        <v>6425846</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -984,73 +987,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P6">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R6">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S6">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y6">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1058,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6425847</v>
+        <v>6425845</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1073,16 +1076,16 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>2.1</v>
@@ -1094,25 +1097,25 @@
         <v>2.875</v>
       </c>
       <c r="N7">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O7">
         <v>3.5</v>
       </c>
       <c r="P7">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
         <v>2</v>
@@ -1121,25 +1124,25 @@
         <v>1.8</v>
       </c>
       <c r="W7">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1171,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8">
         <v>1.909</v>
@@ -1236,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6834729</v>
+        <v>7045999</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1251,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>46</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N9">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O9">
         <v>3.25</v>
       </c>
       <c r="P9">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1325,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7045999</v>
+        <v>6834733</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1340,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>45</v>
       </c>
       <c r="K10">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="L10">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N10">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="O10">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V10">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1414,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6834733</v>
+        <v>6834729</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,73 +1432,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M11">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P11">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q11">
+        <v>-0.25</v>
+      </c>
+      <c r="R11">
+        <v>1.8</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>2.5</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>1.8</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
+        <v>2.25</v>
+      </c>
+      <c r="Y11">
+        <v>-1</v>
+      </c>
+      <c r="Z11">
         <v>-0.5</v>
       </c>
-      <c r="R11">
-        <v>2</v>
-      </c>
-      <c r="S11">
-        <v>1.8</v>
-      </c>
-      <c r="T11">
-        <v>2.25</v>
-      </c>
-      <c r="U11">
-        <v>1.95</v>
-      </c>
-      <c r="V11">
-        <v>1.85</v>
-      </c>
-      <c r="W11">
-        <v>0.909</v>
-      </c>
-      <c r="X11">
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <v>-1</v>
-      </c>
-      <c r="Z11">
-        <v>1</v>
-      </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB11">
         <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1515,7 +1518,7 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
         <v>41</v>
@@ -1527,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12">
         <v>2.1</v>
@@ -1616,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13">
         <v>2.5</v>
@@ -1705,7 +1708,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>1.727</v>
@@ -1770,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6834734</v>
+        <v>6834735</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1782,10 +1785,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1794,64 +1797,64 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
         <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1859,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6834735</v>
+        <v>6834734</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1871,10 +1874,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1883,64 +1886,64 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M16">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N16">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P16">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB16">
         <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1960,7 +1963,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
         <v>35</v>
@@ -1972,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>2.75</v>
@@ -2049,10 +2052,10 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2061,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18">
         <v>2.45</v>
@@ -2141,7 +2144,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -2150,7 +2153,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>2.1</v>
@@ -2230,7 +2233,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2239,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
         <v>1.75</v>
@@ -2316,7 +2319,7 @@
         <v>45164.5</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
         <v>29</v>
@@ -2328,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K21">
         <v>1.75</v>
@@ -2393,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6834743</v>
+        <v>6834742</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2405,76 +2408,76 @@
         <v>45164.5</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
         <v>0</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>45</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
+        <v>3.25</v>
+      </c>
+      <c r="M22">
         <v>3.3</v>
       </c>
-      <c r="M22">
-        <v>2.1</v>
-      </c>
       <c r="N22">
+        <v>2.15</v>
+      </c>
+      <c r="O22">
+        <v>3.1</v>
+      </c>
+      <c r="P22">
+        <v>3.1</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.9</v>
+      </c>
+      <c r="S22">
+        <v>1.9</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
+        <v>1.75</v>
+      </c>
+      <c r="V22">
         <v>1.95</v>
       </c>
-      <c r="O22">
-        <v>3.4</v>
-      </c>
-      <c r="P22">
-        <v>3.3</v>
-      </c>
-      <c r="Q22">
-        <v>-0.5</v>
-      </c>
-      <c r="R22">
-        <v>2</v>
-      </c>
-      <c r="S22">
-        <v>1.8</v>
-      </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
-      <c r="U22">
-        <v>2</v>
-      </c>
-      <c r="V22">
-        <v>1.8</v>
-      </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2482,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6834742</v>
+        <v>6834743</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2494,76 +2497,76 @@
         <v>45164.5</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23">
         <v>3</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
       <c r="L23">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
+        <v>2.1</v>
+      </c>
+      <c r="N23">
+        <v>1.95</v>
+      </c>
+      <c r="O23">
+        <v>3.4</v>
+      </c>
+      <c r="P23">
         <v>3.3</v>
       </c>
-      <c r="N23">
-        <v>2.15</v>
-      </c>
-      <c r="O23">
-        <v>3.1</v>
-      </c>
-      <c r="P23">
-        <v>3.1</v>
-      </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2595,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K24">
         <v>1.4</v>
@@ -2672,7 +2675,7 @@
         <v>45166.5</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2684,7 +2687,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K25">
         <v>2.375</v>
@@ -2773,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
         <v>1.615</v>
@@ -2838,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6834748</v>
+        <v>6834749</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2850,34 +2853,34 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L27">
+        <v>3.1</v>
+      </c>
+      <c r="M27">
         <v>3.25</v>
       </c>
-      <c r="M27">
-        <v>3.5</v>
-      </c>
       <c r="N27">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O27">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
         <v>3.5</v>
@@ -2886,22 +2889,22 @@
         <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W27">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2910,16 +2913,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2927,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6834746</v>
+        <v>6834748</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2939,76 +2942,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L28">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N28">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O28">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P28">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
         <v>1.825</v>
       </c>
-      <c r="S28">
-        <v>1.975</v>
-      </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA28">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3016,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6834749</v>
+        <v>6834746</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3028,46 +3031,46 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>3.2</v>
+      </c>
+      <c r="M29">
+        <v>3.3</v>
+      </c>
+      <c r="N29">
         <v>2.05</v>
       </c>
-      <c r="L29">
+      <c r="O29">
         <v>3.1</v>
       </c>
-      <c r="M29">
-        <v>3.25</v>
-      </c>
-      <c r="N29">
-        <v>1.95</v>
-      </c>
-      <c r="O29">
+      <c r="P29">
         <v>3.2</v>
       </c>
-      <c r="P29">
-        <v>3.5</v>
-      </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T29">
         <v>2.25</v>
@@ -3079,25 +3082,25 @@
         <v>1.875</v>
       </c>
       <c r="W29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3117,10 +3120,10 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -3129,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>2.1</v>
@@ -3218,7 +3221,7 @@
         <v>3</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
         <v>2.1</v>
@@ -3295,7 +3298,7 @@
         <v>45177.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3307,7 +3310,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>3.5</v>
@@ -3372,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6834755</v>
+        <v>6834753</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3384,58 +3387,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
         <v>4</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
       <c r="J33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="L33">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M33">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="N33">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="O33">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P33">
-        <v>4.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q33">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S33">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T33">
         <v>2.5</v>
       </c>
       <c r="U33">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W33">
-        <v>0.6659999999999999</v>
+        <v>3</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3444,13 +3447,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3461,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6834753</v>
+        <v>6834752</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3473,58 +3476,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L34">
         <v>3.4</v>
       </c>
       <c r="M34">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N34">
+        <v>1.833</v>
+      </c>
+      <c r="O34">
+        <v>3.4</v>
+      </c>
+      <c r="P34">
         <v>4</v>
       </c>
-      <c r="O34">
-        <v>3.3</v>
-      </c>
-      <c r="P34">
-        <v>1.833</v>
-      </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W34">
-        <v>3</v>
+        <v>0.833</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3533,16 +3536,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3550,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6834752</v>
+        <v>6834755</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3562,58 +3565,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M35">
+        <v>2.75</v>
+      </c>
+      <c r="N35">
+        <v>1.666</v>
+      </c>
+      <c r="O35">
+        <v>3.5</v>
+      </c>
+      <c r="P35">
         <v>4.2</v>
       </c>
-      <c r="N35">
-        <v>1.833</v>
-      </c>
-      <c r="O35">
-        <v>3.4</v>
-      </c>
-      <c r="P35">
-        <v>4</v>
-      </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T35">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W35">
-        <v>0.833</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3622,16 +3625,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3651,10 +3654,10 @@
         <v>45179.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s">
         <v>38</v>
-      </c>
-      <c r="G36" t="s">
-        <v>36</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3663,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>1.727</v>
@@ -3740,7 +3743,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3752,7 +3755,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
         <v>2.5</v>
@@ -3832,7 +3835,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3841,7 +3844,7 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K38">
         <v>1.571</v>
@@ -3930,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>1.85</v>
@@ -4010,7 +4013,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4019,7 +4022,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K40">
         <v>1.909</v>
@@ -4084,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6834760</v>
+        <v>6834757</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4096,76 +4099,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N41">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O41">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q41">
+        <v>-0.25</v>
+      </c>
+      <c r="R41">
+        <v>1.925</v>
+      </c>
+      <c r="S41">
+        <v>1.875</v>
+      </c>
+      <c r="T41">
+        <v>2.25</v>
+      </c>
+      <c r="U41">
+        <v>1.875</v>
+      </c>
+      <c r="V41">
+        <v>1.925</v>
+      </c>
+      <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
+        <v>2</v>
+      </c>
+      <c r="Y41">
+        <v>-1</v>
+      </c>
+      <c r="Z41">
         <v>-0.5</v>
       </c>
-      <c r="R41">
-        <v>2</v>
-      </c>
-      <c r="S41">
-        <v>1.8</v>
-      </c>
-      <c r="T41">
-        <v>2.5</v>
-      </c>
-      <c r="U41">
-        <v>1.8</v>
-      </c>
-      <c r="V41">
-        <v>2</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
-      <c r="X41">
-        <v>-1</v>
-      </c>
-      <c r="Y41">
-        <v>2.5</v>
-      </c>
-      <c r="Z41">
-        <v>-1</v>
-      </c>
       <c r="AA41">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4173,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6834757</v>
+        <v>6834760</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4185,13 +4188,13 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -4200,61 +4203,61 @@
         <v>46</v>
       </c>
       <c r="K42">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N42">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P42">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4277,7 +4280,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4286,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>1.6</v>
@@ -4366,7 +4369,7 @@
         <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4375,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44">
         <v>1.8</v>
@@ -4452,7 +4455,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -4464,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>3.2</v>
@@ -4529,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6834763</v>
+        <v>6834764</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4541,76 +4544,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L46">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N46">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O46">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4618,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6834764</v>
+        <v>6834763</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4630,76 +4633,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
         <v>45</v>
       </c>
       <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>3.3</v>
+      </c>
+      <c r="M47">
+        <v>3.2</v>
+      </c>
+      <c r="N47">
+        <v>2.15</v>
+      </c>
+      <c r="O47">
+        <v>3.3</v>
+      </c>
+      <c r="P47">
+        <v>3.1</v>
+      </c>
+      <c r="Q47">
+        <v>-0.25</v>
+      </c>
+      <c r="R47">
+        <v>1.85</v>
+      </c>
+      <c r="S47">
         <v>1.95</v>
       </c>
-      <c r="L47">
-        <v>3.2</v>
-      </c>
-      <c r="M47">
-        <v>3.5</v>
-      </c>
-      <c r="N47">
-        <v>1.95</v>
-      </c>
-      <c r="O47">
-        <v>3</v>
-      </c>
-      <c r="P47">
-        <v>3.75</v>
-      </c>
-      <c r="Q47">
-        <v>-0.5</v>
-      </c>
-      <c r="R47">
-        <v>2.025</v>
-      </c>
-      <c r="S47">
-        <v>1.775</v>
-      </c>
       <c r="T47">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4719,7 +4722,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4731,7 +4734,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K48">
         <v>2.75</v>
@@ -4820,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K49">
         <v>2.15</v>
@@ -4900,7 +4903,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4909,7 +4912,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>1.95</v>
@@ -4986,10 +4989,10 @@
         <v>45199.40972222222</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -4998,7 +5001,7 @@
         <v>3</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K51">
         <v>2.5</v>
@@ -5087,7 +5090,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
         <v>1.727</v>
@@ -5152,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6834768</v>
+        <v>6834770</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5164,10 +5167,10 @@
         <v>45199.4375</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5176,37 +5179,37 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K53">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="L53">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O53">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
         <v>1.9</v>
@@ -5218,16 +5221,16 @@
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB53">
         <v>-1</v>
@@ -5241,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6834770</v>
+        <v>6834768</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5253,10 +5256,10 @@
         <v>45199.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5265,37 +5268,37 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M54">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="N54">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O54">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
         <v>1.9</v>
@@ -5307,16 +5310,16 @@
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB54">
         <v>-1</v>
@@ -5354,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>1.571</v>
@@ -5431,10 +5434,10 @@
         <v>45205.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5443,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5532,7 +5535,7 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K57">
         <v>2.25</v>
@@ -5609,7 +5612,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
         <v>31</v>
@@ -5621,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K58">
         <v>1.6</v>
@@ -5710,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59">
         <v>2.5</v>
@@ -5787,7 +5790,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5799,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60">
         <v>3.2</v>
@@ -5879,7 +5882,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5888,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -5977,7 +5980,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>2.75</v>
@@ -6057,7 +6060,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>4</v>
@@ -6066,7 +6069,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K63">
         <v>1.5</v>
@@ -6143,10 +6146,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6155,7 +6158,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K64">
         <v>1.666</v>
@@ -6232,7 +6235,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
         <v>29</v>
@@ -6244,7 +6247,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K65">
         <v>2.25</v>
@@ -6333,7 +6336,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K66">
         <v>1.5</v>
@@ -6410,7 +6413,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
         <v>42</v>
@@ -6422,7 +6425,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>2.2</v>
@@ -6499,7 +6502,7 @@
         <v>45219.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
         <v>31</v>
@@ -6511,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>1.8</v>
@@ -6600,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>2.625</v>
@@ -6665,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6834789</v>
+        <v>6834786</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6677,73 +6680,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K70">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L70">
+        <v>3.1</v>
+      </c>
+      <c r="M70">
         <v>3.75</v>
       </c>
-      <c r="M70">
-        <v>5.5</v>
-      </c>
       <c r="N70">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="O70">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X70">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6754,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6834786</v>
+        <v>6834789</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6766,73 +6769,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
         <v>38</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L71">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N71">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="O71">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>1.8</v>
+      </c>
+      <c r="T71">
+        <v>2.75</v>
+      </c>
+      <c r="U71">
+        <v>1.825</v>
+      </c>
+      <c r="V71">
         <v>1.975</v>
       </c>
-      <c r="S71">
-        <v>1.825</v>
-      </c>
-      <c r="T71">
-        <v>2.25</v>
-      </c>
-      <c r="U71">
-        <v>1.875</v>
-      </c>
-      <c r="V71">
-        <v>1.925</v>
-      </c>
       <c r="W71">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB71">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6855,10 +6858,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>6</v>
@@ -6867,7 +6870,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <v>2.5</v>
@@ -6956,7 +6959,7 @@
         <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K73">
         <v>3</v>
@@ -7036,7 +7039,7 @@
         <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7045,7 +7048,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K74">
         <v>2</v>
@@ -7134,7 +7137,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75">
         <v>2.5</v>
@@ -7199,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6834795</v>
+        <v>6834791</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7211,10 +7214,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7223,64 +7226,64 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M76">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N76">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P76">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7288,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6834791</v>
+        <v>6834795</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7300,7 +7303,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
         <v>36</v>
@@ -7312,64 +7315,64 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K77">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N77">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O77">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7389,10 +7392,10 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -7401,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K78">
         <v>1.909</v>
@@ -7490,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K79">
         <v>2.625</v>
@@ -7567,10 +7570,10 @@
         <v>45233.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7579,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>1.727</v>
@@ -7668,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K81">
         <v>2.2</v>
@@ -7733,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6834800</v>
+        <v>6834798</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7745,76 +7748,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K82">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L82">
         <v>3.6</v>
       </c>
       <c r="M82">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N82">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O82">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P82">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q82">
+        <v>-0.75</v>
+      </c>
+      <c r="R82">
+        <v>1.85</v>
+      </c>
+      <c r="S82">
+        <v>1.95</v>
+      </c>
+      <c r="T82">
+        <v>2.25</v>
+      </c>
+      <c r="U82">
+        <v>1.875</v>
+      </c>
+      <c r="V82">
+        <v>1.925</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
+        <v>2.5</v>
+      </c>
+      <c r="Y82">
+        <v>-1</v>
+      </c>
+      <c r="Z82">
+        <v>-1</v>
+      </c>
+      <c r="AA82">
+        <v>0.95</v>
+      </c>
+      <c r="AB82">
         <v>-0.5</v>
       </c>
-      <c r="R82">
-        <v>1.975</v>
-      </c>
-      <c r="S82">
-        <v>1.825</v>
-      </c>
-      <c r="T82">
-        <v>2.75</v>
-      </c>
-      <c r="U82">
-        <v>1.9</v>
-      </c>
-      <c r="V82">
-        <v>1.9</v>
-      </c>
-      <c r="W82">
-        <v>-1</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
-      <c r="Y82">
-        <v>2.1</v>
-      </c>
-      <c r="Z82">
-        <v>-1</v>
-      </c>
-      <c r="AA82">
-        <v>0.825</v>
-      </c>
-      <c r="AB82">
-        <v>-1</v>
-      </c>
       <c r="AC82">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7834,7 +7837,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
         <v>41</v>
@@ -7846,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K83">
         <v>2.375</v>
@@ -7911,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6834798</v>
+        <v>6834800</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7923,13 +7926,13 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -7938,61 +7941,61 @@
         <v>46</v>
       </c>
       <c r="K84">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
         <v>3.6</v>
       </c>
       <c r="M84">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N84">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O84">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S84">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z84">
         <v>-1</v>
       </c>
       <c r="AA84">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8015,7 +8018,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8024,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K85">
         <v>1.25</v>
@@ -8101,7 +8104,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
         <v>39</v>
@@ -8113,7 +8116,7 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K86">
         <v>3.1</v>
@@ -8193,7 +8196,7 @@
         <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8202,7 +8205,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K87">
         <v>2.1</v>
@@ -8291,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88">
         <v>3.6</v>
@@ -8371,7 +8374,7 @@
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8380,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K89">
         <v>1.5</v>
@@ -8457,7 +8460,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
@@ -8469,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K90">
         <v>2.5</v>
@@ -8549,7 +8552,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8558,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K91">
         <v>2.25</v>
@@ -8623,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7481395</v>
+        <v>6834809</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8635,13 +8638,13 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -8650,61 +8653,61 @@
         <v>45</v>
       </c>
       <c r="K92">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L92">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M92">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N92">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="O92">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P92">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q92">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8712,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6834809</v>
+        <v>7481395</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,73 +8730,73 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L93">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M93">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N93">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="O93">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P93">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q93">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R93">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
         <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8801,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6834812</v>
+        <v>6834810</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8813,76 +8816,76 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>46</v>
       </c>
       <c r="K94">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L94">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O94">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P94">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC94">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8890,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6834810</v>
+        <v>6834812</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8902,76 +8905,76 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L95">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N95">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P95">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y95">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB95">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9003,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>2.375</v>
@@ -9080,7 +9083,7 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
         <v>31</v>
@@ -9092,7 +9095,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97">
         <v>1.727</v>
@@ -9172,7 +9175,7 @@
         <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9181,7 +9184,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K98">
         <v>1.8</v>
@@ -9258,10 +9261,10 @@
         <v>45255.36805555555</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9270,7 +9273,7 @@
         <v>3</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K99">
         <v>1.833</v>
@@ -9335,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6834819</v>
+        <v>6834818</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9347,76 +9350,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K100">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L100">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M100">
         <v>3</v>
       </c>
       <c r="N100">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W100">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9424,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6834818</v>
+        <v>6834819</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9436,76 +9439,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
         <v>45</v>
       </c>
       <c r="K101">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M101">
         <v>3</v>
       </c>
       <c r="N101">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O101">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P101">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9537,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K102">
         <v>4</v>
@@ -9617,7 +9620,7 @@
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9626,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K103">
         <v>1.285</v>
@@ -9715,7 +9718,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>1.8</v>
@@ -9792,10 +9795,10 @@
         <v>45261.39583333334</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9804,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K105">
         <v>1.8</v>
@@ -9881,7 +9884,7 @@
         <v>45262.35416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
         <v>35</v>
@@ -9893,7 +9896,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K106">
         <v>4</v>
@@ -9982,7 +9985,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K107">
         <v>2.4</v>
@@ -10059,7 +10062,7 @@
         <v>45263.36805555555</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10071,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K108">
         <v>3.3</v>
@@ -10148,7 +10151,7 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -10160,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K109">
         <v>2.1</v>
@@ -10249,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K110">
         <v>2.5</v>
@@ -10329,7 +10332,7 @@
         <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10338,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K111">
         <v>1.4</v>
@@ -10415,7 +10418,7 @@
         <v>45339.4375</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
         <v>42</v>
@@ -10427,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K112">
         <v>2</v>
@@ -10507,7 +10510,7 @@
         <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -10516,7 +10519,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K113">
         <v>2.15</v>
@@ -10596,7 +10599,7 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10605,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>1.727</v>
@@ -10685,7 +10688,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10694,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K115">
         <v>1.571</v>
@@ -10771,7 +10774,7 @@
         <v>45345.45138888889</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
         <v>39</v>
@@ -10783,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K116">
         <v>3</v>
@@ -10872,7 +10875,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K117">
         <v>1.75</v>
@@ -10961,7 +10964,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K118">
         <v>3.2</v>
@@ -11038,10 +11041,10 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11050,7 +11053,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K119">
         <v>1.85</v>
@@ -11139,7 +11142,7 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K120">
         <v>2.75</v>
@@ -11216,10 +11219,10 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11228,7 +11231,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K121">
         <v>1.615</v>
@@ -11317,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K122">
         <v>1.5</v>
@@ -11397,7 +11400,7 @@
         <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11406,7 +11409,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K123">
         <v>1.363</v>
@@ -11486,7 +11489,7 @@
         <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11495,7 +11498,7 @@
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K124">
         <v>2.25</v>
@@ -11572,10 +11575,10 @@
         <v>45354.36805555555</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11584,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K125">
         <v>3</v>
@@ -11673,7 +11676,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K126">
         <v>1.5</v>
@@ -11750,7 +11753,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
         <v>41</v>
@@ -11762,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K127">
         <v>2.5</v>
@@ -11839,10 +11842,10 @@
         <v>45359.45138888889</v>
       </c>
       <c r="F128" t="s">
+        <v>36</v>
+      </c>
+      <c r="G128" t="s">
         <v>37</v>
-      </c>
-      <c r="G128" t="s">
-        <v>38</v>
       </c>
       <c r="H128">
         <v>4</v>
@@ -11851,7 +11854,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K128">
         <v>1.8</v>
@@ -11940,7 +11943,7 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K129">
         <v>1.4</v>
@@ -12020,7 +12023,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12029,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K130">
         <v>1.727</v>
@@ -12094,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6834846</v>
+        <v>6834845</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12106,46 +12109,46 @@
         <v>45360.47916666666</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K131">
-        <v>1.75</v>
+        <v>3.75</v>
       </c>
       <c r="L131">
         <v>3.5</v>
       </c>
       <c r="M131">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N131">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="O131">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R131">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T131">
         <v>2.25</v>
@@ -12163,13 +12166,13 @@
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>2.6</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB131">
         <v>0.8999999999999999</v>
@@ -12183,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6834845</v>
+        <v>6834846</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12195,46 +12198,46 @@
         <v>45360.47916666666</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K132">
-        <v>3.75</v>
+        <v>1.75</v>
       </c>
       <c r="L132">
         <v>3.5</v>
       </c>
       <c r="M132">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="N132">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="O132">
+        <v>3</v>
+      </c>
+      <c r="P132">
         <v>3.6</v>
       </c>
-      <c r="P132">
-        <v>1.65</v>
-      </c>
       <c r="Q132">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
         <v>2.25</v>
@@ -12252,13 +12255,13 @@
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.6499999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB132">
         <v>0.8999999999999999</v>
@@ -12284,7 +12287,7 @@
         <v>45361.35416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
         <v>39</v>
@@ -12296,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K133">
         <v>3.25</v>
@@ -12354,6 +12357,451 @@
       </c>
       <c r="AC133">
         <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>6834849</v>
+      </c>
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45366.45138888889</v>
+      </c>
+      <c r="F134" t="s">
+        <v>37</v>
+      </c>
+      <c r="G134" t="s">
+        <v>42</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>45</v>
+      </c>
+      <c r="K134">
+        <v>2.25</v>
+      </c>
+      <c r="L134">
+        <v>3.25</v>
+      </c>
+      <c r="M134">
+        <v>2.75</v>
+      </c>
+      <c r="N134">
+        <v>1.75</v>
+      </c>
+      <c r="O134">
+        <v>3.75</v>
+      </c>
+      <c r="P134">
+        <v>3.8</v>
+      </c>
+      <c r="Q134">
+        <v>-0.75</v>
+      </c>
+      <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
+        <v>1.75</v>
+      </c>
+      <c r="T134">
+        <v>2.25</v>
+      </c>
+      <c r="U134">
+        <v>1.75</v>
+      </c>
+      <c r="V134">
+        <v>1.95</v>
+      </c>
+      <c r="W134">
+        <v>0.75</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
+        <v>-1</v>
+      </c>
+      <c r="Z134">
+        <v>0.475</v>
+      </c>
+      <c r="AA134">
+        <v>-0.5</v>
+      </c>
+      <c r="AB134">
+        <v>0.75</v>
+      </c>
+      <c r="AC134">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>7960654</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45367.36805555555</v>
+      </c>
+      <c r="F135" t="s">
+        <v>43</v>
+      </c>
+      <c r="G135" t="s">
+        <v>41</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>46</v>
+      </c>
+      <c r="K135">
+        <v>1.333</v>
+      </c>
+      <c r="L135">
+        <v>4.5</v>
+      </c>
+      <c r="M135">
+        <v>7</v>
+      </c>
+      <c r="N135">
+        <v>1.333</v>
+      </c>
+      <c r="O135">
+        <v>4.2</v>
+      </c>
+      <c r="P135">
+        <v>8.5</v>
+      </c>
+      <c r="Q135">
+        <v>-1.5</v>
+      </c>
+      <c r="R135">
+        <v>1.95</v>
+      </c>
+      <c r="S135">
+        <v>1.75</v>
+      </c>
+      <c r="T135">
+        <v>2.5</v>
+      </c>
+      <c r="U135">
+        <v>1.875</v>
+      </c>
+      <c r="V135">
+        <v>1.925</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
+        <v>7.5</v>
+      </c>
+      <c r="Z135">
+        <v>-1</v>
+      </c>
+      <c r="AA135">
+        <v>0.75</v>
+      </c>
+      <c r="AB135">
+        <v>-1</v>
+      </c>
+      <c r="AC135">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>6834852</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45367.47916666666</v>
+      </c>
+      <c r="F136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G136" t="s">
+        <v>29</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>45</v>
+      </c>
+      <c r="K136">
+        <v>1.333</v>
+      </c>
+      <c r="L136">
+        <v>4.5</v>
+      </c>
+      <c r="M136">
+        <v>7</v>
+      </c>
+      <c r="N136">
+        <v>1.142</v>
+      </c>
+      <c r="O136">
+        <v>6</v>
+      </c>
+      <c r="P136">
+        <v>17</v>
+      </c>
+      <c r="Q136">
+        <v>-2</v>
+      </c>
+      <c r="R136">
+        <v>1.95</v>
+      </c>
+      <c r="S136">
+        <v>1.85</v>
+      </c>
+      <c r="T136">
+        <v>2.75</v>
+      </c>
+      <c r="U136">
+        <v>1.825</v>
+      </c>
+      <c r="V136">
+        <v>1.975</v>
+      </c>
+      <c r="W136">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>-0</v>
+      </c>
+      <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
+        <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>6834848</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45367.47916666666</v>
+      </c>
+      <c r="F137" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" t="s">
+        <v>36</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>45</v>
+      </c>
+      <c r="K137">
+        <v>2.2</v>
+      </c>
+      <c r="L137">
+        <v>3.2</v>
+      </c>
+      <c r="M137">
+        <v>2.875</v>
+      </c>
+      <c r="N137">
+        <v>2.45</v>
+      </c>
+      <c r="O137">
+        <v>3.1</v>
+      </c>
+      <c r="P137">
+        <v>2.55</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>1.85</v>
+      </c>
+      <c r="S137">
+        <v>1.95</v>
+      </c>
+      <c r="T137">
+        <v>2.25</v>
+      </c>
+      <c r="U137">
+        <v>1.975</v>
+      </c>
+      <c r="V137">
+        <v>1.725</v>
+      </c>
+      <c r="W137">
+        <v>1.45</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA137">
+        <v>-1</v>
+      </c>
+      <c r="AB137">
+        <v>-0.5</v>
+      </c>
+      <c r="AC137">
+        <v>0.3625</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>6834850</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45367.47916666666</v>
+      </c>
+      <c r="F138" t="s">
+        <v>33</v>
+      </c>
+      <c r="G138" t="s">
+        <v>32</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>47</v>
+      </c>
+      <c r="K138">
+        <v>2.25</v>
+      </c>
+      <c r="L138">
+        <v>3.25</v>
+      </c>
+      <c r="M138">
+        <v>2.75</v>
+      </c>
+      <c r="N138">
+        <v>1.95</v>
+      </c>
+      <c r="O138">
+        <v>3.4</v>
+      </c>
+      <c r="P138">
+        <v>3.2</v>
+      </c>
+      <c r="Q138">
+        <v>-0.25</v>
+      </c>
+      <c r="R138">
+        <v>1.75</v>
+      </c>
+      <c r="S138">
+        <v>1.95</v>
+      </c>
+      <c r="T138">
+        <v>2.25</v>
+      </c>
+      <c r="U138">
+        <v>1.85</v>
+      </c>
+      <c r="V138">
+        <v>1.95</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
+        <v>2.4</v>
+      </c>
+      <c r="Y138">
+        <v>-1</v>
+      </c>
+      <c r="Z138">
+        <v>-0.5</v>
+      </c>
+      <c r="AA138">
+        <v>0.475</v>
+      </c>
+      <c r="AB138">
+        <v>-0.5</v>
+      </c>
+      <c r="AC138">
+        <v>0.475</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -112,25 +112,25 @@
     <t>Bijelo Brdo</t>
   </si>
   <si>
-    <t>NK Croatia Zmijavci</t>
+    <t>NK Kustosija</t>
   </si>
   <si>
     <t>Orijent</t>
   </si>
   <si>
-    <t>NK Kustosija</t>
+    <t>NK Croatia Zmijavci</t>
   </si>
   <si>
     <t>HNK Sibenik</t>
-  </si>
-  <si>
-    <t>NK Sesvete</t>
   </si>
   <si>
     <t>HNK Cibalia</t>
   </si>
   <si>
     <t>NK Solin</t>
+  </si>
+  <si>
+    <t>NK Sesvete</t>
   </si>
   <si>
     <t>NK Zrinski Jurjevac</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC138"/>
+  <dimension ref="A1:AC145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6425847</v>
+        <v>6425845</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,16 +898,16 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
         <v>2.1</v>
@@ -919,25 +919,25 @@
         <v>2.875</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O5">
         <v>3.5</v>
       </c>
       <c r="P5">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S5">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
         <v>2</v>
@@ -946,25 +946,25 @@
         <v>1.8</v>
       </c>
       <c r="W5">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB5">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6425845</v>
+        <v>6425847</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,16 +1076,16 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>2.1</v>
@@ -1097,25 +1097,25 @@
         <v>2.875</v>
       </c>
       <c r="N7">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
         <v>3.5</v>
       </c>
       <c r="P7">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
         <v>2</v>
@@ -1124,25 +1124,25 @@
         <v>1.8</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7045999</v>
+        <v>6834732</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1251,76 +1251,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="N9">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="O9">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
+        <v>2.025</v>
+      </c>
+      <c r="S9">
         <v>1.775</v>
       </c>
-      <c r="S9">
-        <v>2.025</v>
-      </c>
       <c r="T9">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y9">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>1.025</v>
+        <v>0.3875</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC9">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1340,10 +1340,10 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6834732</v>
+        <v>7045999</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,76 +1518,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L12">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P12">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R12">
+        <v>1.775</v>
+      </c>
+      <c r="S12">
         <v>2.025</v>
       </c>
-      <c r="S12">
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
         <v>1.775</v>
       </c>
-      <c r="T12">
-        <v>2.25</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6834735</v>
+        <v>6834738</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,76 +1785,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L15">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V15">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC15">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6834734</v>
+        <v>6834735</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,10 +1874,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1889,61 +1889,61 @@
         <v>47</v>
       </c>
       <c r="K16">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L16">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N16">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O16">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB16">
         <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6834738</v>
+        <v>6834734</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,76 +1963,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L17">
         <v>3.2</v>
       </c>
       <c r="M17">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="N17">
+        <v>2.2</v>
+      </c>
+      <c r="O17">
         <v>3.2</v>
       </c>
-      <c r="O17">
-        <v>3.3</v>
-      </c>
       <c r="P17">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y17">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB17">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,10 +2052,10 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6834744</v>
+        <v>6834743</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45164.5</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L21">
+        <v>3.3</v>
+      </c>
+      <c r="M21">
+        <v>2.1</v>
+      </c>
+      <c r="N21">
+        <v>1.95</v>
+      </c>
+      <c r="O21">
         <v>3.4</v>
       </c>
-      <c r="M21">
-        <v>4</v>
-      </c>
-      <c r="N21">
-        <v>1.666</v>
-      </c>
-      <c r="O21">
-        <v>3.6</v>
-      </c>
       <c r="P21">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q21">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R21">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S21">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T21">
         <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W21">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6834743</v>
+        <v>6834744</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>45164.5</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N23">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O23">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2675,7 +2675,7 @@
         <v>45166.5</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6834749</v>
+        <v>6834748</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,34 +2853,34 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>45</v>
       </c>
       <c r="K27">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L27">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M27">
+        <v>3.5</v>
+      </c>
+      <c r="N27">
+        <v>1.909</v>
+      </c>
+      <c r="O27">
         <v>3.25</v>
-      </c>
-      <c r="N27">
-        <v>1.95</v>
-      </c>
-      <c r="O27">
-        <v>3.2</v>
       </c>
       <c r="P27">
         <v>3.5</v>
@@ -2889,22 +2889,22 @@
         <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2913,16 +2913,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6834748</v>
+        <v>6834749</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,34 +2942,34 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
         <v>36</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L28">
+        <v>3.1</v>
+      </c>
+      <c r="M28">
         <v>3.25</v>
       </c>
-      <c r="M28">
-        <v>3.5</v>
-      </c>
       <c r="N28">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O28">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
         <v>3.5</v>
@@ -2978,22 +2978,22 @@
         <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
-        <v>0.909</v>
+        <v>0.95</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3002,16 +3002,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6834746</v>
+        <v>6834750</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,76 +3031,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L29">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>2.1</v>
+      </c>
+      <c r="O29">
         <v>3.3</v>
       </c>
-      <c r="N29">
-        <v>2.05</v>
-      </c>
-      <c r="O29">
-        <v>3.1</v>
-      </c>
       <c r="P29">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q29">
         <v>-0.25</v>
       </c>
       <c r="R29">
+        <v>1.875</v>
+      </c>
+      <c r="S29">
+        <v>1.925</v>
+      </c>
+      <c r="T29">
+        <v>2.5</v>
+      </c>
+      <c r="U29">
         <v>1.825</v>
       </c>
-      <c r="S29">
+      <c r="V29">
         <v>1.975</v>
       </c>
-      <c r="T29">
-        <v>2.25</v>
-      </c>
-      <c r="U29">
-        <v>1.925</v>
-      </c>
-      <c r="V29">
-        <v>1.875</v>
-      </c>
       <c r="W29">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X29">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA29">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC29">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6834750</v>
+        <v>6834746</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L30">
+        <v>3.2</v>
+      </c>
+      <c r="M30">
         <v>3.3</v>
       </c>
-      <c r="M30">
-        <v>3</v>
-      </c>
       <c r="N30">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q30">
         <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>1.825</v>
+      </c>
+      <c r="S30">
+        <v>1.975</v>
+      </c>
+      <c r="T30">
+        <v>2.25</v>
+      </c>
+      <c r="U30">
+        <v>1.925</v>
+      </c>
+      <c r="V30">
         <v>1.875</v>
       </c>
-      <c r="S30">
-        <v>1.925</v>
-      </c>
-      <c r="T30">
-        <v>2.5</v>
-      </c>
-      <c r="U30">
-        <v>1.825</v>
-      </c>
-      <c r="V30">
-        <v>1.975</v>
-      </c>
       <c r="W30">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
+        <v>-0.5</v>
+      </c>
+      <c r="AA30">
+        <v>0.4875</v>
+      </c>
+      <c r="AB30">
+        <v>-1</v>
+      </c>
+      <c r="AC30">
         <v>0.875</v>
-      </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
-      <c r="AB30">
-        <v>0.825</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>45177.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6834753</v>
+        <v>6834752</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,58 +3387,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>45</v>
       </c>
       <c r="K33">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L33">
         <v>3.4</v>
       </c>
       <c r="M33">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N33">
+        <v>1.833</v>
+      </c>
+      <c r="O33">
+        <v>3.4</v>
+      </c>
+      <c r="P33">
         <v>4</v>
       </c>
-      <c r="O33">
-        <v>3.3</v>
-      </c>
-      <c r="P33">
-        <v>1.833</v>
-      </c>
       <c r="Q33">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S33">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V33">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>3</v>
+        <v>0.833</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3447,16 +3447,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6834752</v>
+        <v>6834753</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,58 +3476,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
         <v>45</v>
       </c>
       <c r="K34">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L34">
         <v>3.4</v>
       </c>
       <c r="M34">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>3.3</v>
+      </c>
+      <c r="P34">
         <v>1.833</v>
       </c>
-      <c r="O34">
-        <v>3.4</v>
-      </c>
-      <c r="P34">
-        <v>4</v>
-      </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
+        <v>1.975</v>
+      </c>
+      <c r="S34">
+        <v>1.825</v>
+      </c>
+      <c r="T34">
+        <v>2.5</v>
+      </c>
+      <c r="U34">
+        <v>1.95</v>
+      </c>
+      <c r="V34">
         <v>1.85</v>
       </c>
-      <c r="S34">
-        <v>1.95</v>
-      </c>
-      <c r="T34">
-        <v>2.25</v>
-      </c>
-      <c r="U34">
-        <v>1.8</v>
-      </c>
-      <c r="V34">
-        <v>2</v>
-      </c>
       <c r="W34">
-        <v>0.833</v>
+        <v>3</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3536,16 +3536,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3654,10 +3654,10 @@
         <v>45179.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
         <v>37</v>
-      </c>
-      <c r="G36" t="s">
-        <v>38</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3743,7 +3743,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -4013,7 +4013,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6834757</v>
+        <v>6834760</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K41">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N41">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P41">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6834760</v>
+        <v>6834757</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N42">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O42">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q42">
+        <v>-0.25</v>
+      </c>
+      <c r="R42">
+        <v>1.925</v>
+      </c>
+      <c r="S42">
+        <v>1.875</v>
+      </c>
+      <c r="T42">
+        <v>2.25</v>
+      </c>
+      <c r="U42">
+        <v>1.875</v>
+      </c>
+      <c r="V42">
+        <v>1.925</v>
+      </c>
+      <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
+        <v>2</v>
+      </c>
+      <c r="Y42">
+        <v>-1</v>
+      </c>
+      <c r="Z42">
         <v>-0.5</v>
       </c>
-      <c r="R42">
-        <v>2</v>
-      </c>
-      <c r="S42">
-        <v>1.8</v>
-      </c>
-      <c r="T42">
-        <v>2.5</v>
-      </c>
-      <c r="U42">
-        <v>1.8</v>
-      </c>
-      <c r="V42">
-        <v>2</v>
-      </c>
-      <c r="W42">
-        <v>-1</v>
-      </c>
-      <c r="X42">
-        <v>-1</v>
-      </c>
-      <c r="Y42">
-        <v>2.5</v>
-      </c>
-      <c r="Z42">
-        <v>-1</v>
-      </c>
       <c r="AA42">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4280,7 +4280,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4369,7 +4369,7 @@
         <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4455,7 +4455,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6834764</v>
+        <v>6834763</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,76 +4544,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>3.3</v>
+      </c>
+      <c r="M46">
+        <v>3.2</v>
+      </c>
+      <c r="N46">
+        <v>2.15</v>
+      </c>
+      <c r="O46">
+        <v>3.3</v>
+      </c>
+      <c r="P46">
+        <v>3.1</v>
+      </c>
+      <c r="Q46">
+        <v>-0.25</v>
+      </c>
+      <c r="R46">
+        <v>1.85</v>
+      </c>
+      <c r="S46">
         <v>1.95</v>
       </c>
-      <c r="L46">
-        <v>3.2</v>
-      </c>
-      <c r="M46">
-        <v>3.5</v>
-      </c>
-      <c r="N46">
-        <v>1.95</v>
-      </c>
-      <c r="O46">
-        <v>3</v>
-      </c>
-      <c r="P46">
-        <v>3.75</v>
-      </c>
-      <c r="Q46">
-        <v>-0.5</v>
-      </c>
-      <c r="R46">
-        <v>2.025</v>
-      </c>
-      <c r="S46">
-        <v>1.775</v>
-      </c>
       <c r="T46">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6834763</v>
+        <v>6834764</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N47">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P47">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4722,7 +4722,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4903,7 +4903,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4992,7 +4992,7 @@
         <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6834769</v>
+        <v>6834770</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,61 +5078,61 @@
         <v>45199.4375</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G52" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>47</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L52">
+        <v>3.4</v>
+      </c>
+      <c r="M52">
         <v>3.6</v>
-      </c>
-      <c r="M52">
-        <v>3.8</v>
       </c>
       <c r="N52">
         <v>1.909</v>
       </c>
       <c r="O52">
+        <v>3.4</v>
+      </c>
+      <c r="P52">
         <v>3.5</v>
-      </c>
-      <c r="P52">
-        <v>3.2</v>
       </c>
       <c r="Q52">
         <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V52">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y52">
         <v>-1</v>
@@ -5141,13 +5141,13 @@
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB52">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6834770</v>
+        <v>6834769</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,61 +5167,61 @@
         <v>45199.4375</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
         <v>47</v>
       </c>
       <c r="K53">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N53">
         <v>1.909</v>
       </c>
       <c r="O53">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q53">
         <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S53">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T53">
         <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5230,13 +5230,13 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5434,7 +5434,7 @@
         <v>45205.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5612,7 +5612,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G58" t="s">
         <v>31</v>
@@ -5790,7 +5790,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5882,7 +5882,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6060,7 +6060,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H63">
         <v>4</v>
@@ -6146,10 +6146,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6235,7 +6235,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
         <v>29</v>
@@ -6502,7 +6502,7 @@
         <v>45219.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
         <v>31</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6834786</v>
+        <v>6834789</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,73 +6680,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
         <v>37</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L70">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N70">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="O70">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>1.8</v>
+      </c>
+      <c r="T70">
+        <v>2.75</v>
+      </c>
+      <c r="U70">
+        <v>1.825</v>
+      </c>
+      <c r="V70">
         <v>1.975</v>
       </c>
-      <c r="S70">
-        <v>1.825</v>
-      </c>
-      <c r="T70">
-        <v>2.25</v>
-      </c>
-      <c r="U70">
-        <v>1.875</v>
-      </c>
-      <c r="V70">
-        <v>1.925</v>
-      </c>
       <c r="W70">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6834789</v>
+        <v>6834786</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,73 +6769,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K71">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L71">
+        <v>3.1</v>
+      </c>
+      <c r="M71">
         <v>3.75</v>
       </c>
-      <c r="M71">
-        <v>5.5</v>
-      </c>
       <c r="N71">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="O71">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X71">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6858,7 +6858,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6834791</v>
+        <v>6834795</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,7 +7214,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
         <v>38</v>
@@ -7229,61 +7229,61 @@
         <v>47</v>
       </c>
       <c r="K76">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L76">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N76">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O76">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6834795</v>
+        <v>6834791</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,10 +7303,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7318,61 +7318,61 @@
         <v>47</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M77">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N77">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P77">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7392,10 +7392,10 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -7570,10 +7570,10 @@
         <v>45233.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7837,7 +7837,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>41</v>
@@ -8018,7 +8018,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
         <v>39</v>
@@ -8196,7 +8196,7 @@
         <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6834803</v>
+        <v>6834805</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
         <v>0</v>
       </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K88">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M88">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N88">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="O88">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="Q88">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R88">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.3625</v>
+        <v>0.95</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6834805</v>
+        <v>6834803</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L89">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N89">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="O89">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P89">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R89">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z89">
-        <v>0.95</v>
+        <v>0.3625</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
@@ -8552,7 +8552,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6834809</v>
+        <v>7481395</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8641,73 +8641,73 @@
         <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L92">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M92">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N92">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P92">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R92">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7481395</v>
+        <v>6834809</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K93">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L93">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M93">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N93">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="O93">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P93">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q93">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S93">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
         <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6834810</v>
+        <v>6834812</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L94">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N94">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O94">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P94">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q94">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S94">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V94">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y94">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6834812</v>
+        <v>6834810</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K95">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L95">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N95">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O95">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S95">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9083,7 +9083,7 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
         <v>31</v>
@@ -9175,7 +9175,7 @@
         <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9261,10 +9261,10 @@
         <v>45255.36805555555</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6834818</v>
+        <v>6834819</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,76 +9350,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M100">
         <v>3</v>
       </c>
       <c r="N100">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O100">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6834819</v>
+        <v>6834818</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,76 +9439,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K101">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L101">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
         <v>3</v>
       </c>
       <c r="N101">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="O101">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P101">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W101">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z101">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9795,10 +9795,10 @@
         <v>45261.39583333334</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9884,7 +9884,7 @@
         <v>45262.35416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
         <v>35</v>
@@ -10151,7 +10151,7 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -10332,7 +10332,7 @@
         <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6834828</v>
+        <v>6834826</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,28 +10418,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>47</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
         <v>3.1</v>
-      </c>
-      <c r="M112">
-        <v>3.4</v>
       </c>
       <c r="N112">
         <v>2.25</v>
@@ -10448,7 +10448,7 @@
         <v>3</v>
       </c>
       <c r="P112">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q112">
         <v>-0.25</v>
@@ -10463,10 +10463,10 @@
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10484,10 +10484,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6834826</v>
+        <v>6834828</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,28 +10507,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>47</v>
       </c>
       <c r="K113">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M113">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
         <v>2.25</v>
@@ -10537,7 +10537,7 @@
         <v>3</v>
       </c>
       <c r="P113">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q113">
         <v>-0.25</v>
@@ -10552,10 +10552,10 @@
         <v>2.25</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,10 +10573,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10599,7 +10599,7 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10688,7 +10688,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10774,7 +10774,7 @@
         <v>45345.45138888889</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
         <v>39</v>
@@ -11041,7 +11041,7 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
         <v>33</v>
@@ -11219,10 +11219,10 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11400,7 +11400,7 @@
         <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11489,7 +11489,7 @@
         <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11578,7 +11578,7 @@
         <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11753,7 +11753,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G127" t="s">
         <v>41</v>
@@ -11842,10 +11842,10 @@
         <v>45359.45138888889</v>
       </c>
       <c r="F128" t="s">
+        <v>38</v>
+      </c>
+      <c r="G128" t="s">
         <v>36</v>
-      </c>
-      <c r="G128" t="s">
-        <v>37</v>
       </c>
       <c r="H128">
         <v>4</v>
@@ -12023,7 +12023,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12287,7 +12287,7 @@
         <v>45361.35416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
         <v>39</v>
@@ -12376,7 +12376,7 @@
         <v>45366.45138888889</v>
       </c>
       <c r="F134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
         <v>42</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6834848</v>
+        <v>6834850</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,43 +12643,43 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L137">
+        <v>3.25</v>
+      </c>
+      <c r="M137">
+        <v>2.75</v>
+      </c>
+      <c r="N137">
+        <v>1.95</v>
+      </c>
+      <c r="O137">
+        <v>3.4</v>
+      </c>
+      <c r="P137">
         <v>3.2</v>
       </c>
-      <c r="M137">
-        <v>2.875</v>
-      </c>
-      <c r="N137">
-        <v>2.45</v>
-      </c>
-      <c r="O137">
-        <v>3.1</v>
-      </c>
-      <c r="P137">
-        <v>2.55</v>
-      </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
         <v>1.95</v>
@@ -12688,31 +12688,31 @@
         <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB137">
         <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>0.3625</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6834850</v>
+        <v>6834848</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,43 +12732,43 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K138">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L138">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N138">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
         <v>1.95</v>
@@ -12777,31 +12777,654 @@
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X138">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA138">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-0.5</v>
       </c>
       <c r="AC138">
-        <v>0.475</v>
+        <v>0.3625</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>6834853</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45368.36805555555</v>
+      </c>
+      <c r="F139" t="s">
+        <v>37</v>
+      </c>
+      <c r="G139" t="s">
+        <v>40</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>47</v>
+      </c>
+      <c r="K139">
+        <v>3.25</v>
+      </c>
+      <c r="L139">
+        <v>3.25</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139">
+        <v>3.1</v>
+      </c>
+      <c r="P139">
+        <v>2.15</v>
+      </c>
+      <c r="Q139">
+        <v>0.25</v>
+      </c>
+      <c r="R139">
+        <v>1.85</v>
+      </c>
+      <c r="S139">
+        <v>1.95</v>
+      </c>
+      <c r="T139">
+        <v>2.25</v>
+      </c>
+      <c r="U139">
+        <v>1.9</v>
+      </c>
+      <c r="V139">
+        <v>1.9</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>2.1</v>
+      </c>
+      <c r="Y139">
+        <v>-1</v>
+      </c>
+      <c r="Z139">
+        <v>0.425</v>
+      </c>
+      <c r="AA139">
+        <v>-0.5</v>
+      </c>
+      <c r="AB139">
+        <v>-0.5</v>
+      </c>
+      <c r="AC139">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>7977235</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45373.47916666666</v>
+      </c>
+      <c r="F140" t="s">
+        <v>38</v>
+      </c>
+      <c r="G140" t="s">
+        <v>33</v>
+      </c>
+      <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140" t="s">
+        <v>47</v>
+      </c>
+      <c r="K140">
+        <v>1.8</v>
+      </c>
+      <c r="L140">
+        <v>3.25</v>
+      </c>
+      <c r="M140">
+        <v>4</v>
+      </c>
+      <c r="N140">
+        <v>1.8</v>
+      </c>
+      <c r="O140">
+        <v>3.2</v>
+      </c>
+      <c r="P140">
+        <v>4.2</v>
+      </c>
+      <c r="Q140">
+        <v>-0.5</v>
+      </c>
+      <c r="R140">
+        <v>1.825</v>
+      </c>
+      <c r="S140">
+        <v>1.975</v>
+      </c>
+      <c r="T140">
+        <v>2.25</v>
+      </c>
+      <c r="U140">
+        <v>1.875</v>
+      </c>
+      <c r="V140">
+        <v>1.925</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>2.2</v>
+      </c>
+      <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB140">
+        <v>0.875</v>
+      </c>
+      <c r="AC140">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>7977236</v>
+      </c>
+      <c r="C141" t="s">
+        <v>28</v>
+      </c>
+      <c r="D141" t="s">
+        <v>28</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45374.39583333334</v>
+      </c>
+      <c r="F141" t="s">
+        <v>43</v>
+      </c>
+      <c r="G141" t="s">
+        <v>41</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141" t="s">
+        <v>45</v>
+      </c>
+      <c r="K141">
+        <v>1.333</v>
+      </c>
+      <c r="L141">
+        <v>4.75</v>
+      </c>
+      <c r="M141">
+        <v>6.5</v>
+      </c>
+      <c r="N141">
+        <v>1.444</v>
+      </c>
+      <c r="O141">
+        <v>4.333</v>
+      </c>
+      <c r="P141">
+        <v>6</v>
+      </c>
+      <c r="Q141">
+        <v>-1.25</v>
+      </c>
+      <c r="R141">
+        <v>2.05</v>
+      </c>
+      <c r="S141">
+        <v>1.75</v>
+      </c>
+      <c r="T141">
+        <v>2.25</v>
+      </c>
+      <c r="U141">
+        <v>1.875</v>
+      </c>
+      <c r="V141">
+        <v>1.925</v>
+      </c>
+      <c r="W141">
+        <v>0.444</v>
+      </c>
+      <c r="X141">
+        <v>-1</v>
+      </c>
+      <c r="Y141">
+        <v>-1</v>
+      </c>
+      <c r="Z141">
+        <v>1.05</v>
+      </c>
+      <c r="AA141">
+        <v>-1</v>
+      </c>
+      <c r="AB141">
+        <v>-0.5</v>
+      </c>
+      <c r="AC141">
+        <v>0.4625</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>7977239</v>
+      </c>
+      <c r="C142" t="s">
+        <v>28</v>
+      </c>
+      <c r="D142" t="s">
+        <v>28</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45374.47916666666</v>
+      </c>
+      <c r="F142" t="s">
+        <v>42</v>
+      </c>
+      <c r="G142" t="s">
+        <v>37</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142" t="s">
+        <v>47</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>3.2</v>
+      </c>
+      <c r="M142">
+        <v>3.3</v>
+      </c>
+      <c r="N142">
+        <v>2.3</v>
+      </c>
+      <c r="O142">
+        <v>3.2</v>
+      </c>
+      <c r="P142">
+        <v>2.7</v>
+      </c>
+      <c r="Q142">
+        <v>-0.25</v>
+      </c>
+      <c r="R142">
+        <v>1.975</v>
+      </c>
+      <c r="S142">
+        <v>1.725</v>
+      </c>
+      <c r="T142">
+        <v>2.25</v>
+      </c>
+      <c r="U142">
+        <v>1.9</v>
+      </c>
+      <c r="V142">
+        <v>1.9</v>
+      </c>
+      <c r="W142">
+        <v>-1</v>
+      </c>
+      <c r="X142">
+        <v>2.2</v>
+      </c>
+      <c r="Y142">
+        <v>-1</v>
+      </c>
+      <c r="Z142">
+        <v>-0.5</v>
+      </c>
+      <c r="AA142">
+        <v>0.3625</v>
+      </c>
+      <c r="AB142">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC142">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>7977237</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143" t="s">
+        <v>28</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45374.47916666666</v>
+      </c>
+      <c r="F143" t="s">
+        <v>40</v>
+      </c>
+      <c r="G143" t="s">
+        <v>34</v>
+      </c>
+      <c r="H143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143" t="s">
+        <v>45</v>
+      </c>
+      <c r="K143">
+        <v>1.571</v>
+      </c>
+      <c r="L143">
+        <v>3.6</v>
+      </c>
+      <c r="M143">
+        <v>5</v>
+      </c>
+      <c r="N143">
+        <v>1.333</v>
+      </c>
+      <c r="O143">
+        <v>4</v>
+      </c>
+      <c r="P143">
+        <v>8.5</v>
+      </c>
+      <c r="Q143">
+        <v>-1</v>
+      </c>
+      <c r="R143">
+        <v>1.7</v>
+      </c>
+      <c r="S143">
+        <v>2.1</v>
+      </c>
+      <c r="T143">
+        <v>2.5</v>
+      </c>
+      <c r="U143">
+        <v>1.95</v>
+      </c>
+      <c r="V143">
+        <v>1.85</v>
+      </c>
+      <c r="W143">
+        <v>0.333</v>
+      </c>
+      <c r="X143">
+        <v>-1</v>
+      </c>
+      <c r="Y143">
+        <v>-1</v>
+      </c>
+      <c r="Z143">
+        <v>0.7</v>
+      </c>
+      <c r="AA143">
+        <v>-1</v>
+      </c>
+      <c r="AB143">
+        <v>-1</v>
+      </c>
+      <c r="AC143">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>7977238</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144" t="s">
+        <v>28</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45374.47916666666</v>
+      </c>
+      <c r="F144" t="s">
+        <v>29</v>
+      </c>
+      <c r="G144" t="s">
+        <v>31</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>3</v>
+      </c>
+      <c r="J144" t="s">
+        <v>46</v>
+      </c>
+      <c r="K144">
+        <v>1.909</v>
+      </c>
+      <c r="L144">
+        <v>3.3</v>
+      </c>
+      <c r="M144">
+        <v>3.5</v>
+      </c>
+      <c r="N144">
+        <v>1.909</v>
+      </c>
+      <c r="O144">
+        <v>3.4</v>
+      </c>
+      <c r="P144">
+        <v>3.5</v>
+      </c>
+      <c r="Q144">
+        <v>-0.5</v>
+      </c>
+      <c r="R144">
+        <v>1.95</v>
+      </c>
+      <c r="S144">
+        <v>1.85</v>
+      </c>
+      <c r="T144">
+        <v>2.25</v>
+      </c>
+      <c r="U144">
+        <v>1.75</v>
+      </c>
+      <c r="V144">
+        <v>2.05</v>
+      </c>
+      <c r="W144">
+        <v>-1</v>
+      </c>
+      <c r="X144">
+        <v>-1</v>
+      </c>
+      <c r="Y144">
+        <v>2.5</v>
+      </c>
+      <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB144">
+        <v>0.75</v>
+      </c>
+      <c r="AC144">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>7977240</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45375.5</v>
+      </c>
+      <c r="F145" t="s">
+        <v>35</v>
+      </c>
+      <c r="G145" t="s">
+        <v>36</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145" t="s">
+        <v>45</v>
+      </c>
+      <c r="K145">
+        <v>1.333</v>
+      </c>
+      <c r="L145">
+        <v>4.75</v>
+      </c>
+      <c r="M145">
+        <v>6.5</v>
+      </c>
+      <c r="N145">
+        <v>1.166</v>
+      </c>
+      <c r="O145">
+        <v>6</v>
+      </c>
+      <c r="P145">
+        <v>12</v>
+      </c>
+      <c r="Q145">
+        <v>-2</v>
+      </c>
+      <c r="R145">
+        <v>2</v>
+      </c>
+      <c r="S145">
+        <v>1.8</v>
+      </c>
+      <c r="T145">
+        <v>2.75</v>
+      </c>
+      <c r="U145">
+        <v>1.825</v>
+      </c>
+      <c r="V145">
+        <v>1.975</v>
+      </c>
+      <c r="W145">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X145">
+        <v>-1</v>
+      </c>
+      <c r="Y145">
+        <v>-1</v>
+      </c>
+      <c r="Z145">
+        <v>-1</v>
+      </c>
+      <c r="AA145">
+        <v>0.8</v>
+      </c>
+      <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -115,22 +115,22 @@
     <t>NK Kustosija</t>
   </si>
   <si>
+    <t>NK Croatia Zmijavci</t>
+  </si>
+  <si>
     <t>Orijent</t>
   </si>
   <si>
-    <t>NK Croatia Zmijavci</t>
-  </si>
-  <si>
     <t>HNK Sibenik</t>
-  </si>
-  <si>
-    <t>HNK Cibalia</t>
   </si>
   <si>
     <t>NK Solin</t>
   </si>
   <si>
     <t>NK Sesvete</t>
+  </si>
+  <si>
+    <t>HNK Cibalia</t>
   </si>
   <si>
     <t>NK Zrinski Jurjevac</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC145"/>
+  <dimension ref="A1:AC148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6425846</v>
+        <v>6425847</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,37 +987,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N6">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="O6">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="Q6">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R6">
         <v>1.95</v>
@@ -1026,34 +1026,34 @@
         <v>1.85</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
         <v>1.8</v>
       </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X6">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6425847</v>
+        <v>6425846</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,37 +1076,37 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N7">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P7">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R7">
         <v>1.95</v>
@@ -1115,34 +1115,34 @@
         <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6834732</v>
+        <v>6834729</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1251,16 +1251,16 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
@@ -1275,37 +1275,37 @@
         <v>3.1</v>
       </c>
       <c r="N9">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P9">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q9">
         <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T9">
+        <v>2.5</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>1.8</v>
+      </c>
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
         <v>2.25</v>
-      </c>
-      <c r="U9">
-        <v>1.825</v>
-      </c>
-      <c r="V9">
-        <v>1.975</v>
-      </c>
-      <c r="W9">
-        <v>-1</v>
-      </c>
-      <c r="X9">
-        <v>2.1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
@@ -1314,13 +1314,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.3875</v>
+        <v>0.5</v>
       </c>
       <c r="AB9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6834733</v>
+        <v>7045999</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1340,76 +1340,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
-      <c r="I10">
+      <c r="J10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10">
+        <v>2.4</v>
+      </c>
+      <c r="L10">
+        <v>3.25</v>
+      </c>
+      <c r="M10">
+        <v>2.6</v>
+      </c>
+      <c r="N10">
+        <v>2.4</v>
+      </c>
+      <c r="O10">
+        <v>3.25</v>
+      </c>
+      <c r="P10">
+        <v>2.6</v>
+      </c>
+      <c r="Q10">
         <v>0</v>
       </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10">
-        <v>1.65</v>
-      </c>
-      <c r="L10">
-        <v>3.5</v>
-      </c>
-      <c r="M10">
-        <v>4.5</v>
-      </c>
-      <c r="N10">
-        <v>1.909</v>
-      </c>
-      <c r="O10">
-        <v>3.3</v>
-      </c>
-      <c r="P10">
-        <v>3.3</v>
-      </c>
-      <c r="Q10">
-        <v>-0.5</v>
-      </c>
       <c r="R10">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W10">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X10">
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6834729</v>
+        <v>6834732</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,16 +1429,16 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
@@ -1453,37 +1453,37 @@
         <v>3.1</v>
       </c>
       <c r="N11">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O11">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P11">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q11">
         <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1492,13 +1492,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC11">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7045999</v>
+        <v>6834733</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12">
+        <v>1.65</v>
+      </c>
+      <c r="L12">
+        <v>3.5</v>
+      </c>
+      <c r="M12">
+        <v>4.5</v>
+      </c>
+      <c r="N12">
+        <v>1.909</v>
+      </c>
+      <c r="O12">
+        <v>3.3</v>
+      </c>
+      <c r="P12">
+        <v>3.3</v>
+      </c>
+      <c r="Q12">
+        <v>-0.5</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1.8</v>
+      </c>
+      <c r="T12">
+        <v>2.25</v>
+      </c>
+      <c r="U12">
+        <v>1.95</v>
+      </c>
+      <c r="V12">
+        <v>1.85</v>
+      </c>
+      <c r="W12">
+        <v>0.909</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
         <v>1</v>
       </c>
-      <c r="J12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12">
-        <v>2.4</v>
-      </c>
-      <c r="L12">
-        <v>3.25</v>
-      </c>
-      <c r="M12">
-        <v>2.6</v>
-      </c>
-      <c r="N12">
-        <v>2.4</v>
-      </c>
-      <c r="O12">
-        <v>3.25</v>
-      </c>
-      <c r="P12">
-        <v>2.6</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>1.775</v>
-      </c>
-      <c r="S12">
-        <v>2.025</v>
-      </c>
-      <c r="T12">
-        <v>2</v>
-      </c>
-      <c r="U12">
-        <v>1.775</v>
-      </c>
-      <c r="V12">
-        <v>2.025</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>1.6</v>
-      </c>
-      <c r="Z12">
-        <v>-1</v>
-      </c>
       <c r="AA12">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6834738</v>
+        <v>6834734</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,76 +1785,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L15">
         <v>3.2</v>
       </c>
       <c r="M15">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="N15">
+        <v>2.2</v>
+      </c>
+      <c r="O15">
         <v>3.2</v>
       </c>
-      <c r="O15">
-        <v>3.3</v>
-      </c>
       <c r="P15">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y15">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB15">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6834735</v>
+        <v>6834738</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,76 +1874,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M16">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N16">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB16">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC16">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6834734</v>
+        <v>6834735</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,10 +1963,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1978,61 +1978,61 @@
         <v>47</v>
       </c>
       <c r="K17">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L17">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N17">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O17">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
         <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,10 +2052,10 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -2233,7 +2233,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6834743</v>
+        <v>6834742</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,76 +2319,76 @@
         <v>45164.5</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
+        <v>3.25</v>
+      </c>
+      <c r="M21">
         <v>3.3</v>
       </c>
-      <c r="M21">
-        <v>2.1</v>
-      </c>
       <c r="N21">
+        <v>2.15</v>
+      </c>
+      <c r="O21">
+        <v>3.1</v>
+      </c>
+      <c r="P21">
+        <v>3.1</v>
+      </c>
+      <c r="Q21">
+        <v>-0.25</v>
+      </c>
+      <c r="R21">
+        <v>1.9</v>
+      </c>
+      <c r="S21">
+        <v>1.9</v>
+      </c>
+      <c r="T21">
+        <v>2.25</v>
+      </c>
+      <c r="U21">
+        <v>1.75</v>
+      </c>
+      <c r="V21">
         <v>1.95</v>
       </c>
-      <c r="O21">
-        <v>3.4</v>
-      </c>
-      <c r="P21">
-        <v>3.3</v>
-      </c>
-      <c r="Q21">
-        <v>-0.5</v>
-      </c>
-      <c r="R21">
-        <v>2</v>
-      </c>
-      <c r="S21">
-        <v>1.8</v>
-      </c>
-      <c r="T21">
-        <v>2.5</v>
-      </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
-      <c r="V21">
-        <v>1.8</v>
-      </c>
       <c r="W21">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC21">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6834742</v>
+        <v>6834744</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,58 +2408,58 @@
         <v>45164.5</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H22">
         <v>3</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>45</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N22">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O22">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P22">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W22">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2468,13 +2468,13 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6834744</v>
+        <v>6834743</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>45164.5</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="L23">
+        <v>3.3</v>
+      </c>
+      <c r="M23">
+        <v>2.1</v>
+      </c>
+      <c r="N23">
+        <v>1.95</v>
+      </c>
+      <c r="O23">
         <v>3.4</v>
       </c>
-      <c r="M23">
-        <v>4</v>
-      </c>
-      <c r="N23">
-        <v>1.666</v>
-      </c>
-      <c r="O23">
-        <v>3.6</v>
-      </c>
       <c r="P23">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T23">
         <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W23">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z23">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2675,7 +2675,7 @@
         <v>45166.5</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6834748</v>
+        <v>6834746</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N27">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O27">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P27">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q27">
+        <v>-0.25</v>
+      </c>
+      <c r="R27">
+        <v>1.825</v>
+      </c>
+      <c r="S27">
+        <v>1.975</v>
+      </c>
+      <c r="T27">
+        <v>2.25</v>
+      </c>
+      <c r="U27">
+        <v>1.925</v>
+      </c>
+      <c r="V27">
+        <v>1.875</v>
+      </c>
+      <c r="W27">
+        <v>-1</v>
+      </c>
+      <c r="X27">
+        <v>2.1</v>
+      </c>
+      <c r="Y27">
+        <v>-1</v>
+      </c>
+      <c r="Z27">
         <v>-0.5</v>
       </c>
-      <c r="R27">
-        <v>1.975</v>
-      </c>
-      <c r="S27">
-        <v>1.825</v>
-      </c>
-      <c r="T27">
-        <v>2.5</v>
-      </c>
-      <c r="U27">
-        <v>1.9</v>
-      </c>
-      <c r="V27">
-        <v>1.9</v>
-      </c>
-      <c r="W27">
-        <v>0.909</v>
-      </c>
-      <c r="X27">
-        <v>-1</v>
-      </c>
-      <c r="Y27">
-        <v>-1</v>
-      </c>
-      <c r="Z27">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6834749</v>
+        <v>6834748</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,34 +2942,34 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>45</v>
       </c>
       <c r="K28">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="L28">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M28">
+        <v>3.5</v>
+      </c>
+      <c r="N28">
+        <v>1.909</v>
+      </c>
+      <c r="O28">
         <v>3.25</v>
-      </c>
-      <c r="N28">
-        <v>1.95</v>
-      </c>
-      <c r="O28">
-        <v>3.2</v>
       </c>
       <c r="P28">
         <v>3.5</v>
@@ -2978,22 +2978,22 @@
         <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
-        <v>0.95</v>
+        <v>0.909</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3002,16 +3002,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6834750</v>
+        <v>6834749</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,13 +3031,13 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -3046,43 +3046,43 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L29">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N29">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O29">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>1.8</v>
+      </c>
+      <c r="T29">
+        <v>2.25</v>
+      </c>
+      <c r="U29">
+        <v>1.925</v>
+      </c>
+      <c r="V29">
         <v>1.875</v>
       </c>
-      <c r="S29">
-        <v>1.925</v>
-      </c>
-      <c r="T29">
-        <v>2.5</v>
-      </c>
-      <c r="U29">
-        <v>1.825</v>
-      </c>
-      <c r="V29">
-        <v>1.975</v>
-      </c>
       <c r="W29">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3091,13 +3091,13 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6834746</v>
+        <v>6834750</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,76 +3120,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L30">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>2.1</v>
+      </c>
+      <c r="O30">
         <v>3.3</v>
       </c>
-      <c r="N30">
-        <v>2.05</v>
-      </c>
-      <c r="O30">
-        <v>3.1</v>
-      </c>
       <c r="P30">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q30">
         <v>-0.25</v>
       </c>
       <c r="R30">
+        <v>1.875</v>
+      </c>
+      <c r="S30">
+        <v>1.925</v>
+      </c>
+      <c r="T30">
+        <v>2.5</v>
+      </c>
+      <c r="U30">
         <v>1.825</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>1.975</v>
       </c>
-      <c r="T30">
-        <v>2.25</v>
-      </c>
-      <c r="U30">
-        <v>1.925</v>
-      </c>
-      <c r="V30">
-        <v>1.875</v>
-      </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X30">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA30">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC30">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>45177.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3476,7 +3476,7 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
         <v>35</v>
@@ -3654,10 +3654,10 @@
         <v>45179.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" t="s">
         <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>37</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3743,7 +3743,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3835,7 +3835,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6834760</v>
+        <v>6834757</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N41">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O41">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q41">
+        <v>-0.25</v>
+      </c>
+      <c r="R41">
+        <v>1.925</v>
+      </c>
+      <c r="S41">
+        <v>1.875</v>
+      </c>
+      <c r="T41">
+        <v>2.25</v>
+      </c>
+      <c r="U41">
+        <v>1.875</v>
+      </c>
+      <c r="V41">
+        <v>1.925</v>
+      </c>
+      <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
+        <v>2</v>
+      </c>
+      <c r="Y41">
+        <v>-1</v>
+      </c>
+      <c r="Z41">
         <v>-0.5</v>
       </c>
-      <c r="R41">
-        <v>2</v>
-      </c>
-      <c r="S41">
-        <v>1.8</v>
-      </c>
-      <c r="T41">
-        <v>2.5</v>
-      </c>
-      <c r="U41">
-        <v>1.8</v>
-      </c>
-      <c r="V41">
-        <v>2</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
-      <c r="X41">
-        <v>-1</v>
-      </c>
-      <c r="Y41">
-        <v>2.5</v>
-      </c>
-      <c r="Z41">
-        <v>-1</v>
-      </c>
       <c r="AA41">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6834757</v>
+        <v>6834760</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K42">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N42">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P42">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W42">
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4280,7 +4280,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4369,7 +4369,7 @@
         <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4455,7 +4455,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6834763</v>
+        <v>6834764</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,76 +4544,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L46">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N46">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O46">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6834764</v>
+        <v>6834763</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>3.3</v>
+      </c>
+      <c r="M47">
+        <v>3.2</v>
+      </c>
+      <c r="N47">
+        <v>2.15</v>
+      </c>
+      <c r="O47">
+        <v>3.3</v>
+      </c>
+      <c r="P47">
+        <v>3.1</v>
+      </c>
+      <c r="Q47">
+        <v>-0.25</v>
+      </c>
+      <c r="R47">
+        <v>1.85</v>
+      </c>
+      <c r="S47">
         <v>1.95</v>
       </c>
-      <c r="L47">
-        <v>3.2</v>
-      </c>
-      <c r="M47">
-        <v>3.5</v>
-      </c>
-      <c r="N47">
-        <v>1.95</v>
-      </c>
-      <c r="O47">
-        <v>3</v>
-      </c>
-      <c r="P47">
-        <v>3.75</v>
-      </c>
-      <c r="Q47">
-        <v>-0.5</v>
-      </c>
-      <c r="R47">
-        <v>2.025</v>
-      </c>
-      <c r="S47">
-        <v>1.775</v>
-      </c>
       <c r="T47">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4722,7 +4722,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4903,7 +4903,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4989,10 +4989,10 @@
         <v>45199.40972222222</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5078,10 +5078,10 @@
         <v>45199.4375</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5434,10 +5434,10 @@
         <v>45205.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6834774</v>
+        <v>6834775</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,40 +5612,40 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K58">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L58">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M58">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="N58">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P58">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q58">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
         <v>1.925</v>
@@ -5657,31 +5657,31 @@
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y58">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA58">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6834775</v>
+        <v>6834774</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,40 +5701,40 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L59">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M59">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="N59">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O59">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q59">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R59">
         <v>1.925</v>
@@ -5746,31 +5746,31 @@
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V59">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z59">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5882,7 +5882,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6060,7 +6060,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>4</v>
@@ -6146,10 +6146,10 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6235,7 +6235,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>29</v>
@@ -6413,7 +6413,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
         <v>42</v>
@@ -6502,7 +6502,7 @@
         <v>45219.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
         <v>31</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6834789</v>
+        <v>6834786</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,73 +6680,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K70">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L70">
+        <v>3.1</v>
+      </c>
+      <c r="M70">
         <v>3.75</v>
       </c>
-      <c r="M70">
-        <v>5.5</v>
-      </c>
       <c r="N70">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="O70">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q70">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T70">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X70">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6834786</v>
+        <v>6834789</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,73 +6769,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G71" t="s">
         <v>36</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L71">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N71">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="O71">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>1.8</v>
+      </c>
+      <c r="T71">
+        <v>2.75</v>
+      </c>
+      <c r="U71">
+        <v>1.825</v>
+      </c>
+      <c r="V71">
         <v>1.975</v>
       </c>
-      <c r="S71">
-        <v>1.825</v>
-      </c>
-      <c r="T71">
-        <v>2.25</v>
-      </c>
-      <c r="U71">
-        <v>1.875</v>
-      </c>
-      <c r="V71">
-        <v>1.925</v>
-      </c>
       <c r="W71">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB71">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6858,10 +6858,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F72" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" t="s">
         <v>34</v>
-      </c>
-      <c r="G72" t="s">
-        <v>33</v>
       </c>
       <c r="H72">
         <v>6</v>
@@ -7039,7 +7039,7 @@
         <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7217,7 +7217,7 @@
         <v>42</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7306,7 +7306,7 @@
         <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7392,10 +7392,10 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -7570,10 +7570,10 @@
         <v>45233.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6834798</v>
+        <v>6834799</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>45</v>
+      </c>
+      <c r="K82">
+        <v>2.375</v>
+      </c>
+      <c r="L82">
+        <v>3.3</v>
+      </c>
+      <c r="M82">
+        <v>2.6</v>
+      </c>
+      <c r="N82">
+        <v>2.3</v>
+      </c>
+      <c r="O82">
+        <v>3.6</v>
+      </c>
+      <c r="P82">
+        <v>2.8</v>
+      </c>
+      <c r="Q82">
+        <v>-0.25</v>
+      </c>
+      <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>1.8</v>
+      </c>
+      <c r="T82">
+        <v>2.5</v>
+      </c>
+      <c r="U82">
+        <v>1.95</v>
+      </c>
+      <c r="V82">
+        <v>1.85</v>
+      </c>
+      <c r="W82">
+        <v>1.3</v>
+      </c>
+      <c r="X82">
+        <v>-1</v>
+      </c>
+      <c r="Y82">
+        <v>-1</v>
+      </c>
+      <c r="Z82">
         <v>1</v>
       </c>
-      <c r="J82" t="s">
-        <v>47</v>
-      </c>
-      <c r="K82">
-        <v>1.571</v>
-      </c>
-      <c r="L82">
-        <v>3.6</v>
-      </c>
-      <c r="M82">
-        <v>5</v>
-      </c>
-      <c r="N82">
-        <v>1.615</v>
-      </c>
-      <c r="O82">
-        <v>3.5</v>
-      </c>
-      <c r="P82">
-        <v>4.75</v>
-      </c>
-      <c r="Q82">
-        <v>-0.75</v>
-      </c>
-      <c r="R82">
-        <v>1.85</v>
-      </c>
-      <c r="S82">
-        <v>1.95</v>
-      </c>
-      <c r="T82">
-        <v>2.25</v>
-      </c>
-      <c r="U82">
-        <v>1.875</v>
-      </c>
-      <c r="V82">
-        <v>1.925</v>
-      </c>
-      <c r="W82">
-        <v>-1</v>
-      </c>
-      <c r="X82">
-        <v>2.5</v>
-      </c>
-      <c r="Y82">
-        <v>-1</v>
-      </c>
-      <c r="Z82">
-        <v>-1</v>
-      </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6834799</v>
+        <v>6834798</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K83">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L83">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N83">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O83">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P83">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
+        <v>2.25</v>
+      </c>
+      <c r="U83">
+        <v>1.875</v>
+      </c>
+      <c r="V83">
+        <v>1.925</v>
+      </c>
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
         <v>2.5</v>
       </c>
-      <c r="U83">
-        <v>1.95</v>
-      </c>
-      <c r="V83">
-        <v>1.85</v>
-      </c>
-      <c r="W83">
-        <v>1.3</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
         <v>29</v>
@@ -8018,7 +8018,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>39</v>
@@ -8196,7 +8196,7 @@
         <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6834805</v>
+        <v>6834803</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K88">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="L88">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="N88">
-        <v>1.45</v>
+        <v>5.75</v>
       </c>
       <c r="O88">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P88">
-        <v>6</v>
+        <v>1.444</v>
       </c>
       <c r="Q88">
-        <v>-1.25</v>
+        <v>1.25</v>
       </c>
       <c r="R88">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Z88">
-        <v>0.95</v>
+        <v>0.3625</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6834803</v>
+        <v>6834805</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45241.41666666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
         <v>0</v>
       </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K89">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M89">
-        <v>1.85</v>
+        <v>5.5</v>
       </c>
       <c r="N89">
-        <v>5.75</v>
+        <v>1.45</v>
       </c>
       <c r="O89">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="Q89">
-        <v>1.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.3625</v>
+        <v>0.95</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8460,7 +8460,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
@@ -8552,7 +8552,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7481395</v>
+        <v>6834809</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K92">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L92">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M92">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N92">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="O92">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P92">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q92">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6834809</v>
+        <v>7481395</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,73 +8730,73 @@
         <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L93">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M93">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N93">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="O93">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P93">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q93">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R93">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
         <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8816,10 +8816,10 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6835155</v>
+        <v>6834813</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N96">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O96">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
+        <v>1.925</v>
+      </c>
+      <c r="V96">
         <v>1.875</v>
       </c>
-      <c r="V96">
-        <v>1.925</v>
-      </c>
       <c r="W96">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB96">
         <v>-0.5</v>
       </c>
       <c r="AC96">
-        <v>0.4625</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6834813</v>
+        <v>6835155</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N97">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P97">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
         <v>2.25</v>
       </c>
       <c r="U97">
+        <v>1.875</v>
+      </c>
+      <c r="V97">
         <v>1.925</v>
       </c>
-      <c r="V97">
-        <v>1.875</v>
-      </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X97">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>-0.5</v>
       </c>
       <c r="AC97">
-        <v>0.4375</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9175,7 +9175,7 @@
         <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9261,10 +9261,10 @@
         <v>45255.36805555555</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9353,7 +9353,7 @@
         <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9620,7 +9620,7 @@
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9795,10 +9795,10 @@
         <v>45261.39583333334</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9884,7 +9884,7 @@
         <v>45262.35416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
         <v>35</v>
@@ -10062,7 +10062,7 @@
         <v>45263.36805555555</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10151,7 +10151,7 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -10332,7 +10332,7 @@
         <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10421,7 +10421,7 @@
         <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10507,7 +10507,7 @@
         <v>45339.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
         <v>42</v>
@@ -10599,7 +10599,7 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10688,7 +10688,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10774,7 +10774,7 @@
         <v>45345.45138888889</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
         <v>39</v>
@@ -11041,10 +11041,10 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11219,10 +11219,10 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11400,7 +11400,7 @@
         <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11489,7 +11489,7 @@
         <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11575,10 +11575,10 @@
         <v>45354.36805555555</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11753,7 +11753,7 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G127" t="s">
         <v>41</v>
@@ -11842,10 +11842,10 @@
         <v>45359.45138888889</v>
       </c>
       <c r="F128" t="s">
+        <v>37</v>
+      </c>
+      <c r="G128" t="s">
         <v>38</v>
-      </c>
-      <c r="G128" t="s">
-        <v>36</v>
       </c>
       <c r="H128">
         <v>4</v>
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6834844</v>
+        <v>6834846</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,76 +12020,76 @@
         <v>45360.47916666666</v>
       </c>
       <c r="F130" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K130">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L130">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
         <v>4</v>
       </c>
       <c r="N130">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P130">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q130">
         <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S130">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z130">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC130">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6834846</v>
+        <v>6834844</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45360.47916666666</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K132">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M132">
         <v>4</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O132">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q132">
         <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S132">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>45361.35416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>39</v>
@@ -12376,7 +12376,7 @@
         <v>45366.45138888889</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
         <v>42</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6834852</v>
+        <v>6834848</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,10 +12554,10 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12569,43 +12569,43 @@
         <v>45</v>
       </c>
       <c r="K136">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L136">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N136">
-        <v>1.142</v>
+        <v>2.45</v>
       </c>
       <c r="O136">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P136">
-        <v>17</v>
+        <v>2.55</v>
       </c>
       <c r="Q136">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R136">
+        <v>1.85</v>
+      </c>
+      <c r="S136">
         <v>1.95</v>
       </c>
-      <c r="S136">
-        <v>1.85</v>
-      </c>
       <c r="T136">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="W136">
-        <v>0.1419999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12614,16 +12614,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA136">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC136">
-        <v>0.9750000000000001</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6834850</v>
+        <v>6834852</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,76 +12643,76 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K137">
-        <v>2.25</v>
+        <v>1.333</v>
       </c>
       <c r="L137">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M137">
+        <v>7</v>
+      </c>
+      <c r="N137">
+        <v>1.142</v>
+      </c>
+      <c r="O137">
+        <v>6</v>
+      </c>
+      <c r="P137">
+        <v>17</v>
+      </c>
+      <c r="Q137">
+        <v>-2</v>
+      </c>
+      <c r="R137">
+        <v>1.95</v>
+      </c>
+      <c r="S137">
+        <v>1.85</v>
+      </c>
+      <c r="T137">
         <v>2.75</v>
       </c>
-      <c r="N137">
-        <v>1.95</v>
-      </c>
-      <c r="O137">
-        <v>3.4</v>
-      </c>
-      <c r="P137">
-        <v>3.2</v>
-      </c>
-      <c r="Q137">
-        <v>-0.25</v>
-      </c>
-      <c r="R137">
-        <v>1.75</v>
-      </c>
-      <c r="S137">
-        <v>1.95</v>
-      </c>
-      <c r="T137">
-        <v>2.25</v>
-      </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X137">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA137">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB137">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6834848</v>
+        <v>6834850</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,43 +12732,43 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F138" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K138">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L138">
+        <v>3.25</v>
+      </c>
+      <c r="M138">
+        <v>2.75</v>
+      </c>
+      <c r="N138">
+        <v>1.95</v>
+      </c>
+      <c r="O138">
+        <v>3.4</v>
+      </c>
+      <c r="P138">
         <v>3.2</v>
       </c>
-      <c r="M138">
-        <v>2.875</v>
-      </c>
-      <c r="N138">
-        <v>2.45</v>
-      </c>
-      <c r="O138">
-        <v>3.1</v>
-      </c>
-      <c r="P138">
-        <v>2.55</v>
-      </c>
       <c r="Q138">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S138">
         <v>1.95</v>
@@ -12777,31 +12777,31 @@
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB138">
         <v>-0.5</v>
       </c>
       <c r="AC138">
-        <v>0.3625</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>45368.36805555555</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
         <v>40</v>
@@ -12910,10 +12910,10 @@
         <v>45373.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7977239</v>
+        <v>7977238</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,73 +13088,73 @@
         <v>45374.47916666666</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K142">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M142">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N142">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.3625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7977238</v>
+        <v>7977239</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,73 +13266,73 @@
         <v>45374.47916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L144">
+        <v>3.2</v>
+      </c>
+      <c r="M144">
         <v>3.3</v>
       </c>
-      <c r="M144">
-        <v>3.5</v>
-      </c>
       <c r="N144">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y144">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>0.3625</v>
       </c>
       <c r="AB144">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13358,7 +13358,7 @@
         <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13425,6 +13425,273 @@
       </c>
       <c r="AC145">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>7977242</v>
+      </c>
+      <c r="C146" t="s">
+        <v>28</v>
+      </c>
+      <c r="D146" t="s">
+        <v>28</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45378.52083333334</v>
+      </c>
+      <c r="F146" t="s">
+        <v>34</v>
+      </c>
+      <c r="G146" t="s">
+        <v>40</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" t="s">
+        <v>47</v>
+      </c>
+      <c r="K146">
+        <v>3</v>
+      </c>
+      <c r="L146">
+        <v>3.25</v>
+      </c>
+      <c r="M146">
+        <v>2.1</v>
+      </c>
+      <c r="N146">
+        <v>3.1</v>
+      </c>
+      <c r="O146">
+        <v>3.25</v>
+      </c>
+      <c r="P146">
+        <v>2.05</v>
+      </c>
+      <c r="Q146">
+        <v>0.25</v>
+      </c>
+      <c r="R146">
+        <v>1.975</v>
+      </c>
+      <c r="S146">
+        <v>1.825</v>
+      </c>
+      <c r="T146">
+        <v>2.5</v>
+      </c>
+      <c r="U146">
+        <v>1.95</v>
+      </c>
+      <c r="V146">
+        <v>1.85</v>
+      </c>
+      <c r="W146">
+        <v>-1</v>
+      </c>
+      <c r="X146">
+        <v>2.25</v>
+      </c>
+      <c r="Y146">
+        <v>-1</v>
+      </c>
+      <c r="Z146">
+        <v>0.4875</v>
+      </c>
+      <c r="AA146">
+        <v>-0.5</v>
+      </c>
+      <c r="AB146">
+        <v>-1</v>
+      </c>
+      <c r="AC146">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:29">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>7977245</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45379.47916666666</v>
+      </c>
+      <c r="F147" t="s">
+        <v>42</v>
+      </c>
+      <c r="G147" t="s">
+        <v>41</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147" t="s">
+        <v>47</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>3.1</v>
+      </c>
+      <c r="M147">
+        <v>3.4</v>
+      </c>
+      <c r="N147">
+        <v>2.7</v>
+      </c>
+      <c r="O147">
+        <v>3</v>
+      </c>
+      <c r="P147">
+        <v>2.55</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>1.95</v>
+      </c>
+      <c r="S147">
+        <v>1.85</v>
+      </c>
+      <c r="T147">
+        <v>2.25</v>
+      </c>
+      <c r="U147">
+        <v>1.925</v>
+      </c>
+      <c r="V147">
+        <v>1.875</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
+        <v>2</v>
+      </c>
+      <c r="Y147">
+        <v>-1</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>-0</v>
+      </c>
+      <c r="AB147">
+        <v>-1</v>
+      </c>
+      <c r="AC147">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>7977243</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" t="s">
+        <v>28</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45379.47916666666</v>
+      </c>
+      <c r="F148" t="s">
+        <v>31</v>
+      </c>
+      <c r="G148" t="s">
+        <v>37</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>45</v>
+      </c>
+      <c r="K148">
+        <v>2.4</v>
+      </c>
+      <c r="L148">
+        <v>3.4</v>
+      </c>
+      <c r="M148">
+        <v>2.5</v>
+      </c>
+      <c r="N148">
+        <v>1.909</v>
+      </c>
+      <c r="O148">
+        <v>3.2</v>
+      </c>
+      <c r="P148">
+        <v>4</v>
+      </c>
+      <c r="Q148">
+        <v>-0.5</v>
+      </c>
+      <c r="R148">
+        <v>1.9</v>
+      </c>
+      <c r="S148">
+        <v>1.9</v>
+      </c>
+      <c r="T148">
+        <v>2.25</v>
+      </c>
+      <c r="U148">
+        <v>1.975</v>
+      </c>
+      <c r="V148">
+        <v>1.725</v>
+      </c>
+      <c r="W148">
+        <v>0.909</v>
+      </c>
+      <c r="X148">
+        <v>-1</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA148">
+        <v>-1</v>
+      </c>
+      <c r="AB148">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC148">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6834732</v>
+        <v>6834733</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,76 +1429,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L11">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O11">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R11">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X11">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6834733</v>
+        <v>6834732</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,76 +1518,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M12">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N12">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P12">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q12">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7977237</v>
+        <v>7977239</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45374.47916666666</v>
       </c>
       <c r="F143" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L143">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M143">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N143">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="O143">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>8.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q143">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R143">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S143">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V143">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W143">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X143">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7977239</v>
+        <v>7977237</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,76 +13266,76 @@
         <v>45374.47916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K144">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M144">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N144">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P144">
-        <v>2.7</v>
+        <v>8.5</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R144">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S144">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X144">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AA144">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:29">

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6834764</v>
+        <v>6834763</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,76 +4544,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>3.3</v>
+      </c>
+      <c r="M46">
+        <v>3.2</v>
+      </c>
+      <c r="N46">
+        <v>2.15</v>
+      </c>
+      <c r="O46">
+        <v>3.3</v>
+      </c>
+      <c r="P46">
+        <v>3.1</v>
+      </c>
+      <c r="Q46">
+        <v>-0.25</v>
+      </c>
+      <c r="R46">
+        <v>1.85</v>
+      </c>
+      <c r="S46">
         <v>1.95</v>
       </c>
-      <c r="L46">
-        <v>3.2</v>
-      </c>
-      <c r="M46">
-        <v>3.5</v>
-      </c>
-      <c r="N46">
-        <v>1.95</v>
-      </c>
-      <c r="O46">
-        <v>3</v>
-      </c>
-      <c r="P46">
-        <v>3.75</v>
-      </c>
-      <c r="Q46">
-        <v>-0.5</v>
-      </c>
-      <c r="R46">
-        <v>2.025</v>
-      </c>
-      <c r="S46">
-        <v>1.775</v>
-      </c>
       <c r="T46">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6834763</v>
+        <v>6834764</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N47">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P47">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -115,10 +115,10 @@
     <t>NK Kustosija</t>
   </si>
   <si>
-    <t>NK Croatia Zmijavci</t>
+    <t>Orijent</t>
   </si>
   <si>
-    <t>Orijent</t>
+    <t>NK Croatia Zmijavci</t>
   </si>
   <si>
     <t>HNK Sibenik</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC148"/>
+  <dimension ref="A1:AC150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6425847</v>
+        <v>6425846</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,37 +987,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P6">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="Q6">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R6">
         <v>1.95</v>
@@ -1026,34 +1026,34 @@
         <v>1.85</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W6">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6425846</v>
+        <v>6425847</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,37 +1076,37 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N7">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>9</v>
+        <v>3.3</v>
       </c>
       <c r="Q7">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
         <v>1.95</v>
@@ -1115,34 +1115,34 @@
         <v>1.85</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
         <v>1.8</v>
       </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X7">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6834733</v>
+        <v>6834732</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,76 +1429,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M11">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N11">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P11">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q11">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T11">
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6834732</v>
+        <v>6834733</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,76 +1518,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
         <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>41</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K12">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L12">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N12">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X12">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6834734</v>
+        <v>6834738</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,76 +1785,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L15">
         <v>3.2</v>
       </c>
       <c r="M15">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P15">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC15">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6834738</v>
+        <v>6834735</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,76 +1874,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16">
+        <v>2.4</v>
+      </c>
+      <c r="L16">
         <v>3</v>
       </c>
-      <c r="J16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16">
+      <c r="M16">
         <v>2.75</v>
       </c>
-      <c r="L16">
-        <v>3.2</v>
-      </c>
-      <c r="M16">
-        <v>2.3</v>
-      </c>
       <c r="N16">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="O16">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y16">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB16">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6834735</v>
+        <v>6834734</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,10 +1963,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1978,61 +1978,61 @@
         <v>47</v>
       </c>
       <c r="K17">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M17">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="N17">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P17">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB17">
         <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>0.4</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,7 +2052,7 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
         <v>37</v>
@@ -2144,7 +2144,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -2233,7 +2233,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6834742</v>
+        <v>6834744</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,58 +2319,58 @@
         <v>45164.5</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>45</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O21">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P21">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q21">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W21">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2379,13 +2379,13 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6834744</v>
+        <v>6834742</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,58 +2408,58 @@
         <v>45164.5</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>3</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
         <v>45</v>
       </c>
       <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>3.25</v>
+      </c>
+      <c r="M22">
+        <v>3.3</v>
+      </c>
+      <c r="N22">
+        <v>2.15</v>
+      </c>
+      <c r="O22">
+        <v>3.1</v>
+      </c>
+      <c r="P22">
+        <v>3.1</v>
+      </c>
+      <c r="Q22">
+        <v>-0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.9</v>
+      </c>
+      <c r="S22">
+        <v>1.9</v>
+      </c>
+      <c r="T22">
+        <v>2.25</v>
+      </c>
+      <c r="U22">
         <v>1.75</v>
       </c>
-      <c r="L22">
-        <v>3.4</v>
-      </c>
-      <c r="M22">
-        <v>4</v>
-      </c>
-      <c r="N22">
-        <v>1.666</v>
-      </c>
-      <c r="O22">
-        <v>3.6</v>
-      </c>
-      <c r="P22">
-        <v>4.2</v>
-      </c>
-      <c r="Q22">
-        <v>-0.75</v>
-      </c>
-      <c r="R22">
-        <v>1.925</v>
-      </c>
-      <c r="S22">
-        <v>1.875</v>
-      </c>
-      <c r="T22">
-        <v>2.5</v>
-      </c>
-      <c r="U22">
-        <v>1.825</v>
-      </c>
       <c r="V22">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2468,13 +2468,13 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA22">
         <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC22">
         <v>-1</v>
@@ -2497,7 +2497,7 @@
         <v>45164.5</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
         <v>40</v>
@@ -2856,7 +2856,7 @@
         <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3019,7 +3019,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6834749</v>
+        <v>6834750</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3031,13 +3031,13 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -3046,43 +3046,43 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L29">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M29">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O29">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P29">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V29">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3091,13 +3091,13 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6834750</v>
+        <v>6834749</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,13 +3120,13 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3135,43 +3135,43 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L30">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N30">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>1.8</v>
+      </c>
+      <c r="T30">
+        <v>2.25</v>
+      </c>
+      <c r="U30">
+        <v>1.925</v>
+      </c>
+      <c r="V30">
         <v>1.875</v>
       </c>
-      <c r="S30">
-        <v>1.925</v>
-      </c>
-      <c r="T30">
-        <v>2.5</v>
-      </c>
-      <c r="U30">
-        <v>1.825</v>
-      </c>
-      <c r="V30">
-        <v>1.975</v>
-      </c>
       <c r="W30">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3180,13 +3180,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA30">
         <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6834752</v>
+        <v>6834755</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,13 +3387,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3402,43 +3402,43 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L33">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M33">
+        <v>2.75</v>
+      </c>
+      <c r="N33">
+        <v>1.666</v>
+      </c>
+      <c r="O33">
+        <v>3.5</v>
+      </c>
+      <c r="P33">
         <v>4.2</v>
       </c>
-      <c r="N33">
-        <v>1.833</v>
-      </c>
-      <c r="O33">
-        <v>3.4</v>
-      </c>
-      <c r="P33">
-        <v>4</v>
-      </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R33">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W33">
-        <v>0.833</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3447,16 +3447,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
         <v>35</v>
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6834755</v>
+        <v>6834752</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,13 +3565,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3580,43 +3580,43 @@
         <v>45</v>
       </c>
       <c r="K35">
+        <v>1.727</v>
+      </c>
+      <c r="L35">
+        <v>3.4</v>
+      </c>
+      <c r="M35">
+        <v>4.2</v>
+      </c>
+      <c r="N35">
+        <v>1.833</v>
+      </c>
+      <c r="O35">
+        <v>3.4</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+      <c r="Q35">
+        <v>-0.5</v>
+      </c>
+      <c r="R35">
+        <v>1.85</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
         <v>2.25</v>
       </c>
-      <c r="L35">
-        <v>3.25</v>
-      </c>
-      <c r="M35">
-        <v>2.75</v>
-      </c>
-      <c r="N35">
-        <v>1.666</v>
-      </c>
-      <c r="O35">
-        <v>3.5</v>
-      </c>
-      <c r="P35">
-        <v>4.2</v>
-      </c>
-      <c r="Q35">
-        <v>-0.75</v>
-      </c>
-      <c r="R35">
-        <v>2</v>
-      </c>
-      <c r="S35">
+      <c r="U35">
         <v>1.8</v>
       </c>
-      <c r="T35">
-        <v>2.5</v>
-      </c>
-      <c r="U35">
-        <v>2.025</v>
-      </c>
       <c r="V35">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W35">
-        <v>0.6659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3625,16 +3625,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA35">
+        <v>-1</v>
+      </c>
+      <c r="AB35">
+        <v>-1</v>
+      </c>
+      <c r="AC35">
         <v>1</v>
-      </c>
-      <c r="AA35">
-        <v>-1</v>
-      </c>
-      <c r="AB35">
-        <v>1.025</v>
-      </c>
-      <c r="AC35">
-        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3743,7 +3743,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3835,7 +3835,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6834757</v>
+        <v>6834760</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K41">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N41">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P41">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T41">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB41">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6834760</v>
+        <v>6834757</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N42">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O42">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q42">
+        <v>-0.25</v>
+      </c>
+      <c r="R42">
+        <v>1.925</v>
+      </c>
+      <c r="S42">
+        <v>1.875</v>
+      </c>
+      <c r="T42">
+        <v>2.25</v>
+      </c>
+      <c r="U42">
+        <v>1.875</v>
+      </c>
+      <c r="V42">
+        <v>1.925</v>
+      </c>
+      <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
+        <v>2</v>
+      </c>
+      <c r="Y42">
+        <v>-1</v>
+      </c>
+      <c r="Z42">
         <v>-0.5</v>
       </c>
-      <c r="R42">
-        <v>2</v>
-      </c>
-      <c r="S42">
-        <v>1.8</v>
-      </c>
-      <c r="T42">
-        <v>2.5</v>
-      </c>
-      <c r="U42">
-        <v>1.8</v>
-      </c>
-      <c r="V42">
-        <v>2</v>
-      </c>
-      <c r="W42">
-        <v>-1</v>
-      </c>
-      <c r="X42">
-        <v>-1</v>
-      </c>
-      <c r="Y42">
-        <v>2.5</v>
-      </c>
-      <c r="Z42">
-        <v>-1</v>
-      </c>
       <c r="AA42">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6834763</v>
+        <v>6834764</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,76 +4544,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L46">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N46">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O46">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6834764</v>
+        <v>6834763</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>3.3</v>
+      </c>
+      <c r="M47">
+        <v>3.2</v>
+      </c>
+      <c r="N47">
+        <v>2.15</v>
+      </c>
+      <c r="O47">
+        <v>3.3</v>
+      </c>
+      <c r="P47">
+        <v>3.1</v>
+      </c>
+      <c r="Q47">
+        <v>-0.25</v>
+      </c>
+      <c r="R47">
+        <v>1.85</v>
+      </c>
+      <c r="S47">
         <v>1.95</v>
       </c>
-      <c r="L47">
-        <v>3.2</v>
-      </c>
-      <c r="M47">
-        <v>3.5</v>
-      </c>
-      <c r="N47">
-        <v>1.95</v>
-      </c>
-      <c r="O47">
-        <v>3</v>
-      </c>
-      <c r="P47">
-        <v>3.75</v>
-      </c>
-      <c r="Q47">
-        <v>-0.5</v>
-      </c>
-      <c r="R47">
-        <v>2.025</v>
-      </c>
-      <c r="S47">
-        <v>1.775</v>
-      </c>
       <c r="T47">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4722,7 +4722,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4989,7 +4989,7 @@
         <v>45199.40972222222</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
         <v>38</v>
@@ -5066,7 +5066,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6834770</v>
+        <v>6834769</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5078,61 +5078,61 @@
         <v>45199.4375</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
         <v>47</v>
       </c>
       <c r="K52">
-        <v>1.85</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N52">
         <v>1.909</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q52">
         <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V52">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
         <v>-1</v>
       </c>
       <c r="X52">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y52">
         <v>-1</v>
@@ -5141,13 +5141,13 @@
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6834769</v>
+        <v>6834770</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,61 +5167,61 @@
         <v>45199.4375</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>47</v>
       </c>
       <c r="K53">
-        <v>1.727</v>
+        <v>1.85</v>
       </c>
       <c r="L53">
+        <v>3.4</v>
+      </c>
+      <c r="M53">
         <v>3.6</v>
-      </c>
-      <c r="M53">
-        <v>3.8</v>
       </c>
       <c r="N53">
         <v>1.909</v>
       </c>
       <c r="O53">
+        <v>3.4</v>
+      </c>
+      <c r="P53">
         <v>3.5</v>
-      </c>
-      <c r="P53">
-        <v>3.2</v>
       </c>
       <c r="Q53">
         <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S53">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T53">
         <v>2.5</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W53">
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5230,13 +5230,13 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB53">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5437,7 +5437,7 @@
         <v>37</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5790,7 +5790,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6834779</v>
+        <v>6834783</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K63">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N63">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P63">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
         <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W63">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6834781</v>
+        <v>6834779</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H64">
+        <v>4</v>
+      </c>
+      <c r="I64">
         <v>0</v>
       </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K64">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L64">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M64">
+        <v>5</v>
+      </c>
+      <c r="N64">
+        <v>1.6</v>
+      </c>
+      <c r="O64">
         <v>4</v>
       </c>
-      <c r="N64">
-        <v>1.75</v>
-      </c>
-      <c r="O64">
-        <v>3.5</v>
-      </c>
       <c r="P64">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q64">
         <v>-0.75</v>
       </c>
       <c r="R64">
+        <v>1.8</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>2.5</v>
+      </c>
+      <c r="U64">
         <v>1.95</v>
       </c>
-      <c r="S64">
+      <c r="V64">
         <v>1.75</v>
       </c>
-      <c r="T64">
-        <v>2.25</v>
-      </c>
-      <c r="U64">
-        <v>2</v>
-      </c>
-      <c r="V64">
-        <v>1.8</v>
-      </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC64">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6834783</v>
+        <v>6834781</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6235,76 +6235,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K65">
+        <v>1.666</v>
+      </c>
+      <c r="L65">
+        <v>3.8</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>1.75</v>
+      </c>
+      <c r="O65">
+        <v>3.5</v>
+      </c>
+      <c r="P65">
+        <v>3.8</v>
+      </c>
+      <c r="Q65">
+        <v>-0.75</v>
+      </c>
+      <c r="R65">
+        <v>1.95</v>
+      </c>
+      <c r="S65">
+        <v>1.75</v>
+      </c>
+      <c r="T65">
         <v>2.25</v>
       </c>
-      <c r="L65">
-        <v>3.25</v>
-      </c>
-      <c r="M65">
-        <v>2.75</v>
-      </c>
-      <c r="N65">
-        <v>1.95</v>
-      </c>
-      <c r="O65">
-        <v>3.3</v>
-      </c>
-      <c r="P65">
-        <v>3.25</v>
-      </c>
-      <c r="Q65">
-        <v>-0.25</v>
-      </c>
-      <c r="R65">
-        <v>1.75</v>
-      </c>
-      <c r="S65">
-        <v>1.95</v>
-      </c>
-      <c r="T65">
-        <v>2.75</v>
-      </c>
       <c r="U65">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V65">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>45214.41666666666</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
         <v>42</v>
@@ -6858,10 +6858,10 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" t="s">
         <v>33</v>
-      </c>
-      <c r="G72" t="s">
-        <v>34</v>
       </c>
       <c r="H72">
         <v>6</v>
@@ -7039,7 +7039,7 @@
         <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6834795</v>
+        <v>6834791</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,10 +7214,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7229,61 +7229,61 @@
         <v>47</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L76">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M76">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N76">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P76">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V76">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC76">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6834791</v>
+        <v>6834795</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,10 +7303,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7318,61 +7318,61 @@
         <v>47</v>
       </c>
       <c r="K77">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M77">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N77">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O77">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q77">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V77">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7392,7 +7392,7 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7573,7 +7573,7 @@
         <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6834799</v>
+        <v>6834798</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K82">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L82">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N82">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P82">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
+        <v>2.25</v>
+      </c>
+      <c r="U82">
+        <v>1.875</v>
+      </c>
+      <c r="V82">
+        <v>1.925</v>
+      </c>
+      <c r="W82">
+        <v>-1</v>
+      </c>
+      <c r="X82">
         <v>2.5</v>
       </c>
-      <c r="U82">
-        <v>1.95</v>
-      </c>
-      <c r="V82">
-        <v>1.85</v>
-      </c>
-      <c r="W82">
-        <v>1.3</v>
-      </c>
-      <c r="X82">
-        <v>-1</v>
-      </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6834798</v>
+        <v>6834799</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>45</v>
+      </c>
+      <c r="K83">
+        <v>2.375</v>
+      </c>
+      <c r="L83">
+        <v>3.3</v>
+      </c>
+      <c r="M83">
+        <v>2.6</v>
+      </c>
+      <c r="N83">
+        <v>2.3</v>
+      </c>
+      <c r="O83">
+        <v>3.6</v>
+      </c>
+      <c r="P83">
+        <v>2.8</v>
+      </c>
+      <c r="Q83">
+        <v>-0.25</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>1.8</v>
+      </c>
+      <c r="T83">
+        <v>2.5</v>
+      </c>
+      <c r="U83">
+        <v>1.95</v>
+      </c>
+      <c r="V83">
+        <v>1.85</v>
+      </c>
+      <c r="W83">
+        <v>1.3</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
         <v>1</v>
       </c>
-      <c r="J83" t="s">
-        <v>47</v>
-      </c>
-      <c r="K83">
-        <v>1.571</v>
-      </c>
-      <c r="L83">
-        <v>3.6</v>
-      </c>
-      <c r="M83">
-        <v>5</v>
-      </c>
-      <c r="N83">
-        <v>1.615</v>
-      </c>
-      <c r="O83">
-        <v>3.5</v>
-      </c>
-      <c r="P83">
-        <v>4.75</v>
-      </c>
-      <c r="Q83">
-        <v>-0.75</v>
-      </c>
-      <c r="R83">
-        <v>1.85</v>
-      </c>
-      <c r="S83">
-        <v>1.95</v>
-      </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>1.875</v>
-      </c>
-      <c r="V83">
-        <v>1.925</v>
-      </c>
-      <c r="W83">
-        <v>-1</v>
-      </c>
-      <c r="X83">
-        <v>2.5</v>
-      </c>
-      <c r="Y83">
-        <v>-1</v>
-      </c>
-      <c r="Z83">
-        <v>-1</v>
-      </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7926,7 +7926,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
         <v>29</v>
@@ -8374,7 +8374,7 @@
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8460,7 +8460,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
@@ -8816,7 +8816,7 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
         <v>36</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6834813</v>
+        <v>6835155</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M96">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N96">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P96">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q96">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
+        <v>1.875</v>
+      </c>
+      <c r="V96">
         <v>1.925</v>
       </c>
-      <c r="V96">
-        <v>1.875</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X96">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
         <v>-0.5</v>
       </c>
       <c r="AC96">
-        <v>0.4375</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6835155</v>
+        <v>6834813</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L97">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N97">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O97">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P97">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T97">
         <v>2.25</v>
       </c>
       <c r="U97">
+        <v>1.925</v>
+      </c>
+      <c r="V97">
         <v>1.875</v>
       </c>
-      <c r="V97">
-        <v>1.925</v>
-      </c>
       <c r="W97">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB97">
         <v>-0.5</v>
       </c>
       <c r="AC97">
-        <v>0.4625</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6834819</v>
+        <v>6834814</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,76 +9350,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L100">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M100">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N100">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P100">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6834818</v>
+        <v>6834819</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,76 +9439,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K101">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M101">
         <v>3</v>
       </c>
       <c r="N101">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="O101">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P101">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6834814</v>
+        <v>6834818</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,55 +9528,55 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>46</v>
       </c>
       <c r="K102">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L102">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
         <v>1.8</v>
       </c>
-      <c r="N102">
-        <v>4.333</v>
-      </c>
       <c r="O102">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P102">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q102">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9585,19 +9585,19 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>0.75</v>
+        <v>2.6</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB102">
         <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9620,7 +9620,7 @@
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -10062,7 +10062,7 @@
         <v>45263.36805555555</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
         <v>39</v>
@@ -10151,7 +10151,7 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6834826</v>
+        <v>6834828</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,28 +10418,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>47</v>
       </c>
       <c r="K112">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M112">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
         <v>2.25</v>
@@ -10448,7 +10448,7 @@
         <v>3</v>
       </c>
       <c r="P112">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q112">
         <v>-0.25</v>
@@ -10463,10 +10463,10 @@
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10484,10 +10484,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6834828</v>
+        <v>6834826</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,28 +10507,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>47</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
         <v>3.1</v>
-      </c>
-      <c r="M113">
-        <v>3.4</v>
       </c>
       <c r="N113">
         <v>2.25</v>
@@ -10537,7 +10537,7 @@
         <v>3</v>
       </c>
       <c r="P113">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q113">
         <v>-0.25</v>
@@ -10552,10 +10552,10 @@
         <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,10 +10573,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10688,7 +10688,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -11044,7 +11044,7 @@
         <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11219,7 +11219,7 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
         <v>36</v>
@@ -11400,7 +11400,7 @@
         <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11575,7 +11575,7 @@
         <v>45354.36805555555</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
         <v>37</v>
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6834841</v>
+        <v>6834840</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K126">
+        <v>2.5</v>
+      </c>
+      <c r="L126">
+        <v>3.2</v>
+      </c>
+      <c r="M126">
+        <v>2.5</v>
+      </c>
+      <c r="N126">
+        <v>2.5</v>
+      </c>
+      <c r="O126">
+        <v>3.2</v>
+      </c>
+      <c r="P126">
+        <v>2.5</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>1.9</v>
+      </c>
+      <c r="S126">
+        <v>1.9</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
+        <v>1.825</v>
+      </c>
+      <c r="V126">
+        <v>1.975</v>
+      </c>
+      <c r="W126">
         <v>1.5</v>
       </c>
-      <c r="L126">
-        <v>4.2</v>
-      </c>
-      <c r="M126">
-        <v>4.75</v>
-      </c>
-      <c r="N126">
-        <v>1.4</v>
-      </c>
-      <c r="O126">
-        <v>4.75</v>
-      </c>
-      <c r="P126">
-        <v>5.5</v>
-      </c>
-      <c r="Q126">
-        <v>-1.25</v>
-      </c>
-      <c r="R126">
-        <v>1.95</v>
-      </c>
-      <c r="S126">
-        <v>1.85</v>
-      </c>
-      <c r="T126">
-        <v>2.75</v>
-      </c>
-      <c r="U126">
-        <v>1.95</v>
-      </c>
-      <c r="V126">
-        <v>1.85</v>
-      </c>
-      <c r="W126">
-        <v>-1</v>
-      </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA126">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC126">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6834840</v>
+        <v>6834841</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,76 +11753,76 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K127">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L127">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M127">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N127">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O127">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P127">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R127">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W127">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z127">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6834846</v>
+        <v>6834844</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,76 +12020,76 @@
         <v>45360.47916666666</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>1.75</v>
+        <v>1.727</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M130">
         <v>4</v>
       </c>
       <c r="N130">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O130">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q130">
         <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S130">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA130">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6834844</v>
+        <v>6834846</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,76 +12198,76 @@
         <v>45360.47916666666</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K132">
-        <v>1.727</v>
+        <v>1.75</v>
       </c>
       <c r="L132">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
         <v>4</v>
       </c>
       <c r="N132">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P132">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q132">
         <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="S132">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z132">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12287,7 +12287,7 @@
         <v>45361.35416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
         <v>39</v>
@@ -12732,10 +12732,10 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F138" t="s">
+        <v>33</v>
+      </c>
+      <c r="G138" t="s">
         <v>34</v>
-      </c>
-      <c r="G138" t="s">
-        <v>33</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -12913,7 +12913,7 @@
         <v>37</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7977239</v>
+        <v>7977237</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45374.47916666666</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H143">
         <v>2</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L143">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M143">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N143">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P143">
-        <v>2.7</v>
+        <v>8.5</v>
       </c>
       <c r="Q143">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R143">
-        <v>1.975</v>
+        <v>1.7</v>
       </c>
       <c r="S143">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V143">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X143">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y143">
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AA143">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7977237</v>
+        <v>7977239</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,76 +13266,76 @@
         <v>45374.47916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H144">
         <v>2</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L144">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M144">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N144">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="O144">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>8.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q144">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.7</v>
+        <v>1.975</v>
       </c>
       <c r="S144">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13444,7 +13444,7 @@
         <v>45378.52083333334</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G146" t="s">
         <v>40</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7977245</v>
+        <v>7977243</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45379.47916666666</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L147">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N147">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O147">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P147">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X147">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7977243</v>
+        <v>7977245</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,76 +13622,254 @@
         <v>45379.47916666666</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K148">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L148">
+        <v>3.1</v>
+      </c>
+      <c r="M148">
         <v>3.4</v>
       </c>
-      <c r="M148">
-        <v>2.5</v>
-      </c>
       <c r="N148">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O148">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P148">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T148">
         <v>2.25</v>
       </c>
       <c r="U148">
+        <v>1.925</v>
+      </c>
+      <c r="V148">
+        <v>1.875</v>
+      </c>
+      <c r="W148">
+        <v>-1</v>
+      </c>
+      <c r="X148">
+        <v>2</v>
+      </c>
+      <c r="Y148">
+        <v>-1</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>-0</v>
+      </c>
+      <c r="AB148">
+        <v>-1</v>
+      </c>
+      <c r="AC148">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>7977241</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45380.40625</v>
+      </c>
+      <c r="F149" t="s">
+        <v>38</v>
+      </c>
+      <c r="G149" t="s">
+        <v>43</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149" t="s">
+        <v>46</v>
+      </c>
+      <c r="K149">
+        <v>3.75</v>
+      </c>
+      <c r="L149">
+        <v>3.4</v>
+      </c>
+      <c r="M149">
+        <v>1.8</v>
+      </c>
+      <c r="N149">
+        <v>3.5</v>
+      </c>
+      <c r="O149">
+        <v>3</v>
+      </c>
+      <c r="P149">
+        <v>2</v>
+      </c>
+      <c r="Q149">
+        <v>0.25</v>
+      </c>
+      <c r="R149">
         <v>1.975</v>
       </c>
-      <c r="V148">
-        <v>1.725</v>
-      </c>
-      <c r="W148">
-        <v>0.909</v>
-      </c>
-      <c r="X148">
-        <v>-1</v>
-      </c>
-      <c r="Y148">
-        <v>-1</v>
-      </c>
-      <c r="Z148">
+      <c r="S149">
+        <v>1.825</v>
+      </c>
+      <c r="T149">
+        <v>2</v>
+      </c>
+      <c r="U149">
+        <v>1.925</v>
+      </c>
+      <c r="V149">
+        <v>1.875</v>
+      </c>
+      <c r="W149">
+        <v>-1</v>
+      </c>
+      <c r="X149">
+        <v>-1</v>
+      </c>
+      <c r="Y149">
+        <v>1</v>
+      </c>
+      <c r="Z149">
+        <v>-1</v>
+      </c>
+      <c r="AA149">
+        <v>0.825</v>
+      </c>
+      <c r="AB149">
+        <v>0.925</v>
+      </c>
+      <c r="AC149">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>7977244</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45380.47916666666</v>
+      </c>
+      <c r="F150" t="s">
+        <v>36</v>
+      </c>
+      <c r="G150" t="s">
+        <v>29</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" t="s">
+        <v>46</v>
+      </c>
+      <c r="K150">
+        <v>2.25</v>
+      </c>
+      <c r="L150">
+        <v>3.3</v>
+      </c>
+      <c r="M150">
+        <v>2.75</v>
+      </c>
+      <c r="N150">
+        <v>1.615</v>
+      </c>
+      <c r="O150">
+        <v>3.75</v>
+      </c>
+      <c r="P150">
+        <v>4.75</v>
+      </c>
+      <c r="Q150">
+        <v>-0.75</v>
+      </c>
+      <c r="R150">
+        <v>1.875</v>
+      </c>
+      <c r="S150">
+        <v>1.925</v>
+      </c>
+      <c r="T150">
+        <v>2.5</v>
+      </c>
+      <c r="U150">
+        <v>1.9</v>
+      </c>
+      <c r="V150">
+        <v>1.9</v>
+      </c>
+      <c r="W150">
+        <v>-1</v>
+      </c>
+      <c r="X150">
+        <v>-1</v>
+      </c>
+      <c r="Y150">
+        <v>3.75</v>
+      </c>
+      <c r="Z150">
+        <v>-1</v>
+      </c>
+      <c r="AA150">
+        <v>0.925</v>
+      </c>
+      <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA148">
-        <v>-1</v>
-      </c>
-      <c r="AB148">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC148">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -124,13 +124,13 @@
     <t>HNK Sibenik</t>
   </si>
   <si>
-    <t>NK Solin</t>
+    <t>HNK Cibalia</t>
   </si>
   <si>
     <t>NK Sesvete</t>
   </si>
   <si>
-    <t>HNK Cibalia</t>
+    <t>NK Solin</t>
   </si>
   <si>
     <t>NK Zrinski Jurjevac</t>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1076,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6834729</v>
+        <v>6834733</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="N9">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O9">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P9">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
         <v>1.8</v>
       </c>
-      <c r="S9">
-        <v>2</v>
-      </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X9">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6834732</v>
+        <v>6834729</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,16 +1429,16 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
@@ -1453,37 +1453,37 @@
         <v>3.1</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O11">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P11">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q11">
         <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T11">
+        <v>2.5</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>1.8</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
         <v>2.25</v>
-      </c>
-      <c r="U11">
-        <v>1.825</v>
-      </c>
-      <c r="V11">
-        <v>1.975</v>
-      </c>
-      <c r="W11">
-        <v>-1</v>
-      </c>
-      <c r="X11">
-        <v>2.1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1492,13 +1492,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>0.3875</v>
+        <v>0.5</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6834733</v>
+        <v>6834732</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,76 +1518,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M12">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N12">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P12">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q12">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1785,7 +1785,7 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
@@ -1877,7 +1877,7 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2319,7 +2319,7 @@
         <v>45164.5</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>29</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6834742</v>
+        <v>6834743</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45164.5</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22">
         <v>3</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M22">
+        <v>2.1</v>
+      </c>
+      <c r="N22">
+        <v>1.95</v>
+      </c>
+      <c r="O22">
+        <v>3.4</v>
+      </c>
+      <c r="P22">
         <v>3.3</v>
       </c>
-      <c r="N22">
-        <v>2.15</v>
-      </c>
-      <c r="O22">
-        <v>3.1</v>
-      </c>
-      <c r="P22">
-        <v>3.1</v>
-      </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z22">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6834743</v>
+        <v>6834742</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>45164.5</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
         <v>0</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
+        <v>3.25</v>
+      </c>
+      <c r="M23">
         <v>3.3</v>
       </c>
-      <c r="M23">
-        <v>2.1</v>
-      </c>
       <c r="N23">
+        <v>2.15</v>
+      </c>
+      <c r="O23">
+        <v>3.1</v>
+      </c>
+      <c r="P23">
+        <v>3.1</v>
+      </c>
+      <c r="Q23">
+        <v>-0.25</v>
+      </c>
+      <c r="R23">
+        <v>1.9</v>
+      </c>
+      <c r="S23">
+        <v>1.9</v>
+      </c>
+      <c r="T23">
+        <v>2.25</v>
+      </c>
+      <c r="U23">
+        <v>1.75</v>
+      </c>
+      <c r="V23">
         <v>1.95</v>
       </c>
-      <c r="O23">
-        <v>3.4</v>
-      </c>
-      <c r="P23">
-        <v>3.3</v>
-      </c>
-      <c r="Q23">
-        <v>-0.5</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23">
-        <v>1.8</v>
-      </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>2</v>
-      </c>
-      <c r="V23">
-        <v>1.8</v>
-      </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6834746</v>
+        <v>6834748</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M27">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N27">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P27">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
+        <v>1.975</v>
+      </c>
+      <c r="S27">
         <v>1.825</v>
       </c>
-      <c r="S27">
-        <v>1.975</v>
-      </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X27">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA27">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6834748</v>
+        <v>6834746</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N28">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O28">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P28">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q28">
+        <v>-0.25</v>
+      </c>
+      <c r="R28">
+        <v>1.825</v>
+      </c>
+      <c r="S28">
+        <v>1.975</v>
+      </c>
+      <c r="T28">
+        <v>2.25</v>
+      </c>
+      <c r="U28">
+        <v>1.925</v>
+      </c>
+      <c r="V28">
+        <v>1.875</v>
+      </c>
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
+        <v>2.1</v>
+      </c>
+      <c r="Y28">
+        <v>-1</v>
+      </c>
+      <c r="Z28">
         <v>-0.5</v>
       </c>
-      <c r="R28">
-        <v>1.975</v>
-      </c>
-      <c r="S28">
-        <v>1.825</v>
-      </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
-      <c r="U28">
-        <v>1.9</v>
-      </c>
-      <c r="V28">
-        <v>1.9</v>
-      </c>
-      <c r="W28">
-        <v>0.909</v>
-      </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
-      <c r="Y28">
-        <v>-1</v>
-      </c>
-      <c r="Z28">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3031,7 +3031,7 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -3123,7 +3123,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6834753</v>
+        <v>6834752</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,58 +3476,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>45</v>
       </c>
       <c r="K34">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L34">
         <v>3.4</v>
       </c>
       <c r="M34">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N34">
+        <v>1.833</v>
+      </c>
+      <c r="O34">
+        <v>3.4</v>
+      </c>
+      <c r="P34">
         <v>4</v>
       </c>
-      <c r="O34">
-        <v>3.3</v>
-      </c>
-      <c r="P34">
-        <v>1.833</v>
-      </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W34">
-        <v>3</v>
+        <v>0.833</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3536,16 +3536,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6834752</v>
+        <v>6834753</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,58 +3565,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J35" t="s">
         <v>45</v>
       </c>
       <c r="K35">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L35">
         <v>3.4</v>
       </c>
       <c r="M35">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35">
+        <v>3.3</v>
+      </c>
+      <c r="P35">
         <v>1.833</v>
       </c>
-      <c r="O35">
-        <v>3.4</v>
-      </c>
-      <c r="P35">
-        <v>4</v>
-      </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
+        <v>1.975</v>
+      </c>
+      <c r="S35">
+        <v>1.825</v>
+      </c>
+      <c r="T35">
+        <v>2.5</v>
+      </c>
+      <c r="U35">
+        <v>1.95</v>
+      </c>
+      <c r="V35">
         <v>1.85</v>
       </c>
-      <c r="S35">
-        <v>1.95</v>
-      </c>
-      <c r="T35">
-        <v>2.25</v>
-      </c>
-      <c r="U35">
-        <v>1.8</v>
-      </c>
-      <c r="V35">
-        <v>2</v>
-      </c>
       <c r="W35">
-        <v>0.833</v>
+        <v>3</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3625,16 +3625,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,10 +3654,10 @@
         <v>45179.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
         <v>38</v>
-      </c>
-      <c r="G36" t="s">
-        <v>36</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -4099,7 +4099,7 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
@@ -4280,7 +4280,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4369,7 +4369,7 @@
         <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6834764</v>
+        <v>6834763</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,76 +4544,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>3.3</v>
+      </c>
+      <c r="M46">
+        <v>3.2</v>
+      </c>
+      <c r="N46">
+        <v>2.15</v>
+      </c>
+      <c r="O46">
+        <v>3.3</v>
+      </c>
+      <c r="P46">
+        <v>3.1</v>
+      </c>
+      <c r="Q46">
+        <v>-0.25</v>
+      </c>
+      <c r="R46">
+        <v>1.85</v>
+      </c>
+      <c r="S46">
         <v>1.95</v>
       </c>
-      <c r="L46">
-        <v>3.2</v>
-      </c>
-      <c r="M46">
-        <v>3.5</v>
-      </c>
-      <c r="N46">
-        <v>1.95</v>
-      </c>
-      <c r="O46">
-        <v>3</v>
-      </c>
-      <c r="P46">
-        <v>3.75</v>
-      </c>
-      <c r="Q46">
-        <v>-0.5</v>
-      </c>
-      <c r="R46">
-        <v>2.025</v>
-      </c>
-      <c r="S46">
-        <v>1.775</v>
-      </c>
       <c r="T46">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA46">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6834763</v>
+        <v>6834764</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M47">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N47">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O47">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P47">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z47">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4992,7 +4992,7 @@
         <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6834770</v>
+        <v>6834768</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,10 +5167,10 @@
         <v>45199.4375</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5182,34 +5182,34 @@
         <v>47</v>
       </c>
       <c r="K53">
-        <v>1.85</v>
+        <v>2.375</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="N53">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="O53">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P53">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q53">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
         <v>1.9</v>
@@ -5221,16 +5221,16 @@
         <v>-1</v>
       </c>
       <c r="X53">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA53">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AB53">
         <v>-1</v>
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6834768</v>
+        <v>6834770</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,10 +5256,10 @@
         <v>45199.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5271,34 +5271,34 @@
         <v>47</v>
       </c>
       <c r="K54">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="L54">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="N54">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P54">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
         <v>1.9</v>
@@ -5310,16 +5310,16 @@
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB54">
         <v>-1</v>
@@ -5701,7 +5701,7 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
@@ -5882,7 +5882,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6834783</v>
+        <v>6834781</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,73 +6060,73 @@
         <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K63">
+        <v>1.666</v>
+      </c>
+      <c r="L63">
+        <v>3.8</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63">
+        <v>1.75</v>
+      </c>
+      <c r="O63">
+        <v>3.5</v>
+      </c>
+      <c r="P63">
+        <v>3.8</v>
+      </c>
+      <c r="Q63">
+        <v>-0.75</v>
+      </c>
+      <c r="R63">
+        <v>1.95</v>
+      </c>
+      <c r="S63">
+        <v>1.75</v>
+      </c>
+      <c r="T63">
         <v>2.25</v>
       </c>
-      <c r="L63">
-        <v>3.25</v>
-      </c>
-      <c r="M63">
-        <v>2.75</v>
-      </c>
-      <c r="N63">
-        <v>1.95</v>
-      </c>
-      <c r="O63">
-        <v>3.3</v>
-      </c>
-      <c r="P63">
-        <v>3.25</v>
-      </c>
-      <c r="Q63">
-        <v>-0.25</v>
-      </c>
-      <c r="R63">
-        <v>1.75</v>
-      </c>
-      <c r="S63">
-        <v>1.95</v>
-      </c>
-      <c r="T63">
-        <v>2.75</v>
-      </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.475</v>
+        <v>0.75</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6223,7 +6223,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6834781</v>
+        <v>6834783</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6238,73 +6238,73 @@
         <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K65">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L65">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N65">
+        <v>1.95</v>
+      </c>
+      <c r="O65">
+        <v>3.3</v>
+      </c>
+      <c r="P65">
+        <v>3.25</v>
+      </c>
+      <c r="Q65">
+        <v>-0.25</v>
+      </c>
+      <c r="R65">
         <v>1.75</v>
       </c>
-      <c r="O65">
-        <v>3.5</v>
-      </c>
-      <c r="P65">
-        <v>3.8</v>
-      </c>
-      <c r="Q65">
-        <v>-0.75</v>
-      </c>
-      <c r="R65">
+      <c r="S65">
         <v>1.95</v>
       </c>
-      <c r="S65">
-        <v>1.75</v>
-      </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y65">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>0.75</v>
+        <v>0.475</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6683,7 +6683,7 @@
         <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H70">
         <v>4</v>
@@ -6772,7 +6772,7 @@
         <v>40</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -7217,7 +7217,7 @@
         <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7395,7 +7395,7 @@
         <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -7837,7 +7837,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
         <v>41</v>
@@ -8018,7 +8018,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
         <v>39</v>
@@ -8552,7 +8552,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6834809</v>
+        <v>7481395</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L92">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M92">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N92">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="O92">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P92">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R92">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z92">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>7481395</v>
+        <v>6834809</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,76 +8727,76 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K93">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L93">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M93">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N93">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="O93">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P93">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q93">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S93">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
         <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8819,7 +8819,7 @@
         <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6835155</v>
+        <v>6834813</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,76 +8994,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L96">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N96">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O96">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
+        <v>1.925</v>
+      </c>
+      <c r="V96">
         <v>1.875</v>
       </c>
-      <c r="V96">
-        <v>1.925</v>
-      </c>
       <c r="W96">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB96">
         <v>-0.5</v>
       </c>
       <c r="AC96">
-        <v>0.4625</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6834813</v>
+        <v>6835155</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K97">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N97">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P97">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
         <v>2.25</v>
       </c>
       <c r="U97">
+        <v>1.875</v>
+      </c>
+      <c r="V97">
         <v>1.925</v>
       </c>
-      <c r="V97">
-        <v>1.875</v>
-      </c>
       <c r="W97">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X97">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA97">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
         <v>-0.5</v>
       </c>
       <c r="AC97">
-        <v>0.4375</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9261,10 +9261,10 @@
         <v>45255.36805555555</v>
       </c>
       <c r="F99" t="s">
+        <v>38</v>
+      </c>
+      <c r="G99" t="s">
         <v>36</v>
-      </c>
-      <c r="G99" t="s">
-        <v>38</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9884,7 +9884,7 @@
         <v>45262.35416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
         <v>35</v>
@@ -10332,7 +10332,7 @@
         <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6834828</v>
+        <v>6834826</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,28 +10418,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>47</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
         <v>3.1</v>
-      </c>
-      <c r="M112">
-        <v>3.4</v>
       </c>
       <c r="N112">
         <v>2.25</v>
@@ -10448,7 +10448,7 @@
         <v>3</v>
       </c>
       <c r="P112">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q112">
         <v>-0.25</v>
@@ -10463,10 +10463,10 @@
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10484,10 +10484,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6834826</v>
+        <v>6834828</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,28 +10507,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>47</v>
       </c>
       <c r="K113">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M113">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
         <v>2.25</v>
@@ -10537,7 +10537,7 @@
         <v>3</v>
       </c>
       <c r="P113">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q113">
         <v>-0.25</v>
@@ -10552,10 +10552,10 @@
         <v>2.25</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,10 +10573,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB113">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11041,7 +11041,7 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
         <v>33</v>
@@ -11222,7 +11222,7 @@
         <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11489,7 +11489,7 @@
         <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6834840</v>
+        <v>6834841</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K126">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M126">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N126">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O126">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P126">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R126">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S126">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U126">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V126">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z126">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB126">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6834841</v>
+        <v>6834840</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,76 +11753,76 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K127">
+        <v>2.5</v>
+      </c>
+      <c r="L127">
+        <v>3.2</v>
+      </c>
+      <c r="M127">
+        <v>2.5</v>
+      </c>
+      <c r="N127">
+        <v>2.5</v>
+      </c>
+      <c r="O127">
+        <v>3.2</v>
+      </c>
+      <c r="P127">
+        <v>2.5</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>1.9</v>
+      </c>
+      <c r="S127">
+        <v>1.9</v>
+      </c>
+      <c r="T127">
+        <v>2.25</v>
+      </c>
+      <c r="U127">
+        <v>1.825</v>
+      </c>
+      <c r="V127">
+        <v>1.975</v>
+      </c>
+      <c r="W127">
         <v>1.5</v>
       </c>
-      <c r="L127">
-        <v>4.2</v>
-      </c>
-      <c r="M127">
-        <v>4.75</v>
-      </c>
-      <c r="N127">
-        <v>1.4</v>
-      </c>
-      <c r="O127">
-        <v>4.75</v>
-      </c>
-      <c r="P127">
-        <v>5.5</v>
-      </c>
-      <c r="Q127">
-        <v>-1.25</v>
-      </c>
-      <c r="R127">
-        <v>1.95</v>
-      </c>
-      <c r="S127">
-        <v>1.85</v>
-      </c>
-      <c r="T127">
-        <v>2.75</v>
-      </c>
-      <c r="U127">
-        <v>1.95</v>
-      </c>
-      <c r="V127">
-        <v>1.85</v>
-      </c>
-      <c r="W127">
-        <v>-1</v>
-      </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11845,7 +11845,7 @@
         <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H128">
         <v>4</v>
@@ -12023,7 +12023,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12376,7 +12376,7 @@
         <v>45366.45138888889</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G134" t="s">
         <v>42</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6834848</v>
+        <v>6834852</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,10 +12554,10 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -12569,61 +12569,61 @@
         <v>45</v>
       </c>
       <c r="K136">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M136">
-        <v>2.875</v>
+        <v>7</v>
       </c>
       <c r="N136">
-        <v>2.45</v>
+        <v>1.142</v>
       </c>
       <c r="O136">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="P136">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="Q136">
+        <v>-2</v>
+      </c>
+      <c r="R136">
+        <v>1.95</v>
+      </c>
+      <c r="S136">
+        <v>1.85</v>
+      </c>
+      <c r="T136">
+        <v>2.75</v>
+      </c>
+      <c r="U136">
+        <v>1.825</v>
+      </c>
+      <c r="V136">
+        <v>1.975</v>
+      </c>
+      <c r="W136">
+        <v>0.1419999999999999</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
         <v>0</v>
       </c>
-      <c r="R136">
-        <v>1.85</v>
-      </c>
-      <c r="S136">
-        <v>1.95</v>
-      </c>
-      <c r="T136">
-        <v>2.25</v>
-      </c>
-      <c r="U136">
-        <v>1.975</v>
-      </c>
-      <c r="V136">
-        <v>1.725</v>
-      </c>
-      <c r="W136">
-        <v>1.45</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
-      <c r="Z136">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB136">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6834852</v>
+        <v>6834848</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,10 +12643,10 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -12658,43 +12658,43 @@
         <v>45</v>
       </c>
       <c r="K137">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L137">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>7</v>
+        <v>2.875</v>
       </c>
       <c r="N137">
-        <v>1.142</v>
+        <v>2.45</v>
       </c>
       <c r="O137">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="P137">
-        <v>17</v>
+        <v>2.55</v>
       </c>
       <c r="Q137">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R137">
+        <v>1.85</v>
+      </c>
+      <c r="S137">
         <v>1.95</v>
       </c>
-      <c r="S137">
-        <v>1.85</v>
-      </c>
       <c r="T137">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="W137">
-        <v>0.1419999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12703,16 +12703,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA137">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>0.9750000000000001</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>45368.36805555555</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G139" t="s">
         <v>40</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7977238</v>
+        <v>7977239</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,73 +13088,73 @@
         <v>45374.47916666666</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L142">
+        <v>3.2</v>
+      </c>
+      <c r="M142">
         <v>3.3</v>
       </c>
-      <c r="M142">
-        <v>3.5</v>
-      </c>
       <c r="N142">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O142">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P142">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V142">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y142">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA142">
-        <v>0.8500000000000001</v>
+        <v>0.3625</v>
       </c>
       <c r="AB142">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7977239</v>
+        <v>7977238</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,73 +13266,73 @@
         <v>45374.47916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K144">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L144">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M144">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N144">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P144">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q144">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V144">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z144">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>0.3625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13358,7 +13358,7 @@
         <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7977243</v>
+        <v>7977245</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45379.47916666666</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K147">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L147">
+        <v>3.1</v>
+      </c>
+      <c r="M147">
         <v>3.4</v>
       </c>
-      <c r="M147">
-        <v>2.5</v>
-      </c>
       <c r="N147">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O147">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P147">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V147">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7977245</v>
+        <v>7977243</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,76 +13622,76 @@
         <v>45379.47916666666</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K148">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L148">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N148">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O148">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P148">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
         <v>2.25</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="W148">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X148">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA148">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13711,7 +13711,7 @@
         <v>45380.40625</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
         <v>43</v>
@@ -13800,7 +13800,7 @@
         <v>45380.47916666666</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
         <v>29</v>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -112,25 +112,25 @@
     <t>Bijelo Brdo</t>
   </si>
   <si>
-    <t>NK Kustosija</t>
+    <t>NK Croatia Zmijavci</t>
   </si>
   <si>
     <t>Orijent</t>
   </si>
   <si>
-    <t>NK Croatia Zmijavci</t>
+    <t>NK Kustosija</t>
   </si>
   <si>
     <t>HNK Sibenik</t>
+  </si>
+  <si>
+    <t>NK Solin</t>
   </si>
   <si>
     <t>HNK Cibalia</t>
   </si>
   <si>
     <t>NK Sesvete</t>
-  </si>
-  <si>
-    <t>NK Solin</t>
   </si>
   <si>
     <t>NK Zrinski Jurjevac</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC150"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6425845</v>
+        <v>6425847</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,16 +898,16 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>2.1</v>
@@ -919,25 +919,25 @@
         <v>2.875</v>
       </c>
       <c r="N5">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O5">
         <v>3.5</v>
       </c>
       <c r="P5">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
         <v>2</v>
@@ -946,25 +946,25 @@
         <v>1.8</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA5">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6425847</v>
+        <v>6425845</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,16 +1076,16 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>2.1</v>
@@ -1097,25 +1097,25 @@
         <v>2.875</v>
       </c>
       <c r="N7">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O7">
         <v>3.5</v>
       </c>
       <c r="P7">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="Q7">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
         <v>2</v>
@@ -1124,25 +1124,25 @@
         <v>1.8</v>
       </c>
       <c r="W7">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB7">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6834733</v>
+        <v>6834729</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K9">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M9">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N9">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O9">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P9">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q9">
+        <v>-0.25</v>
+      </c>
+      <c r="R9">
+        <v>1.8</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>2.5</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>1.8</v>
+      </c>
+      <c r="W9">
+        <v>-1</v>
+      </c>
+      <c r="X9">
+        <v>2.25</v>
+      </c>
+      <c r="Y9">
+        <v>-1</v>
+      </c>
+      <c r="Z9">
         <v>-0.5</v>
       </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>1.8</v>
-      </c>
-      <c r="T9">
-        <v>2.25</v>
-      </c>
-      <c r="U9">
-        <v>1.95</v>
-      </c>
-      <c r="V9">
-        <v>1.85</v>
-      </c>
-      <c r="W9">
-        <v>0.909</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <v>-1</v>
-      </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7045999</v>
+        <v>6834733</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1343,73 +1343,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="J10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10">
+        <v>1.65</v>
+      </c>
+      <c r="L10">
+        <v>3.5</v>
+      </c>
+      <c r="M10">
+        <v>4.5</v>
+      </c>
+      <c r="N10">
+        <v>1.909</v>
+      </c>
+      <c r="O10">
+        <v>3.3</v>
+      </c>
+      <c r="P10">
+        <v>3.3</v>
+      </c>
+      <c r="Q10">
+        <v>-0.5</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1.8</v>
+      </c>
+      <c r="T10">
+        <v>2.25</v>
+      </c>
+      <c r="U10">
+        <v>1.95</v>
+      </c>
+      <c r="V10">
+        <v>1.85</v>
+      </c>
+      <c r="W10">
+        <v>0.909</v>
+      </c>
+      <c r="X10">
+        <v>-1</v>
+      </c>
+      <c r="Y10">
+        <v>-1</v>
+      </c>
+      <c r="Z10">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10">
-        <v>2.4</v>
-      </c>
-      <c r="L10">
-        <v>3.25</v>
-      </c>
-      <c r="M10">
-        <v>2.6</v>
-      </c>
-      <c r="N10">
-        <v>2.4</v>
-      </c>
-      <c r="O10">
-        <v>3.25</v>
-      </c>
-      <c r="P10">
-        <v>2.6</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>1.775</v>
-      </c>
-      <c r="S10">
-        <v>2.025</v>
-      </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-      <c r="U10">
-        <v>1.775</v>
-      </c>
-      <c r="V10">
-        <v>2.025</v>
-      </c>
-      <c r="W10">
-        <v>-1</v>
-      </c>
-      <c r="X10">
-        <v>-1</v>
-      </c>
-      <c r="Y10">
-        <v>1.6</v>
-      </c>
-      <c r="Z10">
-        <v>-1</v>
-      </c>
       <c r="AA10">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
         <v>-1</v>
       </c>
       <c r="AC10">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6834729</v>
+        <v>6834732</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,16 +1429,16 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
@@ -1453,37 +1453,37 @@
         <v>3.1</v>
       </c>
       <c r="N11">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O11">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P11">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q11">
         <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T11">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V11">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1492,13 +1492,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC11">
-        <v>0.8</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6834732</v>
+        <v>7045999</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,76 +1518,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L12">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N12">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P12">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R12">
+        <v>1.775</v>
+      </c>
+      <c r="S12">
         <v>2.025</v>
       </c>
-      <c r="S12">
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12">
         <v>1.775</v>
       </c>
-      <c r="T12">
-        <v>2.25</v>
-      </c>
-      <c r="U12">
-        <v>1.825</v>
-      </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.3875</v>
+        <v>1.025</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6834738</v>
+        <v>6834734</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,76 +1785,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L15">
         <v>3.2</v>
       </c>
       <c r="M15">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="N15">
+        <v>2.2</v>
+      </c>
+      <c r="O15">
         <v>3.2</v>
       </c>
-      <c r="O15">
-        <v>3.3</v>
-      </c>
       <c r="P15">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="Q15">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y15">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB15">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6834735</v>
+        <v>6834738</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,76 +1874,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M16">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N16">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P16">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R16">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V16">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB16">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC16">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6834734</v>
+        <v>6834735</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,10 +1963,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1978,61 +1978,61 @@
         <v>47</v>
       </c>
       <c r="K17">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L17">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N17">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O17">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S17">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
         <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,10 +2052,10 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6834744</v>
+        <v>6834742</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,58 +2319,58 @@
         <v>45164.5</v>
       </c>
       <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
         <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>29</v>
       </c>
       <c r="H21">
         <v>3</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>45</v>
       </c>
       <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>3.25</v>
+      </c>
+      <c r="M21">
+        <v>3.3</v>
+      </c>
+      <c r="N21">
+        <v>2.15</v>
+      </c>
+      <c r="O21">
+        <v>3.1</v>
+      </c>
+      <c r="P21">
+        <v>3.1</v>
+      </c>
+      <c r="Q21">
+        <v>-0.25</v>
+      </c>
+      <c r="R21">
+        <v>1.9</v>
+      </c>
+      <c r="S21">
+        <v>1.9</v>
+      </c>
+      <c r="T21">
+        <v>2.25</v>
+      </c>
+      <c r="U21">
         <v>1.75</v>
       </c>
-      <c r="L21">
-        <v>3.4</v>
-      </c>
-      <c r="M21">
-        <v>4</v>
-      </c>
-      <c r="N21">
-        <v>1.666</v>
-      </c>
-      <c r="O21">
-        <v>3.6</v>
-      </c>
-      <c r="P21">
-        <v>4.2</v>
-      </c>
-      <c r="Q21">
-        <v>-0.75</v>
-      </c>
-      <c r="R21">
-        <v>1.925</v>
-      </c>
-      <c r="S21">
-        <v>1.875</v>
-      </c>
-      <c r="T21">
-        <v>2.5</v>
-      </c>
-      <c r="U21">
-        <v>1.825</v>
-      </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>0.6659999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2379,13 +2379,13 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.825</v>
+        <v>0.75</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6834742</v>
+        <v>6834744</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,58 +2497,58 @@
         <v>45164.5</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H23">
         <v>3</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>45</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="L23">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="N23">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O23">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
-        <v>1.15</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2557,13 +2557,13 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2675,7 +2675,7 @@
         <v>45166.5</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6834748</v>
+        <v>6834746</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="N27">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O27">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P27">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q27">
+        <v>-0.25</v>
+      </c>
+      <c r="R27">
+        <v>1.825</v>
+      </c>
+      <c r="S27">
+        <v>1.975</v>
+      </c>
+      <c r="T27">
+        <v>2.25</v>
+      </c>
+      <c r="U27">
+        <v>1.925</v>
+      </c>
+      <c r="V27">
+        <v>1.875</v>
+      </c>
+      <c r="W27">
+        <v>-1</v>
+      </c>
+      <c r="X27">
+        <v>2.1</v>
+      </c>
+      <c r="Y27">
+        <v>-1</v>
+      </c>
+      <c r="Z27">
         <v>-0.5</v>
       </c>
-      <c r="R27">
-        <v>1.975</v>
-      </c>
-      <c r="S27">
-        <v>1.825</v>
-      </c>
-      <c r="T27">
-        <v>2.5</v>
-      </c>
-      <c r="U27">
-        <v>1.9</v>
-      </c>
-      <c r="V27">
-        <v>1.9</v>
-      </c>
-      <c r="W27">
-        <v>0.909</v>
-      </c>
-      <c r="X27">
-        <v>-1</v>
-      </c>
-      <c r="Y27">
-        <v>-1</v>
-      </c>
-      <c r="Z27">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6834746</v>
+        <v>6834748</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L28">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N28">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O28">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P28">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
+        <v>1.975</v>
+      </c>
+      <c r="S28">
         <v>1.825</v>
       </c>
-      <c r="S28">
-        <v>1.975</v>
-      </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA28">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3031,7 +3031,7 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -3123,7 +3123,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3298,7 +3298,7 @@
         <v>45177.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6834755</v>
+        <v>6834752</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,13 +3387,13 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3402,43 +3402,43 @@
         <v>45</v>
       </c>
       <c r="K33">
+        <v>1.727</v>
+      </c>
+      <c r="L33">
+        <v>3.4</v>
+      </c>
+      <c r="M33">
+        <v>4.2</v>
+      </c>
+      <c r="N33">
+        <v>1.833</v>
+      </c>
+      <c r="O33">
+        <v>3.4</v>
+      </c>
+      <c r="P33">
+        <v>4</v>
+      </c>
+      <c r="Q33">
+        <v>-0.5</v>
+      </c>
+      <c r="R33">
+        <v>1.85</v>
+      </c>
+      <c r="S33">
+        <v>1.95</v>
+      </c>
+      <c r="T33">
         <v>2.25</v>
       </c>
-      <c r="L33">
-        <v>3.25</v>
-      </c>
-      <c r="M33">
-        <v>2.75</v>
-      </c>
-      <c r="N33">
-        <v>1.666</v>
-      </c>
-      <c r="O33">
-        <v>3.5</v>
-      </c>
-      <c r="P33">
-        <v>4.2</v>
-      </c>
-      <c r="Q33">
-        <v>-0.75</v>
-      </c>
-      <c r="R33">
-        <v>2</v>
-      </c>
-      <c r="S33">
+      <c r="U33">
         <v>1.8</v>
       </c>
-      <c r="T33">
-        <v>2.5</v>
-      </c>
-      <c r="U33">
-        <v>2.025</v>
-      </c>
       <c r="V33">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>0.6659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3447,16 +3447,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA33">
+        <v>-1</v>
+      </c>
+      <c r="AB33">
+        <v>-1</v>
+      </c>
+      <c r="AC33">
         <v>1</v>
-      </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
-      <c r="AB33">
-        <v>1.025</v>
-      </c>
-      <c r="AC33">
-        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6834752</v>
+        <v>6834753</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,58 +3476,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
         <v>45</v>
       </c>
       <c r="K34">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L34">
         <v>3.4</v>
       </c>
       <c r="M34">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>3.3</v>
+      </c>
+      <c r="P34">
         <v>1.833</v>
       </c>
-      <c r="O34">
-        <v>3.4</v>
-      </c>
-      <c r="P34">
-        <v>4</v>
-      </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
+        <v>1.975</v>
+      </c>
+      <c r="S34">
+        <v>1.825</v>
+      </c>
+      <c r="T34">
+        <v>2.5</v>
+      </c>
+      <c r="U34">
+        <v>1.95</v>
+      </c>
+      <c r="V34">
         <v>1.85</v>
       </c>
-      <c r="S34">
-        <v>1.95</v>
-      </c>
-      <c r="T34">
-        <v>2.25</v>
-      </c>
-      <c r="U34">
-        <v>1.8</v>
-      </c>
-      <c r="V34">
-        <v>2</v>
-      </c>
       <c r="W34">
-        <v>0.833</v>
+        <v>3</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3536,16 +3536,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6834753</v>
+        <v>6834755</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,58 +3565,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>45</v>
       </c>
       <c r="K35">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M35">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="N35">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="O35">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T35">
         <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W35">
-        <v>3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3625,13 +3625,13 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3654,10 +3654,10 @@
         <v>45179.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" t="s">
         <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>38</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3743,7 +3743,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -4013,7 +4013,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4099,10 +4099,10 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
         <v>38</v>
-      </c>
-      <c r="G41" t="s">
-        <v>37</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4280,7 +4280,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4369,7 +4369,7 @@
         <v>42</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4455,7 +4455,7 @@
         <v>45192.41666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
         <v>35</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6834763</v>
+        <v>6834764</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,76 +4544,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L46">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N46">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O46">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6834764</v>
+        <v>6834763</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>3.3</v>
+      </c>
+      <c r="M47">
+        <v>3.2</v>
+      </c>
+      <c r="N47">
+        <v>2.15</v>
+      </c>
+      <c r="O47">
+        <v>3.3</v>
+      </c>
+      <c r="P47">
+        <v>3.1</v>
+      </c>
+      <c r="Q47">
+        <v>-0.25</v>
+      </c>
+      <c r="R47">
+        <v>1.85</v>
+      </c>
+      <c r="S47">
         <v>1.95</v>
       </c>
-      <c r="L47">
-        <v>3.2</v>
-      </c>
-      <c r="M47">
-        <v>3.5</v>
-      </c>
-      <c r="N47">
-        <v>1.95</v>
-      </c>
-      <c r="O47">
-        <v>3</v>
-      </c>
-      <c r="P47">
-        <v>3.75</v>
-      </c>
-      <c r="Q47">
-        <v>-0.5</v>
-      </c>
-      <c r="R47">
-        <v>2.025</v>
-      </c>
-      <c r="S47">
-        <v>1.775</v>
-      </c>
       <c r="T47">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4722,7 +4722,7 @@
         <v>45193.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
@@ -4903,7 +4903,7 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4992,7 +4992,7 @@
         <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5256,10 +5256,10 @@
         <v>45199.4375</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5434,7 +5434,7 @@
         <v>45205.41666666666</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5600,7 +5600,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6834775</v>
+        <v>6834774</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5612,40 +5612,40 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F58" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K58">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="L58">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="N58">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O58">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R58">
         <v>1.925</v>
@@ -5657,31 +5657,31 @@
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z58">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB58">
         <v>-1</v>
       </c>
       <c r="AC58">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6834774</v>
+        <v>6834775</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,40 +5701,40 @@
         <v>45206.41666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H59">
         <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L59">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M59">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="N59">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O59">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P59">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q59">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
         <v>1.925</v>
@@ -5746,31 +5746,31 @@
         <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y59">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA59">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5790,7 +5790,7 @@
         <v>45207.41666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>35</v>
@@ -5882,7 +5882,7 @@
         <v>41</v>
       </c>
       <c r="G61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6834781</v>
+        <v>6834779</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,76 +6057,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63">
         <v>0</v>
       </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K63">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="L63">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M63">
+        <v>5</v>
+      </c>
+      <c r="N63">
+        <v>1.6</v>
+      </c>
+      <c r="O63">
         <v>4</v>
       </c>
-      <c r="N63">
-        <v>1.75</v>
-      </c>
-      <c r="O63">
-        <v>3.5</v>
-      </c>
       <c r="P63">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q63">
         <v>-0.75</v>
       </c>
       <c r="R63">
+        <v>1.8</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>2.5</v>
+      </c>
+      <c r="U63">
         <v>1.95</v>
       </c>
-      <c r="S63">
+      <c r="V63">
         <v>1.75</v>
       </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
-      <c r="U63">
-        <v>2</v>
-      </c>
-      <c r="V63">
-        <v>1.8</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA63">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6834779</v>
+        <v>6834781</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,76 +6146,76 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>46</v>
+      </c>
+      <c r="K64">
+        <v>1.666</v>
+      </c>
+      <c r="L64">
+        <v>3.8</v>
+      </c>
+      <c r="M64">
         <v>4</v>
       </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64" t="s">
-        <v>45</v>
-      </c>
-      <c r="K64">
-        <v>1.5</v>
-      </c>
-      <c r="L64">
-        <v>4</v>
-      </c>
-      <c r="M64">
-        <v>5</v>
-      </c>
       <c r="N64">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q64">
         <v>-0.75</v>
       </c>
       <c r="R64">
+        <v>1.95</v>
+      </c>
+      <c r="S64">
+        <v>1.75</v>
+      </c>
+      <c r="T64">
+        <v>2.25</v>
+      </c>
+      <c r="U64">
+        <v>2</v>
+      </c>
+      <c r="V64">
         <v>1.8</v>
       </c>
-      <c r="S64">
-        <v>2</v>
-      </c>
-      <c r="T64">
-        <v>2.5</v>
-      </c>
-      <c r="U64">
-        <v>1.95</v>
-      </c>
-      <c r="V64">
-        <v>1.75</v>
-      </c>
       <c r="W64">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X64">
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
+        <v>0.75</v>
+      </c>
+      <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.8</v>
-      </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
-      <c r="AB64">
-        <v>0.95</v>
-      </c>
-      <c r="AC64">
-        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>45213.41666666666</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>29</v>
@@ -6502,7 +6502,7 @@
         <v>45219.41666666666</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
         <v>31</v>
@@ -6668,7 +6668,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6834786</v>
+        <v>6834789</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6680,73 +6680,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G70" t="s">
         <v>36</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L70">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N70">
-        <v>1.666</v>
+        <v>1.45</v>
       </c>
       <c r="O70">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>1.8</v>
+      </c>
+      <c r="T70">
+        <v>2.75</v>
+      </c>
+      <c r="U70">
+        <v>1.825</v>
+      </c>
+      <c r="V70">
         <v>1.975</v>
       </c>
-      <c r="S70">
-        <v>1.825</v>
-      </c>
-      <c r="T70">
-        <v>2.25</v>
-      </c>
-      <c r="U70">
-        <v>1.875</v>
-      </c>
-      <c r="V70">
-        <v>1.925</v>
-      </c>
       <c r="W70">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB70">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6757,7 +6757,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6834789</v>
+        <v>6834786</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6769,73 +6769,73 @@
         <v>45220.41666666666</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K71">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L71">
+        <v>3.1</v>
+      </c>
+      <c r="M71">
         <v>3.75</v>
       </c>
-      <c r="M71">
-        <v>5.5</v>
-      </c>
       <c r="N71">
-        <v>1.45</v>
+        <v>1.666</v>
       </c>
       <c r="O71">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X71">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6858,7 +6858,7 @@
         <v>45221.41666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
         <v>33</v>
@@ -7202,7 +7202,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6834791</v>
+        <v>6834795</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7214,7 +7214,7 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s">
         <v>38</v>
@@ -7229,61 +7229,61 @@
         <v>47</v>
       </c>
       <c r="K76">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L76">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M76">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="N76">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O76">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S76">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V76">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,7 +7291,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6834795</v>
+        <v>6834791</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7303,10 +7303,10 @@
         <v>45227.41666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7318,61 +7318,61 @@
         <v>47</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M77">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="N77">
-        <v>1.6</v>
+        <v>2.25</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P77">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T77">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC77">
-        <v>0.8</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7392,10 +7392,10 @@
         <v>45228.41666666666</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -7570,10 +7570,10 @@
         <v>45233.41666666666</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6834798</v>
+        <v>6834800</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L82">
         <v>3.6</v>
       </c>
       <c r="M82">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="N82">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="O82">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7837,7 +7837,7 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
         <v>41</v>
@@ -7914,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6834800</v>
+        <v>6834798</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7926,76 +7926,76 @@
         <v>45234.41666666666</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L84">
         <v>3.6</v>
       </c>
       <c r="M84">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="N84">
-        <v>1.909</v>
+        <v>1.615</v>
       </c>
       <c r="O84">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P84">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q84">
+        <v>-0.75</v>
+      </c>
+      <c r="R84">
+        <v>1.85</v>
+      </c>
+      <c r="S84">
+        <v>1.95</v>
+      </c>
+      <c r="T84">
+        <v>2.25</v>
+      </c>
+      <c r="U84">
+        <v>1.875</v>
+      </c>
+      <c r="V84">
+        <v>1.925</v>
+      </c>
+      <c r="W84">
+        <v>-1</v>
+      </c>
+      <c r="X84">
+        <v>2.5</v>
+      </c>
+      <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
+        <v>-1</v>
+      </c>
+      <c r="AA84">
+        <v>0.95</v>
+      </c>
+      <c r="AB84">
         <v>-0.5</v>
       </c>
-      <c r="R84">
-        <v>1.975</v>
-      </c>
-      <c r="S84">
-        <v>1.825</v>
-      </c>
-      <c r="T84">
-        <v>2.75</v>
-      </c>
-      <c r="U84">
-        <v>1.9</v>
-      </c>
-      <c r="V84">
-        <v>1.9</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
-      <c r="X84">
-        <v>-1</v>
-      </c>
-      <c r="Y84">
-        <v>2.1</v>
-      </c>
-      <c r="Z84">
-        <v>-1</v>
-      </c>
-      <c r="AA84">
-        <v>0.825</v>
-      </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
       <c r="AC84">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8018,7 +8018,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8104,7 +8104,7 @@
         <v>45240.41666666666</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>39</v>
@@ -8196,7 +8196,7 @@
         <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8460,7 +8460,7 @@
         <v>45242.41666666666</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
         <v>42</v>
@@ -8552,7 +8552,7 @@
         <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8626,7 +8626,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>7481395</v>
+        <v>6834809</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8638,76 +8638,76 @@
         <v>45247.39583333334</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K92">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="L92">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M92">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N92">
-        <v>3.1</v>
+        <v>1.727</v>
       </c>
       <c r="O92">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P92">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q92">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T92">
         <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6834809</v>
+        <v>7481395</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8730,73 +8730,73 @@
         <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
-        <v>1.909</v>
+        <v>2.6</v>
       </c>
       <c r="L93">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M93">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N93">
-        <v>1.727</v>
+        <v>3.1</v>
       </c>
       <c r="O93">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P93">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q93">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R93">
-        <v>1.75</v>
+        <v>1.725</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T93">
         <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6834812</v>
+        <v>6834810</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,76 +8816,76 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K94">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="L94">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N94">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O94">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P94">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T94">
         <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V94">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.5125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC94">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6834810</v>
+        <v>6834812</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,76 +8905,76 @@
         <v>45248.39583333334</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L95">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N95">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P95">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y95">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>0.9750000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB95">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8994,7 +8994,7 @@
         <v>45249.39583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
         <v>31</v>
@@ -9175,7 +9175,7 @@
         <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9261,10 +9261,10 @@
         <v>45255.36805555555</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6834814</v>
+        <v>6834819</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,76 +9350,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L100">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M100">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="N100">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="O100">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>1.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q100">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA100">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC100">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6834819</v>
+        <v>6834814</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,76 +9439,76 @@
         <v>45255.39583333334</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K101">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L101">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M101">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="N101">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="O101">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P101">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W101">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z101">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB101">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9795,10 +9795,10 @@
         <v>45261.39583333334</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9884,7 +9884,7 @@
         <v>45262.35416666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
         <v>35</v>
@@ -10151,7 +10151,7 @@
         <v>45263.39583333334</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>29</v>
@@ -10332,7 +10332,7 @@
         <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -10406,7 +10406,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6834826</v>
+        <v>6834828</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10418,28 +10418,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>47</v>
       </c>
       <c r="K112">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L112">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M112">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N112">
         <v>2.25</v>
@@ -10448,7 +10448,7 @@
         <v>3</v>
       </c>
       <c r="P112">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="Q112">
         <v>-0.25</v>
@@ -10463,10 +10463,10 @@
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W112">
         <v>-1</v>
@@ -10484,10 +10484,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB112">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6834828</v>
+        <v>6834826</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10507,28 +10507,28 @@
         <v>45339.4375</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>47</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
         <v>3.1</v>
-      </c>
-      <c r="M113">
-        <v>3.4</v>
       </c>
       <c r="N113">
         <v>2.25</v>
@@ -10537,7 +10537,7 @@
         <v>3</v>
       </c>
       <c r="P113">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="Q113">
         <v>-0.25</v>
@@ -10552,10 +10552,10 @@
         <v>2.25</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
         <v>-1</v>
@@ -10573,10 +10573,10 @@
         <v>0.3875</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10599,7 +10599,7 @@
         <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -10688,7 +10688,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10774,7 +10774,7 @@
         <v>45345.45138888889</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
         <v>39</v>
@@ -11041,7 +11041,7 @@
         <v>45346.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
         <v>33</v>
@@ -11219,10 +11219,10 @@
         <v>45349.45833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H121">
         <v>2</v>
@@ -11400,7 +11400,7 @@
         <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11489,7 +11489,7 @@
         <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11578,7 +11578,7 @@
         <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6834841</v>
+        <v>6834840</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K126">
+        <v>2.5</v>
+      </c>
+      <c r="L126">
+        <v>3.2</v>
+      </c>
+      <c r="M126">
+        <v>2.5</v>
+      </c>
+      <c r="N126">
+        <v>2.5</v>
+      </c>
+      <c r="O126">
+        <v>3.2</v>
+      </c>
+      <c r="P126">
+        <v>2.5</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>1.9</v>
+      </c>
+      <c r="S126">
+        <v>1.9</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
+        <v>1.825</v>
+      </c>
+      <c r="V126">
+        <v>1.975</v>
+      </c>
+      <c r="W126">
         <v>1.5</v>
       </c>
-      <c r="L126">
-        <v>4.2</v>
-      </c>
-      <c r="M126">
-        <v>4.75</v>
-      </c>
-      <c r="N126">
-        <v>1.4</v>
-      </c>
-      <c r="O126">
-        <v>4.75</v>
-      </c>
-      <c r="P126">
-        <v>5.5</v>
-      </c>
-      <c r="Q126">
-        <v>-1.25</v>
-      </c>
-      <c r="R126">
-        <v>1.95</v>
-      </c>
-      <c r="S126">
-        <v>1.85</v>
-      </c>
-      <c r="T126">
-        <v>2.75</v>
-      </c>
-      <c r="U126">
-        <v>1.95</v>
-      </c>
-      <c r="V126">
-        <v>1.85</v>
-      </c>
-      <c r="W126">
-        <v>-1</v>
-      </c>
       <c r="X126">
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA126">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC126">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6834840</v>
+        <v>6834841</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,76 +11753,76 @@
         <v>45354.45833333334</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K127">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L127">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="M127">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="N127">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O127">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P127">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R127">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U127">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V127">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W127">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z127">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11842,10 +11842,10 @@
         <v>45359.45138888889</v>
       </c>
       <c r="F128" t="s">
+        <v>38</v>
+      </c>
+      <c r="G128" t="s">
         <v>37</v>
-      </c>
-      <c r="G128" t="s">
-        <v>36</v>
       </c>
       <c r="H128">
         <v>4</v>
@@ -12023,7 +12023,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12287,7 +12287,7 @@
         <v>45361.35416666666</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
         <v>39</v>
@@ -12376,7 +12376,7 @@
         <v>45366.45138888889</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G134" t="s">
         <v>42</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6834848</v>
+        <v>6834850</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,43 +12643,43 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F137" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K137">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L137">
+        <v>3.25</v>
+      </c>
+      <c r="M137">
+        <v>2.75</v>
+      </c>
+      <c r="N137">
+        <v>1.95</v>
+      </c>
+      <c r="O137">
+        <v>3.4</v>
+      </c>
+      <c r="P137">
         <v>3.2</v>
       </c>
-      <c r="M137">
-        <v>2.875</v>
-      </c>
-      <c r="N137">
-        <v>2.45</v>
-      </c>
-      <c r="O137">
-        <v>3.1</v>
-      </c>
-      <c r="P137">
-        <v>2.55</v>
-      </c>
       <c r="Q137">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S137">
         <v>1.95</v>
@@ -12688,31 +12688,31 @@
         <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB137">
         <v>-0.5</v>
       </c>
       <c r="AC137">
-        <v>0.3625</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12720,7 +12720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6834850</v>
+        <v>6834848</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12732,43 +12732,43 @@
         <v>45367.47916666666</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G138" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K138">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L138">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M138">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N138">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R138">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
         <v>1.95</v>
@@ -12777,31 +12777,31 @@
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X138">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA138">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-0.5</v>
       </c>
       <c r="AC138">
-        <v>0.475</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12821,7 +12821,7 @@
         <v>45368.36805555555</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
         <v>40</v>
@@ -12910,7 +12910,7 @@
         <v>45373.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
         <v>33</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>7977239</v>
+        <v>7977238</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,73 +13088,73 @@
         <v>45374.47916666666</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K142">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L142">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M142">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="N142">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O142">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P142">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q142">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T142">
         <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="V142">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W142">
         <v>-1</v>
       </c>
       <c r="X142">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z142">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA142">
-        <v>0.3625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB142">
-        <v>0.8999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13180,7 +13180,7 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13254,7 +13254,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7977238</v>
+        <v>7977239</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13266,73 +13266,73 @@
         <v>45374.47916666666</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L144">
+        <v>3.2</v>
+      </c>
+      <c r="M144">
         <v>3.3</v>
       </c>
-      <c r="M144">
-        <v>3.5</v>
-      </c>
       <c r="N144">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O144">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R144">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T144">
         <v>2.25</v>
       </c>
       <c r="U144">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V144">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W144">
         <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y144">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>0.3625</v>
       </c>
       <c r="AB144">
-        <v>0.75</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC144">
         <v>-1</v>
@@ -13358,7 +13358,7 @@
         <v>35</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7977245</v>
+        <v>7977243</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,76 +13533,76 @@
         <v>45379.47916666666</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L147">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N147">
-        <v>2.7</v>
+        <v>1.909</v>
       </c>
       <c r="O147">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P147">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X147">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13610,7 +13610,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7977243</v>
+        <v>7977245</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13622,76 +13622,76 @@
         <v>45379.47916666666</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G148" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K148">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L148">
+        <v>3.1</v>
+      </c>
+      <c r="M148">
         <v>3.4</v>
       </c>
-      <c r="M148">
-        <v>2.5</v>
-      </c>
       <c r="N148">
-        <v>1.909</v>
+        <v>2.7</v>
       </c>
       <c r="O148">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P148">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T148">
         <v>2.25</v>
       </c>
       <c r="U148">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB148">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13711,7 +13711,7 @@
         <v>45380.40625</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G149" t="s">
         <v>43</v>
@@ -13800,7 +13800,7 @@
         <v>45380.47916666666</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
         <v>29</v>
@@ -13870,6 +13870,95 @@
       </c>
       <c r="AC150">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>7977246</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+      <c r="D151" t="s">
+        <v>28</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45384.47916666666</v>
+      </c>
+      <c r="F151" t="s">
+        <v>32</v>
+      </c>
+      <c r="G151" t="s">
+        <v>35</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>3</v>
+      </c>
+      <c r="J151" t="s">
+        <v>46</v>
+      </c>
+      <c r="K151">
+        <v>3.4</v>
+      </c>
+      <c r="L151">
+        <v>3.4</v>
+      </c>
+      <c r="M151">
+        <v>1.909</v>
+      </c>
+      <c r="N151">
+        <v>4.333</v>
+      </c>
+      <c r="O151">
+        <v>3.5</v>
+      </c>
+      <c r="P151">
+        <v>1.666</v>
+      </c>
+      <c r="Q151">
+        <v>0.75</v>
+      </c>
+      <c r="R151">
+        <v>1.85</v>
+      </c>
+      <c r="S151">
+        <v>1.95</v>
+      </c>
+      <c r="T151">
+        <v>2.25</v>
+      </c>
+      <c r="U151">
+        <v>1.9</v>
+      </c>
+      <c r="V151">
+        <v>1.9</v>
+      </c>
+      <c r="W151">
+        <v>-1</v>
+      </c>
+      <c r="X151">
+        <v>-1</v>
+      </c>
+      <c r="Y151">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z151">
+        <v>-1</v>
+      </c>
+      <c r="AA151">
+        <v>0.95</v>
+      </c>
+      <c r="AB151">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC151">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Croatia 1NL/Croatia 1NL.xlsx
+++ b/Croatia 1NL/Croatia 1NL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -112,25 +112,25 @@
     <t>Bijelo Brdo</t>
   </si>
   <si>
-    <t>NK Croatia Zmijavci</t>
-  </si>
-  <si>
     <t>Orijent</t>
   </si>
   <si>
     <t>NK Kustosija</t>
   </si>
   <si>
+    <t>NK Croatia Zmijavci</t>
+  </si>
+  <si>
     <t>HNK Sibenik</t>
+  </si>
+  <si>
+    <t>NK Sesvete</t>
   </si>
   <si>
     <t>NK Solin</t>
   </si>
   <si>
     <t>HNK Cibalia</t>
-  </si>
-  <si>
-    <t>NK Sesvete</t>
   </si>
   <si>
     <t>NK Zrinski Jurjevac</t>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC151"/>
+  <dimension ref="A1:AC154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,7 +631,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6425847</v>
+        <v>6425846</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,37 +898,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="N5">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R5">
         <v>1.95</v>
@@ -937,34 +937,34 @@
         <v>1.85</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6425846</v>
+        <v>6425845</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -987,73 +987,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="N6">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O6">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="Q6">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S6">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
         <v>1.8</v>
       </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB6">
+        <v>-1</v>
+      </c>
+      <c r="AC6">
         <v>0.8</v>
-      </c>
-      <c r="AC6">
-        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6425845</v>
+        <v>6425847</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,16 +1076,16 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>2.1</v>
@@ -1097,25 +1097,25 @@
         <v>2.875</v>
       </c>
       <c r="N7">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="O7">
         <v>3.5</v>
       </c>
       <c r="P7">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
         <v>2</v>
@@ -1124,25 +1124,25 @@
         <v>1.8</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1239,7 +1239,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6834729</v>
+        <v>7045999</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1254,73 +1254,73 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M9">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N9">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="O9">
         <v>3.25</v>
       </c>
       <c r="P9">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V9">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB9">
         <v>-1</v>
       </c>
       <c r="AC9">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1328,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6834733</v>
+        <v>6834732</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1340,76 +1340,76 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="N10">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T10">
         <v>2.25</v>
       </c>
       <c r="U10">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC10">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6834732</v>
+        <v>6834729</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,16 +1429,16 @@
         <v>45150.52083333334</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
@@ -1453,37 +1453,37 @@
         <v>3.1</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O11">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P11">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q11">
         <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T11">
+        <v>2.5</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>1.8</v>
+      </c>
+      <c r="W11">
+        <v>-1</v>
+      </c>
+      <c r="X11">
         <v>2.25</v>
-      </c>
-      <c r="U11">
-        <v>1.825</v>
-      </c>
-      <c r="V11">
-        <v>1.975</v>
-      </c>
-      <c r="W11">
-        <v>-1</v>
-      </c>
-      <c r="X11">
-        <v>2.1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
@@ -1492,13 +1492,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA11">
-        <v>0.3875</v>
+        <v>0.5</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.4875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7045999</v>
+        <v>6834733</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1521,73 +1521,73 @@
         <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="J12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12">
+        <v>1.65</v>
+      </c>
+      <c r="L12">
+        <v>3.5</v>
+      </c>
+      <c r="M12">
+        <v>4.5</v>
+      </c>
+      <c r="N12">
+        <v>1.909</v>
+      </c>
+      <c r="O12">
+        <v>3.3</v>
+      </c>
+      <c r="P12">
+        <v>3.3</v>
+      </c>
+      <c r="Q12">
+        <v>-0.5</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>1.8</v>
+      </c>
+      <c r="T12">
+        <v>2.25</v>
+      </c>
+      <c r="U12">
+        <v>1.95</v>
+      </c>
+      <c r="V12">
+        <v>1.85</v>
+      </c>
+      <c r="W12">
+        <v>0.909</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
         <v>1</v>
       </c>
-      <c r="J12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12">
-        <v>2.4</v>
-      </c>
-      <c r="L12">
-        <v>3.25</v>
-      </c>
-      <c r="M12">
-        <v>2.6</v>
-      </c>
-      <c r="N12">
-        <v>2.4</v>
-      </c>
-      <c r="O12">
-        <v>3.25</v>
-      </c>
-      <c r="P12">
-        <v>2.6</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>1.775</v>
-      </c>
-      <c r="S12">
-        <v>2.025</v>
-      </c>
-      <c r="T12">
-        <v>2</v>
-      </c>
-      <c r="U12">
-        <v>1.775</v>
-      </c>
-      <c r="V12">
-        <v>2.025</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>1.6</v>
-      </c>
-      <c r="Z12">
-        <v>-1</v>
-      </c>
       <c r="AA12">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6834734</v>
+        <v>6834735</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,10 +1785,10 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1800,61 +1800,61 @@
         <v>47</v>
       </c>
       <c r="K15">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="N15">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S15">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>0.4125</v>
+        <v>-0</v>
       </c>
       <c r="AB15">
         <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>0.4125</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6834738</v>
+        <v>6834734</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1874,76 +1874,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L16">
         <v>3.2</v>
       </c>
       <c r="M16">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="N16">
+        <v>2.2</v>
+      </c>
+      <c r="O16">
         <v>3.2</v>
       </c>
-      <c r="O16">
-        <v>3.3</v>
-      </c>
       <c r="P16">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="Q16">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y16">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AB16">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6834735</v>
+        <v>6834738</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,76 +1963,76 @@
         <v>45157.52083333334</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M17">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="N17">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="O17">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P17">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC17">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2052,10 +2052,10 @@
         <v>45158.52083333334</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>4</v>
@@ -2233,7 +2233,7 @@
         <v>42</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2408,7 +2408,7 @@
         <v>45164.5</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
         <v>40</v>
@@ -2497,7 +2497,7 @@
         <v>45164.5</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
         <v>29</v>
@@ -2675,7 +2675,7 @@
         <v>45166.5</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
         <v>41</v>
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6834746</v>
+        <v>6834749</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,46 +2853,46 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L27">
+        <v>3.1</v>
+      </c>
+      <c r="M27">
+        <v>3.25</v>
+      </c>
+      <c r="N27">
+        <v>1.95</v>
+      </c>
+      <c r="O27">
         <v>3.2</v>
       </c>
-      <c r="M27">
-        <v>3.3</v>
-      </c>
-      <c r="N27">
-        <v>2.05</v>
-      </c>
-      <c r="O27">
-        <v>3.1</v>
-      </c>
       <c r="P27">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T27">
         <v>2.25</v>
@@ -2904,25 +2904,25 @@
         <v>1.875</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X27">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA27">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2945,7 +2945,7 @@
         <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3031,10 +3031,10 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -3108,7 +3108,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6834749</v>
+        <v>6834746</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3120,46 +3120,46 @@
         <v>45171.47916666666</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>3.2</v>
+      </c>
+      <c r="M30">
+        <v>3.3</v>
+      </c>
+      <c r="N30">
         <v>2.05</v>
       </c>
-      <c r="L30">
+      <c r="O30">
         <v>3.1</v>
       </c>
-      <c r="M30">
-        <v>3.25</v>
-      </c>
-      <c r="N30">
-        <v>1.95</v>
-      </c>
-      <c r="O30">
+      <c r="P30">
         <v>3.2</v>
       </c>
-      <c r="P30">
-        <v>3.5</v>
-      </c>
       <c r="Q30">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S30">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T30">
         <v>2.25</v>
@@ -3171,25 +3171,25 @@
         <v>1.875</v>
       </c>
       <c r="W30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3298,7 +3298,7 @@
         <v>45177.47916666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
         <v>40</v>
@@ -3375,7 +3375,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6834752</v>
+        <v>6834753</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3387,58 +3387,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
         <v>45</v>
       </c>
       <c r="K33">
-        <v>1.727</v>
+        <v>5.5</v>
       </c>
       <c r="L33">
         <v>3.4</v>
       </c>
       <c r="M33">
-        <v>4.2</v>
+        <v>1.571</v>
       </c>
       <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>3.3</v>
+      </c>
+      <c r="P33">
         <v>1.833</v>
       </c>
-      <c r="O33">
-        <v>3.4</v>
-      </c>
-      <c r="P33">
-        <v>4</v>
-      </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
+        <v>1.975</v>
+      </c>
+      <c r="S33">
+        <v>1.825</v>
+      </c>
+      <c r="T33">
+        <v>2.5</v>
+      </c>
+      <c r="U33">
+        <v>1.95</v>
+      </c>
+      <c r="V33">
         <v>1.85</v>
       </c>
-      <c r="S33">
-        <v>1.95</v>
-      </c>
-      <c r="T33">
-        <v>2.25</v>
-      </c>
-      <c r="U33">
-        <v>1.8</v>
-      </c>
-      <c r="V33">
-        <v>2</v>
-      </c>
       <c r="W33">
-        <v>0.833</v>
+        <v>3</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3447,16 +3447,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3464,7 +3464,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6834753</v>
+        <v>6834752</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3476,58 +3476,58 @@
         <v>45178.47916666666</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
         <v>45</v>
       </c>
       <c r="K34">
-        <v>5.5</v>
+        <v>1.727</v>
       </c>
       <c r="L34">
         <v>3.4</v>
       </c>
       <c r="M34">
-        <v>1.571</v>
+        <v>4.2</v>
       </c>
       <c r="N34">
+        <v>1.833</v>
+      </c>
+      <c r="O34">
+        <v>3.4</v>
+      </c>
+      <c r="P34">
         <v>4</v>
       </c>
-      <c r="O34">
-        <v>3.3</v>
-      </c>
-      <c r="P34">
-        <v>1.833</v>
-      </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W34">
-        <v>3</v>
+        <v>0.833</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3536,16 +3536,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3654,10 +3654,10 @@
         <v>45179.45833333334</v>
       </c>
       <c r="F36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" t="s">
         <v>37</v>
-      </c>
-      <c r="G36" t="s">
-        <v>36</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3743,7 +3743,7 @@
         <v>45179.47916666666</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -3835,7 +3835,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -4013,7 +4013,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>5</v>
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6834760</v>
+        <v>6834757</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="N41">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O41">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P41">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q41">
+        <v>-0.25</v>
+      </c>
+      <c r="R41">
+        <v>1.925</v>
+      </c>
+      <c r="S41">
+        <v>1.875</v>
+      </c>
+      <c r="T41">
+        <v>2.25</v>
+      </c>
+      <c r="U41">
+        <v>1.875</v>
+      </c>
+      <c r="V41">
+        <v>1.925</v>
+      </c>
+      <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
+        <v>2</v>
+      </c>
+      <c r="Y41">
+        <v>-1</v>
+      </c>
+      <c r="Z41">
         <v>-0.5</v>
       </c>
-      <c r="R41">
-        <v>2</v>
-      </c>
-      <c r="S41">
-        <v>1.8</v>
-      </c>
-      <c r="T41">
-        <v>2.5</v>
-      </c>
-      <c r="U41">
-        <v>1.8</v>
-      </c>
-      <c r="V41">
-        <v>2</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
-      <c r="X41">
-        <v>-1</v>
-      </c>
-      <c r="Y41">
-        <v>2.5</v>
-      </c>
-      <c r="Z41">
-        <v>-1</v>
-      </c>
       <c r="AA41">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6834757</v>
+        <v>6834760</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45185.47916666666</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K42">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L42">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="N42">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P42">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>2</v>
  